--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekate\Desktop\Netology\Git repository\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7ABB07-56F2-426E-A323-178DB862E75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F2C65C-1699-4EAB-86D6-0C647701B3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1290" windowWidth="15465" windowHeight="20310" xr2:uid="{CC955BC4-95A8-4E73-80DC-FD5AF393D381}"/>
+    <workbookView xWindow="12990" yWindow="0" windowWidth="25290" windowHeight="20985" xr2:uid="{CC955BC4-95A8-4E73-80DC-FD5AF393D381}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -27,16 +27,498 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="136">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Группа проверок</t>
+  </si>
+  <si>
+    <t>Название (Title):</t>
+  </si>
+  <si>
+    <t>Приоритет (Priority)</t>
+  </si>
+  <si>
+    <t>Предусловия (Preconditions)</t>
+  </si>
+  <si>
+    <t>Шаги (Steps to reproduce):</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат (Expected result):</t>
+  </si>
+  <si>
+    <t>Авторизация</t>
+  </si>
+  <si>
+    <t>Высокий</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение "в хосписе"</t>
+  </si>
+  <si>
+    <t>1. Дождаться загрузки экрана авторизации</t>
+  </si>
+  <si>
+    <t>1. Открылся экран авторизации</t>
+  </si>
+  <si>
+    <t>2. Доступно поле ввода "Логин"</t>
+  </si>
+  <si>
+    <t>3. Доступно поле ввода "Пароль"</t>
+  </si>
+  <si>
+    <t>4. Кнопка "Войти" активна</t>
+  </si>
+  <si>
+    <t>Все элементы экрана авторизации активны</t>
+  </si>
+  <si>
+    <t>Успешная авторизация зарегистрированного пользователя</t>
+  </si>
+  <si>
+    <t>4. Нажать кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>2. В поле "Логин" отображен введенный логин</t>
+  </si>
+  <si>
+    <t>4. Открылся главный экран приложения</t>
+  </si>
+  <si>
+    <t>Успешный выход из аккаунта</t>
+  </si>
+  <si>
+    <t>2. Пользователь авторизован</t>
+  </si>
+  <si>
+    <t>1. В верхней панели AppBar нажать кнопку "Личный кабинет"</t>
+  </si>
+  <si>
+    <t>2. Нажать на появившуюся кнопку "Выйти"</t>
+  </si>
+  <si>
+    <t>1. Открылось меню с кнопкой "Выйти"</t>
+  </si>
+  <si>
+    <t>2. Открылся экран авторизации</t>
+  </si>
+  <si>
+    <t>3. В поле "Пароль" отображен введенный пароль, введённые символы отображаются в скрытом виде для защиты конфиденциальности, заменяются символами - точки</t>
+  </si>
+  <si>
+    <t>2. В поле "Логин" ввести "login2"</t>
+  </si>
+  <si>
+    <t>3. В поле "Пароль" ввести "password2"</t>
+  </si>
+  <si>
+    <t>Успешная авторизация зарегистрированного пользователя, с вводом логина начинающегося и заканчивающегося пробелами</t>
+  </si>
+  <si>
+    <t>2. В поле "Логин" ввести " login2 "</t>
+  </si>
+  <si>
+    <t>2. В поле "Логин" отображен введенный логин, Введённые данные можно редактировать.</t>
+  </si>
+  <si>
+    <t>3. В поле "Пароль" отображен введенный пароль, введённые символы отображаются в скрытом виде для защиты конфиденциальности, заменяются символами - точки. Введённые данные можно редактировать.</t>
+  </si>
+  <si>
+    <t>Успешная авторизация зарегистрированного пользователя, с вводом пароля начинающегося и заканчивающегося пробелами</t>
+  </si>
+  <si>
+    <t>3. В поле "Пароль" ввести " password2 "</t>
+  </si>
+  <si>
+    <t>3. В поле "Пароль" отображен введенный пароль, введённые символы отображаются в скрытом виде для защиты конфиденциальности, заменяются символами - точки. Введённые данные можно редактировать. Пробелы в начале/конце текста автоматически удаляются или блокируются при сохранении.</t>
+  </si>
+  <si>
+    <t>2. В поле "Логин" отображен введенный логин, Пробелы в начале/конце текста автоматически удаляются или блокируются при сохранении. Введённые данные можно редактировать.</t>
+  </si>
+  <si>
+    <t>Средний</t>
+  </si>
+  <si>
+    <t>Нельзя авторизоваться в приложении с пустым/заполненным пробелами полем логин и с корректным паролем</t>
+  </si>
+  <si>
+    <t>2. В поле "Логин" ввести пробелы или оставить незаполненным</t>
+  </si>
+  <si>
+    <t>2. Поле "Логин" не заполнено</t>
+  </si>
+  <si>
+    <t>4. Появилась ошибка "Логин и пароль не могут быть пустыми"</t>
+  </si>
+  <si>
+    <t>Нельзя авторизоваться в приложении с пустым/заполненным пробелами полем пароль и с корректным логином</t>
+  </si>
+  <si>
+    <t>2. В поле "Пароль" ввести пробелы или оставить незаполненным</t>
+  </si>
+  <si>
+    <t>3. В поле "Пароль" отображен введенный пароль, введённые пробелы отображаются в скрытом виде, заменяются символами - точки. Введённые данные можно редактировать. Или поле "Пароль" не заполнено</t>
+  </si>
+  <si>
+    <t>2. В поле "Логин" ввести данные незарегистрированного пользователя, например "login20"</t>
+  </si>
+  <si>
+    <t>3. В поле "Пароль" отображен введенный пароль, введённые символы отображаются в скрытом виде, заменяются символами - точки. Введённые данные можно редактировать.</t>
+  </si>
+  <si>
+    <t>4. Появилась ошибка "Неправильный логин или пароль"</t>
+  </si>
+  <si>
+    <t>Автоматические тесты</t>
+  </si>
+  <si>
+    <t>Фактический результат (Actual result):</t>
+  </si>
+  <si>
+    <t>4. Ошибка "Что-то пошло не так. Попробуйте позднее."</t>
+  </si>
+  <si>
+    <t>Нельзя авторизоваться в приложении с логином незарегистрированного пользователя и корректным паролем зарегистрированного пользователя</t>
+  </si>
+  <si>
+    <t>2. В поле "Логин" ввести данные зарегистрированного пользователя, например "login2"</t>
+  </si>
+  <si>
+    <t>2. В поле "Пароль" ввести корректный пароль, например "password2"</t>
+  </si>
+  <si>
+    <t>2. В поле "Пароль" ввести пароль незарегистрированного пользователя, например "password20"</t>
+  </si>
+  <si>
+    <t>2. В поле "Логин" ввести 1 символ, например "l"</t>
+  </si>
+  <si>
+    <t>Нельзя авторизоваться в приложении с корректным логином зарегистрированного пользователя и паролем незарегистрированного пользователя</t>
+  </si>
+  <si>
+    <t>Нельзя авторизоваться в приложении с корректным логином зарегистрированного пользователя и паролем из 1 символа</t>
+  </si>
+  <si>
+    <t>2. В поле "Пароль" ввести пароль из 1 символа, например "p"</t>
+  </si>
+  <si>
+    <t>Нельзя авторизоваться в приложении с логином состоящим из 1 символа и корректным паролем зарегистрированного пользователя</t>
+  </si>
+  <si>
+    <t>Нельзя авторизоваться в приложении с логином в разном регистре зарегистрированного пользователя и корректным паролем зарегистрированного пользователя</t>
+  </si>
+  <si>
+    <t>2. В поле "Логин" ввести 1 символ, например "LoGIn2"</t>
+  </si>
+  <si>
+    <t>Нельзя авторизоваться в приложении с корректным логином зарегистрированного пользователя и  паролем из символов в разном регистре</t>
+  </si>
+  <si>
+    <t>2. В поле "Пароль" ввести пароль из 1 символа, например "PaSSwoRD2"</t>
+  </si>
+  <si>
+    <t>ЭКРАН  АВТОРИЗАЦИИ</t>
+  </si>
+  <si>
+    <t>Главная страница</t>
+  </si>
+  <si>
+    <t>3. Открыта главная страница</t>
+  </si>
+  <si>
+    <t>Отображены три последние новости на главной странице</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Нажать на кнопку "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>˅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" возле заголовка Новости</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Развернулось меню Новости</t>
+  </si>
+  <si>
+    <t>2. Отображены 3 последние активные новости</t>
+  </si>
+  <si>
+    <t>2. Список пуст, новостей нет. Хотя фактически есть созданные активные новости</t>
+  </si>
+  <si>
+    <t>Переход на страницу новости с главной страницы</t>
+  </si>
+  <si>
+    <t>2. Нажать на кнопку "Все новости"</t>
+  </si>
+  <si>
+    <t>2. Совершен переход на страницу "Новости"</t>
+  </si>
+  <si>
+    <t>1. Развернулся блок" Новости"</t>
+  </si>
+  <si>
+    <t>2. Развернулось описание выбранной новости</t>
+  </si>
+  <si>
+    <t>2. В развернувшимся списке новостей, нажать кнопку "˅" или на название у любой новости</t>
+  </si>
+  <si>
+    <r>
+      <t>3. Повторно нажать на новость или кнопку "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>˄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Свернулось описание выбранной новости</t>
+  </si>
+  <si>
+    <t>Можно развернуть или свернуть каждую новость</t>
+  </si>
+  <si>
+    <t>2. Невозможно проверить, список пуст, новостей нет. Хотя фактически есть созданные активные новости</t>
+  </si>
+  <si>
+    <t>3. Невозможно проверить, список пуст, новостей нет. Хотя фактически есть созданные активные новости</t>
+  </si>
+  <si>
+    <t>Главный экран</t>
+  </si>
+  <si>
+    <t>Главное меню ("Бургер меню")</t>
+  </si>
+  <si>
+    <t>Открытие главного меню по нажатию</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Нажать на кнопку меню " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ξ "</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Открылось Главное меню с 3 элементами: Главная, Новости, О приложении</t>
+  </si>
+  <si>
+    <t>2. Нажать на элемент "Новости"</t>
+  </si>
+  <si>
+    <t>2. Совершен переход на страницу "Все Новости"</t>
+  </si>
+  <si>
+    <t>Переход на Главную страницу со страницы Новости</t>
+  </si>
+  <si>
+    <t>3. Открыта страница "Все новости"</t>
+  </si>
+  <si>
+    <t>2. Нажать на элемент "Главная"</t>
+  </si>
+  <si>
+    <t>2. Совершен переход на страницу "Главная"</t>
+  </si>
+  <si>
+    <t>Переход на страницу "О приложении" со страницы Новости</t>
+  </si>
+  <si>
+    <t>2. Нажать на элемент "О приложении"</t>
+  </si>
+  <si>
+    <t>2. Совершен переход на страницу "О приложении"</t>
+  </si>
+  <si>
+    <t>2. Элемент меню "О приложении" не активен</t>
+  </si>
+  <si>
+    <t>Переход на страницу О приложении с главной страницы</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку меню " Ξ "</t>
+  </si>
+  <si>
+    <t>Главное меню</t>
+  </si>
+  <si>
+    <t>3. Открыта Главная страница</t>
+  </si>
+  <si>
+    <t>Страница наша миссия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переход на страницу "Наша миссия" </t>
+  </si>
+  <si>
+    <t>1. Нажать в AppBar на кнопку с бабочкой</t>
+  </si>
+  <si>
+    <t>3. Открыта страница "Наша миссия"</t>
+  </si>
+  <si>
+    <t>Можно развернуть или свернуть каждую миссию</t>
+  </si>
+  <si>
+    <t>1. Совершен переход на страницу "Наша миссия"</t>
+  </si>
+  <si>
+    <t>1. В списке миссий, нажать кнопку "˅" или на заголовок у любой миссии</t>
+  </si>
+  <si>
+    <t>2. Повторно нажать на миссию или кнопку "˄"</t>
+  </si>
+  <si>
+    <t>1. Развернулось описание выбранной миссии</t>
+  </si>
+  <si>
+    <t>2. Свернулось описание выбранной миссии</t>
+  </si>
+  <si>
+    <t>Виден заголовок " Главное-жить любя"</t>
+  </si>
+  <si>
+    <t>Экран Наша миссия</t>
+  </si>
+  <si>
+    <t>Страница "О приложении"</t>
+  </si>
+  <si>
+    <t>3. Открыта страница "О приложении"</t>
+  </si>
+  <si>
+    <t>1. Посмотреть что на странице указана версия приложения</t>
+  </si>
+  <si>
+    <t>1. На странице есть TextView c отображением текущей версии, например "Версия: 1.0.0"</t>
+  </si>
+  <si>
+    <t>Переход по ссылке "Политика конфиденциальности"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку "Политика конфиденциальности" </t>
+  </si>
+  <si>
+    <t>https://vhospice.org/privacy-policy</t>
+  </si>
+  <si>
+    <t>должна быть другая ссылка</t>
+  </si>
+  <si>
+    <t>https://vhospice.org/#/privacy-policy</t>
+  </si>
+  <si>
+    <t>1. При переходе возникает ошибка 502 Bad gateway</t>
+  </si>
+  <si>
+    <t>1. Успешный переход на страницу с документом "ПОЛИТИКА КОНФИДЕНЦИАЛЬНОСТИ ДЛЯ МОБИЛЬНОГО ПРИЛОЖЕНИЯ"</t>
+  </si>
+  <si>
+    <t>Переход по ссылке  "Пользовательское соглашение"</t>
+  </si>
+  <si>
+    <t>1. Нажать на ссылку  "Пользовательское соглашение"</t>
+  </si>
+  <si>
+    <t>https://vhospice.org/#/terms-of-use</t>
+  </si>
+  <si>
+    <t>1. При переходе возникает ошибка 504 Gateway Time-out</t>
+  </si>
+  <si>
+    <t>1. Успешный переход на страницу с документом "ПОЛЬЗОВАТЕЛЬСКОЕ СОГЛАШЕНИЕ ДЛЯ ПРИЛОЖЕНИЯ"</t>
+  </si>
+  <si>
+    <t>https://vhospice.org/terms-of-use</t>
+  </si>
+  <si>
+    <t>Экран О приложении</t>
+  </si>
+  <si>
+    <t>Отображена текущая версия приложения и копирайт</t>
+  </si>
+  <si>
+    <t>2. Посмотреть что на странице есть копирайт</t>
+  </si>
+  <si>
+    <r>
+      <t>1. На странице есть TextView c отображением компании и года, например "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>©Айтеко, 2022"</t>
+    </r>
+  </si>
+  <si>
+    <t>Страница Новости</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +527,70 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -62,14 +598,533 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -83,6 +1138,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2552701</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2797496</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B550E3D1-739B-A72C-22F1-40B26056FEEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8029576" y="33242251"/>
+          <a:ext cx="244795" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +1492,5494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB070F6-CF9D-441D-94D9-FA23CE590751}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:K376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C91" sqref="C91:C93"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="47.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="27">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="46"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="35">
+        <v>2</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="39"/>
+    </row>
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="27">
+        <v>3</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="35">
+        <v>4</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="39"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="27">
+        <v>5</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="35">
+        <v>6</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="39"/>
+    </row>
+    <row r="22" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="39"/>
+    </row>
+    <row r="23" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="27">
+        <v>7</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="35">
+        <v>8</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="39"/>
+    </row>
+    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="39"/>
+    </row>
+    <row r="31" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="41"/>
+      <c r="K31" s="42"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="27">
+        <v>9</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+    </row>
+    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="31"/>
+    </row>
+    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="31"/>
+    </row>
+    <row r="35" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="46"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="35">
+        <v>10</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="39"/>
+    </row>
+    <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="39"/>
+    </row>
+    <row r="39" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="46"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="41"/>
+      <c r="K39" s="42"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
+      <c r="B40" s="27">
+        <v>11</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="29"/>
+    </row>
+    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="31"/>
+    </row>
+    <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="31"/>
+    </row>
+    <row r="43" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="46"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="33"/>
+      <c r="K43" s="34"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
+      <c r="B44" s="35">
+        <v>12</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="37"/>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="39"/>
+    </row>
+    <row r="46" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="39"/>
+    </row>
+    <row r="47" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="46"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" s="41"/>
+      <c r="K47" s="42"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="27">
+        <v>13</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="29"/>
+    </row>
+    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="46"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="31"/>
+    </row>
+    <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="46"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="31"/>
+    </row>
+    <row r="51" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="46"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J51" s="33"/>
+      <c r="K51" s="34"/>
+    </row>
+    <row r="52" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="16">
+        <v>14</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="47"/>
+    </row>
+    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="46"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="K53" s="48"/>
+    </row>
+    <row r="54" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="46"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="49"/>
+    </row>
+    <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46"/>
+      <c r="B55" s="10">
+        <v>16</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="50"/>
+    </row>
+    <row r="56" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="46"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="51"/>
+    </row>
+    <row r="57" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="46"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="52"/>
+    </row>
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="46"/>
+      <c r="B58" s="53">
+        <v>15</v>
+      </c>
+      <c r="C58" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="55"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="56"/>
+    </row>
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="46"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59" s="59"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="60"/>
+    </row>
+    <row r="60" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="46"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="64"/>
+    </row>
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="10">
+        <v>17</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="50"/>
+    </row>
+    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="46"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="51"/>
+    </row>
+    <row r="63" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="46"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="52"/>
+    </row>
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="46"/>
+      <c r="B64" s="53">
+        <v>18</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I64" s="55"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="56"/>
+    </row>
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="46"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" s="59"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="60"/>
+    </row>
+    <row r="66" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="46"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="64"/>
+    </row>
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="46"/>
+      <c r="B67" s="10">
+        <v>19</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I67" s="12"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="50"/>
+    </row>
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="46"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="51"/>
+    </row>
+    <row r="69" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="46"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="52"/>
+    </row>
+    <row r="70" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="46"/>
+      <c r="B70" s="53">
+        <v>20</v>
+      </c>
+      <c r="C70" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="H70" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70" s="55"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="56"/>
+    </row>
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="46"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="I71" s="59"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="60"/>
+    </row>
+    <row r="72" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="46"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="64"/>
+    </row>
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="46"/>
+      <c r="B73" s="10">
+        <v>21</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I73" s="12"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="50"/>
+    </row>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="46"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J74" s="7"/>
+      <c r="K74" s="51"/>
+    </row>
+    <row r="75" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="46"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="52"/>
+    </row>
+    <row r="76" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="53">
+        <v>22</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="H76" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="I76" s="55"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="56"/>
+    </row>
+    <row r="77" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="46"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="I77" s="59"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="60"/>
+    </row>
+    <row r="78" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="46"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="64"/>
+    </row>
+    <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="46"/>
+      <c r="B79" s="10">
+        <v>23</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I79" s="12"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="50"/>
+    </row>
+    <row r="80" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="46"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="51"/>
+    </row>
+    <row r="81" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="46"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="52"/>
+    </row>
+    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="53">
+        <v>24</v>
+      </c>
+      <c r="C82" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D82" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H82" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="I82" s="55"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="56"/>
+    </row>
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="46"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="H83" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="I83" s="59"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="60"/>
+    </row>
+    <row r="84" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="46"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="64"/>
+    </row>
+    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="46"/>
+      <c r="B85" s="10">
+        <v>25</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J85" s="11"/>
+      <c r="K85" s="50"/>
+    </row>
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="46"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J86" s="7"/>
+      <c r="K86" s="51"/>
+    </row>
+    <row r="87" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="46"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="J87" s="14"/>
+      <c r="K87" s="52"/>
+    </row>
+    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="46"/>
+      <c r="B88" s="53">
+        <v>26</v>
+      </c>
+      <c r="C88" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="E88" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="H88" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="I88" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="J88" s="54"/>
+      <c r="K88" s="56"/>
+    </row>
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="46"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="J89" s="58"/>
+      <c r="K89" s="60"/>
+    </row>
+    <row r="90" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="46"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="J90" s="62"/>
+      <c r="K90" s="64"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="10">
+        <v>27</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="50"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="24"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="51"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="13"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="52"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="4"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="4"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152" s="4"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153" s="4"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B154" s="4"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155" s="4"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B156" s="4"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B157" s="4"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B158" s="4"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B159" s="4"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B160" s="4"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" s="4"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B162" s="4"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163" s="4"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164" s="4"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166" s="4"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B167" s="4"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B168" s="4"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169" s="4"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B170" s="4"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B171" s="4"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B172" s="4"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B173" s="4"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B174" s="4"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B175" s="4"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B176" s="4"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B177" s="4"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B178" s="4"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B179" s="4"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B180" s="4"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B181" s="4"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B182" s="4"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183" s="4"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B184" s="4"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B185" s="4"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186" s="4"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B187" s="4"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B188" s="4"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B189" s="4"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B190" s="4"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B191" s="4"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="4"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B193" s="4"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B194" s="4"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B195" s="4"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B196" s="4"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B197" s="4"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B198" s="4"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B199" s="4"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B200" s="4"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B201" s="4"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B202" s="4"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B203" s="4"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B204" s="4"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B205" s="4"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B206" s="4"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B207" s="4"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B208" s="4"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
+      <c r="K208" s="3"/>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B209" s="4"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B210" s="4"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3"/>
+      <c r="K210" s="3"/>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B211" s="4"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B212" s="4"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B213" s="4"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="3"/>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B214" s="4"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3"/>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B215" s="4"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3"/>
+      <c r="K215" s="3"/>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B216" s="4"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3"/>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B217" s="4"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3"/>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B218" s="4"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B219" s="4"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B220" s="4"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B221" s="4"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B222" s="4"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3"/>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B223" s="4"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="K223" s="3"/>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B224" s="4"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+      <c r="J224" s="3"/>
+      <c r="K224" s="3"/>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B225" s="4"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3"/>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B226" s="4"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B227" s="4"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B228" s="4"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B229" s="4"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
+      <c r="K229" s="3"/>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B230" s="4"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
+      <c r="K230" s="3"/>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B231" s="4"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3"/>
+      <c r="K231" s="3"/>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B232" s="4"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+      <c r="I232" s="3"/>
+      <c r="J232" s="3"/>
+      <c r="K232" s="3"/>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B233" s="4"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
+      <c r="K233" s="3"/>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B234" s="4"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B235" s="4"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3"/>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B236" s="4"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="3"/>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B237" s="4"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B238" s="4"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="3"/>
+      <c r="K238" s="3"/>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B239" s="4"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="3"/>
+      <c r="K239" s="3"/>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B240" s="4"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="3"/>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B241" s="4"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3"/>
+      <c r="K241" s="3"/>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B242" s="4"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B243" s="4"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3"/>
+      <c r="K243" s="3"/>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B244" s="4"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="3"/>
+      <c r="K244" s="3"/>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B245" s="4"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3"/>
+      <c r="K245" s="3"/>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B246" s="4"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3"/>
+      <c r="K246" s="3"/>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B247" s="4"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3"/>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B248" s="4"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
+      <c r="K248" s="3"/>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B249" s="4"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3"/>
+      <c r="K249" s="3"/>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B250" s="4"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
+      <c r="K250" s="3"/>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B251" s="4"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3"/>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B252" s="4"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="3"/>
+      <c r="J252" s="3"/>
+      <c r="K252" s="3"/>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B253" s="4"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3"/>
+      <c r="J253" s="3"/>
+      <c r="K253" s="3"/>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B254" s="4"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
+      <c r="J254" s="3"/>
+      <c r="K254" s="3"/>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B255" s="4"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+      <c r="I255" s="3"/>
+      <c r="J255" s="3"/>
+      <c r="K255" s="3"/>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B256" s="4"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3"/>
+      <c r="J256" s="3"/>
+      <c r="K256" s="3"/>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B257" s="4"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3"/>
+      <c r="K257" s="3"/>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B258" s="4"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
+      <c r="I258" s="3"/>
+      <c r="J258" s="3"/>
+      <c r="K258" s="3"/>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B259" s="4"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3"/>
+      <c r="K259" s="3"/>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B260" s="4"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="3"/>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
+      <c r="K260" s="3"/>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B261" s="4"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+      <c r="I261" s="3"/>
+      <c r="J261" s="3"/>
+      <c r="K261" s="3"/>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B262" s="4"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="3"/>
+      <c r="H262" s="3"/>
+      <c r="I262" s="3"/>
+      <c r="J262" s="3"/>
+      <c r="K262" s="3"/>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B263" s="4"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="3"/>
+      <c r="H263" s="3"/>
+      <c r="I263" s="3"/>
+      <c r="J263" s="3"/>
+      <c r="K263" s="3"/>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B264" s="4"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3"/>
+      <c r="K264" s="3"/>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B265" s="4"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3"/>
+      <c r="K265" s="3"/>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B266" s="4"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3"/>
+      <c r="K266" s="3"/>
+    </row>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B267" s="4"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3"/>
+      <c r="K267" s="3"/>
+    </row>
+    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B268" s="4"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3"/>
+      <c r="K268" s="3"/>
+    </row>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B269" s="4"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3"/>
+      <c r="K269" s="3"/>
+    </row>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B270" s="4"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
+      <c r="H270" s="3"/>
+      <c r="I270" s="3"/>
+      <c r="J270" s="3"/>
+      <c r="K270" s="3"/>
+    </row>
+    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B271" s="4"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="3"/>
+      <c r="H271" s="3"/>
+      <c r="I271" s="3"/>
+      <c r="J271" s="3"/>
+      <c r="K271" s="3"/>
+    </row>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B272" s="4"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+      <c r="F272" s="3"/>
+      <c r="G272" s="3"/>
+      <c r="H272" s="3"/>
+      <c r="I272" s="3"/>
+      <c r="J272" s="3"/>
+      <c r="K272" s="3"/>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B273" s="4"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="G273" s="3"/>
+      <c r="H273" s="3"/>
+      <c r="I273" s="3"/>
+      <c r="J273" s="3"/>
+      <c r="K273" s="3"/>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B274" s="4"/>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="G274" s="3"/>
+      <c r="H274" s="3"/>
+      <c r="I274" s="3"/>
+      <c r="J274" s="3"/>
+      <c r="K274" s="3"/>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B275" s="4"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+      <c r="G275" s="3"/>
+      <c r="H275" s="3"/>
+      <c r="I275" s="3"/>
+      <c r="J275" s="3"/>
+      <c r="K275" s="3"/>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B276" s="4"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="G276" s="3"/>
+      <c r="H276" s="3"/>
+      <c r="I276" s="3"/>
+      <c r="J276" s="3"/>
+      <c r="K276" s="3"/>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B277" s="4"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+      <c r="F277" s="3"/>
+      <c r="G277" s="3"/>
+      <c r="H277" s="3"/>
+      <c r="I277" s="3"/>
+      <c r="J277" s="3"/>
+      <c r="K277" s="3"/>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B278" s="4"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="G278" s="3"/>
+      <c r="H278" s="3"/>
+      <c r="I278" s="3"/>
+      <c r="J278" s="3"/>
+      <c r="K278" s="3"/>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B279" s="4"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="3"/>
+      <c r="G279" s="3"/>
+      <c r="H279" s="3"/>
+      <c r="I279" s="3"/>
+      <c r="J279" s="3"/>
+      <c r="K279" s="3"/>
+    </row>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B280" s="4"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
+      <c r="F280" s="3"/>
+      <c r="G280" s="3"/>
+      <c r="H280" s="3"/>
+      <c r="I280" s="3"/>
+      <c r="J280" s="3"/>
+      <c r="K280" s="3"/>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B281" s="4"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
+      <c r="F281" s="3"/>
+      <c r="G281" s="3"/>
+      <c r="H281" s="3"/>
+      <c r="I281" s="3"/>
+      <c r="J281" s="3"/>
+      <c r="K281" s="3"/>
+    </row>
+    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B282" s="4"/>
+      <c r="C282" s="3"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
+      <c r="F282" s="3"/>
+      <c r="G282" s="3"/>
+      <c r="H282" s="3"/>
+      <c r="I282" s="3"/>
+      <c r="J282" s="3"/>
+      <c r="K282" s="3"/>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B283" s="4"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+      <c r="F283" s="3"/>
+      <c r="G283" s="3"/>
+      <c r="H283" s="3"/>
+      <c r="I283" s="3"/>
+      <c r="J283" s="3"/>
+      <c r="K283" s="3"/>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B284" s="4"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="3"/>
+      <c r="E284" s="3"/>
+      <c r="F284" s="3"/>
+      <c r="G284" s="3"/>
+      <c r="H284" s="3"/>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+      <c r="K284" s="3"/>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B285" s="4"/>
+      <c r="C285" s="3"/>
+      <c r="D285" s="3"/>
+      <c r="E285" s="3"/>
+      <c r="F285" s="3"/>
+      <c r="G285" s="3"/>
+      <c r="H285" s="3"/>
+      <c r="I285" s="3"/>
+      <c r="J285" s="3"/>
+      <c r="K285" s="3"/>
+    </row>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B286" s="4"/>
+      <c r="C286" s="3"/>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
+      <c r="F286" s="3"/>
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3"/>
+      <c r="K286" s="3"/>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B287" s="4"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
+      <c r="F287" s="3"/>
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+      <c r="I287" s="3"/>
+      <c r="J287" s="3"/>
+      <c r="K287" s="3"/>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B288" s="4"/>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
+      <c r="F288" s="3"/>
+      <c r="G288" s="3"/>
+      <c r="H288" s="3"/>
+      <c r="I288" s="3"/>
+      <c r="J288" s="3"/>
+      <c r="K288" s="3"/>
+    </row>
+    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B289" s="4"/>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
+      <c r="F289" s="3"/>
+      <c r="G289" s="3"/>
+      <c r="H289" s="3"/>
+      <c r="I289" s="3"/>
+      <c r="J289" s="3"/>
+      <c r="K289" s="3"/>
+    </row>
+    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B290" s="4"/>
+      <c r="C290" s="3"/>
+      <c r="D290" s="3"/>
+      <c r="E290" s="3"/>
+      <c r="F290" s="3"/>
+      <c r="G290" s="3"/>
+      <c r="H290" s="3"/>
+      <c r="I290" s="3"/>
+      <c r="J290" s="3"/>
+      <c r="K290" s="3"/>
+    </row>
+    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B291" s="4"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+      <c r="F291" s="3"/>
+      <c r="G291" s="3"/>
+      <c r="H291" s="3"/>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+      <c r="K291" s="3"/>
+    </row>
+    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B292" s="4"/>
+      <c r="C292" s="3"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+      <c r="F292" s="3"/>
+      <c r="G292" s="3"/>
+      <c r="H292" s="3"/>
+      <c r="I292" s="3"/>
+      <c r="J292" s="3"/>
+      <c r="K292" s="3"/>
+    </row>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B293" s="4"/>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
+      <c r="F293" s="3"/>
+      <c r="G293" s="3"/>
+      <c r="H293" s="3"/>
+      <c r="I293" s="3"/>
+      <c r="J293" s="3"/>
+      <c r="K293" s="3"/>
+    </row>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B294" s="4"/>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+      <c r="G294" s="3"/>
+      <c r="H294" s="3"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+      <c r="K294" s="3"/>
+    </row>
+    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B295" s="4"/>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+    </row>
+    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B296" s="4"/>
+      <c r="C296" s="3"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
+      <c r="F296" s="3"/>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+    </row>
+    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B297" s="4"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
+      <c r="F297" s="3"/>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="3"/>
+    </row>
+    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B298" s="4"/>
+      <c r="C298" s="3"/>
+      <c r="D298" s="3"/>
+      <c r="E298" s="3"/>
+      <c r="F298" s="3"/>
+      <c r="G298" s="3"/>
+      <c r="H298" s="3"/>
+      <c r="I298" s="3"/>
+      <c r="J298" s="3"/>
+      <c r="K298" s="3"/>
+    </row>
+    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B299" s="4"/>
+      <c r="C299" s="3"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
+      <c r="F299" s="3"/>
+      <c r="G299" s="3"/>
+      <c r="H299" s="3"/>
+      <c r="I299" s="3"/>
+      <c r="J299" s="3"/>
+      <c r="K299" s="3"/>
+    </row>
+    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B300" s="4"/>
+      <c r="C300" s="3"/>
+      <c r="D300" s="3"/>
+      <c r="E300" s="3"/>
+      <c r="F300" s="3"/>
+      <c r="G300" s="3"/>
+      <c r="H300" s="3"/>
+      <c r="I300" s="3"/>
+      <c r="J300" s="3"/>
+      <c r="K300" s="3"/>
+    </row>
+    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B301" s="4"/>
+      <c r="C301" s="3"/>
+      <c r="D301" s="3"/>
+      <c r="E301" s="3"/>
+      <c r="F301" s="3"/>
+      <c r="G301" s="3"/>
+      <c r="H301" s="3"/>
+      <c r="I301" s="3"/>
+      <c r="J301" s="3"/>
+      <c r="K301" s="3"/>
+    </row>
+    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B302" s="4"/>
+      <c r="C302" s="3"/>
+      <c r="D302" s="3"/>
+      <c r="E302" s="3"/>
+      <c r="F302" s="3"/>
+      <c r="G302" s="3"/>
+      <c r="H302" s="3"/>
+      <c r="I302" s="3"/>
+      <c r="J302" s="3"/>
+      <c r="K302" s="3"/>
+    </row>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B303" s="4"/>
+      <c r="C303" s="3"/>
+      <c r="D303" s="3"/>
+      <c r="E303" s="3"/>
+      <c r="F303" s="3"/>
+      <c r="G303" s="3"/>
+      <c r="H303" s="3"/>
+      <c r="I303" s="3"/>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3"/>
+    </row>
+    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B304" s="4"/>
+      <c r="C304" s="3"/>
+      <c r="D304" s="3"/>
+      <c r="E304" s="3"/>
+      <c r="F304" s="3"/>
+      <c r="G304" s="3"/>
+      <c r="H304" s="3"/>
+      <c r="I304" s="3"/>
+      <c r="J304" s="3"/>
+      <c r="K304" s="3"/>
+    </row>
+    <row r="305" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B305" s="4"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3"/>
+      <c r="F305" s="3"/>
+      <c r="G305" s="3"/>
+      <c r="H305" s="3"/>
+      <c r="I305" s="3"/>
+      <c r="J305" s="3"/>
+      <c r="K305" s="3"/>
+    </row>
+    <row r="306" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B306" s="4"/>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3"/>
+      <c r="F306" s="3"/>
+      <c r="G306" s="3"/>
+      <c r="H306" s="3"/>
+      <c r="I306" s="3"/>
+      <c r="J306" s="3"/>
+      <c r="K306" s="3"/>
+    </row>
+    <row r="307" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B307" s="4"/>
+      <c r="C307" s="3"/>
+      <c r="D307" s="3"/>
+      <c r="E307" s="3"/>
+      <c r="F307" s="3"/>
+      <c r="G307" s="3"/>
+      <c r="H307" s="3"/>
+      <c r="I307" s="3"/>
+      <c r="J307" s="3"/>
+      <c r="K307" s="3"/>
+    </row>
+    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B308" s="4"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
+      <c r="F308" s="3"/>
+      <c r="G308" s="3"/>
+      <c r="H308" s="3"/>
+      <c r="I308" s="3"/>
+      <c r="J308" s="3"/>
+      <c r="K308" s="3"/>
+    </row>
+    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B309" s="4"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="3"/>
+      <c r="F309" s="3"/>
+      <c r="G309" s="3"/>
+      <c r="H309" s="3"/>
+      <c r="I309" s="3"/>
+      <c r="J309" s="3"/>
+      <c r="K309" s="3"/>
+    </row>
+    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B310" s="4"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="3"/>
+      <c r="F310" s="3"/>
+      <c r="G310" s="3"/>
+      <c r="H310" s="3"/>
+      <c r="I310" s="3"/>
+      <c r="J310" s="3"/>
+      <c r="K310" s="3"/>
+    </row>
+    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B311" s="4"/>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="3"/>
+      <c r="F311" s="3"/>
+      <c r="G311" s="3"/>
+      <c r="H311" s="3"/>
+      <c r="I311" s="3"/>
+      <c r="J311" s="3"/>
+      <c r="K311" s="3"/>
+    </row>
+    <row r="312" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B312" s="4"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3"/>
+      <c r="G312" s="3"/>
+      <c r="H312" s="3"/>
+      <c r="I312" s="3"/>
+      <c r="J312" s="3"/>
+      <c r="K312" s="3"/>
+    </row>
+    <row r="313" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B313" s="4"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
+      <c r="F313" s="3"/>
+      <c r="G313" s="3"/>
+      <c r="H313" s="3"/>
+      <c r="I313" s="3"/>
+      <c r="J313" s="3"/>
+      <c r="K313" s="3"/>
+    </row>
+    <row r="314" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B314" s="4"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
+      <c r="F314" s="3"/>
+      <c r="G314" s="3"/>
+      <c r="H314" s="3"/>
+      <c r="I314" s="3"/>
+      <c r="J314" s="3"/>
+      <c r="K314" s="3"/>
+    </row>
+    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B315" s="4"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3"/>
+      <c r="E315" s="3"/>
+      <c r="F315" s="3"/>
+      <c r="G315" s="3"/>
+      <c r="H315" s="3"/>
+      <c r="I315" s="3"/>
+      <c r="J315" s="3"/>
+      <c r="K315" s="3"/>
+    </row>
+    <row r="316" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B316" s="4"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="3"/>
+      <c r="F316" s="3"/>
+      <c r="G316" s="3"/>
+      <c r="H316" s="3"/>
+      <c r="I316" s="3"/>
+      <c r="J316" s="3"/>
+      <c r="K316" s="3"/>
+    </row>
+    <row r="317" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B317" s="4"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="3"/>
+      <c r="E317" s="3"/>
+      <c r="F317" s="3"/>
+      <c r="G317" s="3"/>
+      <c r="H317" s="3"/>
+      <c r="I317" s="3"/>
+      <c r="J317" s="3"/>
+      <c r="K317" s="3"/>
+    </row>
+    <row r="318" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B318" s="4"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
+      <c r="G318" s="3"/>
+      <c r="H318" s="3"/>
+      <c r="I318" s="3"/>
+      <c r="J318" s="3"/>
+      <c r="K318" s="3"/>
+    </row>
+    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B319" s="4"/>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+      <c r="F319" s="3"/>
+      <c r="G319" s="3"/>
+      <c r="H319" s="3"/>
+      <c r="I319" s="3"/>
+      <c r="J319" s="3"/>
+      <c r="K319" s="3"/>
+    </row>
+    <row r="320" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B320" s="4"/>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+      <c r="F320" s="3"/>
+      <c r="G320" s="3"/>
+      <c r="H320" s="3"/>
+      <c r="I320" s="3"/>
+      <c r="J320" s="3"/>
+      <c r="K320" s="3"/>
+    </row>
+    <row r="321" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B321" s="4"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+      <c r="F321" s="3"/>
+      <c r="G321" s="3"/>
+      <c r="H321" s="3"/>
+      <c r="I321" s="3"/>
+      <c r="J321" s="3"/>
+      <c r="K321" s="3"/>
+    </row>
+    <row r="322" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B322" s="4"/>
+      <c r="C322" s="3"/>
+      <c r="D322" s="3"/>
+      <c r="E322" s="3"/>
+      <c r="F322" s="3"/>
+      <c r="G322" s="3"/>
+      <c r="H322" s="3"/>
+      <c r="I322" s="3"/>
+      <c r="J322" s="3"/>
+      <c r="K322" s="3"/>
+    </row>
+    <row r="323" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B323" s="4"/>
+      <c r="C323" s="3"/>
+      <c r="D323" s="3"/>
+      <c r="E323" s="3"/>
+      <c r="F323" s="3"/>
+      <c r="G323" s="3"/>
+      <c r="H323" s="3"/>
+      <c r="I323" s="3"/>
+      <c r="J323" s="3"/>
+      <c r="K323" s="3"/>
+    </row>
+    <row r="324" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B324" s="4"/>
+      <c r="C324" s="3"/>
+      <c r="D324" s="3"/>
+      <c r="E324" s="3"/>
+      <c r="F324" s="3"/>
+      <c r="G324" s="3"/>
+      <c r="H324" s="3"/>
+      <c r="I324" s="3"/>
+      <c r="J324" s="3"/>
+      <c r="K324" s="3"/>
+    </row>
+    <row r="325" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B325" s="4"/>
+      <c r="C325" s="3"/>
+      <c r="D325" s="3"/>
+      <c r="E325" s="3"/>
+      <c r="F325" s="3"/>
+      <c r="G325" s="3"/>
+      <c r="H325" s="3"/>
+      <c r="I325" s="3"/>
+      <c r="J325" s="3"/>
+      <c r="K325" s="3"/>
+    </row>
+    <row r="326" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B326" s="4"/>
+      <c r="C326" s="3"/>
+      <c r="D326" s="3"/>
+      <c r="E326" s="3"/>
+      <c r="F326" s="3"/>
+      <c r="G326" s="3"/>
+      <c r="H326" s="3"/>
+      <c r="I326" s="3"/>
+      <c r="J326" s="3"/>
+      <c r="K326" s="3"/>
+    </row>
+    <row r="327" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B327" s="4"/>
+      <c r="C327" s="3"/>
+      <c r="D327" s="3"/>
+      <c r="E327" s="3"/>
+      <c r="F327" s="3"/>
+      <c r="G327" s="3"/>
+      <c r="H327" s="3"/>
+      <c r="I327" s="3"/>
+      <c r="J327" s="3"/>
+      <c r="K327" s="3"/>
+    </row>
+    <row r="328" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B328" s="4"/>
+      <c r="C328" s="3"/>
+      <c r="D328" s="3"/>
+      <c r="E328" s="3"/>
+      <c r="F328" s="3"/>
+      <c r="G328" s="3"/>
+      <c r="H328" s="3"/>
+      <c r="I328" s="3"/>
+      <c r="J328" s="3"/>
+      <c r="K328" s="3"/>
+    </row>
+    <row r="329" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B329" s="4"/>
+      <c r="C329" s="3"/>
+      <c r="D329" s="3"/>
+      <c r="E329" s="3"/>
+      <c r="F329" s="3"/>
+      <c r="G329" s="3"/>
+      <c r="H329" s="3"/>
+      <c r="I329" s="3"/>
+      <c r="J329" s="3"/>
+      <c r="K329" s="3"/>
+    </row>
+    <row r="330" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B330" s="4"/>
+      <c r="C330" s="3"/>
+      <c r="D330" s="3"/>
+      <c r="E330" s="3"/>
+      <c r="F330" s="3"/>
+      <c r="G330" s="3"/>
+      <c r="H330" s="3"/>
+      <c r="I330" s="3"/>
+      <c r="J330" s="3"/>
+      <c r="K330" s="3"/>
+    </row>
+    <row r="331" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B331" s="4"/>
+      <c r="C331" s="3"/>
+      <c r="D331" s="3"/>
+      <c r="E331" s="3"/>
+      <c r="F331" s="3"/>
+      <c r="G331" s="3"/>
+      <c r="H331" s="3"/>
+      <c r="I331" s="3"/>
+      <c r="J331" s="3"/>
+      <c r="K331" s="3"/>
+    </row>
+    <row r="332" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B332" s="4"/>
+      <c r="C332" s="3"/>
+      <c r="D332" s="3"/>
+      <c r="E332" s="3"/>
+      <c r="F332" s="3"/>
+      <c r="G332" s="3"/>
+      <c r="H332" s="3"/>
+      <c r="I332" s="3"/>
+      <c r="J332" s="3"/>
+      <c r="K332" s="3"/>
+    </row>
+    <row r="333" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B333" s="4"/>
+      <c r="C333" s="3"/>
+      <c r="D333" s="3"/>
+      <c r="E333" s="3"/>
+      <c r="F333" s="3"/>
+      <c r="G333" s="3"/>
+      <c r="H333" s="3"/>
+      <c r="I333" s="3"/>
+      <c r="J333" s="3"/>
+      <c r="K333" s="3"/>
+    </row>
+    <row r="334" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B334" s="4"/>
+      <c r="C334" s="3"/>
+      <c r="D334" s="3"/>
+      <c r="E334" s="3"/>
+      <c r="F334" s="3"/>
+      <c r="G334" s="3"/>
+      <c r="H334" s="3"/>
+      <c r="I334" s="3"/>
+      <c r="J334" s="3"/>
+      <c r="K334" s="3"/>
+    </row>
+    <row r="335" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B335" s="4"/>
+      <c r="C335" s="3"/>
+      <c r="D335" s="3"/>
+      <c r="E335" s="3"/>
+      <c r="F335" s="3"/>
+      <c r="G335" s="3"/>
+      <c r="H335" s="3"/>
+      <c r="I335" s="3"/>
+      <c r="J335" s="3"/>
+      <c r="K335" s="3"/>
+    </row>
+    <row r="336" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B336" s="4"/>
+      <c r="C336" s="3"/>
+      <c r="D336" s="3"/>
+      <c r="E336" s="3"/>
+      <c r="F336" s="3"/>
+      <c r="G336" s="3"/>
+      <c r="H336" s="3"/>
+      <c r="I336" s="3"/>
+      <c r="J336" s="3"/>
+      <c r="K336" s="3"/>
+    </row>
+    <row r="337" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B337" s="4"/>
+      <c r="C337" s="3"/>
+      <c r="D337" s="3"/>
+      <c r="E337" s="3"/>
+      <c r="F337" s="3"/>
+      <c r="G337" s="3"/>
+      <c r="H337" s="3"/>
+      <c r="I337" s="3"/>
+      <c r="J337" s="3"/>
+      <c r="K337" s="3"/>
+    </row>
+    <row r="338" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B338" s="4"/>
+      <c r="C338" s="3"/>
+      <c r="D338" s="3"/>
+      <c r="E338" s="3"/>
+      <c r="F338" s="3"/>
+      <c r="G338" s="3"/>
+      <c r="H338" s="3"/>
+      <c r="I338" s="3"/>
+      <c r="J338" s="3"/>
+      <c r="K338" s="3"/>
+    </row>
+    <row r="339" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B339" s="4"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="3"/>
+      <c r="E339" s="3"/>
+      <c r="F339" s="3"/>
+      <c r="G339" s="3"/>
+      <c r="H339" s="3"/>
+      <c r="I339" s="3"/>
+      <c r="J339" s="3"/>
+      <c r="K339" s="3"/>
+    </row>
+    <row r="340" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B340" s="4"/>
+      <c r="C340" s="3"/>
+      <c r="D340" s="3"/>
+      <c r="E340" s="3"/>
+      <c r="F340" s="3"/>
+      <c r="G340" s="3"/>
+      <c r="H340" s="3"/>
+      <c r="I340" s="3"/>
+      <c r="J340" s="3"/>
+      <c r="K340" s="3"/>
+    </row>
+    <row r="341" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B341" s="4"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+      <c r="F341" s="3"/>
+      <c r="G341" s="3"/>
+      <c r="H341" s="3"/>
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
+      <c r="K341" s="3"/>
+    </row>
+    <row r="342" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B342" s="4"/>
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+      <c r="F342" s="3"/>
+      <c r="G342" s="3"/>
+      <c r="H342" s="3"/>
+      <c r="I342" s="3"/>
+      <c r="J342" s="3"/>
+      <c r="K342" s="3"/>
+    </row>
+    <row r="343" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B343" s="4"/>
+      <c r="C343" s="3"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+      <c r="F343" s="3"/>
+      <c r="G343" s="3"/>
+      <c r="H343" s="3"/>
+      <c r="I343" s="3"/>
+      <c r="J343" s="3"/>
+      <c r="K343" s="3"/>
+    </row>
+    <row r="344" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B344" s="4"/>
+      <c r="C344" s="3"/>
+      <c r="D344" s="3"/>
+      <c r="E344" s="3"/>
+      <c r="F344" s="3"/>
+      <c r="G344" s="3"/>
+      <c r="H344" s="3"/>
+      <c r="I344" s="3"/>
+      <c r="J344" s="3"/>
+      <c r="K344" s="3"/>
+    </row>
+    <row r="345" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B345" s="4"/>
+      <c r="C345" s="3"/>
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
+      <c r="F345" s="3"/>
+      <c r="G345" s="3"/>
+      <c r="H345" s="3"/>
+      <c r="I345" s="3"/>
+      <c r="J345" s="3"/>
+      <c r="K345" s="3"/>
+    </row>
+    <row r="346" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B346" s="4"/>
+      <c r="C346" s="3"/>
+      <c r="D346" s="3"/>
+      <c r="E346" s="3"/>
+      <c r="F346" s="3"/>
+      <c r="G346" s="3"/>
+      <c r="H346" s="3"/>
+      <c r="I346" s="3"/>
+      <c r="J346" s="3"/>
+      <c r="K346" s="3"/>
+    </row>
+    <row r="347" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B347" s="4"/>
+      <c r="C347" s="3"/>
+      <c r="D347" s="3"/>
+      <c r="E347" s="3"/>
+      <c r="F347" s="3"/>
+      <c r="G347" s="3"/>
+      <c r="H347" s="3"/>
+      <c r="I347" s="3"/>
+      <c r="J347" s="3"/>
+      <c r="K347" s="3"/>
+    </row>
+    <row r="348" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B348" s="4"/>
+      <c r="C348" s="3"/>
+      <c r="D348" s="3"/>
+      <c r="E348" s="3"/>
+      <c r="F348" s="3"/>
+      <c r="G348" s="3"/>
+      <c r="H348" s="3"/>
+      <c r="I348" s="3"/>
+      <c r="J348" s="3"/>
+      <c r="K348" s="3"/>
+    </row>
+    <row r="349" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B349" s="4"/>
+      <c r="C349" s="3"/>
+      <c r="D349" s="3"/>
+      <c r="E349" s="3"/>
+      <c r="F349" s="3"/>
+      <c r="G349" s="3"/>
+      <c r="H349" s="3"/>
+      <c r="I349" s="3"/>
+      <c r="J349" s="3"/>
+      <c r="K349" s="3"/>
+    </row>
+    <row r="350" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B350" s="4"/>
+      <c r="C350" s="3"/>
+      <c r="D350" s="3"/>
+      <c r="E350" s="3"/>
+      <c r="F350" s="3"/>
+      <c r="G350" s="3"/>
+      <c r="H350" s="3"/>
+      <c r="I350" s="3"/>
+      <c r="J350" s="3"/>
+      <c r="K350" s="3"/>
+    </row>
+    <row r="351" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B351" s="4"/>
+      <c r="C351" s="3"/>
+      <c r="D351" s="3"/>
+      <c r="E351" s="3"/>
+      <c r="F351" s="3"/>
+      <c r="G351" s="3"/>
+      <c r="H351" s="3"/>
+      <c r="I351" s="3"/>
+      <c r="J351" s="3"/>
+      <c r="K351" s="3"/>
+    </row>
+    <row r="352" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B352" s="4"/>
+      <c r="C352" s="3"/>
+      <c r="D352" s="3"/>
+      <c r="E352" s="3"/>
+      <c r="F352" s="3"/>
+      <c r="G352" s="3"/>
+      <c r="H352" s="3"/>
+      <c r="I352" s="3"/>
+      <c r="J352" s="3"/>
+      <c r="K352" s="3"/>
+    </row>
+    <row r="353" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B353" s="4"/>
+      <c r="C353" s="3"/>
+      <c r="D353" s="3"/>
+      <c r="E353" s="3"/>
+      <c r="F353" s="3"/>
+      <c r="G353" s="3"/>
+      <c r="H353" s="3"/>
+      <c r="I353" s="3"/>
+      <c r="J353" s="3"/>
+      <c r="K353" s="3"/>
+    </row>
+    <row r="354" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B354" s="4"/>
+      <c r="C354" s="3"/>
+      <c r="D354" s="3"/>
+      <c r="E354" s="3"/>
+      <c r="F354" s="3"/>
+      <c r="G354" s="3"/>
+      <c r="H354" s="3"/>
+      <c r="I354" s="3"/>
+      <c r="J354" s="3"/>
+      <c r="K354" s="3"/>
+    </row>
+    <row r="355" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B355" s="4"/>
+      <c r="C355" s="3"/>
+      <c r="D355" s="3"/>
+      <c r="E355" s="3"/>
+      <c r="F355" s="3"/>
+      <c r="G355" s="3"/>
+      <c r="H355" s="3"/>
+      <c r="I355" s="3"/>
+      <c r="J355" s="3"/>
+      <c r="K355" s="3"/>
+    </row>
+    <row r="356" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B356" s="4"/>
+      <c r="C356" s="3"/>
+      <c r="D356" s="3"/>
+      <c r="E356" s="3"/>
+      <c r="F356" s="3"/>
+      <c r="G356" s="3"/>
+      <c r="H356" s="3"/>
+      <c r="I356" s="3"/>
+      <c r="J356" s="3"/>
+      <c r="K356" s="3"/>
+    </row>
+    <row r="357" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B357" s="4"/>
+      <c r="C357" s="3"/>
+      <c r="D357" s="3"/>
+      <c r="E357" s="3"/>
+      <c r="F357" s="3"/>
+      <c r="G357" s="3"/>
+      <c r="H357" s="3"/>
+      <c r="I357" s="3"/>
+      <c r="J357" s="3"/>
+      <c r="K357" s="3"/>
+    </row>
+    <row r="358" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B358" s="4"/>
+      <c r="C358" s="3"/>
+      <c r="D358" s="3"/>
+      <c r="E358" s="3"/>
+      <c r="F358" s="3"/>
+      <c r="G358" s="3"/>
+      <c r="H358" s="3"/>
+      <c r="I358" s="3"/>
+      <c r="J358" s="3"/>
+      <c r="K358" s="3"/>
+    </row>
+    <row r="359" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B359" s="4"/>
+      <c r="C359" s="3"/>
+      <c r="D359" s="3"/>
+      <c r="E359" s="3"/>
+      <c r="F359" s="3"/>
+      <c r="G359" s="3"/>
+      <c r="H359" s="3"/>
+      <c r="I359" s="3"/>
+      <c r="J359" s="3"/>
+      <c r="K359" s="3"/>
+    </row>
+    <row r="360" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B360" s="4"/>
+      <c r="C360" s="3"/>
+      <c r="D360" s="3"/>
+      <c r="E360" s="3"/>
+      <c r="F360" s="3"/>
+      <c r="G360" s="3"/>
+      <c r="H360" s="3"/>
+      <c r="I360" s="3"/>
+      <c r="J360" s="3"/>
+      <c r="K360" s="3"/>
+    </row>
+    <row r="361" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B361" s="4"/>
+      <c r="C361" s="3"/>
+      <c r="D361" s="3"/>
+      <c r="E361" s="3"/>
+      <c r="F361" s="3"/>
+      <c r="G361" s="3"/>
+      <c r="H361" s="3"/>
+      <c r="I361" s="3"/>
+      <c r="J361" s="3"/>
+      <c r="K361" s="3"/>
+    </row>
+    <row r="362" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B362" s="4"/>
+      <c r="C362" s="3"/>
+      <c r="D362" s="3"/>
+      <c r="E362" s="3"/>
+      <c r="F362" s="3"/>
+      <c r="G362" s="3"/>
+      <c r="H362" s="3"/>
+      <c r="I362" s="3"/>
+      <c r="J362" s="3"/>
+      <c r="K362" s="3"/>
+    </row>
+    <row r="363" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B363" s="4"/>
+      <c r="C363" s="3"/>
+      <c r="D363" s="3"/>
+      <c r="E363" s="3"/>
+      <c r="F363" s="3"/>
+      <c r="G363" s="3"/>
+      <c r="H363" s="3"/>
+      <c r="I363" s="3"/>
+      <c r="J363" s="3"/>
+      <c r="K363" s="3"/>
+    </row>
+    <row r="364" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B364" s="4"/>
+      <c r="C364" s="3"/>
+      <c r="D364" s="3"/>
+      <c r="E364" s="3"/>
+      <c r="F364" s="3"/>
+      <c r="G364" s="3"/>
+      <c r="H364" s="3"/>
+      <c r="I364" s="3"/>
+      <c r="J364" s="3"/>
+      <c r="K364" s="3"/>
+    </row>
+    <row r="365" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B365" s="4"/>
+      <c r="C365" s="3"/>
+      <c r="D365" s="3"/>
+      <c r="E365" s="3"/>
+      <c r="F365" s="3"/>
+      <c r="G365" s="3"/>
+      <c r="H365" s="3"/>
+      <c r="I365" s="3"/>
+      <c r="J365" s="3"/>
+      <c r="K365" s="3"/>
+    </row>
+    <row r="366" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B366" s="4"/>
+      <c r="C366" s="3"/>
+      <c r="D366" s="3"/>
+      <c r="E366" s="3"/>
+      <c r="F366" s="3"/>
+      <c r="G366" s="3"/>
+      <c r="H366" s="3"/>
+      <c r="I366" s="3"/>
+      <c r="J366" s="3"/>
+      <c r="K366" s="3"/>
+    </row>
+    <row r="367" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B367" s="4"/>
+      <c r="C367" s="3"/>
+      <c r="D367" s="3"/>
+      <c r="E367" s="3"/>
+      <c r="F367" s="3"/>
+      <c r="G367" s="3"/>
+      <c r="H367" s="3"/>
+      <c r="I367" s="3"/>
+      <c r="J367" s="3"/>
+      <c r="K367" s="3"/>
+    </row>
+    <row r="368" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B368" s="4"/>
+      <c r="C368" s="3"/>
+      <c r="D368" s="3"/>
+      <c r="E368" s="3"/>
+      <c r="F368" s="3"/>
+      <c r="G368" s="3"/>
+      <c r="H368" s="3"/>
+      <c r="I368" s="3"/>
+      <c r="J368" s="3"/>
+      <c r="K368" s="3"/>
+    </row>
+    <row r="369" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B369" s="4"/>
+      <c r="C369" s="3"/>
+      <c r="D369" s="3"/>
+      <c r="E369" s="3"/>
+      <c r="F369" s="3"/>
+      <c r="G369" s="3"/>
+      <c r="H369" s="3"/>
+      <c r="I369" s="3"/>
+      <c r="J369" s="3"/>
+      <c r="K369" s="3"/>
+    </row>
+    <row r="370" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B370" s="4"/>
+      <c r="C370" s="3"/>
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
+      <c r="F370" s="3"/>
+      <c r="G370" s="3"/>
+      <c r="H370" s="3"/>
+      <c r="I370" s="3"/>
+      <c r="J370" s="3"/>
+      <c r="K370" s="3"/>
+    </row>
+    <row r="371" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B371" s="4"/>
+      <c r="C371" s="3"/>
+      <c r="D371" s="3"/>
+      <c r="E371" s="3"/>
+      <c r="F371" s="3"/>
+      <c r="G371" s="3"/>
+      <c r="H371" s="3"/>
+      <c r="I371" s="3"/>
+      <c r="J371" s="3"/>
+      <c r="K371" s="3"/>
+    </row>
+    <row r="372" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B372" s="4"/>
+      <c r="C372" s="3"/>
+      <c r="D372" s="3"/>
+      <c r="E372" s="3"/>
+      <c r="F372" s="3"/>
+      <c r="G372" s="3"/>
+      <c r="H372" s="3"/>
+      <c r="I372" s="3"/>
+      <c r="J372" s="3"/>
+      <c r="K372" s="3"/>
+    </row>
+    <row r="373" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B373" s="4"/>
+      <c r="C373" s="3"/>
+      <c r="D373" s="3"/>
+      <c r="E373" s="3"/>
+      <c r="F373" s="3"/>
+      <c r="G373" s="3"/>
+      <c r="H373" s="3"/>
+      <c r="I373" s="3"/>
+      <c r="J373" s="3"/>
+      <c r="K373" s="3"/>
+    </row>
+    <row r="374" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B374" s="4"/>
+      <c r="C374" s="3"/>
+      <c r="D374" s="3"/>
+      <c r="E374" s="3"/>
+      <c r="F374" s="3"/>
+      <c r="G374" s="3"/>
+      <c r="H374" s="3"/>
+      <c r="I374" s="3"/>
+      <c r="J374" s="3"/>
+      <c r="K374" s="3"/>
+    </row>
+    <row r="375" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B375" s="4"/>
+      <c r="C375" s="3"/>
+      <c r="D375" s="3"/>
+      <c r="E375" s="3"/>
+      <c r="F375" s="3"/>
+      <c r="G375" s="3"/>
+      <c r="H375" s="3"/>
+      <c r="I375" s="3"/>
+      <c r="J375" s="3"/>
+      <c r="K375" s="3"/>
+    </row>
+    <row r="376" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B376" s="4"/>
+      <c r="C376" s="3"/>
+      <c r="D376" s="3"/>
+      <c r="E376" s="3"/>
+      <c r="F376" s="3"/>
+      <c r="G376" s="3"/>
+      <c r="H376" s="3"/>
+      <c r="I376" s="3"/>
+      <c r="J376" s="3"/>
+      <c r="K376" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="180">
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="A61:A75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="A2:A51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G86" r:id="rId1" location="/privacy-policy" xr:uid="{E67AF435-DB73-483C-AF47-29662FBE5D02}"/>
+    <hyperlink ref="I87" r:id="rId2" xr:uid="{BFB802EA-6031-4832-8336-46CF2816DEFE}"/>
+    <hyperlink ref="G89" r:id="rId3" location="/terms-of-use" xr:uid="{CB5B793B-903F-4E0D-A8AF-042DDF2E34EE}"/>
+    <hyperlink ref="I90" r:id="rId4" xr:uid="{4EDDF3EC-EE0C-4985-9891-75F232D45EF5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekate\Desktop\Netology\Git repository\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09882FF-EAA1-4EAB-ACD8-31312CC2A431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0B5A3A-68C6-4B88-B306-DC9615904195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="0" windowWidth="25710" windowHeight="20985" xr2:uid="{CC955BC4-95A8-4E73-80DC-FD5AF393D381}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="26520" windowHeight="20985" xr2:uid="{CC955BC4-95A8-4E73-80DC-FD5AF393D381}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="350">
   <si>
     <t>ID</t>
   </si>
@@ -1184,12 +1184,18 @@
   <si>
     <t>9. Отобразилась ошибка "Сохранение не удалось. Попробуйте позднее."</t>
   </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>да, но исключение должно быть другим</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1230,6 +1236,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1608,7 +1622,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1676,32 +1690,8 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1728,6 +1718,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1769,18 +1786,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1798,6 +1803,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1826,7 +1843,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2151,10 +2171,10 @@
   <dimension ref="A1:K393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C5"/>
+      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2205,94 +2225,104 @@
       <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="58"/>
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="59"/>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="59"/>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="54"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="60"/>
+      <c r="I5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="51"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="46">
+      <c r="A6" s="43"/>
+      <c r="B6" s="47">
         <v>2</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="44" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -2301,73 +2331,83 @@
       <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="61"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="62"/>
-    </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="I7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="62"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="I8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="63"/>
+      <c r="I9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="51">
+      <c r="A10" s="43"/>
+      <c r="B10" s="52">
         <v>3</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="50" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -2379,16 +2419,20 @@
       <c r="H10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="58"/>
+      <c r="I10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="K10" s="55"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
@@ -2398,25 +2442,27 @@
       <c r="H11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="60"/>
+      <c r="I11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="46">
+      <c r="A12" s="43"/>
+      <c r="B12" s="47">
         <v>4</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="44" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -2425,76 +2471,86 @@
       <c r="H12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="44"/>
+      <c r="I12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="62"/>
-    </row>
-    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="44"/>
+      <c r="I13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="62"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="45"/>
+      <c r="I14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="45"/>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="63"/>
+      <c r="I15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="60"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="51">
+      <c r="A16" s="43"/>
+      <c r="B16" s="52">
         <v>5</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -2503,76 +2559,86 @@
       <c r="H16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="58"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="I16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="K16" s="55"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="59"/>
-    </row>
-    <row r="18" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="54"/>
+      <c r="K17" s="56"/>
+    </row>
+    <row r="18" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="I18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="54"/>
+      <c r="K18" s="56"/>
+    </row>
+    <row r="19" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="60"/>
+      <c r="I19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="51"/>
+      <c r="K19" s="57"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="46">
+      <c r="A20" s="43"/>
+      <c r="B20" s="47">
         <v>6</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="44" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -2581,76 +2647,86 @@
       <c r="H20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="61"/>
+      <c r="I20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="62"/>
-    </row>
-    <row r="22" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="I21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="45"/>
+      <c r="K21" s="59"/>
+    </row>
+    <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="62"/>
+      <c r="I22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="45"/>
+      <c r="K22" s="59"/>
     </row>
     <row r="23" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="63"/>
+      <c r="I23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="60"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="51">
+      <c r="A24" s="43"/>
+      <c r="B24" s="52">
         <v>7</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -2659,76 +2735,86 @@
       <c r="H24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="58"/>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="I24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="K24" s="55"/>
+    </row>
+    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="59"/>
-    </row>
-    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="I25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="54"/>
+      <c r="K25" s="56"/>
+    </row>
+    <row r="26" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="54"/>
+      <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="60"/>
+      <c r="I27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="51"/>
+      <c r="K27" s="57"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="46">
+      <c r="A28" s="43"/>
+      <c r="B28" s="47">
         <v>8</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="44" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -2737,78 +2823,86 @@
       <c r="H28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="61"/>
+      <c r="I28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="K28" s="58"/>
     </row>
     <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="62"/>
-    </row>
-    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
+      <c r="I29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="45"/>
+      <c r="K29" s="59"/>
+    </row>
+    <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="43"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="62"/>
+      <c r="I30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="45"/>
+      <c r="K30" s="59"/>
     </row>
     <row r="31" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="45"/>
-      <c r="K31" s="63"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="60"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="51">
+      <c r="A32" s="43"/>
+      <c r="B32" s="52">
         <v>9</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -2817,78 +2911,86 @@
       <c r="H32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="58"/>
+      <c r="I32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="K32" s="55"/>
     </row>
     <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="59"/>
-    </row>
-    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="I33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="54"/>
+      <c r="K33" s="56"/>
+    </row>
+    <row r="34" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="59"/>
+      <c r="I34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="54"/>
+      <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
       <c r="G35" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="50"/>
-      <c r="K35" s="60"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="57"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="46">
+      <c r="A36" s="43"/>
+      <c r="B36" s="47">
         <v>10</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="44" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -2897,78 +2999,86 @@
       <c r="H36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="61"/>
-    </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
+      <c r="I36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="K36" s="58"/>
+    </row>
+    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="3" t="s">
         <v>55</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="62"/>
-    </row>
-    <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="I37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="45"/>
+      <c r="K37" s="59"/>
+    </row>
+    <row r="38" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="62"/>
+      <c r="I38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="45"/>
+      <c r="K38" s="59"/>
     </row>
     <row r="39" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
       <c r="G39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="63"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="60"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="51">
+      <c r="A40" s="43"/>
+      <c r="B40" s="52">
         <v>11</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="7" t="s">
@@ -2977,78 +3087,86 @@
       <c r="H40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="58"/>
+      <c r="I40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="K40" s="55"/>
     </row>
     <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
       <c r="G41" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="59"/>
-    </row>
-    <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
+      <c r="I41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="54"/>
+      <c r="K41" s="56"/>
+    </row>
+    <row r="42" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
       <c r="G42" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="59"/>
+      <c r="I42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="54"/>
+      <c r="K42" s="56"/>
     </row>
     <row r="43" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
       <c r="G43" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="50"/>
-      <c r="K43" s="60"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="57"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="46">
+      <c r="A44" s="43"/>
+      <c r="B44" s="47">
         <v>12</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="43" t="s">
+      <c r="F44" s="44" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -3057,78 +3175,86 @@
       <c r="H44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="61"/>
-    </row>
-    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
+      <c r="I44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="K44" s="58"/>
+    </row>
+    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="43"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
       <c r="G45" s="3" t="s">
         <v>61</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="62"/>
-    </row>
-    <row r="46" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
+      <c r="I45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="45"/>
+      <c r="K45" s="59"/>
+    </row>
+    <row r="46" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="43"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="62"/>
+      <c r="I46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" s="45"/>
+      <c r="K46" s="59"/>
     </row>
     <row r="47" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
       <c r="G47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="J47" s="45"/>
-      <c r="K47" s="63"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="60"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="51">
+      <c r="A48" s="43"/>
+      <c r="B48" s="52">
         <v>13</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="50" t="s">
         <v>9</v>
       </c>
       <c r="G48" s="7" t="s">
@@ -3137,77 +3263,85 @@
       <c r="H48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="58"/>
+      <c r="I48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="K48" s="55"/>
     </row>
     <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
       <c r="G49" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="59"/>
-    </row>
-    <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
+      <c r="I49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" s="54"/>
+      <c r="K49" s="56"/>
+    </row>
+    <row r="50" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
       <c r="G50" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="59"/>
+      <c r="I50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" s="54"/>
+      <c r="K50" s="56"/>
     </row>
     <row r="51" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
       <c r="G51" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="50"/>
-      <c r="K51" s="60"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="57"/>
     </row>
     <row r="52" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="64">
+      <c r="B52" s="65">
         <v>14</v>
       </c>
-      <c r="C52" s="67" t="s">
+      <c r="C52" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="67" t="s">
+      <c r="D52" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="E52" s="67" t="s">
+      <c r="E52" s="68" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -3220,15 +3354,15 @@
         <v>74</v>
       </c>
       <c r="I52" s="5"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="70"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="71"/>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
       <c r="F53" s="3" t="s">
         <v>21</v>
       </c>
@@ -3237,36 +3371,36 @@
         <v>70</v>
       </c>
       <c r="I53" s="3"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="71"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="72"/>
     </row>
     <row r="54" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="42"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
       <c r="F54" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="72"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="73"/>
     </row>
     <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="23">
+      <c r="A55" s="43"/>
+      <c r="B55" s="33">
         <v>15</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="7" t="s">
@@ -3279,15 +3413,15 @@
         <v>69</v>
       </c>
       <c r="I55" s="7"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="29"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="39"/>
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
       <c r="F56" s="2" t="s">
         <v>21</v>
       </c>
@@ -3298,15 +3432,15 @@
         <v>75</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="30"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="40"/>
     </row>
     <row r="57" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
       <c r="F57" s="8" t="s">
         <v>66</v>
       </c>
@@ -3317,21 +3451,21 @@
         <v>78</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="31"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="41"/>
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="32">
+      <c r="A58" s="43"/>
+      <c r="B58" s="24">
         <v>16</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="12" t="s">
@@ -3344,15 +3478,15 @@
         <v>74</v>
       </c>
       <c r="I58" s="12"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="38"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="30"/>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
       <c r="F59" s="13" t="s">
         <v>21</v>
       </c>
@@ -3363,38 +3497,38 @@
         <v>73</v>
       </c>
       <c r="I59" s="13"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="39"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="31"/>
     </row>
     <row r="60" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="42"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
       <c r="F60" s="14" t="s">
         <v>66</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="40"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="32"/>
     </row>
     <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="33">
         <v>17</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="7" t="s">
@@ -3407,51 +3541,51 @@
         <v>84</v>
       </c>
       <c r="I61" s="7"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="29"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="39"/>
     </row>
     <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
       <c r="F62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="30"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="40"/>
     </row>
     <row r="63" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
       <c r="F63" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="31"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="41"/>
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="32">
+      <c r="A64" s="43"/>
+      <c r="B64" s="24">
         <v>18</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="12" t="s">
@@ -3464,15 +3598,15 @@
         <v>84</v>
       </c>
       <c r="I64" s="12"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="38"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="30"/>
     </row>
     <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
       <c r="F65" s="13" t="s">
         <v>21</v>
       </c>
@@ -3483,36 +3617,36 @@
         <v>86</v>
       </c>
       <c r="I65" s="13"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="39"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="31"/>
     </row>
     <row r="66" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="42"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
       <c r="F66" s="14" t="s">
         <v>66</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="40"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="32"/>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="23">
+      <c r="A67" s="43"/>
+      <c r="B67" s="33">
         <v>19</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E67" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="7" t="s">
@@ -3525,15 +3659,15 @@
         <v>84</v>
       </c>
       <c r="I67" s="7"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="29"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
       <c r="F68" s="2" t="s">
         <v>21</v>
       </c>
@@ -3544,36 +3678,36 @@
         <v>93</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="30"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="40"/>
     </row>
     <row r="69" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
       <c r="F69" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="31"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="41"/>
     </row>
     <row r="70" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="32">
+      <c r="A70" s="43"/>
+      <c r="B70" s="24">
         <v>20</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E70" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="12" t="s">
@@ -3586,15 +3720,15 @@
         <v>84</v>
       </c>
       <c r="I70" s="12"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="38"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="30"/>
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
       <c r="F71" s="13" t="s">
         <v>21</v>
       </c>
@@ -3605,36 +3739,36 @@
         <v>90</v>
       </c>
       <c r="I71" s="13"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="39"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="31"/>
     </row>
     <row r="72" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
       <c r="F72" s="14" t="s">
         <v>88</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="40"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="32"/>
     </row>
     <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="23">
+      <c r="A73" s="43"/>
+      <c r="B73" s="33">
         <v>21</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="7" t="s">
@@ -3647,15 +3781,15 @@
         <v>84</v>
       </c>
       <c r="I73" s="7"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="29"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="39"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
       <c r="F74" s="2" t="s">
         <v>21</v>
       </c>
@@ -3668,38 +3802,38 @@
       <c r="I74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J74" s="27"/>
-      <c r="K74" s="30"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="40"/>
     </row>
     <row r="75" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="42"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
       <c r="F75" s="8" t="s">
         <v>88</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="31"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="41"/>
     </row>
     <row r="76" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="32">
+      <c r="B76" s="24">
         <v>22</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="E76" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="12" t="s">
@@ -3712,15 +3846,15 @@
         <v>103</v>
       </c>
       <c r="I76" s="12"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="38"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="30"/>
     </row>
     <row r="77" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
       <c r="F77" s="13" t="s">
         <v>21</v>
       </c>
@@ -3729,36 +3863,36 @@
         <v>108</v>
       </c>
       <c r="I77" s="13"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="39"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="31"/>
     </row>
     <row r="78" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="42"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
       <c r="F78" s="14" t="s">
         <v>98</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="40"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="32"/>
     </row>
     <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-      <c r="B79" s="23">
+      <c r="A79" s="43"/>
+      <c r="B79" s="33">
         <v>23</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="7" t="s">
@@ -3771,15 +3905,15 @@
         <v>106</v>
       </c>
       <c r="I79" s="7"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="29"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="39"/>
     </row>
     <row r="80" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
       <c r="F80" s="2" t="s">
         <v>21</v>
       </c>
@@ -3790,38 +3924,38 @@
         <v>107</v>
       </c>
       <c r="I80" s="2"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="30"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="40"/>
     </row>
     <row r="81" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="42"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
       <c r="F81" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="31"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="41"/>
     </row>
     <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="32">
+      <c r="B82" s="24">
         <v>24</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D82" s="35" t="s">
+      <c r="D82" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E82" s="35" t="s">
+      <c r="E82" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="12" t="s">
@@ -3834,15 +3968,15 @@
         <v>113</v>
       </c>
       <c r="I82" s="12"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="38"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="30"/>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
       <c r="F83" s="13" t="s">
         <v>21</v>
       </c>
@@ -3853,36 +3987,36 @@
         <v>130</v>
       </c>
       <c r="I83" s="13"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="39"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="31"/>
     </row>
     <row r="84" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="42"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
       <c r="F84" s="14" t="s">
         <v>111</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="40"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="32"/>
     </row>
     <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
-      <c r="B85" s="23">
+      <c r="A85" s="43"/>
+      <c r="B85" s="33">
         <v>25</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E85" s="26" t="s">
+      <c r="E85" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F85" s="7" t="s">
@@ -3897,15 +4031,15 @@
       <c r="I85" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J85" s="26"/>
-      <c r="K85" s="29"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="39"/>
     </row>
     <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
       <c r="F86" s="2" t="s">
         <v>21</v>
       </c>
@@ -3916,15 +4050,15 @@
       <c r="I86" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J86" s="27"/>
-      <c r="K86" s="30"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="40"/>
     </row>
     <row r="87" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="42"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
       <c r="F87" s="8" t="s">
         <v>111</v>
       </c>
@@ -3933,21 +4067,21 @@
       <c r="I87" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="J87" s="28"/>
-      <c r="K87" s="31"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="41"/>
     </row>
     <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
-      <c r="B88" s="32">
+      <c r="A88" s="43"/>
+      <c r="B88" s="24">
         <v>26</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E88" s="35" t="s">
+      <c r="E88" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F88" s="12" t="s">
@@ -3962,15 +4096,15 @@
       <c r="I88" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="J88" s="35"/>
-      <c r="K88" s="38"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="30"/>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
       <c r="F89" s="13" t="s">
         <v>21</v>
       </c>
@@ -3981,15 +4115,15 @@
       <c r="I89" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="J89" s="36"/>
-      <c r="K89" s="39"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="31"/>
     </row>
     <row r="90" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="42"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
       <c r="F90" s="14" t="s">
         <v>111</v>
       </c>
@@ -3998,23 +4132,23 @@
       <c r="I90" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J90" s="37"/>
-      <c r="K90" s="40"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="32"/>
     </row>
     <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="23">
+      <c r="B91" s="33">
         <v>27</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="D91" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="E91" s="26" t="s">
+      <c r="E91" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F91" s="7" t="s">
@@ -4027,51 +4161,51 @@
         <v>134</v>
       </c>
       <c r="I91" s="7"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="29"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="39"/>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
       <c r="F92" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="30"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="40"/>
     </row>
     <row r="93" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="42"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
       <c r="F93" s="8" t="s">
         <v>133</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="16"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="31"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="41"/>
     </row>
     <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
-      <c r="B94" s="32">
+      <c r="A94" s="43"/>
+      <c r="B94" s="24">
         <v>28</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="D94" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E94" s="35" t="s">
+      <c r="E94" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F94" s="12" t="s">
@@ -4084,15 +4218,15 @@
         <v>138</v>
       </c>
       <c r="I94" s="12"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="38"/>
+      <c r="J94" s="27"/>
+      <c r="K94" s="30"/>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
       <c r="F95" s="13" t="s">
         <v>21</v>
       </c>
@@ -4103,36 +4237,36 @@
         <v>139</v>
       </c>
       <c r="I95" s="13"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="39"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="31"/>
     </row>
     <row r="96" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="42"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
       <c r="F96" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="18"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="40"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="32"/>
     </row>
     <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
-      <c r="B97" s="23">
+      <c r="A97" s="43"/>
+      <c r="B97" s="33">
         <v>29</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="26" t="s">
+      <c r="D97" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="E97" s="26" t="s">
+      <c r="E97" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F97" s="7" t="s">
@@ -4145,66 +4279,66 @@
         <v>142</v>
       </c>
       <c r="I97" s="7"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="29"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="39"/>
     </row>
     <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
       <c r="F98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="30"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="40"/>
     </row>
     <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
       <c r="F99" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G99" s="73"/>
+      <c r="G99" s="23"/>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="30"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="40"/>
     </row>
     <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="42"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
       <c r="F100" s="8" t="s">
         <v>331</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="16"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="31"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="41"/>
     </row>
     <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
-      <c r="B101" s="32">
+      <c r="A101" s="43"/>
+      <c r="B101" s="24">
         <v>30</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E101" s="35" t="s">
+      <c r="E101" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F101" s="12" t="s">
@@ -4217,15 +4351,15 @@
         <v>151</v>
       </c>
       <c r="I101" s="12"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="38"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="30"/>
     </row>
     <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="42"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
       <c r="F102" s="13" t="s">
         <v>21</v>
       </c>
@@ -4236,36 +4370,36 @@
         <v>153</v>
       </c>
       <c r="I102" s="13"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="39"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="31"/>
     </row>
     <row r="103" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="42"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
       <c r="F103" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="18"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="40"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="32"/>
     </row>
     <row r="104" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="42"/>
-      <c r="B104" s="23">
+      <c r="A104" s="43"/>
+      <c r="B104" s="33">
         <v>31</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="C104" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D104" s="26" t="s">
+      <c r="D104" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="E104" s="26" t="s">
+      <c r="E104" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F104" s="7" t="s">
@@ -4278,51 +4412,51 @@
         <v>154</v>
       </c>
       <c r="I104" s="7"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="29"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="39"/>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
       <c r="F105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="30"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="40"/>
     </row>
     <row r="106" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="42"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
       <c r="F106" s="8" t="s">
         <v>133</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="16"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="31"/>
+      <c r="J106" s="38"/>
+      <c r="K106" s="41"/>
     </row>
     <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
-      <c r="B107" s="32">
+      <c r="A107" s="43"/>
+      <c r="B107" s="24">
         <v>32</v>
       </c>
-      <c r="C107" s="35" t="s">
+      <c r="C107" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D107" s="35" t="s">
+      <c r="D107" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E107" s="35" t="s">
+      <c r="E107" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F107" s="12" t="s">
@@ -4335,15 +4469,15 @@
         <v>155</v>
       </c>
       <c r="I107" s="12"/>
-      <c r="J107" s="35"/>
-      <c r="K107" s="38"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="30"/>
     </row>
     <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
       <c r="F108" s="13" t="s">
         <v>21</v>
       </c>
@@ -4354,36 +4488,36 @@
         <v>156</v>
       </c>
       <c r="I108" s="13"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="39"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="31"/>
     </row>
     <row r="109" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="42"/>
-      <c r="B109" s="34"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
       <c r="F109" s="14" t="s">
         <v>147</v>
       </c>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
-      <c r="J109" s="37"/>
-      <c r="K109" s="40"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="32"/>
     </row>
     <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="42"/>
-      <c r="B110" s="23">
+      <c r="A110" s="43"/>
+      <c r="B110" s="33">
         <v>33</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D110" s="26" t="s">
+      <c r="D110" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E110" s="26" t="s">
+      <c r="E110" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F110" s="7" t="s">
@@ -4396,15 +4530,15 @@
         <v>159</v>
       </c>
       <c r="I110" s="7"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="29"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="39"/>
     </row>
     <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
       <c r="F111" s="2" t="s">
         <v>21</v>
       </c>
@@ -4415,36 +4549,36 @@
         <v>160</v>
       </c>
       <c r="I111" s="2"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="30"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="40"/>
     </row>
     <row r="112" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="42"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
+      <c r="A112" s="43"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
       <c r="F112" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
-      <c r="J112" s="28"/>
-      <c r="K112" s="31"/>
+      <c r="J112" s="38"/>
+      <c r="K112" s="41"/>
     </row>
     <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
-      <c r="B113" s="32">
+      <c r="A113" s="43"/>
+      <c r="B113" s="24">
         <v>34</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D113" s="35" t="s">
+      <c r="D113" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E113" s="35" t="s">
+      <c r="E113" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F113" s="12" t="s">
@@ -4457,15 +4591,15 @@
         <v>163</v>
       </c>
       <c r="I113" s="12"/>
-      <c r="J113" s="35"/>
-      <c r="K113" s="38"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="30"/>
     </row>
     <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="42"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="36"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
       <c r="F114" s="13" t="s">
         <v>21</v>
       </c>
@@ -4476,36 +4610,36 @@
         <v>164</v>
       </c>
       <c r="I114" s="13"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="39"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="31"/>
     </row>
     <row r="115" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="42"/>
-      <c r="B115" s="34"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
       <c r="F115" s="14" t="s">
         <v>147</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
-      <c r="J115" s="37"/>
-      <c r="K115" s="40"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="32"/>
     </row>
     <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="42"/>
-      <c r="B116" s="23">
+      <c r="A116" s="43"/>
+      <c r="B116" s="33">
         <v>35</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D116" s="26" t="s">
+      <c r="D116" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="E116" s="26" t="s">
+      <c r="E116" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F116" s="7" t="s">
@@ -4518,15 +4652,15 @@
         <v>167</v>
       </c>
       <c r="I116" s="7"/>
-      <c r="J116" s="26"/>
-      <c r="K116" s="29"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="39"/>
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="42"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
+      <c r="A117" s="43"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="37"/>
       <c r="F117" s="2" t="s">
         <v>21</v>
       </c>
@@ -4537,36 +4671,36 @@
         <v>168</v>
       </c>
       <c r="I117" s="2"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="30"/>
+      <c r="J117" s="37"/>
+      <c r="K117" s="40"/>
     </row>
     <row r="118" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="42"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="38"/>
       <c r="F118" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="31"/>
+      <c r="J118" s="38"/>
+      <c r="K118" s="41"/>
     </row>
     <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="42"/>
-      <c r="B119" s="32">
+      <c r="A119" s="43"/>
+      <c r="B119" s="24">
         <v>36</v>
       </c>
-      <c r="C119" s="35" t="s">
+      <c r="C119" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D119" s="35" t="s">
+      <c r="D119" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E119" s="35" t="s">
+      <c r="E119" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F119" s="12" t="s">
@@ -4579,15 +4713,15 @@
         <v>171</v>
       </c>
       <c r="I119" s="12"/>
-      <c r="J119" s="35"/>
-      <c r="K119" s="38"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="30"/>
     </row>
     <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="42"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
+      <c r="A120" s="43"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
       <c r="F120" s="13" t="s">
         <v>21</v>
       </c>
@@ -4598,36 +4732,36 @@
         <v>172</v>
       </c>
       <c r="I120" s="13"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="39"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="31"/>
     </row>
     <row r="121" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="42"/>
-      <c r="B121" s="34"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
+      <c r="A121" s="43"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
       <c r="F121" s="14" t="s">
         <v>147</v>
       </c>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
-      <c r="J121" s="37"/>
-      <c r="K121" s="40"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="32"/>
     </row>
     <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="42"/>
-      <c r="B122" s="23">
+      <c r="A122" s="43"/>
+      <c r="B122" s="33">
         <v>37</v>
       </c>
-      <c r="C122" s="26" t="s">
+      <c r="C122" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D122" s="26" t="s">
+      <c r="D122" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="E122" s="26" t="s">
+      <c r="E122" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F122" s="7" t="s">
@@ -4640,15 +4774,15 @@
         <v>175</v>
       </c>
       <c r="I122" s="7"/>
-      <c r="J122" s="26"/>
-      <c r="K122" s="29"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="39"/>
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="42"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
+      <c r="A123" s="43"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="37"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="37"/>
       <c r="F123" s="2" t="s">
         <v>21</v>
       </c>
@@ -4659,36 +4793,36 @@
         <v>176</v>
       </c>
       <c r="I123" s="2"/>
-      <c r="J123" s="27"/>
-      <c r="K123" s="30"/>
+      <c r="J123" s="37"/>
+      <c r="K123" s="40"/>
     </row>
     <row r="124" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="42"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
+      <c r="A124" s="43"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="38"/>
       <c r="F124" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
-      <c r="J124" s="28"/>
-      <c r="K124" s="31"/>
+      <c r="J124" s="38"/>
+      <c r="K124" s="41"/>
     </row>
     <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
-      <c r="B125" s="32">
+      <c r="A125" s="43"/>
+      <c r="B125" s="24">
         <v>38</v>
       </c>
-      <c r="C125" s="35" t="s">
+      <c r="C125" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="35" t="s">
+      <c r="D125" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="E125" s="35" t="s">
+      <c r="E125" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F125" s="12" t="s">
@@ -4701,15 +4835,15 @@
         <v>179</v>
       </c>
       <c r="I125" s="12"/>
-      <c r="J125" s="35"/>
-      <c r="K125" s="38"/>
+      <c r="J125" s="27"/>
+      <c r="K125" s="30"/>
     </row>
     <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
+      <c r="A126" s="43"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
       <c r="F126" s="13" t="s">
         <v>21</v>
       </c>
@@ -4720,36 +4854,36 @@
         <v>180</v>
       </c>
       <c r="I126" s="13"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="39"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="31"/>
     </row>
     <row r="127" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="42"/>
-      <c r="B127" s="34"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
+      <c r="A127" s="43"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
       <c r="F127" s="14" t="s">
         <v>147</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="40"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="32"/>
     </row>
     <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="42"/>
-      <c r="B128" s="23">
+      <c r="A128" s="43"/>
+      <c r="B128" s="33">
         <v>39</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="C128" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D128" s="26" t="s">
+      <c r="D128" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="E128" s="26" t="s">
+      <c r="E128" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F128" s="7" t="s">
@@ -4762,15 +4896,15 @@
         <v>183</v>
       </c>
       <c r="I128" s="7"/>
-      <c r="J128" s="26"/>
-      <c r="K128" s="29"/>
+      <c r="J128" s="36"/>
+      <c r="K128" s="39"/>
     </row>
     <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="42"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
+      <c r="A129" s="43"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="37"/>
       <c r="F129" s="2" t="s">
         <v>21</v>
       </c>
@@ -4781,36 +4915,36 @@
         <v>184</v>
       </c>
       <c r="I129" s="2"/>
-      <c r="J129" s="27"/>
-      <c r="K129" s="30"/>
+      <c r="J129" s="37"/>
+      <c r="K129" s="40"/>
     </row>
     <row r="130" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="42"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
+      <c r="A130" s="43"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
       <c r="F130" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
-      <c r="J130" s="28"/>
-      <c r="K130" s="31"/>
+      <c r="J130" s="38"/>
+      <c r="K130" s="41"/>
     </row>
     <row r="131" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="42"/>
-      <c r="B131" s="32">
+      <c r="A131" s="43"/>
+      <c r="B131" s="24">
         <v>40</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D131" s="35" t="s">
+      <c r="D131" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="E131" s="35" t="s">
+      <c r="E131" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F131" s="12" t="s">
@@ -4823,15 +4957,15 @@
         <v>190</v>
       </c>
       <c r="I131" s="12"/>
-      <c r="J131" s="35"/>
-      <c r="K131" s="38"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="30"/>
     </row>
     <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="42"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
+      <c r="A132" s="43"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
       <c r="F132" s="13" t="s">
         <v>21</v>
       </c>
@@ -4842,15 +4976,15 @@
         <v>191</v>
       </c>
       <c r="I132" s="13"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="39"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="31"/>
     </row>
     <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="42"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
+      <c r="A133" s="43"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
       <c r="F133" s="19" t="s">
         <v>147</v>
       </c>
@@ -4861,15 +4995,15 @@
         <v>192</v>
       </c>
       <c r="I133" s="19"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="39"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="31"/>
     </row>
     <row r="134" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="42"/>
-      <c r="B134" s="34"/>
-      <c r="C134" s="37"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
+      <c r="A134" s="43"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
       <c r="F134" s="14"/>
       <c r="G134" s="20" t="s">
         <v>189</v>
@@ -4878,21 +5012,21 @@
         <v>193</v>
       </c>
       <c r="I134" s="14"/>
-      <c r="J134" s="37"/>
-      <c r="K134" s="40"/>
+      <c r="J134" s="29"/>
+      <c r="K134" s="32"/>
     </row>
     <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="42"/>
-      <c r="B135" s="23">
+      <c r="A135" s="43"/>
+      <c r="B135" s="33">
         <v>41</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D135" s="26" t="s">
+      <c r="D135" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E135" s="26" t="s">
+      <c r="E135" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F135" s="7" t="s">
@@ -4905,15 +5039,15 @@
         <v>196</v>
       </c>
       <c r="I135" s="7"/>
-      <c r="J135" s="26"/>
-      <c r="K135" s="29"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="39"/>
     </row>
     <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="42"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
+      <c r="A136" s="43"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="37"/>
       <c r="F136" s="2" t="s">
         <v>21</v>
       </c>
@@ -4922,38 +5056,38 @@
         <v>197</v>
       </c>
       <c r="I136" s="2"/>
-      <c r="J136" s="27"/>
-      <c r="K136" s="30"/>
+      <c r="J136" s="37"/>
+      <c r="K136" s="40"/>
     </row>
     <row r="137" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="42"/>
-      <c r="B137" s="25"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
+      <c r="A137" s="43"/>
+      <c r="B137" s="35"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38"/>
       <c r="F137" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
-      <c r="J137" s="28"/>
-      <c r="K137" s="31"/>
+      <c r="J137" s="38"/>
+      <c r="K137" s="41"/>
     </row>
     <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="41" t="s">
+      <c r="A138" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="B138" s="32">
+      <c r="B138" s="24">
         <v>42</v>
       </c>
-      <c r="C138" s="35" t="s">
+      <c r="C138" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D138" s="35" t="s">
+      <c r="D138" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="E138" s="35" t="s">
+      <c r="E138" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F138" s="12" t="s">
@@ -4966,51 +5100,51 @@
         <v>203</v>
       </c>
       <c r="I138" s="12"/>
-      <c r="J138" s="35"/>
-      <c r="K138" s="38"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="30"/>
     </row>
     <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="42"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="36"/>
-      <c r="E139" s="36"/>
+      <c r="A139" s="43"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="28"/>
       <c r="F139" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="13"/>
       <c r="I139" s="13"/>
-      <c r="J139" s="36"/>
-      <c r="K139" s="39"/>
+      <c r="J139" s="28"/>
+      <c r="K139" s="31"/>
     </row>
     <row r="140" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="42"/>
-      <c r="B140" s="34"/>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
+      <c r="A140" s="43"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
       <c r="F140" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
-      <c r="J140" s="37"/>
-      <c r="K140" s="40"/>
+      <c r="J140" s="29"/>
+      <c r="K140" s="32"/>
     </row>
     <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="42"/>
-      <c r="B141" s="23">
+      <c r="A141" s="43"/>
+      <c r="B141" s="33">
         <v>43</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D141" s="26" t="s">
+      <c r="D141" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="E141" s="26" t="s">
+      <c r="E141" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F141" s="7" t="s">
@@ -5023,15 +5157,15 @@
         <v>151</v>
       </c>
       <c r="I141" s="7"/>
-      <c r="J141" s="26"/>
-      <c r="K141" s="29"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="39"/>
     </row>
     <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="42"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
+      <c r="A142" s="43"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
       <c r="F142" s="2" t="s">
         <v>21</v>
       </c>
@@ -5042,36 +5176,36 @@
         <v>153</v>
       </c>
       <c r="I142" s="2"/>
-      <c r="J142" s="27"/>
-      <c r="K142" s="30"/>
+      <c r="J142" s="37"/>
+      <c r="K142" s="40"/>
     </row>
     <row r="143" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="42"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
+      <c r="A143" s="43"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="38"/>
+      <c r="E143" s="38"/>
       <c r="F143" s="8" t="s">
         <v>204</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
-      <c r="J143" s="28"/>
-      <c r="K143" s="31"/>
+      <c r="J143" s="38"/>
+      <c r="K143" s="41"/>
     </row>
     <row r="144" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" s="42"/>
-      <c r="B144" s="32">
+      <c r="A144" s="43"/>
+      <c r="B144" s="24">
         <v>44</v>
       </c>
-      <c r="C144" s="35" t="s">
+      <c r="C144" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D144" s="35" t="s">
+      <c r="D144" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="E144" s="35" t="s">
+      <c r="E144" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F144" s="12" t="s">
@@ -5084,51 +5218,51 @@
         <v>207</v>
       </c>
       <c r="I144" s="12"/>
-      <c r="J144" s="35"/>
-      <c r="K144" s="38"/>
+      <c r="J144" s="27"/>
+      <c r="K144" s="30"/>
     </row>
     <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="42"/>
-      <c r="B145" s="33"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
-      <c r="E145" s="36"/>
+      <c r="A145" s="43"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28"/>
       <c r="F145" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G145" s="13"/>
       <c r="H145" s="13"/>
       <c r="I145" s="13"/>
-      <c r="J145" s="36"/>
-      <c r="K145" s="39"/>
+      <c r="J145" s="28"/>
+      <c r="K145" s="31"/>
     </row>
     <row r="146" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="42"/>
-      <c r="B146" s="34"/>
-      <c r="C146" s="37"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
+      <c r="A146" s="43"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
       <c r="F146" s="14" t="s">
         <v>204</v>
       </c>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
-      <c r="J146" s="37"/>
-      <c r="K146" s="40"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="32"/>
     </row>
     <row r="147" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="42"/>
-      <c r="B147" s="23">
+      <c r="A147" s="43"/>
+      <c r="B147" s="33">
         <v>45</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D147" s="26" t="s">
+      <c r="D147" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="E147" s="26" t="s">
+      <c r="E147" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F147" s="7" t="s">
@@ -5141,15 +5275,15 @@
         <v>211</v>
       </c>
       <c r="I147" s="7"/>
-      <c r="J147" s="26"/>
-      <c r="K147" s="29"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="39"/>
     </row>
     <row r="148" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="42"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
+      <c r="A148" s="43"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="37"/>
       <c r="F148" s="2" t="s">
         <v>21</v>
       </c>
@@ -5160,36 +5294,36 @@
         <v>212</v>
       </c>
       <c r="I148" s="2"/>
-      <c r="J148" s="27"/>
-      <c r="K148" s="30"/>
+      <c r="J148" s="37"/>
+      <c r="K148" s="40"/>
     </row>
     <row r="149" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="42"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
+      <c r="A149" s="43"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38"/>
       <c r="F149" s="8" t="s">
         <v>208</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
-      <c r="J149" s="28"/>
-      <c r="K149" s="31"/>
+      <c r="J149" s="38"/>
+      <c r="K149" s="41"/>
     </row>
     <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="42"/>
-      <c r="B150" s="32">
+      <c r="A150" s="43"/>
+      <c r="B150" s="24">
         <v>46</v>
       </c>
-      <c r="C150" s="35" t="s">
+      <c r="C150" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D150" s="35" t="s">
+      <c r="D150" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="E150" s="35" t="s">
+      <c r="E150" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F150" s="12" t="s">
@@ -5202,15 +5336,15 @@
         <v>217</v>
       </c>
       <c r="I150" s="12"/>
-      <c r="J150" s="35"/>
-      <c r="K150" s="38"/>
+      <c r="J150" s="27"/>
+      <c r="K150" s="30"/>
     </row>
     <row r="151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="42"/>
-      <c r="B151" s="33"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="36"/>
-      <c r="E151" s="36"/>
+      <c r="A151" s="43"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
       <c r="F151" s="13" t="s">
         <v>21</v>
       </c>
@@ -5221,15 +5355,15 @@
         <v>218</v>
       </c>
       <c r="I151" s="13"/>
-      <c r="J151" s="36"/>
-      <c r="K151" s="39"/>
+      <c r="J151" s="28"/>
+      <c r="K151" s="31"/>
     </row>
     <row r="152" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="42"/>
-      <c r="B152" s="34"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
+      <c r="A152" s="43"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
       <c r="F152" s="14" t="s">
         <v>208</v>
       </c>
@@ -5240,21 +5374,21 @@
         <v>219</v>
       </c>
       <c r="I152" s="14"/>
-      <c r="J152" s="37"/>
-      <c r="K152" s="40"/>
+      <c r="J152" s="29"/>
+      <c r="K152" s="32"/>
     </row>
     <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="42"/>
-      <c r="B153" s="23">
+      <c r="A153" s="43"/>
+      <c r="B153" s="33">
         <v>47</v>
       </c>
-      <c r="C153" s="26" t="s">
+      <c r="C153" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D153" s="26" t="s">
+      <c r="D153" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="E153" s="26" t="s">
+      <c r="E153" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F153" s="7" t="s">
@@ -5267,15 +5401,15 @@
         <v>223</v>
       </c>
       <c r="I153" s="7"/>
-      <c r="J153" s="26"/>
-      <c r="K153" s="29"/>
+      <c r="J153" s="36"/>
+      <c r="K153" s="39"/>
     </row>
     <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="42"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="27"/>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
+      <c r="A154" s="43"/>
+      <c r="B154" s="34"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="37"/>
       <c r="F154" s="2" t="s">
         <v>21</v>
       </c>
@@ -5286,36 +5420,36 @@
         <v>224</v>
       </c>
       <c r="I154" s="2"/>
-      <c r="J154" s="27"/>
-      <c r="K154" s="30"/>
+      <c r="J154" s="37"/>
+      <c r="K154" s="40"/>
     </row>
     <row r="155" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="42"/>
-      <c r="B155" s="25"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
+      <c r="A155" s="43"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="38"/>
+      <c r="D155" s="38"/>
+      <c r="E155" s="38"/>
       <c r="F155" s="8" t="s">
         <v>208</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
-      <c r="J155" s="28"/>
-      <c r="K155" s="31"/>
+      <c r="J155" s="38"/>
+      <c r="K155" s="41"/>
     </row>
     <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="42"/>
-      <c r="B156" s="32">
+      <c r="A156" s="43"/>
+      <c r="B156" s="24">
         <v>48</v>
       </c>
-      <c r="C156" s="35" t="s">
+      <c r="C156" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D156" s="35" t="s">
+      <c r="D156" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="E156" s="35" t="s">
+      <c r="E156" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F156" s="12" t="s">
@@ -5328,15 +5462,15 @@
         <v>223</v>
       </c>
       <c r="I156" s="12"/>
-      <c r="J156" s="35"/>
-      <c r="K156" s="38"/>
+      <c r="J156" s="27"/>
+      <c r="K156" s="30"/>
     </row>
     <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="42"/>
-      <c r="B157" s="33"/>
-      <c r="C157" s="36"/>
-      <c r="D157" s="36"/>
-      <c r="E157" s="36"/>
+      <c r="A157" s="43"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
       <c r="F157" s="13" t="s">
         <v>21</v>
       </c>
@@ -5347,36 +5481,36 @@
         <v>227</v>
       </c>
       <c r="I157" s="13"/>
-      <c r="J157" s="36"/>
-      <c r="K157" s="39"/>
+      <c r="J157" s="28"/>
+      <c r="K157" s="31"/>
     </row>
     <row r="158" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="42"/>
-      <c r="B158" s="34"/>
-      <c r="C158" s="37"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
+      <c r="A158" s="43"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29"/>
       <c r="F158" s="14" t="s">
         <v>208</v>
       </c>
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
-      <c r="J158" s="37"/>
-      <c r="K158" s="40"/>
+      <c r="J158" s="29"/>
+      <c r="K158" s="32"/>
     </row>
     <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="42"/>
-      <c r="B159" s="23">
+      <c r="A159" s="43"/>
+      <c r="B159" s="33">
         <v>49</v>
       </c>
-      <c r="C159" s="26" t="s">
+      <c r="C159" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D159" s="26" t="s">
+      <c r="D159" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="E159" s="26" t="s">
+      <c r="E159" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="7" t="s">
@@ -5389,51 +5523,51 @@
         <v>230</v>
       </c>
       <c r="I159" s="7"/>
-      <c r="J159" s="26"/>
-      <c r="K159" s="29"/>
+      <c r="J159" s="36"/>
+      <c r="K159" s="39"/>
     </row>
     <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="42"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="27"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
+      <c r="A160" s="43"/>
+      <c r="B160" s="34"/>
+      <c r="C160" s="37"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="37"/>
       <c r="F160" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
-      <c r="J160" s="27"/>
-      <c r="K160" s="30"/>
+      <c r="J160" s="37"/>
+      <c r="K160" s="40"/>
     </row>
     <row r="161" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="42"/>
-      <c r="B161" s="25"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
-      <c r="E161" s="28"/>
+      <c r="A161" s="43"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="38"/>
+      <c r="D161" s="38"/>
+      <c r="E161" s="38"/>
       <c r="F161" s="8" t="s">
         <v>208</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
-      <c r="J161" s="28"/>
-      <c r="K161" s="31"/>
+      <c r="J161" s="38"/>
+      <c r="K161" s="41"/>
     </row>
     <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="42"/>
-      <c r="B162" s="32">
+      <c r="A162" s="43"/>
+      <c r="B162" s="24">
         <v>50</v>
       </c>
-      <c r="C162" s="35" t="s">
+      <c r="C162" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D162" s="35" t="s">
+      <c r="D162" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="E162" s="35" t="s">
+      <c r="E162" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F162" s="12" t="s">
@@ -5446,15 +5580,15 @@
         <v>138</v>
       </c>
       <c r="I162" s="12"/>
-      <c r="J162" s="35"/>
-      <c r="K162" s="38"/>
+      <c r="J162" s="27"/>
+      <c r="K162" s="30"/>
     </row>
     <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="42"/>
-      <c r="B163" s="33"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="36"/>
-      <c r="E163" s="36"/>
+      <c r="A163" s="43"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
       <c r="F163" s="13" t="s">
         <v>21</v>
       </c>
@@ -5465,36 +5599,36 @@
         <v>139</v>
       </c>
       <c r="I163" s="13"/>
-      <c r="J163" s="36"/>
-      <c r="K163" s="39"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="31"/>
     </row>
     <row r="164" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="42"/>
-      <c r="B164" s="34"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
+      <c r="A164" s="43"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="29"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="29"/>
       <c r="F164" s="14" t="s">
         <v>204</v>
       </c>
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
-      <c r="J164" s="37"/>
-      <c r="K164" s="40"/>
+      <c r="J164" s="29"/>
+      <c r="K164" s="32"/>
     </row>
     <row r="165" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A165" s="42"/>
-      <c r="B165" s="23">
+      <c r="A165" s="43"/>
+      <c r="B165" s="33">
         <v>51</v>
       </c>
-      <c r="C165" s="26" t="s">
+      <c r="C165" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D165" s="26" t="s">
+      <c r="D165" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="E165" s="26" t="s">
+      <c r="E165" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F165" s="7" t="s">
@@ -5507,15 +5641,15 @@
         <v>233</v>
       </c>
       <c r="I165" s="7"/>
-      <c r="J165" s="26"/>
-      <c r="K165" s="29"/>
+      <c r="J165" s="36"/>
+      <c r="K165" s="39"/>
     </row>
     <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="42"/>
-      <c r="B166" s="24"/>
-      <c r="C166" s="27"/>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
+      <c r="A166" s="43"/>
+      <c r="B166" s="34"/>
+      <c r="C166" s="37"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="37"/>
       <c r="F166" s="2" t="s">
         <v>21</v>
       </c>
@@ -5526,15 +5660,15 @@
         <v>234</v>
       </c>
       <c r="I166" s="2"/>
-      <c r="J166" s="27"/>
-      <c r="K166" s="30"/>
+      <c r="J166" s="37"/>
+      <c r="K166" s="40"/>
     </row>
     <row r="167" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="42"/>
-      <c r="B167" s="25"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28"/>
+      <c r="A167" s="43"/>
+      <c r="B167" s="35"/>
+      <c r="C167" s="38"/>
+      <c r="D167" s="38"/>
+      <c r="E167" s="38"/>
       <c r="F167" s="8" t="s">
         <v>204</v>
       </c>
@@ -5545,21 +5679,21 @@
         <v>236</v>
       </c>
       <c r="I167" s="8"/>
-      <c r="J167" s="28"/>
-      <c r="K167" s="31"/>
+      <c r="J167" s="38"/>
+      <c r="K167" s="41"/>
     </row>
     <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A168" s="42"/>
-      <c r="B168" s="32">
+      <c r="A168" s="43"/>
+      <c r="B168" s="24">
         <v>52</v>
       </c>
-      <c r="C168" s="35" t="s">
+      <c r="C168" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D168" s="35" t="s">
+      <c r="D168" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="E168" s="35" t="s">
+      <c r="E168" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F168" s="12" t="s">
@@ -5572,15 +5706,15 @@
         <v>233</v>
       </c>
       <c r="I168" s="12"/>
-      <c r="J168" s="35"/>
-      <c r="K168" s="38"/>
+      <c r="J168" s="27"/>
+      <c r="K168" s="30"/>
     </row>
     <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="42"/>
-      <c r="B169" s="33"/>
-      <c r="C169" s="36"/>
-      <c r="D169" s="36"/>
-      <c r="E169" s="36"/>
+      <c r="A169" s="43"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
       <c r="F169" s="13" t="s">
         <v>21</v>
       </c>
@@ -5591,15 +5725,15 @@
         <v>242</v>
       </c>
       <c r="I169" s="13"/>
-      <c r="J169" s="36"/>
-      <c r="K169" s="39"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="31"/>
     </row>
     <row r="170" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="42"/>
-      <c r="B170" s="34"/>
-      <c r="C170" s="37"/>
-      <c r="D170" s="37"/>
-      <c r="E170" s="37"/>
+      <c r="A170" s="43"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
       <c r="F170" s="14" t="s">
         <v>204</v>
       </c>
@@ -5610,21 +5744,21 @@
         <v>243</v>
       </c>
       <c r="I170" s="14"/>
-      <c r="J170" s="37"/>
-      <c r="K170" s="40"/>
+      <c r="J170" s="29"/>
+      <c r="K170" s="32"/>
     </row>
     <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="42"/>
-      <c r="B171" s="23">
+      <c r="A171" s="43"/>
+      <c r="B171" s="33">
         <v>53</v>
       </c>
-      <c r="C171" s="26" t="s">
+      <c r="C171" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D171" s="26" t="s">
+      <c r="D171" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="E171" s="26" t="s">
+      <c r="E171" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F171" s="7" t="s">
@@ -5637,15 +5771,15 @@
         <v>246</v>
       </c>
       <c r="I171" s="7"/>
-      <c r="J171" s="26"/>
-      <c r="K171" s="29"/>
+      <c r="J171" s="36"/>
+      <c r="K171" s="39"/>
     </row>
     <row r="172" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="42"/>
-      <c r="B172" s="24"/>
-      <c r="C172" s="27"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
+      <c r="A172" s="43"/>
+      <c r="B172" s="34"/>
+      <c r="C172" s="37"/>
+      <c r="D172" s="37"/>
+      <c r="E172" s="37"/>
       <c r="F172" s="2" t="s">
         <v>21</v>
       </c>
@@ -5656,36 +5790,36 @@
         <v>248</v>
       </c>
       <c r="I172" s="2"/>
-      <c r="J172" s="27"/>
-      <c r="K172" s="30"/>
+      <c r="J172" s="37"/>
+      <c r="K172" s="40"/>
     </row>
     <row r="173" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="42"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="28"/>
+      <c r="A173" s="43"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="38"/>
+      <c r="D173" s="38"/>
+      <c r="E173" s="38"/>
       <c r="F173" s="8" t="s">
         <v>204</v>
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
-      <c r="J173" s="28"/>
-      <c r="K173" s="31"/>
+      <c r="J173" s="38"/>
+      <c r="K173" s="41"/>
     </row>
     <row r="174" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="42"/>
-      <c r="B174" s="32">
+      <c r="A174" s="43"/>
+      <c r="B174" s="24">
         <v>54</v>
       </c>
-      <c r="C174" s="35" t="s">
+      <c r="C174" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D174" s="35" t="s">
+      <c r="D174" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="E174" s="35" t="s">
+      <c r="E174" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F174" s="12" t="s">
@@ -5698,15 +5832,15 @@
         <v>246</v>
       </c>
       <c r="I174" s="12"/>
-      <c r="J174" s="35"/>
-      <c r="K174" s="38"/>
+      <c r="J174" s="27"/>
+      <c r="K174" s="30"/>
     </row>
     <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="42"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="36"/>
-      <c r="D175" s="36"/>
-      <c r="E175" s="36"/>
+      <c r="A175" s="43"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
       <c r="F175" s="13" t="s">
         <v>21</v>
       </c>
@@ -5717,36 +5851,36 @@
         <v>251</v>
       </c>
       <c r="I175" s="13"/>
-      <c r="J175" s="36"/>
-      <c r="K175" s="39"/>
+      <c r="J175" s="28"/>
+      <c r="K175" s="31"/>
     </row>
     <row r="176" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="42"/>
-      <c r="B176" s="34"/>
-      <c r="C176" s="37"/>
-      <c r="D176" s="37"/>
-      <c r="E176" s="37"/>
+      <c r="A176" s="43"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="29"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="29"/>
       <c r="F176" s="14" t="s">
         <v>204</v>
       </c>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
-      <c r="J176" s="37"/>
-      <c r="K176" s="40"/>
+      <c r="J176" s="29"/>
+      <c r="K176" s="32"/>
     </row>
     <row r="177" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A177" s="42"/>
-      <c r="B177" s="23">
+      <c r="A177" s="43"/>
+      <c r="B177" s="33">
         <v>55</v>
       </c>
-      <c r="C177" s="26" t="s">
+      <c r="C177" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D177" s="26" t="s">
+      <c r="D177" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="E177" s="26" t="s">
+      <c r="E177" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F177" s="7" t="s">
@@ -5759,15 +5893,15 @@
         <v>233</v>
       </c>
       <c r="I177" s="7"/>
-      <c r="J177" s="26"/>
-      <c r="K177" s="29"/>
+      <c r="J177" s="36"/>
+      <c r="K177" s="39"/>
     </row>
     <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="42"/>
-      <c r="B178" s="24"/>
-      <c r="C178" s="27"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
+      <c r="A178" s="43"/>
+      <c r="B178" s="34"/>
+      <c r="C178" s="37"/>
+      <c r="D178" s="37"/>
+      <c r="E178" s="37"/>
       <c r="F178" s="2" t="s">
         <v>21</v>
       </c>
@@ -5778,15 +5912,15 @@
         <v>259</v>
       </c>
       <c r="I178" s="2"/>
-      <c r="J178" s="27"/>
-      <c r="K178" s="30"/>
+      <c r="J178" s="37"/>
+      <c r="K178" s="40"/>
     </row>
     <row r="179" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="42"/>
-      <c r="B179" s="25"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
+      <c r="A179" s="43"/>
+      <c r="B179" s="35"/>
+      <c r="C179" s="38"/>
+      <c r="D179" s="38"/>
+      <c r="E179" s="38"/>
       <c r="F179" s="8" t="s">
         <v>204</v>
       </c>
@@ -5797,21 +5931,21 @@
         <v>260</v>
       </c>
       <c r="I179" s="8"/>
-      <c r="J179" s="28"/>
-      <c r="K179" s="31"/>
+      <c r="J179" s="38"/>
+      <c r="K179" s="41"/>
     </row>
     <row r="180" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A180" s="42"/>
-      <c r="B180" s="32">
+      <c r="A180" s="43"/>
+      <c r="B180" s="24">
         <v>56</v>
       </c>
-      <c r="C180" s="35" t="s">
+      <c r="C180" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D180" s="35" t="s">
+      <c r="D180" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="E180" s="35" t="s">
+      <c r="E180" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F180" s="12" t="s">
@@ -5824,15 +5958,15 @@
         <v>233</v>
       </c>
       <c r="I180" s="12"/>
-      <c r="J180" s="35"/>
-      <c r="K180" s="38"/>
+      <c r="J180" s="27"/>
+      <c r="K180" s="30"/>
     </row>
     <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="42"/>
-      <c r="B181" s="33"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="36"/>
-      <c r="E181" s="36"/>
+      <c r="A181" s="43"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
       <c r="F181" s="13" t="s">
         <v>21</v>
       </c>
@@ -5843,15 +5977,15 @@
         <v>262</v>
       </c>
       <c r="I181" s="13"/>
-      <c r="J181" s="36"/>
-      <c r="K181" s="39"/>
+      <c r="J181" s="28"/>
+      <c r="K181" s="31"/>
     </row>
     <row r="182" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="42"/>
-      <c r="B182" s="34"/>
-      <c r="C182" s="37"/>
-      <c r="D182" s="37"/>
-      <c r="E182" s="37"/>
+      <c r="A182" s="43"/>
+      <c r="B182" s="26"/>
+      <c r="C182" s="29"/>
+      <c r="D182" s="29"/>
+      <c r="E182" s="29"/>
       <c r="F182" s="14" t="s">
         <v>204</v>
       </c>
@@ -5862,21 +5996,21 @@
         <v>263</v>
       </c>
       <c r="I182" s="14"/>
-      <c r="J182" s="37"/>
-      <c r="K182" s="40"/>
+      <c r="J182" s="29"/>
+      <c r="K182" s="32"/>
     </row>
     <row r="183" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A183" s="42"/>
-      <c r="B183" s="23">
+      <c r="A183" s="43"/>
+      <c r="B183" s="33">
         <v>57</v>
       </c>
-      <c r="C183" s="26" t="s">
+      <c r="C183" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D183" s="26" t="s">
+      <c r="D183" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="E183" s="26" t="s">
+      <c r="E183" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F183" s="7" t="s">
@@ -5889,15 +6023,15 @@
         <v>233</v>
       </c>
       <c r="I183" s="7"/>
-      <c r="J183" s="26"/>
-      <c r="K183" s="29"/>
+      <c r="J183" s="36"/>
+      <c r="K183" s="39"/>
     </row>
     <row r="184" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="42"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="27"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
+      <c r="A184" s="43"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="37"/>
+      <c r="D184" s="37"/>
+      <c r="E184" s="37"/>
       <c r="F184" s="2" t="s">
         <v>21</v>
       </c>
@@ -5908,15 +6042,15 @@
         <v>265</v>
       </c>
       <c r="I184" s="2"/>
-      <c r="J184" s="27"/>
-      <c r="K184" s="30"/>
+      <c r="J184" s="37"/>
+      <c r="K184" s="40"/>
     </row>
     <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A185" s="41"/>
-      <c r="B185" s="24"/>
-      <c r="C185" s="27"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
+      <c r="A185" s="42"/>
+      <c r="B185" s="34"/>
+      <c r="C185" s="37"/>
+      <c r="D185" s="37"/>
+      <c r="E185" s="37"/>
       <c r="F185" s="21" t="s">
         <v>204</v>
       </c>
@@ -5927,15 +6061,15 @@
         <v>268</v>
       </c>
       <c r="I185" s="21"/>
-      <c r="J185" s="27"/>
-      <c r="K185" s="30"/>
+      <c r="J185" s="37"/>
+      <c r="K185" s="40"/>
     </row>
     <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="42"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
+      <c r="A186" s="43"/>
+      <c r="B186" s="34"/>
+      <c r="C186" s="37"/>
+      <c r="D186" s="37"/>
+      <c r="E186" s="37"/>
       <c r="F186" s="21"/>
       <c r="G186" s="21" t="s">
         <v>267</v>
@@ -5944,15 +6078,15 @@
         <v>269</v>
       </c>
       <c r="I186" s="21"/>
-      <c r="J186" s="27"/>
-      <c r="K186" s="30"/>
+      <c r="J186" s="37"/>
+      <c r="K186" s="40"/>
     </row>
     <row r="187" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="42"/>
-      <c r="B187" s="25"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
-      <c r="E187" s="28"/>
+      <c r="A187" s="43"/>
+      <c r="B187" s="35"/>
+      <c r="C187" s="38"/>
+      <c r="D187" s="38"/>
+      <c r="E187" s="38"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8" t="s">
         <v>270</v>
@@ -5961,21 +6095,21 @@
         <v>276</v>
       </c>
       <c r="I187" s="8"/>
-      <c r="J187" s="28"/>
-      <c r="K187" s="31"/>
+      <c r="J187" s="38"/>
+      <c r="K187" s="41"/>
     </row>
     <row r="188" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="42"/>
-      <c r="B188" s="32">
+      <c r="A188" s="43"/>
+      <c r="B188" s="24">
         <v>58</v>
       </c>
-      <c r="C188" s="35" t="s">
+      <c r="C188" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D188" s="35" t="s">
+      <c r="D188" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="E188" s="35" t="s">
+      <c r="E188" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F188" s="12" t="s">
@@ -5988,15 +6122,15 @@
         <v>233</v>
       </c>
       <c r="I188" s="12"/>
-      <c r="J188" s="35"/>
-      <c r="K188" s="38"/>
+      <c r="J188" s="27"/>
+      <c r="K188" s="30"/>
     </row>
     <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="42"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="36"/>
-      <c r="D189" s="36"/>
-      <c r="E189" s="36"/>
+      <c r="A189" s="43"/>
+      <c r="B189" s="25"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
       <c r="F189" s="13" t="s">
         <v>21</v>
       </c>
@@ -6007,15 +6141,15 @@
         <v>272</v>
       </c>
       <c r="I189" s="13"/>
-      <c r="J189" s="36"/>
-      <c r="K189" s="39"/>
+      <c r="J189" s="28"/>
+      <c r="K189" s="31"/>
     </row>
     <row r="190" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="42"/>
-      <c r="B190" s="33"/>
-      <c r="C190" s="36"/>
-      <c r="D190" s="36"/>
-      <c r="E190" s="36"/>
+      <c r="A190" s="43"/>
+      <c r="B190" s="25"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
       <c r="F190" s="13" t="s">
         <v>204</v>
       </c>
@@ -6026,15 +6160,15 @@
         <v>274</v>
       </c>
       <c r="I190" s="13"/>
-      <c r="J190" s="36"/>
-      <c r="K190" s="39"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="31"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="42"/>
-      <c r="B191" s="33"/>
-      <c r="C191" s="36"/>
-      <c r="D191" s="36"/>
-      <c r="E191" s="36"/>
+      <c r="A191" s="43"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28"/>
       <c r="F191" s="22"/>
       <c r="G191" s="13" t="s">
         <v>267</v>
@@ -6043,15 +6177,15 @@
         <v>275</v>
       </c>
       <c r="I191" s="22"/>
-      <c r="J191" s="36"/>
-      <c r="K191" s="39"/>
+      <c r="J191" s="28"/>
+      <c r="K191" s="31"/>
     </row>
     <row r="192" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="42"/>
-      <c r="B192" s="34"/>
-      <c r="C192" s="37"/>
-      <c r="D192" s="37"/>
-      <c r="E192" s="37"/>
+      <c r="A192" s="43"/>
+      <c r="B192" s="26"/>
+      <c r="C192" s="29"/>
+      <c r="D192" s="29"/>
+      <c r="E192" s="29"/>
       <c r="F192" s="22"/>
       <c r="G192" s="22" t="s">
         <v>270</v>
@@ -6060,21 +6194,21 @@
         <v>277</v>
       </c>
       <c r="I192" s="22"/>
-      <c r="J192" s="37"/>
-      <c r="K192" s="40"/>
+      <c r="J192" s="29"/>
+      <c r="K192" s="32"/>
     </row>
     <row r="193" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A193" s="42"/>
-      <c r="B193" s="23">
+      <c r="A193" s="43"/>
+      <c r="B193" s="33">
         <v>59</v>
       </c>
-      <c r="C193" s="26" t="s">
+      <c r="C193" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D193" s="26" t="s">
+      <c r="D193" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="E193" s="26" t="s">
+      <c r="E193" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F193" s="7" t="s">
@@ -6087,15 +6221,15 @@
         <v>233</v>
       </c>
       <c r="I193" s="7"/>
-      <c r="J193" s="26"/>
-      <c r="K193" s="29"/>
+      <c r="J193" s="36"/>
+      <c r="K193" s="39"/>
     </row>
     <row r="194" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="42"/>
-      <c r="B194" s="24"/>
-      <c r="C194" s="27"/>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
+      <c r="A194" s="43"/>
+      <c r="B194" s="34"/>
+      <c r="C194" s="37"/>
+      <c r="D194" s="37"/>
+      <c r="E194" s="37"/>
       <c r="F194" s="2" t="s">
         <v>21</v>
       </c>
@@ -6106,15 +6240,15 @@
         <v>279</v>
       </c>
       <c r="I194" s="2"/>
-      <c r="J194" s="27"/>
-      <c r="K194" s="30"/>
+      <c r="J194" s="37"/>
+      <c r="K194" s="40"/>
     </row>
     <row r="195" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="42"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="28"/>
-      <c r="E195" s="28"/>
+      <c r="A195" s="43"/>
+      <c r="B195" s="35"/>
+      <c r="C195" s="38"/>
+      <c r="D195" s="38"/>
+      <c r="E195" s="38"/>
       <c r="F195" s="8" t="s">
         <v>204</v>
       </c>
@@ -6125,21 +6259,21 @@
         <v>284</v>
       </c>
       <c r="I195" s="8"/>
-      <c r="J195" s="28"/>
-      <c r="K195" s="31"/>
+      <c r="J195" s="38"/>
+      <c r="K195" s="41"/>
     </row>
     <row r="196" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A196" s="42"/>
-      <c r="B196" s="32">
+      <c r="A196" s="43"/>
+      <c r="B196" s="24">
         <v>60</v>
       </c>
-      <c r="C196" s="35" t="s">
+      <c r="C196" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D196" s="35" t="s">
+      <c r="D196" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="E196" s="35" t="s">
+      <c r="E196" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F196" s="12" t="s">
@@ -6152,15 +6286,15 @@
         <v>233</v>
       </c>
       <c r="I196" s="12"/>
-      <c r="J196" s="35"/>
-      <c r="K196" s="38"/>
+      <c r="J196" s="27"/>
+      <c r="K196" s="30"/>
     </row>
     <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="42"/>
-      <c r="B197" s="33"/>
-      <c r="C197" s="36"/>
-      <c r="D197" s="36"/>
-      <c r="E197" s="36"/>
+      <c r="A197" s="43"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="28"/>
       <c r="F197" s="13" t="s">
         <v>21</v>
       </c>
@@ -6171,15 +6305,15 @@
         <v>282</v>
       </c>
       <c r="I197" s="13"/>
-      <c r="J197" s="36"/>
-      <c r="K197" s="39"/>
+      <c r="J197" s="28"/>
+      <c r="K197" s="31"/>
     </row>
     <row r="198" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="42"/>
-      <c r="B198" s="34"/>
-      <c r="C198" s="37"/>
-      <c r="D198" s="37"/>
-      <c r="E198" s="37"/>
+      <c r="A198" s="43"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="29"/>
+      <c r="D198" s="29"/>
+      <c r="E198" s="29"/>
       <c r="F198" s="14" t="s">
         <v>204</v>
       </c>
@@ -6190,21 +6324,21 @@
         <v>285</v>
       </c>
       <c r="I198" s="14"/>
-      <c r="J198" s="37"/>
-      <c r="K198" s="40"/>
+      <c r="J198" s="29"/>
+      <c r="K198" s="32"/>
     </row>
     <row r="199" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A199" s="42"/>
-      <c r="B199" s="23">
+      <c r="A199" s="43"/>
+      <c r="B199" s="33">
         <v>61</v>
       </c>
-      <c r="C199" s="26" t="s">
+      <c r="C199" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D199" s="26" t="s">
+      <c r="D199" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="E199" s="26" t="s">
+      <c r="E199" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F199" s="7" t="s">
@@ -6217,15 +6351,15 @@
         <v>288</v>
       </c>
       <c r="I199" s="7"/>
-      <c r="J199" s="26"/>
-      <c r="K199" s="29"/>
+      <c r="J199" s="36"/>
+      <c r="K199" s="39"/>
     </row>
     <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="42"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="27"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="27"/>
+      <c r="A200" s="43"/>
+      <c r="B200" s="34"/>
+      <c r="C200" s="37"/>
+      <c r="D200" s="37"/>
+      <c r="E200" s="37"/>
       <c r="F200" s="2" t="s">
         <v>21</v>
       </c>
@@ -6236,15 +6370,15 @@
         <v>290</v>
       </c>
       <c r="I200" s="2"/>
-      <c r="J200" s="27"/>
-      <c r="K200" s="30"/>
+      <c r="J200" s="37"/>
+      <c r="K200" s="40"/>
     </row>
     <row r="201" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A201" s="42"/>
-      <c r="B201" s="24"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
+      <c r="A201" s="43"/>
+      <c r="B201" s="34"/>
+      <c r="C201" s="37"/>
+      <c r="D201" s="37"/>
+      <c r="E201" s="37"/>
       <c r="F201" s="21" t="s">
         <v>204</v>
       </c>
@@ -6255,15 +6389,15 @@
         <v>292</v>
       </c>
       <c r="I201" s="21"/>
-      <c r="J201" s="27"/>
-      <c r="K201" s="30"/>
+      <c r="J201" s="37"/>
+      <c r="K201" s="40"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="42"/>
-      <c r="B202" s="24"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
+      <c r="A202" s="43"/>
+      <c r="B202" s="34"/>
+      <c r="C202" s="37"/>
+      <c r="D202" s="37"/>
+      <c r="E202" s="37"/>
       <c r="F202" s="21"/>
       <c r="G202" s="21" t="s">
         <v>293</v>
@@ -6272,15 +6406,15 @@
         <v>294</v>
       </c>
       <c r="I202" s="21"/>
-      <c r="J202" s="27"/>
-      <c r="K202" s="30"/>
+      <c r="J202" s="37"/>
+      <c r="K202" s="40"/>
     </row>
     <row r="203" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="42"/>
-      <c r="B203" s="24"/>
-      <c r="C203" s="27"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
+      <c r="A203" s="43"/>
+      <c r="B203" s="34"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
       <c r="F203" s="21"/>
       <c r="G203" s="21" t="s">
         <v>295</v>
@@ -6289,15 +6423,15 @@
         <v>296</v>
       </c>
       <c r="I203" s="21"/>
-      <c r="J203" s="27"/>
-      <c r="K203" s="30"/>
+      <c r="J203" s="37"/>
+      <c r="K203" s="40"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="42"/>
-      <c r="B204" s="24"/>
-      <c r="C204" s="27"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="27"/>
+      <c r="A204" s="43"/>
+      <c r="B204" s="34"/>
+      <c r="C204" s="37"/>
+      <c r="D204" s="37"/>
+      <c r="E204" s="37"/>
       <c r="F204" s="21"/>
       <c r="G204" s="21" t="s">
         <v>297</v>
@@ -6306,15 +6440,15 @@
         <v>298</v>
       </c>
       <c r="I204" s="21"/>
-      <c r="J204" s="27"/>
-      <c r="K204" s="30"/>
+      <c r="J204" s="37"/>
+      <c r="K204" s="40"/>
     </row>
     <row r="205" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="42"/>
-      <c r="B205" s="24"/>
-      <c r="C205" s="27"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="27"/>
+      <c r="A205" s="43"/>
+      <c r="B205" s="34"/>
+      <c r="C205" s="37"/>
+      <c r="D205" s="37"/>
+      <c r="E205" s="37"/>
       <c r="F205" s="21"/>
       <c r="G205" s="21" t="s">
         <v>299</v>
@@ -6323,15 +6457,15 @@
         <v>300</v>
       </c>
       <c r="I205" s="21"/>
-      <c r="J205" s="27"/>
-      <c r="K205" s="30"/>
+      <c r="J205" s="37"/>
+      <c r="K205" s="40"/>
     </row>
     <row r="206" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="42"/>
-      <c r="B206" s="24"/>
-      <c r="C206" s="27"/>
-      <c r="D206" s="27"/>
-      <c r="E206" s="27"/>
+      <c r="A206" s="43"/>
+      <c r="B206" s="34"/>
+      <c r="C206" s="37"/>
+      <c r="D206" s="37"/>
+      <c r="E206" s="37"/>
       <c r="F206" s="21"/>
       <c r="G206" s="21" t="s">
         <v>301</v>
@@ -6340,15 +6474,15 @@
         <v>302</v>
       </c>
       <c r="I206" s="21"/>
-      <c r="J206" s="27"/>
-      <c r="K206" s="30"/>
+      <c r="J206" s="37"/>
+      <c r="K206" s="40"/>
     </row>
     <row r="207" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="42"/>
-      <c r="B207" s="24"/>
-      <c r="C207" s="27"/>
-      <c r="D207" s="27"/>
-      <c r="E207" s="27"/>
+      <c r="A207" s="43"/>
+      <c r="B207" s="34"/>
+      <c r="C207" s="37"/>
+      <c r="D207" s="37"/>
+      <c r="E207" s="37"/>
       <c r="F207" s="21"/>
       <c r="G207" s="21" t="s">
         <v>303</v>
@@ -6357,21 +6491,21 @@
         <v>304</v>
       </c>
       <c r="I207" s="21"/>
-      <c r="J207" s="27"/>
-      <c r="K207" s="30"/>
+      <c r="J207" s="37"/>
+      <c r="K207" s="40"/>
     </row>
     <row r="208" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="42"/>
-      <c r="B208" s="32">
+      <c r="A208" s="43"/>
+      <c r="B208" s="24">
         <v>62</v>
       </c>
-      <c r="C208" s="35" t="s">
+      <c r="C208" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D208" s="35" t="s">
+      <c r="D208" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="E208" s="35" t="s">
+      <c r="E208" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F208" s="12" t="s">
@@ -6384,15 +6518,15 @@
         <v>308</v>
       </c>
       <c r="I208" s="12"/>
-      <c r="J208" s="35"/>
-      <c r="K208" s="38"/>
+      <c r="J208" s="27"/>
+      <c r="K208" s="30"/>
     </row>
     <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="42"/>
-      <c r="B209" s="33"/>
-      <c r="C209" s="36"/>
-      <c r="D209" s="36"/>
-      <c r="E209" s="36"/>
+      <c r="A209" s="43"/>
+      <c r="B209" s="25"/>
+      <c r="C209" s="28"/>
+      <c r="D209" s="28"/>
+      <c r="E209" s="28"/>
       <c r="F209" s="13" t="s">
         <v>21</v>
       </c>
@@ -6403,15 +6537,15 @@
         <v>310</v>
       </c>
       <c r="I209" s="13"/>
-      <c r="J209" s="36"/>
-      <c r="K209" s="39"/>
+      <c r="J209" s="28"/>
+      <c r="K209" s="31"/>
     </row>
     <row r="210" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A210" s="42"/>
-      <c r="B210" s="33"/>
-      <c r="C210" s="36"/>
-      <c r="D210" s="36"/>
-      <c r="E210" s="36"/>
+      <c r="A210" s="43"/>
+      <c r="B210" s="25"/>
+      <c r="C210" s="28"/>
+      <c r="D210" s="28"/>
+      <c r="E210" s="28"/>
       <c r="F210" s="13" t="s">
         <v>204</v>
       </c>
@@ -6422,15 +6556,15 @@
         <v>312</v>
       </c>
       <c r="I210" s="13"/>
-      <c r="J210" s="36"/>
-      <c r="K210" s="39"/>
+      <c r="J210" s="28"/>
+      <c r="K210" s="31"/>
     </row>
     <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="42"/>
-      <c r="B211" s="33"/>
-      <c r="C211" s="36"/>
-      <c r="D211" s="36"/>
-      <c r="E211" s="36"/>
+      <c r="A211" s="43"/>
+      <c r="B211" s="25"/>
+      <c r="C211" s="28"/>
+      <c r="D211" s="28"/>
+      <c r="E211" s="28"/>
       <c r="F211" s="13" t="s">
         <v>306</v>
       </c>
@@ -6441,15 +6575,15 @@
         <v>314</v>
       </c>
       <c r="I211" s="13"/>
-      <c r="J211" s="36"/>
-      <c r="K211" s="39"/>
+      <c r="J211" s="28"/>
+      <c r="K211" s="31"/>
     </row>
     <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="42"/>
-      <c r="B212" s="33"/>
-      <c r="C212" s="36"/>
-      <c r="D212" s="36"/>
-      <c r="E212" s="36"/>
+      <c r="A212" s="43"/>
+      <c r="B212" s="25"/>
+      <c r="C212" s="28"/>
+      <c r="D212" s="28"/>
+      <c r="E212" s="28"/>
       <c r="F212" s="13"/>
       <c r="G212" s="13" t="s">
         <v>315</v>
@@ -6458,15 +6592,15 @@
         <v>316</v>
       </c>
       <c r="I212" s="13"/>
-      <c r="J212" s="36"/>
-      <c r="K212" s="39"/>
+      <c r="J212" s="28"/>
+      <c r="K212" s="31"/>
     </row>
     <row r="213" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="42"/>
-      <c r="B213" s="33"/>
-      <c r="C213" s="36"/>
-      <c r="D213" s="36"/>
-      <c r="E213" s="36"/>
+      <c r="A213" s="43"/>
+      <c r="B213" s="25"/>
+      <c r="C213" s="28"/>
+      <c r="D213" s="28"/>
+      <c r="E213" s="28"/>
       <c r="F213" s="13"/>
       <c r="G213" s="13" t="s">
         <v>317</v>
@@ -6477,15 +6611,15 @@
       <c r="I213" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="J213" s="36"/>
-      <c r="K213" s="39"/>
+      <c r="J213" s="28"/>
+      <c r="K213" s="31"/>
     </row>
     <row r="214" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="42"/>
-      <c r="B214" s="33"/>
-      <c r="C214" s="36"/>
-      <c r="D214" s="36"/>
-      <c r="E214" s="36"/>
+      <c r="A214" s="43"/>
+      <c r="B214" s="25"/>
+      <c r="C214" s="28"/>
+      <c r="D214" s="28"/>
+      <c r="E214" s="28"/>
       <c r="F214" s="13"/>
       <c r="G214" s="13" t="s">
         <v>320</v>
@@ -6494,15 +6628,15 @@
         <v>321</v>
       </c>
       <c r="I214" s="13"/>
-      <c r="J214" s="36"/>
-      <c r="K214" s="39"/>
+      <c r="J214" s="28"/>
+      <c r="K214" s="31"/>
     </row>
     <row r="215" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="42"/>
-      <c r="B215" s="33"/>
-      <c r="C215" s="36"/>
-      <c r="D215" s="36"/>
-      <c r="E215" s="36"/>
+      <c r="A215" s="43"/>
+      <c r="B215" s="25"/>
+      <c r="C215" s="28"/>
+      <c r="D215" s="28"/>
+      <c r="E215" s="28"/>
       <c r="F215" s="13"/>
       <c r="G215" s="13" t="s">
         <v>322</v>
@@ -6511,21 +6645,21 @@
         <v>323</v>
       </c>
       <c r="I215" s="13"/>
-      <c r="J215" s="36"/>
-      <c r="K215" s="39"/>
+      <c r="J215" s="28"/>
+      <c r="K215" s="31"/>
     </row>
     <row r="216" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A216" s="42"/>
-      <c r="B216" s="23">
+      <c r="A216" s="43"/>
+      <c r="B216" s="33">
         <v>63</v>
       </c>
-      <c r="C216" s="26" t="s">
+      <c r="C216" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D216" s="26" t="s">
+      <c r="D216" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="E216" s="26" t="s">
+      <c r="E216" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F216" s="7" t="s">
@@ -6538,15 +6672,15 @@
         <v>288</v>
       </c>
       <c r="I216" s="7"/>
-      <c r="J216" s="26"/>
-      <c r="K216" s="29"/>
+      <c r="J216" s="36"/>
+      <c r="K216" s="39"/>
     </row>
     <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="42"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="27"/>
-      <c r="D217" s="27"/>
-      <c r="E217" s="27"/>
+      <c r="A217" s="43"/>
+      <c r="B217" s="34"/>
+      <c r="C217" s="37"/>
+      <c r="D217" s="37"/>
+      <c r="E217" s="37"/>
       <c r="F217" s="2" t="s">
         <v>21</v>
       </c>
@@ -6557,15 +6691,15 @@
         <v>325</v>
       </c>
       <c r="I217" s="2"/>
-      <c r="J217" s="27"/>
-      <c r="K217" s="30"/>
+      <c r="J217" s="37"/>
+      <c r="K217" s="40"/>
     </row>
     <row r="218" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A218" s="42"/>
-      <c r="B218" s="24"/>
-      <c r="C218" s="27"/>
-      <c r="D218" s="27"/>
-      <c r="E218" s="27"/>
+      <c r="A218" s="43"/>
+      <c r="B218" s="34"/>
+      <c r="C218" s="37"/>
+      <c r="D218" s="37"/>
+      <c r="E218" s="37"/>
       <c r="F218" s="21" t="s">
         <v>204</v>
       </c>
@@ -6576,15 +6710,15 @@
         <v>292</v>
       </c>
       <c r="I218" s="21"/>
-      <c r="J218" s="27"/>
-      <c r="K218" s="30"/>
+      <c r="J218" s="37"/>
+      <c r="K218" s="40"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="42"/>
-      <c r="B219" s="24"/>
-      <c r="C219" s="27"/>
-      <c r="D219" s="27"/>
-      <c r="E219" s="27"/>
+      <c r="A219" s="43"/>
+      <c r="B219" s="34"/>
+      <c r="C219" s="37"/>
+      <c r="D219" s="37"/>
+      <c r="E219" s="37"/>
       <c r="F219" s="21"/>
       <c r="G219" s="21" t="s">
         <v>293</v>
@@ -6593,15 +6727,15 @@
         <v>294</v>
       </c>
       <c r="I219" s="21"/>
-      <c r="J219" s="27"/>
-      <c r="K219" s="30"/>
+      <c r="J219" s="37"/>
+      <c r="K219" s="40"/>
     </row>
     <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220" s="42"/>
-      <c r="B220" s="24"/>
-      <c r="C220" s="27"/>
-      <c r="D220" s="27"/>
-      <c r="E220" s="27"/>
+      <c r="A220" s="43"/>
+      <c r="B220" s="34"/>
+      <c r="C220" s="37"/>
+      <c r="D220" s="37"/>
+      <c r="E220" s="37"/>
       <c r="F220" s="21"/>
       <c r="G220" s="21" t="s">
         <v>295</v>
@@ -6610,15 +6744,15 @@
         <v>296</v>
       </c>
       <c r="I220" s="21"/>
-      <c r="J220" s="27"/>
-      <c r="K220" s="30"/>
+      <c r="J220" s="37"/>
+      <c r="K220" s="40"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="42"/>
-      <c r="B221" s="24"/>
-      <c r="C221" s="27"/>
-      <c r="D221" s="27"/>
-      <c r="E221" s="27"/>
+      <c r="A221" s="43"/>
+      <c r="B221" s="34"/>
+      <c r="C221" s="37"/>
+      <c r="D221" s="37"/>
+      <c r="E221" s="37"/>
       <c r="F221" s="21"/>
       <c r="G221" s="21" t="s">
         <v>297</v>
@@ -6627,15 +6761,15 @@
         <v>298</v>
       </c>
       <c r="I221" s="21"/>
-      <c r="J221" s="27"/>
-      <c r="K221" s="30"/>
+      <c r="J221" s="37"/>
+      <c r="K221" s="40"/>
     </row>
     <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="42"/>
-      <c r="B222" s="24"/>
-      <c r="C222" s="27"/>
-      <c r="D222" s="27"/>
-      <c r="E222" s="27"/>
+      <c r="A222" s="43"/>
+      <c r="B222" s="34"/>
+      <c r="C222" s="37"/>
+      <c r="D222" s="37"/>
+      <c r="E222" s="37"/>
       <c r="F222" s="21"/>
       <c r="G222" s="21" t="s">
         <v>299</v>
@@ -6644,15 +6778,15 @@
         <v>300</v>
       </c>
       <c r="I222" s="21"/>
-      <c r="J222" s="27"/>
-      <c r="K222" s="30"/>
+      <c r="J222" s="37"/>
+      <c r="K222" s="40"/>
     </row>
     <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="42"/>
-      <c r="B223" s="24"/>
-      <c r="C223" s="27"/>
-      <c r="D223" s="27"/>
-      <c r="E223" s="27"/>
+      <c r="A223" s="43"/>
+      <c r="B223" s="34"/>
+      <c r="C223" s="37"/>
+      <c r="D223" s="37"/>
+      <c r="E223" s="37"/>
       <c r="F223" s="21"/>
       <c r="G223" s="21" t="s">
         <v>301</v>
@@ -6661,15 +6795,15 @@
         <v>302</v>
       </c>
       <c r="I223" s="21"/>
-      <c r="J223" s="27"/>
-      <c r="K223" s="30"/>
+      <c r="J223" s="37"/>
+      <c r="K223" s="40"/>
     </row>
     <row r="224" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="42"/>
-      <c r="B224" s="24"/>
-      <c r="C224" s="27"/>
-      <c r="D224" s="27"/>
-      <c r="E224" s="27"/>
+      <c r="A224" s="43"/>
+      <c r="B224" s="34"/>
+      <c r="C224" s="37"/>
+      <c r="D224" s="37"/>
+      <c r="E224" s="37"/>
       <c r="F224" s="21"/>
       <c r="G224" s="21" t="s">
         <v>303</v>
@@ -6678,21 +6812,21 @@
         <v>326</v>
       </c>
       <c r="I224" s="21"/>
-      <c r="J224" s="27"/>
-      <c r="K224" s="30"/>
+      <c r="J224" s="37"/>
+      <c r="K224" s="40"/>
     </row>
     <row r="225" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="42"/>
-      <c r="B225" s="32">
+      <c r="A225" s="43"/>
+      <c r="B225" s="24">
         <v>64</v>
       </c>
-      <c r="C225" s="35" t="s">
+      <c r="C225" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D225" s="35" t="s">
+      <c r="D225" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="E225" s="35" t="s">
+      <c r="E225" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F225" s="12" t="s">
@@ -6705,15 +6839,15 @@
         <v>288</v>
       </c>
       <c r="I225" s="12"/>
-      <c r="J225" s="35"/>
-      <c r="K225" s="38"/>
+      <c r="J225" s="27"/>
+      <c r="K225" s="30"/>
     </row>
     <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="42"/>
-      <c r="B226" s="33"/>
-      <c r="C226" s="36"/>
-      <c r="D226" s="36"/>
-      <c r="E226" s="36"/>
+      <c r="A226" s="43"/>
+      <c r="B226" s="25"/>
+      <c r="C226" s="28"/>
+      <c r="D226" s="28"/>
+      <c r="E226" s="28"/>
       <c r="F226" s="13" t="s">
         <v>21</v>
       </c>
@@ -6724,15 +6858,15 @@
         <v>290</v>
       </c>
       <c r="I226" s="13"/>
-      <c r="J226" s="36"/>
-      <c r="K226" s="39"/>
+      <c r="J226" s="28"/>
+      <c r="K226" s="31"/>
     </row>
     <row r="227" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A227" s="42"/>
-      <c r="B227" s="33"/>
-      <c r="C227" s="36"/>
-      <c r="D227" s="36"/>
-      <c r="E227" s="36"/>
+      <c r="A227" s="43"/>
+      <c r="B227" s="25"/>
+      <c r="C227" s="28"/>
+      <c r="D227" s="28"/>
+      <c r="E227" s="28"/>
       <c r="F227" s="13" t="s">
         <v>204</v>
       </c>
@@ -6743,15 +6877,15 @@
         <v>328</v>
       </c>
       <c r="I227" s="13"/>
-      <c r="J227" s="36"/>
-      <c r="K227" s="39"/>
+      <c r="J227" s="28"/>
+      <c r="K227" s="31"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="42"/>
-      <c r="B228" s="33"/>
-      <c r="C228" s="36"/>
-      <c r="D228" s="36"/>
-      <c r="E228" s="36"/>
+      <c r="A228" s="43"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="28"/>
+      <c r="D228" s="28"/>
+      <c r="E228" s="28"/>
       <c r="F228" s="13"/>
       <c r="G228" s="13" t="s">
         <v>293</v>
@@ -6760,15 +6894,15 @@
         <v>294</v>
       </c>
       <c r="I228" s="13"/>
-      <c r="J228" s="36"/>
-      <c r="K228" s="39"/>
+      <c r="J228" s="28"/>
+      <c r="K228" s="31"/>
     </row>
     <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="42"/>
-      <c r="B229" s="33"/>
-      <c r="C229" s="36"/>
-      <c r="D229" s="36"/>
-      <c r="E229" s="36"/>
+      <c r="A229" s="43"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="28"/>
+      <c r="D229" s="28"/>
+      <c r="E229" s="28"/>
       <c r="F229" s="13"/>
       <c r="G229" s="13" t="s">
         <v>295</v>
@@ -6777,15 +6911,15 @@
         <v>296</v>
       </c>
       <c r="I229" s="13"/>
-      <c r="J229" s="36"/>
-      <c r="K229" s="39"/>
+      <c r="J229" s="28"/>
+      <c r="K229" s="31"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="42"/>
-      <c r="B230" s="33"/>
-      <c r="C230" s="36"/>
-      <c r="D230" s="36"/>
-      <c r="E230" s="36"/>
+      <c r="A230" s="43"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="28"/>
+      <c r="D230" s="28"/>
+      <c r="E230" s="28"/>
       <c r="F230" s="13"/>
       <c r="G230" s="13" t="s">
         <v>297</v>
@@ -6794,15 +6928,15 @@
         <v>298</v>
       </c>
       <c r="I230" s="13"/>
-      <c r="J230" s="36"/>
-      <c r="K230" s="39"/>
+      <c r="J230" s="28"/>
+      <c r="K230" s="31"/>
     </row>
     <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="42"/>
-      <c r="B231" s="33"/>
-      <c r="C231" s="36"/>
-      <c r="D231" s="36"/>
-      <c r="E231" s="36"/>
+      <c r="A231" s="43"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="28"/>
+      <c r="D231" s="28"/>
+      <c r="E231" s="28"/>
       <c r="F231" s="13"/>
       <c r="G231" s="13" t="s">
         <v>299</v>
@@ -6811,15 +6945,15 @@
         <v>300</v>
       </c>
       <c r="I231" s="13"/>
-      <c r="J231" s="36"/>
-      <c r="K231" s="39"/>
+      <c r="J231" s="28"/>
+      <c r="K231" s="31"/>
     </row>
     <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="42"/>
-      <c r="B232" s="33"/>
-      <c r="C232" s="36"/>
-      <c r="D232" s="36"/>
-      <c r="E232" s="36"/>
+      <c r="A232" s="43"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="28"/>
+      <c r="D232" s="28"/>
+      <c r="E232" s="28"/>
       <c r="F232" s="19"/>
       <c r="G232" s="13" t="s">
         <v>301</v>
@@ -6828,15 +6962,15 @@
         <v>302</v>
       </c>
       <c r="I232" s="13"/>
-      <c r="J232" s="36"/>
-      <c r="K232" s="39"/>
+      <c r="J232" s="28"/>
+      <c r="K232" s="31"/>
     </row>
     <row r="233" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="42"/>
-      <c r="B233" s="34"/>
-      <c r="C233" s="37"/>
-      <c r="D233" s="37"/>
-      <c r="E233" s="37"/>
+      <c r="A233" s="43"/>
+      <c r="B233" s="26"/>
+      <c r="C233" s="29"/>
+      <c r="D233" s="29"/>
+      <c r="E233" s="29"/>
       <c r="F233" s="19"/>
       <c r="G233" s="13" t="s">
         <v>303</v>
@@ -6845,21 +6979,21 @@
         <v>326</v>
       </c>
       <c r="I233" s="13"/>
-      <c r="J233" s="37"/>
-      <c r="K233" s="40"/>
+      <c r="J233" s="29"/>
+      <c r="K233" s="32"/>
     </row>
     <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="42"/>
-      <c r="B234" s="23">
+      <c r="A234" s="43"/>
+      <c r="B234" s="33">
         <v>65</v>
       </c>
-      <c r="C234" s="26" t="s">
+      <c r="C234" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D234" s="26" t="s">
+      <c r="D234" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="E234" s="26" t="s">
+      <c r="E234" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F234" s="7" t="s">
@@ -6872,15 +7006,15 @@
         <v>288</v>
       </c>
       <c r="I234" s="7"/>
-      <c r="J234" s="26"/>
-      <c r="K234" s="29"/>
+      <c r="J234" s="36"/>
+      <c r="K234" s="39"/>
     </row>
     <row r="235" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="42"/>
-      <c r="B235" s="24"/>
-      <c r="C235" s="27"/>
-      <c r="D235" s="27"/>
-      <c r="E235" s="27"/>
+      <c r="A235" s="43"/>
+      <c r="B235" s="34"/>
+      <c r="C235" s="37"/>
+      <c r="D235" s="37"/>
+      <c r="E235" s="37"/>
       <c r="F235" s="2" t="s">
         <v>21</v>
       </c>
@@ -6891,15 +7025,15 @@
         <v>290</v>
       </c>
       <c r="I235" s="2"/>
-      <c r="J235" s="27"/>
-      <c r="K235" s="30"/>
+      <c r="J235" s="37"/>
+      <c r="K235" s="40"/>
     </row>
     <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A236" s="42"/>
-      <c r="B236" s="24"/>
-      <c r="C236" s="27"/>
-      <c r="D236" s="27"/>
-      <c r="E236" s="27"/>
+      <c r="A236" s="43"/>
+      <c r="B236" s="34"/>
+      <c r="C236" s="37"/>
+      <c r="D236" s="37"/>
+      <c r="E236" s="37"/>
       <c r="F236" s="21" t="s">
         <v>204</v>
       </c>
@@ -6910,15 +7044,15 @@
         <v>292</v>
       </c>
       <c r="I236" s="21"/>
-      <c r="J236" s="27"/>
-      <c r="K236" s="30"/>
+      <c r="J236" s="37"/>
+      <c r="K236" s="40"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="42"/>
-      <c r="B237" s="24"/>
-      <c r="C237" s="27"/>
-      <c r="D237" s="27"/>
-      <c r="E237" s="27"/>
+      <c r="A237" s="43"/>
+      <c r="B237" s="34"/>
+      <c r="C237" s="37"/>
+      <c r="D237" s="37"/>
+      <c r="E237" s="37"/>
       <c r="F237" s="21"/>
       <c r="G237" s="21" t="s">
         <v>293</v>
@@ -6927,15 +7061,15 @@
         <v>294</v>
       </c>
       <c r="I237" s="21"/>
-      <c r="J237" s="27"/>
-      <c r="K237" s="30"/>
+      <c r="J237" s="37"/>
+      <c r="K237" s="40"/>
     </row>
     <row r="238" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="42"/>
-      <c r="B238" s="24"/>
-      <c r="C238" s="27"/>
-      <c r="D238" s="27"/>
-      <c r="E238" s="27"/>
+      <c r="A238" s="43"/>
+      <c r="B238" s="34"/>
+      <c r="C238" s="37"/>
+      <c r="D238" s="37"/>
+      <c r="E238" s="37"/>
       <c r="F238" s="21"/>
       <c r="G238" s="21" t="s">
         <v>295</v>
@@ -6944,15 +7078,15 @@
         <v>296</v>
       </c>
       <c r="I238" s="21"/>
-      <c r="J238" s="27"/>
-      <c r="K238" s="30"/>
+      <c r="J238" s="37"/>
+      <c r="K238" s="40"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="42"/>
-      <c r="B239" s="24"/>
-      <c r="C239" s="27"/>
-      <c r="D239" s="27"/>
-      <c r="E239" s="27"/>
+      <c r="A239" s="43"/>
+      <c r="B239" s="34"/>
+      <c r="C239" s="37"/>
+      <c r="D239" s="37"/>
+      <c r="E239" s="37"/>
       <c r="F239" s="21"/>
       <c r="G239" s="21" t="s">
         <v>297</v>
@@ -6961,15 +7095,15 @@
         <v>298</v>
       </c>
       <c r="I239" s="21"/>
-      <c r="J239" s="27"/>
-      <c r="K239" s="30"/>
+      <c r="J239" s="37"/>
+      <c r="K239" s="40"/>
     </row>
     <row r="240" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="42"/>
-      <c r="B240" s="24"/>
-      <c r="C240" s="27"/>
-      <c r="D240" s="27"/>
-      <c r="E240" s="27"/>
+      <c r="A240" s="43"/>
+      <c r="B240" s="34"/>
+      <c r="C240" s="37"/>
+      <c r="D240" s="37"/>
+      <c r="E240" s="37"/>
       <c r="F240" s="21"/>
       <c r="G240" s="21" t="s">
         <v>299</v>
@@ -6978,15 +7112,15 @@
         <v>300</v>
       </c>
       <c r="I240" s="21"/>
-      <c r="J240" s="27"/>
-      <c r="K240" s="30"/>
+      <c r="J240" s="37"/>
+      <c r="K240" s="40"/>
     </row>
     <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="42"/>
-      <c r="B241" s="24"/>
-      <c r="C241" s="27"/>
-      <c r="D241" s="27"/>
-      <c r="E241" s="27"/>
+      <c r="A241" s="43"/>
+      <c r="B241" s="34"/>
+      <c r="C241" s="37"/>
+      <c r="D241" s="37"/>
+      <c r="E241" s="37"/>
       <c r="F241" s="21"/>
       <c r="G241" s="21" t="s">
         <v>329</v>
@@ -6995,15 +7129,15 @@
         <v>330</v>
       </c>
       <c r="I241" s="21"/>
-      <c r="J241" s="27"/>
-      <c r="K241" s="30"/>
+      <c r="J241" s="37"/>
+      <c r="K241" s="40"/>
     </row>
     <row r="242" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="42"/>
-      <c r="B242" s="24"/>
-      <c r="C242" s="27"/>
-      <c r="D242" s="27"/>
-      <c r="E242" s="27"/>
+      <c r="A242" s="43"/>
+      <c r="B242" s="34"/>
+      <c r="C242" s="37"/>
+      <c r="D242" s="37"/>
+      <c r="E242" s="37"/>
       <c r="F242" s="21"/>
       <c r="G242" s="21" t="s">
         <v>303</v>
@@ -7012,21 +7146,21 @@
         <v>326</v>
       </c>
       <c r="I242" s="21"/>
-      <c r="J242" s="27"/>
-      <c r="K242" s="30"/>
+      <c r="J242" s="37"/>
+      <c r="K242" s="40"/>
     </row>
     <row r="243" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A243" s="42"/>
-      <c r="B243" s="32">
+      <c r="A243" s="43"/>
+      <c r="B243" s="24">
         <v>66</v>
       </c>
-      <c r="C243" s="35" t="s">
+      <c r="C243" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D243" s="35" t="s">
+      <c r="D243" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="E243" s="35" t="s">
+      <c r="E243" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F243" s="12" t="s">
@@ -7039,15 +7173,15 @@
         <v>288</v>
       </c>
       <c r="I243" s="12"/>
-      <c r="J243" s="35"/>
-      <c r="K243" s="38"/>
+      <c r="J243" s="27"/>
+      <c r="K243" s="30"/>
     </row>
     <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="42"/>
-      <c r="B244" s="33"/>
-      <c r="C244" s="36"/>
-      <c r="D244" s="36"/>
-      <c r="E244" s="36"/>
+      <c r="A244" s="43"/>
+      <c r="B244" s="25"/>
+      <c r="C244" s="28"/>
+      <c r="D244" s="28"/>
+      <c r="E244" s="28"/>
       <c r="F244" s="13" t="s">
         <v>21</v>
       </c>
@@ -7058,15 +7192,15 @@
         <v>290</v>
       </c>
       <c r="I244" s="13"/>
-      <c r="J244" s="36"/>
-      <c r="K244" s="39"/>
+      <c r="J244" s="28"/>
+      <c r="K244" s="31"/>
     </row>
     <row r="245" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A245" s="42"/>
-      <c r="B245" s="33"/>
-      <c r="C245" s="36"/>
-      <c r="D245" s="36"/>
-      <c r="E245" s="36"/>
+      <c r="A245" s="43"/>
+      <c r="B245" s="25"/>
+      <c r="C245" s="28"/>
+      <c r="D245" s="28"/>
+      <c r="E245" s="28"/>
       <c r="F245" s="19" t="s">
         <v>204</v>
       </c>
@@ -7077,15 +7211,15 @@
         <v>292</v>
       </c>
       <c r="I245" s="19"/>
-      <c r="J245" s="36"/>
-      <c r="K245" s="39"/>
+      <c r="J245" s="28"/>
+      <c r="K245" s="31"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="42"/>
-      <c r="B246" s="33"/>
-      <c r="C246" s="36"/>
-      <c r="D246" s="36"/>
-      <c r="E246" s="36"/>
+      <c r="A246" s="43"/>
+      <c r="B246" s="25"/>
+      <c r="C246" s="28"/>
+      <c r="D246" s="28"/>
+      <c r="E246" s="28"/>
       <c r="F246" s="19"/>
       <c r="G246" s="19" t="s">
         <v>334</v>
@@ -7094,15 +7228,15 @@
         <v>335</v>
       </c>
       <c r="I246" s="19"/>
-      <c r="J246" s="36"/>
-      <c r="K246" s="39"/>
+      <c r="J246" s="28"/>
+      <c r="K246" s="31"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="42"/>
-      <c r="B247" s="33"/>
-      <c r="C247" s="36"/>
-      <c r="D247" s="36"/>
-      <c r="E247" s="36"/>
+      <c r="A247" s="43"/>
+      <c r="B247" s="25"/>
+      <c r="C247" s="28"/>
+      <c r="D247" s="28"/>
+      <c r="E247" s="28"/>
       <c r="F247" s="19"/>
       <c r="G247" s="19" t="s">
         <v>297</v>
@@ -7111,15 +7245,15 @@
         <v>298</v>
       </c>
       <c r="I247" s="19"/>
-      <c r="J247" s="36"/>
-      <c r="K247" s="39"/>
+      <c r="J247" s="28"/>
+      <c r="K247" s="31"/>
     </row>
     <row r="248" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="42"/>
-      <c r="B248" s="33"/>
-      <c r="C248" s="36"/>
-      <c r="D248" s="36"/>
-      <c r="E248" s="36"/>
+      <c r="A248" s="43"/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="28"/>
+      <c r="D248" s="28"/>
+      <c r="E248" s="28"/>
       <c r="F248" s="19"/>
       <c r="G248" s="19" t="s">
         <v>299</v>
@@ -7128,15 +7262,15 @@
         <v>300</v>
       </c>
       <c r="I248" s="19"/>
-      <c r="J248" s="36"/>
-      <c r="K248" s="39"/>
+      <c r="J248" s="28"/>
+      <c r="K248" s="31"/>
     </row>
     <row r="249" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="42"/>
-      <c r="B249" s="33"/>
-      <c r="C249" s="36"/>
-      <c r="D249" s="36"/>
-      <c r="E249" s="36"/>
+      <c r="A249" s="43"/>
+      <c r="B249" s="25"/>
+      <c r="C249" s="28"/>
+      <c r="D249" s="28"/>
+      <c r="E249" s="28"/>
       <c r="F249" s="19"/>
       <c r="G249" s="19" t="s">
         <v>301</v>
@@ -7145,15 +7279,15 @@
         <v>302</v>
       </c>
       <c r="I249" s="19"/>
-      <c r="J249" s="36"/>
-      <c r="K249" s="39"/>
+      <c r="J249" s="28"/>
+      <c r="K249" s="31"/>
     </row>
     <row r="250" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="42"/>
-      <c r="B250" s="33"/>
-      <c r="C250" s="36"/>
-      <c r="D250" s="36"/>
-      <c r="E250" s="36"/>
+      <c r="A250" s="43"/>
+      <c r="B250" s="25"/>
+      <c r="C250" s="28"/>
+      <c r="D250" s="28"/>
+      <c r="E250" s="28"/>
       <c r="F250" s="19"/>
       <c r="G250" s="19" t="s">
         <v>303</v>
@@ -7162,21 +7296,21 @@
         <v>326</v>
       </c>
       <c r="I250" s="19"/>
-      <c r="J250" s="36"/>
-      <c r="K250" s="39"/>
+      <c r="J250" s="28"/>
+      <c r="K250" s="31"/>
     </row>
     <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A251" s="42"/>
-      <c r="B251" s="23">
+      <c r="A251" s="43"/>
+      <c r="B251" s="33">
         <v>67</v>
       </c>
-      <c r="C251" s="26" t="s">
+      <c r="C251" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D251" s="26" t="s">
+      <c r="D251" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="E251" s="26" t="s">
+      <c r="E251" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F251" s="7" t="s">
@@ -7189,15 +7323,15 @@
         <v>288</v>
       </c>
       <c r="I251" s="7"/>
-      <c r="J251" s="26"/>
-      <c r="K251" s="29"/>
+      <c r="J251" s="36"/>
+      <c r="K251" s="39"/>
     </row>
     <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="42"/>
-      <c r="B252" s="24"/>
-      <c r="C252" s="27"/>
-      <c r="D252" s="27"/>
-      <c r="E252" s="27"/>
+      <c r="A252" s="43"/>
+      <c r="B252" s="34"/>
+      <c r="C252" s="37"/>
+      <c r="D252" s="37"/>
+      <c r="E252" s="37"/>
       <c r="F252" s="2" t="s">
         <v>21</v>
       </c>
@@ -7208,15 +7342,15 @@
         <v>290</v>
       </c>
       <c r="I252" s="2"/>
-      <c r="J252" s="27"/>
-      <c r="K252" s="30"/>
+      <c r="J252" s="37"/>
+      <c r="K252" s="40"/>
     </row>
     <row r="253" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A253" s="42"/>
-      <c r="B253" s="24"/>
-      <c r="C253" s="27"/>
-      <c r="D253" s="27"/>
-      <c r="E253" s="27"/>
+      <c r="A253" s="43"/>
+      <c r="B253" s="34"/>
+      <c r="C253" s="37"/>
+      <c r="D253" s="37"/>
+      <c r="E253" s="37"/>
       <c r="F253" s="21" t="s">
         <v>204</v>
       </c>
@@ -7227,15 +7361,15 @@
         <v>292</v>
       </c>
       <c r="I253" s="21"/>
-      <c r="J253" s="27"/>
-      <c r="K253" s="30"/>
+      <c r="J253" s="37"/>
+      <c r="K253" s="40"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="42"/>
-      <c r="B254" s="24"/>
-      <c r="C254" s="27"/>
-      <c r="D254" s="27"/>
-      <c r="E254" s="27"/>
+      <c r="A254" s="43"/>
+      <c r="B254" s="34"/>
+      <c r="C254" s="37"/>
+      <c r="D254" s="37"/>
+      <c r="E254" s="37"/>
       <c r="F254" s="21"/>
       <c r="G254" s="21" t="s">
         <v>293</v>
@@ -7244,15 +7378,15 @@
         <v>294</v>
       </c>
       <c r="I254" s="21"/>
-      <c r="J254" s="27"/>
-      <c r="K254" s="30"/>
+      <c r="J254" s="37"/>
+      <c r="K254" s="40"/>
     </row>
     <row r="255" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="42"/>
-      <c r="B255" s="24"/>
-      <c r="C255" s="27"/>
-      <c r="D255" s="27"/>
-      <c r="E255" s="27"/>
+      <c r="A255" s="43"/>
+      <c r="B255" s="34"/>
+      <c r="C255" s="37"/>
+      <c r="D255" s="37"/>
+      <c r="E255" s="37"/>
       <c r="F255" s="21"/>
       <c r="G255" s="21" t="s">
         <v>295</v>
@@ -7261,15 +7395,15 @@
         <v>296</v>
       </c>
       <c r="I255" s="21"/>
-      <c r="J255" s="27"/>
-      <c r="K255" s="30"/>
+      <c r="J255" s="37"/>
+      <c r="K255" s="40"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="42"/>
-      <c r="B256" s="24"/>
-      <c r="C256" s="27"/>
-      <c r="D256" s="27"/>
-      <c r="E256" s="27"/>
+      <c r="A256" s="43"/>
+      <c r="B256" s="34"/>
+      <c r="C256" s="37"/>
+      <c r="D256" s="37"/>
+      <c r="E256" s="37"/>
       <c r="F256" s="21"/>
       <c r="G256" s="21" t="s">
         <v>336</v>
@@ -7278,15 +7412,15 @@
         <v>337</v>
       </c>
       <c r="I256" s="21"/>
-      <c r="J256" s="27"/>
-      <c r="K256" s="30"/>
+      <c r="J256" s="37"/>
+      <c r="K256" s="40"/>
     </row>
     <row r="257" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="42"/>
-      <c r="B257" s="24"/>
-      <c r="C257" s="27"/>
-      <c r="D257" s="27"/>
-      <c r="E257" s="27"/>
+      <c r="A257" s="43"/>
+      <c r="B257" s="34"/>
+      <c r="C257" s="37"/>
+      <c r="D257" s="37"/>
+      <c r="E257" s="37"/>
       <c r="F257" s="21"/>
       <c r="G257" s="21" t="s">
         <v>301</v>
@@ -7295,15 +7429,15 @@
         <v>302</v>
       </c>
       <c r="I257" s="21"/>
-      <c r="J257" s="27"/>
-      <c r="K257" s="30"/>
+      <c r="J257" s="37"/>
+      <c r="K257" s="40"/>
     </row>
     <row r="258" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="42"/>
-      <c r="B258" s="24"/>
-      <c r="C258" s="27"/>
-      <c r="D258" s="27"/>
-      <c r="E258" s="27"/>
+      <c r="A258" s="43"/>
+      <c r="B258" s="34"/>
+      <c r="C258" s="37"/>
+      <c r="D258" s="37"/>
+      <c r="E258" s="37"/>
       <c r="F258" s="21"/>
       <c r="G258" s="21" t="s">
         <v>303</v>
@@ -7312,21 +7446,21 @@
         <v>326</v>
       </c>
       <c r="I258" s="21"/>
-      <c r="J258" s="27"/>
-      <c r="K258" s="30"/>
+      <c r="J258" s="37"/>
+      <c r="K258" s="40"/>
     </row>
     <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A259" s="42"/>
-      <c r="B259" s="32">
+      <c r="A259" s="43"/>
+      <c r="B259" s="24">
         <v>68</v>
       </c>
-      <c r="C259" s="35" t="s">
+      <c r="C259" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D259" s="35" t="s">
+      <c r="D259" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="E259" s="35" t="s">
+      <c r="E259" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F259" s="12" t="s">
@@ -7339,15 +7473,15 @@
         <v>288</v>
       </c>
       <c r="I259" s="12"/>
-      <c r="J259" s="35"/>
-      <c r="K259" s="38"/>
+      <c r="J259" s="27"/>
+      <c r="K259" s="30"/>
     </row>
     <row r="260" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="42"/>
-      <c r="B260" s="33"/>
-      <c r="C260" s="36"/>
-      <c r="D260" s="36"/>
-      <c r="E260" s="36"/>
+      <c r="A260" s="43"/>
+      <c r="B260" s="25"/>
+      <c r="C260" s="28"/>
+      <c r="D260" s="28"/>
+      <c r="E260" s="28"/>
       <c r="F260" s="13" t="s">
         <v>21</v>
       </c>
@@ -7358,15 +7492,15 @@
         <v>346</v>
       </c>
       <c r="I260" s="13"/>
-      <c r="J260" s="36"/>
-      <c r="K260" s="39"/>
+      <c r="J260" s="28"/>
+      <c r="K260" s="31"/>
     </row>
     <row r="261" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A261" s="42"/>
-      <c r="B261" s="33"/>
-      <c r="C261" s="36"/>
-      <c r="D261" s="36"/>
-      <c r="E261" s="36"/>
+      <c r="A261" s="43"/>
+      <c r="B261" s="25"/>
+      <c r="C261" s="28"/>
+      <c r="D261" s="28"/>
+      <c r="E261" s="28"/>
       <c r="F261" s="19" t="s">
         <v>204</v>
       </c>
@@ -7377,15 +7511,15 @@
         <v>292</v>
       </c>
       <c r="I261" s="19"/>
-      <c r="J261" s="36"/>
-      <c r="K261" s="39"/>
+      <c r="J261" s="28"/>
+      <c r="K261" s="31"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="42"/>
-      <c r="B262" s="33"/>
-      <c r="C262" s="36"/>
-      <c r="D262" s="36"/>
-      <c r="E262" s="36"/>
+      <c r="A262" s="43"/>
+      <c r="B262" s="25"/>
+      <c r="C262" s="28"/>
+      <c r="D262" s="28"/>
+      <c r="E262" s="28"/>
       <c r="F262" s="19"/>
       <c r="G262" s="19" t="s">
         <v>293</v>
@@ -7394,15 +7528,15 @@
         <v>294</v>
       </c>
       <c r="I262" s="19"/>
-      <c r="J262" s="36"/>
-      <c r="K262" s="39"/>
+      <c r="J262" s="28"/>
+      <c r="K262" s="31"/>
     </row>
     <row r="263" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="42"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="36"/>
-      <c r="D263" s="36"/>
-      <c r="E263" s="36"/>
+      <c r="A263" s="43"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="28"/>
+      <c r="D263" s="28"/>
+      <c r="E263" s="28"/>
       <c r="F263" s="19"/>
       <c r="G263" s="19" t="s">
         <v>295</v>
@@ -7411,15 +7545,15 @@
         <v>296</v>
       </c>
       <c r="I263" s="19"/>
-      <c r="J263" s="36"/>
-      <c r="K263" s="39"/>
+      <c r="J263" s="28"/>
+      <c r="K263" s="31"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="42"/>
-      <c r="B264" s="33"/>
-      <c r="C264" s="36"/>
-      <c r="D264" s="36"/>
-      <c r="E264" s="36"/>
+      <c r="A264" s="43"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="28"/>
+      <c r="D264" s="28"/>
+      <c r="E264" s="28"/>
       <c r="F264" s="19"/>
       <c r="G264" s="19" t="s">
         <v>297</v>
@@ -7428,15 +7562,15 @@
         <v>298</v>
       </c>
       <c r="I264" s="19"/>
-      <c r="J264" s="36"/>
-      <c r="K264" s="39"/>
+      <c r="J264" s="28"/>
+      <c r="K264" s="31"/>
     </row>
     <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="42"/>
-      <c r="B265" s="33"/>
-      <c r="C265" s="36"/>
-      <c r="D265" s="36"/>
-      <c r="E265" s="36"/>
+      <c r="A265" s="43"/>
+      <c r="B265" s="25"/>
+      <c r="C265" s="28"/>
+      <c r="D265" s="28"/>
+      <c r="E265" s="28"/>
       <c r="F265" s="19"/>
       <c r="G265" s="19" t="s">
         <v>299</v>
@@ -7445,15 +7579,15 @@
         <v>300</v>
       </c>
       <c r="I265" s="19"/>
-      <c r="J265" s="36"/>
-      <c r="K265" s="39"/>
+      <c r="J265" s="28"/>
+      <c r="K265" s="31"/>
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="42"/>
-      <c r="B266" s="33"/>
-      <c r="C266" s="36"/>
-      <c r="D266" s="36"/>
-      <c r="E266" s="36"/>
+      <c r="A266" s="43"/>
+      <c r="B266" s="25"/>
+      <c r="C266" s="28"/>
+      <c r="D266" s="28"/>
+      <c r="E266" s="28"/>
       <c r="F266" s="19"/>
       <c r="G266" s="19" t="s">
         <v>301</v>
@@ -7462,15 +7596,15 @@
         <v>302</v>
       </c>
       <c r="I266" s="19"/>
-      <c r="J266" s="36"/>
-      <c r="K266" s="39"/>
+      <c r="J266" s="28"/>
+      <c r="K266" s="31"/>
     </row>
     <row r="267" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="42"/>
-      <c r="B267" s="33"/>
-      <c r="C267" s="36"/>
-      <c r="D267" s="36"/>
-      <c r="E267" s="36"/>
+      <c r="A267" s="43"/>
+      <c r="B267" s="25"/>
+      <c r="C267" s="28"/>
+      <c r="D267" s="28"/>
+      <c r="E267" s="28"/>
       <c r="F267" s="19"/>
       <c r="G267" s="19" t="s">
         <v>303</v>
@@ -7479,21 +7613,21 @@
         <v>347</v>
       </c>
       <c r="I267" s="19"/>
-      <c r="J267" s="36"/>
-      <c r="K267" s="39"/>
+      <c r="J267" s="28"/>
+      <c r="K267" s="31"/>
     </row>
     <row r="268" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A268" s="42"/>
-      <c r="B268" s="23">
+      <c r="A268" s="43"/>
+      <c r="B268" s="33">
         <v>69</v>
       </c>
-      <c r="C268" s="26" t="s">
+      <c r="C268" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D268" s="26" t="s">
+      <c r="D268" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="E268" s="26" t="s">
+      <c r="E268" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F268" s="7" t="s">
@@ -7506,15 +7640,15 @@
         <v>288</v>
       </c>
       <c r="I268" s="7"/>
-      <c r="J268" s="26"/>
-      <c r="K268" s="29"/>
+      <c r="J268" s="36"/>
+      <c r="K268" s="39"/>
     </row>
     <row r="269" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="42"/>
-      <c r="B269" s="24"/>
-      <c r="C269" s="27"/>
-      <c r="D269" s="27"/>
-      <c r="E269" s="27"/>
+      <c r="A269" s="43"/>
+      <c r="B269" s="34"/>
+      <c r="C269" s="37"/>
+      <c r="D269" s="37"/>
+      <c r="E269" s="37"/>
       <c r="F269" s="2" t="s">
         <v>21</v>
       </c>
@@ -7525,15 +7659,15 @@
         <v>282</v>
       </c>
       <c r="I269" s="2"/>
-      <c r="J269" s="27"/>
-      <c r="K269" s="30"/>
+      <c r="J269" s="37"/>
+      <c r="K269" s="40"/>
     </row>
     <row r="270" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="42"/>
-      <c r="B270" s="25"/>
-      <c r="C270" s="28"/>
-      <c r="D270" s="28"/>
-      <c r="E270" s="28"/>
+      <c r="A270" s="43"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="38"/>
+      <c r="D270" s="38"/>
+      <c r="E270" s="38"/>
       <c r="F270" s="8" t="s">
         <v>204</v>
       </c>
@@ -7544,8 +7678,8 @@
         <v>333</v>
       </c>
       <c r="I270" s="8"/>
-      <c r="J270" s="28"/>
-      <c r="K270" s="31"/>
+      <c r="J270" s="38"/>
+      <c r="K270" s="41"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B271" s="4"/>
@@ -9100,6 +9234,10 @@
     <mergeCell ref="E85:E87"/>
     <mergeCell ref="J85:J87"/>
     <mergeCell ref="K85:K87"/>
+    <mergeCell ref="A91:A137"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
     <mergeCell ref="A76:A81"/>
     <mergeCell ref="B82:B84"/>
     <mergeCell ref="C82:C84"/>
@@ -9155,8 +9293,6 @@
     <mergeCell ref="E61:E63"/>
     <mergeCell ref="J61:J63"/>
     <mergeCell ref="K61:K63"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="J44:J47"/>
     <mergeCell ref="K36:K39"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="C40:C43"/>
@@ -9168,8 +9304,8 @@
     <mergeCell ref="K55:K57"/>
     <mergeCell ref="K52:K54"/>
     <mergeCell ref="K40:K43"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="J40:J43"/>
     <mergeCell ref="J32:J35"/>
     <mergeCell ref="K32:K35"/>
     <mergeCell ref="A2:A51"/>
@@ -9192,7 +9328,8 @@
     <mergeCell ref="D44:D47"/>
     <mergeCell ref="E44:E47"/>
     <mergeCell ref="F36:F39"/>
-    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="J44:J47"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="B28:B31"/>
@@ -9202,7 +9339,8 @@
     <mergeCell ref="D40:D43"/>
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="F40:F43"/>
-    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J9"/>
     <mergeCell ref="K2:K5"/>
@@ -9288,6 +9426,10 @@
     <mergeCell ref="E104:E106"/>
     <mergeCell ref="J104:J106"/>
     <mergeCell ref="K104:K106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="E107:E109"/>
     <mergeCell ref="J119:J121"/>
     <mergeCell ref="K119:K121"/>
     <mergeCell ref="B122:B124"/>
@@ -9328,7 +9470,6 @@
     <mergeCell ref="E128:E130"/>
     <mergeCell ref="J128:J130"/>
     <mergeCell ref="K128:K130"/>
-    <mergeCell ref="A91:A137"/>
     <mergeCell ref="B138:B140"/>
     <mergeCell ref="C138:C140"/>
     <mergeCell ref="D138:D140"/>
@@ -9341,13 +9482,6 @@
     <mergeCell ref="C119:C121"/>
     <mergeCell ref="D119:D121"/>
     <mergeCell ref="E119:E121"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
     <mergeCell ref="E94:E96"/>
     <mergeCell ref="A138:A184"/>
     <mergeCell ref="J138:J140"/>
@@ -9442,6 +9576,12 @@
     <mergeCell ref="E183:E187"/>
     <mergeCell ref="J183:J187"/>
     <mergeCell ref="K183:K187"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="J196:J198"/>
+    <mergeCell ref="K196:K198"/>
     <mergeCell ref="B188:B192"/>
     <mergeCell ref="C188:C192"/>
     <mergeCell ref="D188:D192"/>
@@ -9454,12 +9594,6 @@
     <mergeCell ref="E193:E195"/>
     <mergeCell ref="J193:J195"/>
     <mergeCell ref="K193:K195"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="E196:E198"/>
-    <mergeCell ref="J196:J198"/>
-    <mergeCell ref="K196:K198"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G86" r:id="rId1" location="/privacy-policy" xr:uid="{E67AF435-DB73-483C-AF47-29662FBE5D02}"/>
@@ -9468,5 +9602,6 @@
     <hyperlink ref="I90" r:id="rId4" xr:uid="{4EDDF3EC-EE0C-4985-9891-75F232D45EF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekate\Desktop\Netology\Git repository\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0B5A3A-68C6-4B88-B306-DC9615904195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716AAFF5-7ECD-425E-83E2-CE952A5EBD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="26520" windowHeight="20985" xr2:uid="{CC955BC4-95A8-4E73-80DC-FD5AF393D381}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28665" windowHeight="20475" xr2:uid="{CC955BC4-95A8-4E73-80DC-FD5AF393D381}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="352">
   <si>
     <t>ID</t>
   </si>
@@ -1189,6 +1189,12 @@
   </si>
   <si>
     <t>да, но исключение должно быть другим</t>
+  </si>
+  <si>
+    <t>да, но исключение должно быть другим, создан баг репорт</t>
+  </si>
+  <si>
+    <t>нет, отображение новостей не работает</t>
   </si>
 </sst>
 </file>
@@ -1693,6 +1699,12 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1842,12 +1854,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2171,10 +2177,10 @@
   <dimension ref="A1:K393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="C58" sqref="C58:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,25 +2231,25 @@
       <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="54">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="52" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -2252,77 +2258,77 @@
       <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="K2" s="55"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="57"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="47">
+      <c r="A6" s="45"/>
+      <c r="B6" s="49">
         <v>2</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="46" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -2334,18 +2340,18 @@
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="K6" s="58"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2355,16 +2361,16 @@
       <c r="I7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="59"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2374,16 +2380,16 @@
       <c r="I8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="59"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
@@ -2393,21 +2399,21 @@
       <c r="I9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="60"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="62"/>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="52">
+      <c r="A10" s="45"/>
+      <c r="B10" s="54">
         <v>3</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="52" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -2422,17 +2428,17 @@
       <c r="I10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
@@ -2445,24 +2451,24 @@
       <c r="I11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="57"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="47">
+      <c r="A12" s="45"/>
+      <c r="B12" s="49">
         <v>4</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="46" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -2474,18 +2480,18 @@
       <c r="I12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="K12" s="58"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="45"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="3" t="s">
         <v>30</v>
       </c>
@@ -2495,16 +2501,16 @@
       <c r="I13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="59"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="45"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="3" t="s">
         <v>28</v>
       </c>
@@ -2514,16 +2520,16 @@
       <c r="I14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="59"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="46"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="6" t="s">
         <v>17</v>
       </c>
@@ -2533,24 +2539,24 @@
       <c r="I15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="60"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="62"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="52">
+      <c r="A16" s="45"/>
+      <c r="B16" s="54">
         <v>5</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -2562,18 +2568,18 @@
       <c r="I16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="K16" s="55"/>
+      <c r="K16" s="57"/>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="2" t="s">
         <v>27</v>
       </c>
@@ -2583,16 +2589,16 @@
       <c r="I17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="58"/>
     </row>
     <row r="18" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2602,16 +2608,16 @@
       <c r="I18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="8" t="s">
         <v>17</v>
       </c>
@@ -2621,24 +2627,24 @@
       <c r="I19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="57"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="59"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="47">
+      <c r="A20" s="45"/>
+      <c r="B20" s="49">
         <v>6</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="46" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -2650,18 +2656,18 @@
       <c r="I20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="K20" s="58"/>
+      <c r="K20" s="60"/>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="3" t="s">
         <v>39</v>
       </c>
@@ -2671,16 +2677,16 @@
       <c r="I21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="59"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="61"/>
     </row>
     <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="3" t="s">
         <v>28</v>
       </c>
@@ -2690,16 +2696,16 @@
       <c r="I22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="59"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="61"/>
     </row>
     <row r="23" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="6" t="s">
         <v>17</v>
       </c>
@@ -2709,24 +2715,24 @@
       <c r="I23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="60"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="52">
+      <c r="A24" s="45"/>
+      <c r="B24" s="54">
         <v>7</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -2738,18 +2744,18 @@
       <c r="I24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="57"/>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="2" t="s">
         <v>27</v>
       </c>
@@ -2759,16 +2765,16 @@
       <c r="I25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="58"/>
     </row>
     <row r="26" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="2" t="s">
         <v>43</v>
       </c>
@@ -2778,16 +2784,16 @@
       <c r="I26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="58"/>
     </row>
     <row r="27" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="8" t="s">
         <v>17</v>
       </c>
@@ -2797,24 +2803,24 @@
       <c r="I27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="51"/>
-      <c r="K27" s="57"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="59"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="47">
+      <c r="A28" s="45"/>
+      <c r="B28" s="49">
         <v>8</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="46" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -2826,18 +2832,18 @@
       <c r="I28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="K28" s="58"/>
+      <c r="J28" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="K28" s="60"/>
     </row>
     <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="3" t="s">
         <v>45</v>
       </c>
@@ -2847,16 +2853,16 @@
       <c r="I29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="45"/>
-      <c r="K29" s="59"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="61"/>
     </row>
     <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="3" t="s">
         <v>53</v>
       </c>
@@ -2866,43 +2872,43 @@
       <c r="I30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="45"/>
-      <c r="K30" s="59"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="61"/>
     </row>
     <row r="31" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
       <c r="G31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="74" t="s">
+      <c r="I31" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="60"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="62"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="52">
+      <c r="A32" s="45"/>
+      <c r="B32" s="54">
         <v>9</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -2914,18 +2920,18 @@
       <c r="I32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="K32" s="55"/>
+      <c r="J32" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="K32" s="57"/>
     </row>
     <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="2" t="s">
         <v>52</v>
       </c>
@@ -2935,16 +2941,16 @@
       <c r="I33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="54"/>
-      <c r="K33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="58"/>
     </row>
     <row r="34" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="2" t="s">
         <v>54</v>
       </c>
@@ -2954,43 +2960,43 @@
       <c r="I34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="54"/>
-      <c r="K34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="58"/>
     </row>
     <row r="35" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
       <c r="G35" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="75" t="s">
+      <c r="I35" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="51"/>
-      <c r="K35" s="57"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="59"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="47">
+      <c r="A36" s="45"/>
+      <c r="B36" s="49">
         <v>10</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="46" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -3002,18 +3008,18 @@
       <c r="I36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="K36" s="58"/>
+      <c r="J36" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="K36" s="60"/>
     </row>
     <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="3" t="s">
         <v>55</v>
       </c>
@@ -3023,16 +3029,16 @@
       <c r="I37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="59"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="61"/>
     </row>
     <row r="38" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="3" t="s">
         <v>53</v>
       </c>
@@ -3042,43 +3048,43 @@
       <c r="I38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J38" s="45"/>
-      <c r="K38" s="59"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="61"/>
     </row>
     <row r="39" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
       <c r="G39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="74" t="s">
+      <c r="I39" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="46"/>
-      <c r="K39" s="60"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="62"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="52">
+      <c r="A40" s="45"/>
+      <c r="B40" s="54">
         <v>11</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="7" t="s">
@@ -3090,18 +3096,18 @@
       <c r="I40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="50" t="s">
+      <c r="J40" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="K40" s="55"/>
+      <c r="K40" s="57"/>
     </row>
     <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
       <c r="G41" s="2" t="s">
         <v>52</v>
       </c>
@@ -3111,16 +3117,16 @@
       <c r="I41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="54"/>
-      <c r="K41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="58"/>
     </row>
     <row r="42" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="2" t="s">
         <v>58</v>
       </c>
@@ -3130,43 +3136,43 @@
       <c r="I42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J42" s="54"/>
-      <c r="K42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="58"/>
     </row>
     <row r="43" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
       <c r="G43" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="75" t="s">
+      <c r="I43" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="51"/>
-      <c r="K43" s="57"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="59"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="47">
+      <c r="A44" s="45"/>
+      <c r="B44" s="49">
         <v>12</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="46" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -3178,18 +3184,18 @@
       <c r="I44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="K44" s="58"/>
+      <c r="J44" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="K44" s="60"/>
     </row>
     <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="3" t="s">
         <v>61</v>
       </c>
@@ -3199,16 +3205,16 @@
       <c r="I45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="45"/>
-      <c r="K45" s="59"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="61"/>
     </row>
     <row r="46" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="3" t="s">
         <v>53</v>
       </c>
@@ -3218,43 +3224,43 @@
       <c r="I46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="45"/>
-      <c r="K46" s="59"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="61"/>
     </row>
     <row r="47" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
       <c r="G47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I47" s="74" t="s">
+      <c r="I47" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J47" s="46"/>
-      <c r="K47" s="60"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="62"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="52">
+      <c r="A48" s="45"/>
+      <c r="B48" s="54">
         <v>13</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="50" t="s">
+      <c r="F48" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G48" s="7" t="s">
@@ -3266,18 +3272,18 @@
       <c r="I48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J48" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="K48" s="55"/>
+      <c r="J48" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="K48" s="57"/>
     </row>
     <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
       <c r="G49" s="2" t="s">
         <v>52</v>
       </c>
@@ -3287,16 +3293,16 @@
       <c r="I49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="54"/>
-      <c r="K49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="58"/>
     </row>
     <row r="50" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="2" t="s">
         <v>63</v>
       </c>
@@ -3306,42 +3312,42 @@
       <c r="I50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="54"/>
-      <c r="K50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="58"/>
     </row>
     <row r="51" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="43"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
       <c r="G51" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I51" s="75" t="s">
+      <c r="I51" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="51"/>
-      <c r="K51" s="57"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="59"/>
     </row>
     <row r="52" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="65">
+      <c r="B52" s="67">
         <v>14</v>
       </c>
-      <c r="C52" s="68" t="s">
+      <c r="C52" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="D52" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E52" s="68" t="s">
+      <c r="E52" s="70" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -3353,16 +3359,20 @@
       <c r="H52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="71"/>
+      <c r="I52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="70" t="s">
+        <v>351</v>
+      </c>
+      <c r="K52" s="73"/>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
       <c r="F53" s="3" t="s">
         <v>21</v>
       </c>
@@ -3370,37 +3380,39 @@
       <c r="H53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="72"/>
+      <c r="I53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J53" s="71"/>
+      <c r="K53" s="74"/>
     </row>
     <row r="54" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="43"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
       <c r="F54" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="73"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="75"/>
     </row>
     <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="33">
+      <c r="A55" s="45"/>
+      <c r="B55" s="35">
         <v>15</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="7" t="s">
@@ -3412,16 +3424,20 @@
       <c r="H55" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="39"/>
+      <c r="I55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J55" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="K55" s="41"/>
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
       <c r="F56" s="2" t="s">
         <v>21</v>
       </c>
@@ -3431,16 +3447,18 @@
       <c r="H56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="40"/>
+      <c r="I56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" s="39"/>
+      <c r="K56" s="42"/>
     </row>
     <row r="57" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="43"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="8" t="s">
         <v>66</v>
       </c>
@@ -3450,22 +3468,24 @@
       <c r="H57" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="41"/>
+      <c r="I57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J57" s="40"/>
+      <c r="K57" s="43"/>
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-      <c r="B58" s="24">
+      <c r="A58" s="45"/>
+      <c r="B58" s="26">
         <v>16</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="12" t="s">
@@ -3477,16 +3497,20 @@
       <c r="H58" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="30"/>
+      <c r="I58" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="K58" s="32"/>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="13" t="s">
         <v>21</v>
       </c>
@@ -3496,39 +3520,41 @@
       <c r="H59" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I59" s="13"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="31"/>
+      <c r="I59" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J59" s="30"/>
+      <c r="K59" s="33"/>
     </row>
     <row r="60" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="43"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="14" t="s">
         <v>66</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="32"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="34"/>
     </row>
     <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="33">
+      <c r="B61" s="35">
         <v>17</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D61" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E61" s="36" t="s">
+      <c r="E61" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="7" t="s">
@@ -3541,51 +3567,51 @@
         <v>84</v>
       </c>
       <c r="I61" s="7"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="39"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="41"/>
     </row>
     <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
       <c r="F62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="40"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="42"/>
     </row>
     <row r="63" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="43"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="41"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="43"/>
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
-      <c r="B64" s="24">
+      <c r="A64" s="45"/>
+      <c r="B64" s="26">
         <v>18</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="12" t="s">
@@ -3598,15 +3624,15 @@
         <v>84</v>
       </c>
       <c r="I64" s="12"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="30"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="32"/>
     </row>
     <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
       <c r="F65" s="13" t="s">
         <v>21</v>
       </c>
@@ -3617,36 +3643,36 @@
         <v>86</v>
       </c>
       <c r="I65" s="13"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="31"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="43"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
       <c r="F66" s="14" t="s">
         <v>66</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="32"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="34"/>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="43"/>
-      <c r="B67" s="33">
+      <c r="A67" s="45"/>
+      <c r="B67" s="35">
         <v>19</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D67" s="36" t="s">
+      <c r="D67" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="7" t="s">
@@ -3659,15 +3685,15 @@
         <v>84</v>
       </c>
       <c r="I67" s="7"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="39"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="41"/>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
       <c r="F68" s="2" t="s">
         <v>21</v>
       </c>
@@ -3678,36 +3704,36 @@
         <v>93</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="40"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="42"/>
     </row>
     <row r="69" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="43"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
       <c r="F69" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="41"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="43"/>
     </row>
     <row r="70" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
-      <c r="B70" s="24">
+      <c r="A70" s="45"/>
+      <c r="B70" s="26">
         <v>20</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="E70" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="12" t="s">
@@ -3720,15 +3746,15 @@
         <v>84</v>
       </c>
       <c r="I70" s="12"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="30"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="32"/>
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
       <c r="F71" s="13" t="s">
         <v>21</v>
       </c>
@@ -3739,36 +3765,36 @@
         <v>90</v>
       </c>
       <c r="I71" s="13"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="31"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="43"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
       <c r="F72" s="14" t="s">
         <v>88</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="32"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="34"/>
     </row>
     <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
-      <c r="B73" s="33">
+      <c r="A73" s="45"/>
+      <c r="B73" s="35">
         <v>21</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E73" s="36" t="s">
+      <c r="E73" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="7" t="s">
@@ -3781,15 +3807,15 @@
         <v>84</v>
       </c>
       <c r="I73" s="7"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="39"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="41"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="2" t="s">
         <v>21</v>
       </c>
@@ -3802,38 +3828,38 @@
       <c r="I74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J74" s="37"/>
-      <c r="K74" s="40"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="42"/>
     </row>
     <row r="75" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="43"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
       <c r="F75" s="8" t="s">
         <v>88</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="41"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="43"/>
     </row>
     <row r="76" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="24">
+      <c r="B76" s="26">
         <v>22</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="12" t="s">
@@ -3846,15 +3872,15 @@
         <v>103</v>
       </c>
       <c r="I76" s="12"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="30"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="32"/>
     </row>
     <row r="77" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
       <c r="F77" s="13" t="s">
         <v>21</v>
       </c>
@@ -3863,36 +3889,36 @@
         <v>108</v>
       </c>
       <c r="I77" s="13"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="31"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="33"/>
     </row>
     <row r="78" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="43"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
       <c r="F78" s="14" t="s">
         <v>98</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="32"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="34"/>
     </row>
     <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="43"/>
-      <c r="B79" s="33">
+      <c r="A79" s="45"/>
+      <c r="B79" s="35">
         <v>23</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="7" t="s">
@@ -3905,15 +3931,15 @@
         <v>106</v>
       </c>
       <c r="I79" s="7"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="39"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="41"/>
     </row>
     <row r="80" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
       <c r="F80" s="2" t="s">
         <v>21</v>
       </c>
@@ -3924,38 +3950,38 @@
         <v>107</v>
       </c>
       <c r="I80" s="2"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="40"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="42"/>
     </row>
     <row r="81" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="43"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
       <c r="F81" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="41"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="43"/>
     </row>
     <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="24">
+      <c r="B82" s="26">
         <v>24</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="E82" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="12" t="s">
@@ -3968,15 +3994,15 @@
         <v>113</v>
       </c>
       <c r="I82" s="12"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="30"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="32"/>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
       <c r="F83" s="13" t="s">
         <v>21</v>
       </c>
@@ -3987,36 +4013,36 @@
         <v>130</v>
       </c>
       <c r="I83" s="13"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="31"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="33"/>
     </row>
     <row r="84" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="43"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
       <c r="F84" s="14" t="s">
         <v>111</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="32"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="34"/>
     </row>
     <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="43"/>
-      <c r="B85" s="33">
+      <c r="A85" s="45"/>
+      <c r="B85" s="35">
         <v>25</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D85" s="36" t="s">
+      <c r="D85" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E85" s="36" t="s">
+      <c r="E85" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F85" s="7" t="s">
@@ -4031,15 +4057,15 @@
       <c r="I85" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J85" s="36"/>
-      <c r="K85" s="39"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="41"/>
     </row>
     <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="43"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
       <c r="F86" s="2" t="s">
         <v>21</v>
       </c>
@@ -4050,15 +4076,15 @@
       <c r="I86" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J86" s="37"/>
-      <c r="K86" s="40"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="42"/>
     </row>
     <row r="87" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="43"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
       <c r="F87" s="8" t="s">
         <v>111</v>
       </c>
@@ -4067,21 +4093,21 @@
       <c r="I87" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="J87" s="38"/>
-      <c r="K87" s="41"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="43"/>
     </row>
     <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="43"/>
-      <c r="B88" s="24">
+      <c r="A88" s="45"/>
+      <c r="B88" s="26">
         <v>26</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E88" s="27" t="s">
+      <c r="E88" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F88" s="12" t="s">
@@ -4096,15 +4122,15 @@
       <c r="I88" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="J88" s="27"/>
-      <c r="K88" s="30"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="32"/>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
       <c r="F89" s="13" t="s">
         <v>21</v>
       </c>
@@ -4115,15 +4141,15 @@
       <c r="I89" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="J89" s="28"/>
-      <c r="K89" s="31"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="33"/>
     </row>
     <row r="90" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="43"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
       <c r="F90" s="14" t="s">
         <v>111</v>
       </c>
@@ -4132,23 +4158,23 @@
       <c r="I90" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J90" s="29"/>
-      <c r="K90" s="32"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="34"/>
     </row>
     <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="42" t="s">
+      <c r="A91" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="33">
+      <c r="B91" s="35">
         <v>27</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D91" s="36" t="s">
+      <c r="D91" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E91" s="36" t="s">
+      <c r="E91" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F91" s="7" t="s">
@@ -4161,51 +4187,51 @@
         <v>134</v>
       </c>
       <c r="I91" s="7"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="39"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="41"/>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
       <c r="F92" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="40"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="42"/>
     </row>
     <row r="93" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="43"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
       <c r="F93" s="8" t="s">
         <v>133</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="16"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="41"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="43"/>
     </row>
     <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
-      <c r="B94" s="24">
+      <c r="A94" s="45"/>
+      <c r="B94" s="26">
         <v>28</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D94" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E94" s="27" t="s">
+      <c r="E94" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F94" s="12" t="s">
@@ -4218,15 +4244,15 @@
         <v>138</v>
       </c>
       <c r="I94" s="12"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="30"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="32"/>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
       <c r="F95" s="13" t="s">
         <v>21</v>
       </c>
@@ -4237,36 +4263,36 @@
         <v>139</v>
       </c>
       <c r="I95" s="13"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="31"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="33"/>
     </row>
     <row r="96" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="43"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
       <c r="F96" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="18"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="32"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="34"/>
     </row>
     <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="43"/>
-      <c r="B97" s="33">
+      <c r="A97" s="45"/>
+      <c r="B97" s="35">
         <v>29</v>
       </c>
-      <c r="C97" s="36" t="s">
+      <c r="C97" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="36" t="s">
+      <c r="D97" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="E97" s="36" t="s">
+      <c r="E97" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F97" s="7" t="s">
@@ -4279,66 +4305,66 @@
         <v>142</v>
       </c>
       <c r="I97" s="7"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="39"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="41"/>
     </row>
     <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
       <c r="F98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="40"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="42"/>
     </row>
     <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
       <c r="F99" s="21" t="s">
         <v>133</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
-      <c r="J99" s="37"/>
-      <c r="K99" s="40"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="42"/>
     </row>
     <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="43"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
       <c r="F100" s="8" t="s">
         <v>331</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="16"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="41"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="43"/>
     </row>
     <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="43"/>
-      <c r="B101" s="24">
+      <c r="A101" s="45"/>
+      <c r="B101" s="26">
         <v>30</v>
       </c>
-      <c r="C101" s="27" t="s">
+      <c r="C101" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D101" s="27" t="s">
+      <c r="D101" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="E101" s="27" t="s">
+      <c r="E101" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F101" s="12" t="s">
@@ -4351,15 +4377,15 @@
         <v>151</v>
       </c>
       <c r="I101" s="12"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="30"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="32"/>
     </row>
     <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="43"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
+      <c r="A102" s="45"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
       <c r="F102" s="13" t="s">
         <v>21</v>
       </c>
@@ -4370,36 +4396,36 @@
         <v>153</v>
       </c>
       <c r="I102" s="13"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="31"/>
+      <c r="J102" s="30"/>
+      <c r="K102" s="33"/>
     </row>
     <row r="103" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="43"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
       <c r="F103" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="18"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="32"/>
+      <c r="J103" s="31"/>
+      <c r="K103" s="34"/>
     </row>
     <row r="104" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
-      <c r="B104" s="33">
+      <c r="A104" s="45"/>
+      <c r="B104" s="35">
         <v>31</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D104" s="36" t="s">
+      <c r="D104" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="E104" s="36" t="s">
+      <c r="E104" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F104" s="7" t="s">
@@ -4412,51 +4438,51 @@
         <v>154</v>
       </c>
       <c r="I104" s="7"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="39"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="41"/>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
+      <c r="A105" s="45"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
       <c r="F105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-      <c r="J105" s="37"/>
-      <c r="K105" s="40"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="42"/>
     </row>
     <row r="106" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="43"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
+      <c r="A106" s="45"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="40"/>
       <c r="F106" s="8" t="s">
         <v>133</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="16"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="41"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="43"/>
     </row>
     <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="43"/>
-      <c r="B107" s="24">
+      <c r="A107" s="45"/>
+      <c r="B107" s="26">
         <v>32</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C107" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="E107" s="27" t="s">
+      <c r="E107" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F107" s="12" t="s">
@@ -4469,15 +4495,15 @@
         <v>155</v>
       </c>
       <c r="I107" s="12"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="30"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="32"/>
     </row>
     <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="43"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
+      <c r="A108" s="45"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
       <c r="F108" s="13" t="s">
         <v>21</v>
       </c>
@@ -4488,36 +4514,36 @@
         <v>156</v>
       </c>
       <c r="I108" s="13"/>
-      <c r="J108" s="28"/>
-      <c r="K108" s="31"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="33"/>
     </row>
     <row r="109" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="43"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
       <c r="F109" s="14" t="s">
         <v>147</v>
       </c>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="32"/>
+      <c r="J109" s="31"/>
+      <c r="K109" s="34"/>
     </row>
     <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
-      <c r="B110" s="33">
+      <c r="A110" s="45"/>
+      <c r="B110" s="35">
         <v>33</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D110" s="36" t="s">
+      <c r="D110" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="E110" s="36" t="s">
+      <c r="E110" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F110" s="7" t="s">
@@ -4530,15 +4556,15 @@
         <v>159</v>
       </c>
       <c r="I110" s="7"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="39"/>
+      <c r="J110" s="38"/>
+      <c r="K110" s="41"/>
     </row>
     <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="43"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
       <c r="F111" s="2" t="s">
         <v>21</v>
       </c>
@@ -4549,36 +4575,36 @@
         <v>160</v>
       </c>
       <c r="I111" s="2"/>
-      <c r="J111" s="37"/>
-      <c r="K111" s="40"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="42"/>
     </row>
     <row r="112" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="43"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="40"/>
       <c r="F112" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
-      <c r="J112" s="38"/>
-      <c r="K112" s="41"/>
+      <c r="J112" s="40"/>
+      <c r="K112" s="43"/>
     </row>
     <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="43"/>
-      <c r="B113" s="24">
+      <c r="A113" s="45"/>
+      <c r="B113" s="26">
         <v>34</v>
       </c>
-      <c r="C113" s="27" t="s">
+      <c r="C113" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D113" s="27" t="s">
+      <c r="D113" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E113" s="27" t="s">
+      <c r="E113" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F113" s="12" t="s">
@@ -4591,15 +4617,15 @@
         <v>163</v>
       </c>
       <c r="I113" s="12"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="30"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="32"/>
     </row>
     <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="43"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
+      <c r="A114" s="45"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
       <c r="F114" s="13" t="s">
         <v>21</v>
       </c>
@@ -4610,36 +4636,36 @@
         <v>164</v>
       </c>
       <c r="I114" s="13"/>
-      <c r="J114" s="28"/>
-      <c r="K114" s="31"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="33"/>
     </row>
     <row r="115" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="43"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
+      <c r="A115" s="45"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
       <c r="F115" s="14" t="s">
         <v>147</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="32"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="34"/>
     </row>
     <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="43"/>
-      <c r="B116" s="33">
+      <c r="A116" s="45"/>
+      <c r="B116" s="35">
         <v>35</v>
       </c>
-      <c r="C116" s="36" t="s">
+      <c r="C116" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D116" s="36" t="s">
+      <c r="D116" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="E116" s="36" t="s">
+      <c r="E116" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F116" s="7" t="s">
@@ -4652,15 +4678,15 @@
         <v>167</v>
       </c>
       <c r="I116" s="7"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="39"/>
+      <c r="J116" s="38"/>
+      <c r="K116" s="41"/>
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="43"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="37"/>
+      <c r="A117" s="45"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
       <c r="F117" s="2" t="s">
         <v>21</v>
       </c>
@@ -4671,36 +4697,36 @@
         <v>168</v>
       </c>
       <c r="I117" s="2"/>
-      <c r="J117" s="37"/>
-      <c r="K117" s="40"/>
+      <c r="J117" s="39"/>
+      <c r="K117" s="42"/>
     </row>
     <row r="118" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="43"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="38"/>
-      <c r="E118" s="38"/>
+      <c r="A118" s="45"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
       <c r="F118" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
-      <c r="J118" s="38"/>
-      <c r="K118" s="41"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="43"/>
     </row>
     <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="43"/>
-      <c r="B119" s="24">
+      <c r="A119" s="45"/>
+      <c r="B119" s="26">
         <v>36</v>
       </c>
-      <c r="C119" s="27" t="s">
+      <c r="C119" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="E119" s="27" t="s">
+      <c r="E119" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F119" s="12" t="s">
@@ -4713,15 +4739,15 @@
         <v>171</v>
       </c>
       <c r="I119" s="12"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="30"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="32"/>
     </row>
     <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="43"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
+      <c r="A120" s="45"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
       <c r="F120" s="13" t="s">
         <v>21</v>
       </c>
@@ -4732,36 +4758,36 @@
         <v>172</v>
       </c>
       <c r="I120" s="13"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="31"/>
+      <c r="J120" s="30"/>
+      <c r="K120" s="33"/>
     </row>
     <row r="121" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="43"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
+      <c r="A121" s="45"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
       <c r="F121" s="14" t="s">
         <v>147</v>
       </c>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
-      <c r="J121" s="29"/>
-      <c r="K121" s="32"/>
+      <c r="J121" s="31"/>
+      <c r="K121" s="34"/>
     </row>
     <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="43"/>
-      <c r="B122" s="33">
+      <c r="A122" s="45"/>
+      <c r="B122" s="35">
         <v>37</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D122" s="36" t="s">
+      <c r="D122" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="E122" s="36" t="s">
+      <c r="E122" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F122" s="7" t="s">
@@ -4774,15 +4800,15 @@
         <v>175</v>
       </c>
       <c r="I122" s="7"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="39"/>
+      <c r="J122" s="38"/>
+      <c r="K122" s="41"/>
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="43"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="37"/>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37"/>
+      <c r="A123" s="45"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
       <c r="F123" s="2" t="s">
         <v>21</v>
       </c>
@@ -4793,36 +4819,36 @@
         <v>176</v>
       </c>
       <c r="I123" s="2"/>
-      <c r="J123" s="37"/>
-      <c r="K123" s="40"/>
+      <c r="J123" s="39"/>
+      <c r="K123" s="42"/>
     </row>
     <row r="124" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="43"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
+      <c r="A124" s="45"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="40"/>
       <c r="F124" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
-      <c r="J124" s="38"/>
-      <c r="K124" s="41"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="43"/>
     </row>
     <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="43"/>
-      <c r="B125" s="24">
+      <c r="A125" s="45"/>
+      <c r="B125" s="26">
         <v>38</v>
       </c>
-      <c r="C125" s="27" t="s">
+      <c r="C125" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="27" t="s">
+      <c r="D125" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="E125" s="27" t="s">
+      <c r="E125" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F125" s="12" t="s">
@@ -4835,15 +4861,15 @@
         <v>179</v>
       </c>
       <c r="I125" s="12"/>
-      <c r="J125" s="27"/>
-      <c r="K125" s="30"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="32"/>
     </row>
     <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="43"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
+      <c r="A126" s="45"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
       <c r="F126" s="13" t="s">
         <v>21</v>
       </c>
@@ -4854,36 +4880,36 @@
         <v>180</v>
       </c>
       <c r="I126" s="13"/>
-      <c r="J126" s="28"/>
-      <c r="K126" s="31"/>
+      <c r="J126" s="30"/>
+      <c r="K126" s="33"/>
     </row>
     <row r="127" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="43"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
+      <c r="A127" s="45"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
       <c r="F127" s="14" t="s">
         <v>147</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
-      <c r="J127" s="29"/>
-      <c r="K127" s="32"/>
+      <c r="J127" s="31"/>
+      <c r="K127" s="34"/>
     </row>
     <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="43"/>
-      <c r="B128" s="33">
+      <c r="A128" s="45"/>
+      <c r="B128" s="35">
         <v>39</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C128" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D128" s="36" t="s">
+      <c r="D128" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="E128" s="36" t="s">
+      <c r="E128" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F128" s="7" t="s">
@@ -4896,15 +4922,15 @@
         <v>183</v>
       </c>
       <c r="I128" s="7"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="39"/>
+      <c r="J128" s="38"/>
+      <c r="K128" s="41"/>
     </row>
     <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="43"/>
-      <c r="B129" s="34"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37"/>
+      <c r="A129" s="45"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="39"/>
       <c r="F129" s="2" t="s">
         <v>21</v>
       </c>
@@ -4915,36 +4941,36 @@
         <v>184</v>
       </c>
       <c r="I129" s="2"/>
-      <c r="J129" s="37"/>
-      <c r="K129" s="40"/>
+      <c r="J129" s="39"/>
+      <c r="K129" s="42"/>
     </row>
     <row r="130" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="43"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
-      <c r="E130" s="38"/>
+      <c r="A130" s="45"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="40"/>
       <c r="F130" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
-      <c r="J130" s="38"/>
-      <c r="K130" s="41"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="43"/>
     </row>
     <row r="131" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="43"/>
-      <c r="B131" s="24">
+      <c r="A131" s="45"/>
+      <c r="B131" s="26">
         <v>40</v>
       </c>
-      <c r="C131" s="27" t="s">
+      <c r="C131" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D131" s="27" t="s">
+      <c r="D131" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="E131" s="27" t="s">
+      <c r="E131" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F131" s="12" t="s">
@@ -4957,15 +4983,15 @@
         <v>190</v>
       </c>
       <c r="I131" s="12"/>
-      <c r="J131" s="27"/>
-      <c r="K131" s="30"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="32"/>
     </row>
     <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="43"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
+      <c r="A132" s="45"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
       <c r="F132" s="13" t="s">
         <v>21</v>
       </c>
@@ -4976,15 +5002,15 @@
         <v>191</v>
       </c>
       <c r="I132" s="13"/>
-      <c r="J132" s="28"/>
-      <c r="K132" s="31"/>
+      <c r="J132" s="30"/>
+      <c r="K132" s="33"/>
     </row>
     <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="43"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
+      <c r="A133" s="45"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
       <c r="F133" s="19" t="s">
         <v>147</v>
       </c>
@@ -4995,15 +5021,15 @@
         <v>192</v>
       </c>
       <c r="I133" s="19"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="31"/>
+      <c r="J133" s="30"/>
+      <c r="K133" s="33"/>
     </row>
     <row r="134" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="43"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
+      <c r="A134" s="45"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
       <c r="F134" s="14"/>
       <c r="G134" s="20" t="s">
         <v>189</v>
@@ -5012,21 +5038,21 @@
         <v>193</v>
       </c>
       <c r="I134" s="14"/>
-      <c r="J134" s="29"/>
-      <c r="K134" s="32"/>
+      <c r="J134" s="31"/>
+      <c r="K134" s="34"/>
     </row>
     <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="43"/>
-      <c r="B135" s="33">
+      <c r="A135" s="45"/>
+      <c r="B135" s="35">
         <v>41</v>
       </c>
-      <c r="C135" s="36" t="s">
+      <c r="C135" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D135" s="36" t="s">
+      <c r="D135" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="E135" s="36" t="s">
+      <c r="E135" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F135" s="7" t="s">
@@ -5039,15 +5065,15 @@
         <v>196</v>
       </c>
       <c r="I135" s="7"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="39"/>
+      <c r="J135" s="38"/>
+      <c r="K135" s="41"/>
     </row>
     <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="43"/>
-      <c r="B136" s="34"/>
-      <c r="C136" s="37"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="37"/>
+      <c r="A136" s="45"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="39"/>
       <c r="F136" s="2" t="s">
         <v>21</v>
       </c>
@@ -5056,38 +5082,38 @@
         <v>197</v>
       </c>
       <c r="I136" s="2"/>
-      <c r="J136" s="37"/>
-      <c r="K136" s="40"/>
+      <c r="J136" s="39"/>
+      <c r="K136" s="42"/>
     </row>
     <row r="137" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="43"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="38"/>
-      <c r="D137" s="38"/>
-      <c r="E137" s="38"/>
+      <c r="A137" s="45"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="40"/>
       <c r="F137" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
-      <c r="J137" s="38"/>
-      <c r="K137" s="41"/>
+      <c r="J137" s="40"/>
+      <c r="K137" s="43"/>
     </row>
     <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="42" t="s">
+      <c r="A138" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="B138" s="24">
+      <c r="B138" s="26">
         <v>42</v>
       </c>
-      <c r="C138" s="27" t="s">
+      <c r="C138" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D138" s="27" t="s">
+      <c r="D138" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="E138" s="27" t="s">
+      <c r="E138" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F138" s="12" t="s">
@@ -5100,51 +5126,51 @@
         <v>203</v>
       </c>
       <c r="I138" s="12"/>
-      <c r="J138" s="27"/>
-      <c r="K138" s="30"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="32"/>
     </row>
     <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="43"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
+      <c r="A139" s="45"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
       <c r="F139" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="13"/>
       <c r="I139" s="13"/>
-      <c r="J139" s="28"/>
-      <c r="K139" s="31"/>
+      <c r="J139" s="30"/>
+      <c r="K139" s="33"/>
     </row>
     <row r="140" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="43"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
+      <c r="A140" s="45"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
       <c r="F140" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
-      <c r="J140" s="29"/>
-      <c r="K140" s="32"/>
+      <c r="J140" s="31"/>
+      <c r="K140" s="34"/>
     </row>
     <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="43"/>
-      <c r="B141" s="33">
+      <c r="A141" s="45"/>
+      <c r="B141" s="35">
         <v>43</v>
       </c>
-      <c r="C141" s="36" t="s">
+      <c r="C141" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D141" s="36" t="s">
+      <c r="D141" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="E141" s="36" t="s">
+      <c r="E141" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F141" s="7" t="s">
@@ -5157,15 +5183,15 @@
         <v>151</v>
       </c>
       <c r="I141" s="7"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="39"/>
+      <c r="J141" s="38"/>
+      <c r="K141" s="41"/>
     </row>
     <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="43"/>
-      <c r="B142" s="34"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
+      <c r="A142" s="45"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="39"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="39"/>
       <c r="F142" s="2" t="s">
         <v>21</v>
       </c>
@@ -5176,36 +5202,36 @@
         <v>153</v>
       </c>
       <c r="I142" s="2"/>
-      <c r="J142" s="37"/>
-      <c r="K142" s="40"/>
+      <c r="J142" s="39"/>
+      <c r="K142" s="42"/>
     </row>
     <row r="143" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="43"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="38"/>
-      <c r="D143" s="38"/>
-      <c r="E143" s="38"/>
+      <c r="A143" s="45"/>
+      <c r="B143" s="37"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="40"/>
       <c r="F143" s="8" t="s">
         <v>204</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
-      <c r="J143" s="38"/>
-      <c r="K143" s="41"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="43"/>
     </row>
     <row r="144" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" s="43"/>
-      <c r="B144" s="24">
+      <c r="A144" s="45"/>
+      <c r="B144" s="26">
         <v>44</v>
       </c>
-      <c r="C144" s="27" t="s">
+      <c r="C144" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D144" s="27" t="s">
+      <c r="D144" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="E144" s="27" t="s">
+      <c r="E144" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F144" s="12" t="s">
@@ -5218,51 +5244,51 @@
         <v>207</v>
       </c>
       <c r="I144" s="12"/>
-      <c r="J144" s="27"/>
-      <c r="K144" s="30"/>
+      <c r="J144" s="29"/>
+      <c r="K144" s="32"/>
     </row>
     <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="43"/>
-      <c r="B145" s="25"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
+      <c r="A145" s="45"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
       <c r="F145" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G145" s="13"/>
       <c r="H145" s="13"/>
       <c r="I145" s="13"/>
-      <c r="J145" s="28"/>
-      <c r="K145" s="31"/>
+      <c r="J145" s="30"/>
+      <c r="K145" s="33"/>
     </row>
     <row r="146" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="43"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
+      <c r="A146" s="45"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
       <c r="F146" s="14" t="s">
         <v>204</v>
       </c>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
-      <c r="J146" s="29"/>
-      <c r="K146" s="32"/>
+      <c r="J146" s="31"/>
+      <c r="K146" s="34"/>
     </row>
     <row r="147" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="43"/>
-      <c r="B147" s="33">
+      <c r="A147" s="45"/>
+      <c r="B147" s="35">
         <v>45</v>
       </c>
-      <c r="C147" s="36" t="s">
+      <c r="C147" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D147" s="36" t="s">
+      <c r="D147" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="E147" s="36" t="s">
+      <c r="E147" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F147" s="7" t="s">
@@ -5275,15 +5301,15 @@
         <v>211</v>
       </c>
       <c r="I147" s="7"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="39"/>
+      <c r="J147" s="38"/>
+      <c r="K147" s="41"/>
     </row>
     <row r="148" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="43"/>
-      <c r="B148" s="34"/>
-      <c r="C148" s="37"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
+      <c r="A148" s="45"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="39"/>
       <c r="F148" s="2" t="s">
         <v>21</v>
       </c>
@@ -5294,36 +5320,36 @@
         <v>212</v>
       </c>
       <c r="I148" s="2"/>
-      <c r="J148" s="37"/>
-      <c r="K148" s="40"/>
+      <c r="J148" s="39"/>
+      <c r="K148" s="42"/>
     </row>
     <row r="149" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="43"/>
-      <c r="B149" s="35"/>
-      <c r="C149" s="38"/>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38"/>
+      <c r="A149" s="45"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="40"/>
+      <c r="E149" s="40"/>
       <c r="F149" s="8" t="s">
         <v>208</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
-      <c r="J149" s="38"/>
-      <c r="K149" s="41"/>
+      <c r="J149" s="40"/>
+      <c r="K149" s="43"/>
     </row>
     <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="43"/>
-      <c r="B150" s="24">
+      <c r="A150" s="45"/>
+      <c r="B150" s="26">
         <v>46</v>
       </c>
-      <c r="C150" s="27" t="s">
+      <c r="C150" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D150" s="27" t="s">
+      <c r="D150" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="E150" s="27" t="s">
+      <c r="E150" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F150" s="12" t="s">
@@ -5336,15 +5362,15 @@
         <v>217</v>
       </c>
       <c r="I150" s="12"/>
-      <c r="J150" s="27"/>
-      <c r="K150" s="30"/>
+      <c r="J150" s="29"/>
+      <c r="K150" s="32"/>
     </row>
     <row r="151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="43"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
+      <c r="A151" s="45"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
       <c r="F151" s="13" t="s">
         <v>21</v>
       </c>
@@ -5355,15 +5381,15 @@
         <v>218</v>
       </c>
       <c r="I151" s="13"/>
-      <c r="J151" s="28"/>
-      <c r="K151" s="31"/>
+      <c r="J151" s="30"/>
+      <c r="K151" s="33"/>
     </row>
     <row r="152" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="43"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
+      <c r="A152" s="45"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
       <c r="F152" s="14" t="s">
         <v>208</v>
       </c>
@@ -5374,21 +5400,21 @@
         <v>219</v>
       </c>
       <c r="I152" s="14"/>
-      <c r="J152" s="29"/>
-      <c r="K152" s="32"/>
+      <c r="J152" s="31"/>
+      <c r="K152" s="34"/>
     </row>
     <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="43"/>
-      <c r="B153" s="33">
+      <c r="A153" s="45"/>
+      <c r="B153" s="35">
         <v>47</v>
       </c>
-      <c r="C153" s="36" t="s">
+      <c r="C153" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D153" s="36" t="s">
+      <c r="D153" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="E153" s="36" t="s">
+      <c r="E153" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F153" s="7" t="s">
@@ -5401,15 +5427,15 @@
         <v>223</v>
       </c>
       <c r="I153" s="7"/>
-      <c r="J153" s="36"/>
-      <c r="K153" s="39"/>
+      <c r="J153" s="38"/>
+      <c r="K153" s="41"/>
     </row>
     <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="43"/>
-      <c r="B154" s="34"/>
-      <c r="C154" s="37"/>
-      <c r="D154" s="37"/>
-      <c r="E154" s="37"/>
+      <c r="A154" s="45"/>
+      <c r="B154" s="36"/>
+      <c r="C154" s="39"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="39"/>
       <c r="F154" s="2" t="s">
         <v>21</v>
       </c>
@@ -5420,36 +5446,36 @@
         <v>224</v>
       </c>
       <c r="I154" s="2"/>
-      <c r="J154" s="37"/>
-      <c r="K154" s="40"/>
+      <c r="J154" s="39"/>
+      <c r="K154" s="42"/>
     </row>
     <row r="155" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="43"/>
-      <c r="B155" s="35"/>
-      <c r="C155" s="38"/>
-      <c r="D155" s="38"/>
-      <c r="E155" s="38"/>
+      <c r="A155" s="45"/>
+      <c r="B155" s="37"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="40"/>
       <c r="F155" s="8" t="s">
         <v>208</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
-      <c r="J155" s="38"/>
-      <c r="K155" s="41"/>
+      <c r="J155" s="40"/>
+      <c r="K155" s="43"/>
     </row>
     <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="43"/>
-      <c r="B156" s="24">
+      <c r="A156" s="45"/>
+      <c r="B156" s="26">
         <v>48</v>
       </c>
-      <c r="C156" s="27" t="s">
+      <c r="C156" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D156" s="27" t="s">
+      <c r="D156" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="E156" s="27" t="s">
+      <c r="E156" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F156" s="12" t="s">
@@ -5462,15 +5488,15 @@
         <v>223</v>
       </c>
       <c r="I156" s="12"/>
-      <c r="J156" s="27"/>
-      <c r="K156" s="30"/>
+      <c r="J156" s="29"/>
+      <c r="K156" s="32"/>
     </row>
     <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="43"/>
-      <c r="B157" s="25"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="28"/>
+      <c r="A157" s="45"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
       <c r="F157" s="13" t="s">
         <v>21</v>
       </c>
@@ -5481,36 +5507,36 @@
         <v>227</v>
       </c>
       <c r="I157" s="13"/>
-      <c r="J157" s="28"/>
-      <c r="K157" s="31"/>
+      <c r="J157" s="30"/>
+      <c r="K157" s="33"/>
     </row>
     <row r="158" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="43"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="29"/>
-      <c r="E158" s="29"/>
+      <c r="A158" s="45"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
       <c r="F158" s="14" t="s">
         <v>208</v>
       </c>
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
-      <c r="J158" s="29"/>
-      <c r="K158" s="32"/>
+      <c r="J158" s="31"/>
+      <c r="K158" s="34"/>
     </row>
     <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="43"/>
-      <c r="B159" s="33">
+      <c r="A159" s="45"/>
+      <c r="B159" s="35">
         <v>49</v>
       </c>
-      <c r="C159" s="36" t="s">
+      <c r="C159" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D159" s="36" t="s">
+      <c r="D159" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E159" s="36" t="s">
+      <c r="E159" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="7" t="s">
@@ -5523,51 +5549,51 @@
         <v>230</v>
       </c>
       <c r="I159" s="7"/>
-      <c r="J159" s="36"/>
-      <c r="K159" s="39"/>
+      <c r="J159" s="38"/>
+      <c r="K159" s="41"/>
     </row>
     <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="43"/>
-      <c r="B160" s="34"/>
-      <c r="C160" s="37"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="37"/>
+      <c r="A160" s="45"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="39"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="39"/>
       <c r="F160" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
-      <c r="J160" s="37"/>
-      <c r="K160" s="40"/>
+      <c r="J160" s="39"/>
+      <c r="K160" s="42"/>
     </row>
     <row r="161" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="43"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="38"/>
-      <c r="D161" s="38"/>
-      <c r="E161" s="38"/>
+      <c r="A161" s="45"/>
+      <c r="B161" s="37"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="40"/>
+      <c r="E161" s="40"/>
       <c r="F161" s="8" t="s">
         <v>208</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
-      <c r="J161" s="38"/>
-      <c r="K161" s="41"/>
+      <c r="J161" s="40"/>
+      <c r="K161" s="43"/>
     </row>
     <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="43"/>
-      <c r="B162" s="24">
+      <c r="A162" s="45"/>
+      <c r="B162" s="26">
         <v>50</v>
       </c>
-      <c r="C162" s="27" t="s">
+      <c r="C162" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D162" s="27" t="s">
+      <c r="D162" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E162" s="27" t="s">
+      <c r="E162" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F162" s="12" t="s">
@@ -5580,15 +5606,15 @@
         <v>138</v>
       </c>
       <c r="I162" s="12"/>
-      <c r="J162" s="27"/>
-      <c r="K162" s="30"/>
+      <c r="J162" s="29"/>
+      <c r="K162" s="32"/>
     </row>
     <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="43"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
-      <c r="E163" s="28"/>
+      <c r="A163" s="45"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
       <c r="F163" s="13" t="s">
         <v>21</v>
       </c>
@@ -5599,36 +5625,36 @@
         <v>139</v>
       </c>
       <c r="I163" s="13"/>
-      <c r="J163" s="28"/>
-      <c r="K163" s="31"/>
+      <c r="J163" s="30"/>
+      <c r="K163" s="33"/>
     </row>
     <row r="164" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="43"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
+      <c r="A164" s="45"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="31"/>
       <c r="F164" s="14" t="s">
         <v>204</v>
       </c>
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
-      <c r="J164" s="29"/>
-      <c r="K164" s="32"/>
+      <c r="J164" s="31"/>
+      <c r="K164" s="34"/>
     </row>
     <row r="165" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A165" s="43"/>
-      <c r="B165" s="33">
+      <c r="A165" s="45"/>
+      <c r="B165" s="35">
         <v>51</v>
       </c>
-      <c r="C165" s="36" t="s">
+      <c r="C165" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D165" s="36" t="s">
+      <c r="D165" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="E165" s="36" t="s">
+      <c r="E165" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F165" s="7" t="s">
@@ -5641,15 +5667,15 @@
         <v>233</v>
       </c>
       <c r="I165" s="7"/>
-      <c r="J165" s="36"/>
-      <c r="K165" s="39"/>
+      <c r="J165" s="38"/>
+      <c r="K165" s="41"/>
     </row>
     <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="43"/>
-      <c r="B166" s="34"/>
-      <c r="C166" s="37"/>
-      <c r="D166" s="37"/>
-      <c r="E166" s="37"/>
+      <c r="A166" s="45"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="39"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
       <c r="F166" s="2" t="s">
         <v>21</v>
       </c>
@@ -5660,15 +5686,15 @@
         <v>234</v>
       </c>
       <c r="I166" s="2"/>
-      <c r="J166" s="37"/>
-      <c r="K166" s="40"/>
+      <c r="J166" s="39"/>
+      <c r="K166" s="42"/>
     </row>
     <row r="167" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="43"/>
-      <c r="B167" s="35"/>
-      <c r="C167" s="38"/>
-      <c r="D167" s="38"/>
-      <c r="E167" s="38"/>
+      <c r="A167" s="45"/>
+      <c r="B167" s="37"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="40"/>
+      <c r="E167" s="40"/>
       <c r="F167" s="8" t="s">
         <v>204</v>
       </c>
@@ -5679,21 +5705,21 @@
         <v>236</v>
       </c>
       <c r="I167" s="8"/>
-      <c r="J167" s="38"/>
-      <c r="K167" s="41"/>
+      <c r="J167" s="40"/>
+      <c r="K167" s="43"/>
     </row>
     <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A168" s="43"/>
-      <c r="B168" s="24">
+      <c r="A168" s="45"/>
+      <c r="B168" s="26">
         <v>52</v>
       </c>
-      <c r="C168" s="27" t="s">
+      <c r="C168" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D168" s="27" t="s">
+      <c r="D168" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="E168" s="27" t="s">
+      <c r="E168" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F168" s="12" t="s">
@@ -5706,15 +5732,15 @@
         <v>233</v>
       </c>
       <c r="I168" s="12"/>
-      <c r="J168" s="27"/>
-      <c r="K168" s="30"/>
+      <c r="J168" s="29"/>
+      <c r="K168" s="32"/>
     </row>
     <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="43"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
+      <c r="A169" s="45"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
       <c r="F169" s="13" t="s">
         <v>21</v>
       </c>
@@ -5725,15 +5751,15 @@
         <v>242</v>
       </c>
       <c r="I169" s="13"/>
-      <c r="J169" s="28"/>
-      <c r="K169" s="31"/>
+      <c r="J169" s="30"/>
+      <c r="K169" s="33"/>
     </row>
     <row r="170" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="43"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="29"/>
-      <c r="D170" s="29"/>
-      <c r="E170" s="29"/>
+      <c r="A170" s="45"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="31"/>
       <c r="F170" s="14" t="s">
         <v>204</v>
       </c>
@@ -5744,21 +5770,21 @@
         <v>243</v>
       </c>
       <c r="I170" s="14"/>
-      <c r="J170" s="29"/>
-      <c r="K170" s="32"/>
+      <c r="J170" s="31"/>
+      <c r="K170" s="34"/>
     </row>
     <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="43"/>
-      <c r="B171" s="33">
+      <c r="A171" s="45"/>
+      <c r="B171" s="35">
         <v>53</v>
       </c>
-      <c r="C171" s="36" t="s">
+      <c r="C171" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D171" s="36" t="s">
+      <c r="D171" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="E171" s="36" t="s">
+      <c r="E171" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F171" s="7" t="s">
@@ -5771,15 +5797,15 @@
         <v>246</v>
       </c>
       <c r="I171" s="7"/>
-      <c r="J171" s="36"/>
-      <c r="K171" s="39"/>
+      <c r="J171" s="38"/>
+      <c r="K171" s="41"/>
     </row>
     <row r="172" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="43"/>
-      <c r="B172" s="34"/>
-      <c r="C172" s="37"/>
-      <c r="D172" s="37"/>
-      <c r="E172" s="37"/>
+      <c r="A172" s="45"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
       <c r="F172" s="2" t="s">
         <v>21</v>
       </c>
@@ -5790,36 +5816,36 @@
         <v>248</v>
       </c>
       <c r="I172" s="2"/>
-      <c r="J172" s="37"/>
-      <c r="K172" s="40"/>
+      <c r="J172" s="39"/>
+      <c r="K172" s="42"/>
     </row>
     <row r="173" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="43"/>
-      <c r="B173" s="35"/>
-      <c r="C173" s="38"/>
-      <c r="D173" s="38"/>
-      <c r="E173" s="38"/>
+      <c r="A173" s="45"/>
+      <c r="B173" s="37"/>
+      <c r="C173" s="40"/>
+      <c r="D173" s="40"/>
+      <c r="E173" s="40"/>
       <c r="F173" s="8" t="s">
         <v>204</v>
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
-      <c r="J173" s="38"/>
-      <c r="K173" s="41"/>
+      <c r="J173" s="40"/>
+      <c r="K173" s="43"/>
     </row>
     <row r="174" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="43"/>
-      <c r="B174" s="24">
+      <c r="A174" s="45"/>
+      <c r="B174" s="26">
         <v>54</v>
       </c>
-      <c r="C174" s="27" t="s">
+      <c r="C174" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D174" s="27" t="s">
+      <c r="D174" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="E174" s="27" t="s">
+      <c r="E174" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F174" s="12" t="s">
@@ -5832,15 +5858,15 @@
         <v>246</v>
       </c>
       <c r="I174" s="12"/>
-      <c r="J174" s="27"/>
-      <c r="K174" s="30"/>
+      <c r="J174" s="29"/>
+      <c r="K174" s="32"/>
     </row>
     <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="43"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
-      <c r="E175" s="28"/>
+      <c r="A175" s="45"/>
+      <c r="B175" s="27"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="30"/>
       <c r="F175" s="13" t="s">
         <v>21</v>
       </c>
@@ -5851,36 +5877,36 @@
         <v>251</v>
       </c>
       <c r="I175" s="13"/>
-      <c r="J175" s="28"/>
-      <c r="K175" s="31"/>
+      <c r="J175" s="30"/>
+      <c r="K175" s="33"/>
     </row>
     <row r="176" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="43"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="29"/>
-      <c r="E176" s="29"/>
+      <c r="A176" s="45"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="31"/>
       <c r="F176" s="14" t="s">
         <v>204</v>
       </c>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
-      <c r="J176" s="29"/>
-      <c r="K176" s="32"/>
+      <c r="J176" s="31"/>
+      <c r="K176" s="34"/>
     </row>
     <row r="177" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A177" s="43"/>
-      <c r="B177" s="33">
+      <c r="A177" s="45"/>
+      <c r="B177" s="35">
         <v>55</v>
       </c>
-      <c r="C177" s="36" t="s">
+      <c r="C177" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D177" s="36" t="s">
+      <c r="D177" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="E177" s="36" t="s">
+      <c r="E177" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F177" s="7" t="s">
@@ -5893,15 +5919,15 @@
         <v>233</v>
       </c>
       <c r="I177" s="7"/>
-      <c r="J177" s="36"/>
-      <c r="K177" s="39"/>
+      <c r="J177" s="38"/>
+      <c r="K177" s="41"/>
     </row>
     <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="43"/>
-      <c r="B178" s="34"/>
-      <c r="C178" s="37"/>
-      <c r="D178" s="37"/>
-      <c r="E178" s="37"/>
+      <c r="A178" s="45"/>
+      <c r="B178" s="36"/>
+      <c r="C178" s="39"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="39"/>
       <c r="F178" s="2" t="s">
         <v>21</v>
       </c>
@@ -5912,15 +5938,15 @@
         <v>259</v>
       </c>
       <c r="I178" s="2"/>
-      <c r="J178" s="37"/>
-      <c r="K178" s="40"/>
+      <c r="J178" s="39"/>
+      <c r="K178" s="42"/>
     </row>
     <row r="179" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="43"/>
-      <c r="B179" s="35"/>
-      <c r="C179" s="38"/>
-      <c r="D179" s="38"/>
-      <c r="E179" s="38"/>
+      <c r="A179" s="45"/>
+      <c r="B179" s="37"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="40"/>
+      <c r="E179" s="40"/>
       <c r="F179" s="8" t="s">
         <v>204</v>
       </c>
@@ -5931,21 +5957,21 @@
         <v>260</v>
       </c>
       <c r="I179" s="8"/>
-      <c r="J179" s="38"/>
-      <c r="K179" s="41"/>
+      <c r="J179" s="40"/>
+      <c r="K179" s="43"/>
     </row>
     <row r="180" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A180" s="43"/>
-      <c r="B180" s="24">
+      <c r="A180" s="45"/>
+      <c r="B180" s="26">
         <v>56</v>
       </c>
-      <c r="C180" s="27" t="s">
+      <c r="C180" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D180" s="27" t="s">
+      <c r="D180" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E180" s="27" t="s">
+      <c r="E180" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F180" s="12" t="s">
@@ -5958,15 +5984,15 @@
         <v>233</v>
       </c>
       <c r="I180" s="12"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="30"/>
+      <c r="J180" s="29"/>
+      <c r="K180" s="32"/>
     </row>
     <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="43"/>
-      <c r="B181" s="25"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
+      <c r="A181" s="45"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="30"/>
+      <c r="E181" s="30"/>
       <c r="F181" s="13" t="s">
         <v>21</v>
       </c>
@@ -5977,15 +6003,15 @@
         <v>262</v>
       </c>
       <c r="I181" s="13"/>
-      <c r="J181" s="28"/>
-      <c r="K181" s="31"/>
+      <c r="J181" s="30"/>
+      <c r="K181" s="33"/>
     </row>
     <row r="182" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="43"/>
-      <c r="B182" s="26"/>
-      <c r="C182" s="29"/>
-      <c r="D182" s="29"/>
-      <c r="E182" s="29"/>
+      <c r="A182" s="45"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="31"/>
       <c r="F182" s="14" t="s">
         <v>204</v>
       </c>
@@ -5996,21 +6022,21 @@
         <v>263</v>
       </c>
       <c r="I182" s="14"/>
-      <c r="J182" s="29"/>
-      <c r="K182" s="32"/>
+      <c r="J182" s="31"/>
+      <c r="K182" s="34"/>
     </row>
     <row r="183" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A183" s="43"/>
-      <c r="B183" s="33">
+      <c r="A183" s="45"/>
+      <c r="B183" s="35">
         <v>57</v>
       </c>
-      <c r="C183" s="36" t="s">
+      <c r="C183" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D183" s="36" t="s">
+      <c r="D183" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="E183" s="36" t="s">
+      <c r="E183" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F183" s="7" t="s">
@@ -6023,15 +6049,15 @@
         <v>233</v>
       </c>
       <c r="I183" s="7"/>
-      <c r="J183" s="36"/>
-      <c r="K183" s="39"/>
+      <c r="J183" s="38"/>
+      <c r="K183" s="41"/>
     </row>
     <row r="184" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="43"/>
-      <c r="B184" s="34"/>
-      <c r="C184" s="37"/>
-      <c r="D184" s="37"/>
-      <c r="E184" s="37"/>
+      <c r="A184" s="45"/>
+      <c r="B184" s="36"/>
+      <c r="C184" s="39"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="39"/>
       <c r="F184" s="2" t="s">
         <v>21</v>
       </c>
@@ -6042,15 +6068,15 @@
         <v>265</v>
       </c>
       <c r="I184" s="2"/>
-      <c r="J184" s="37"/>
-      <c r="K184" s="40"/>
+      <c r="J184" s="39"/>
+      <c r="K184" s="42"/>
     </row>
     <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A185" s="42"/>
-      <c r="B185" s="34"/>
-      <c r="C185" s="37"/>
-      <c r="D185" s="37"/>
-      <c r="E185" s="37"/>
+      <c r="A185" s="44"/>
+      <c r="B185" s="36"/>
+      <c r="C185" s="39"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="39"/>
       <c r="F185" s="21" t="s">
         <v>204</v>
       </c>
@@ -6061,15 +6087,15 @@
         <v>268</v>
       </c>
       <c r="I185" s="21"/>
-      <c r="J185" s="37"/>
-      <c r="K185" s="40"/>
+      <c r="J185" s="39"/>
+      <c r="K185" s="42"/>
     </row>
     <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="43"/>
-      <c r="B186" s="34"/>
-      <c r="C186" s="37"/>
-      <c r="D186" s="37"/>
-      <c r="E186" s="37"/>
+      <c r="A186" s="45"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="39"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="39"/>
       <c r="F186" s="21"/>
       <c r="G186" s="21" t="s">
         <v>267</v>
@@ -6078,15 +6104,15 @@
         <v>269</v>
       </c>
       <c r="I186" s="21"/>
-      <c r="J186" s="37"/>
-      <c r="K186" s="40"/>
+      <c r="J186" s="39"/>
+      <c r="K186" s="42"/>
     </row>
     <row r="187" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="43"/>
-      <c r="B187" s="35"/>
-      <c r="C187" s="38"/>
-      <c r="D187" s="38"/>
-      <c r="E187" s="38"/>
+      <c r="A187" s="45"/>
+      <c r="B187" s="37"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="40"/>
+      <c r="E187" s="40"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8" t="s">
         <v>270</v>
@@ -6095,21 +6121,21 @@
         <v>276</v>
       </c>
       <c r="I187" s="8"/>
-      <c r="J187" s="38"/>
-      <c r="K187" s="41"/>
+      <c r="J187" s="40"/>
+      <c r="K187" s="43"/>
     </row>
     <row r="188" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="43"/>
-      <c r="B188" s="24">
+      <c r="A188" s="45"/>
+      <c r="B188" s="26">
         <v>58</v>
       </c>
-      <c r="C188" s="27" t="s">
+      <c r="C188" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D188" s="27" t="s">
+      <c r="D188" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="E188" s="27" t="s">
+      <c r="E188" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F188" s="12" t="s">
@@ -6122,15 +6148,15 @@
         <v>233</v>
       </c>
       <c r="I188" s="12"/>
-      <c r="J188" s="27"/>
-      <c r="K188" s="30"/>
+      <c r="J188" s="29"/>
+      <c r="K188" s="32"/>
     </row>
     <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="43"/>
-      <c r="B189" s="25"/>
-      <c r="C189" s="28"/>
-      <c r="D189" s="28"/>
-      <c r="E189" s="28"/>
+      <c r="A189" s="45"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="30"/>
+      <c r="D189" s="30"/>
+      <c r="E189" s="30"/>
       <c r="F189" s="13" t="s">
         <v>21</v>
       </c>
@@ -6141,15 +6167,15 @@
         <v>272</v>
       </c>
       <c r="I189" s="13"/>
-      <c r="J189" s="28"/>
-      <c r="K189" s="31"/>
+      <c r="J189" s="30"/>
+      <c r="K189" s="33"/>
     </row>
     <row r="190" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="43"/>
-      <c r="B190" s="25"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
-      <c r="E190" s="28"/>
+      <c r="A190" s="45"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="30"/>
+      <c r="E190" s="30"/>
       <c r="F190" s="13" t="s">
         <v>204</v>
       </c>
@@ -6160,15 +6186,15 @@
         <v>274</v>
       </c>
       <c r="I190" s="13"/>
-      <c r="J190" s="28"/>
-      <c r="K190" s="31"/>
+      <c r="J190" s="30"/>
+      <c r="K190" s="33"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="43"/>
-      <c r="B191" s="25"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="28"/>
-      <c r="E191" s="28"/>
+      <c r="A191" s="45"/>
+      <c r="B191" s="27"/>
+      <c r="C191" s="30"/>
+      <c r="D191" s="30"/>
+      <c r="E191" s="30"/>
       <c r="F191" s="22"/>
       <c r="G191" s="13" t="s">
         <v>267</v>
@@ -6177,15 +6203,15 @@
         <v>275</v>
       </c>
       <c r="I191" s="22"/>
-      <c r="J191" s="28"/>
-      <c r="K191" s="31"/>
+      <c r="J191" s="30"/>
+      <c r="K191" s="33"/>
     </row>
     <row r="192" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="43"/>
-      <c r="B192" s="26"/>
-      <c r="C192" s="29"/>
-      <c r="D192" s="29"/>
-      <c r="E192" s="29"/>
+      <c r="A192" s="45"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="31"/>
       <c r="F192" s="22"/>
       <c r="G192" s="22" t="s">
         <v>270</v>
@@ -6194,21 +6220,21 @@
         <v>277</v>
       </c>
       <c r="I192" s="22"/>
-      <c r="J192" s="29"/>
-      <c r="K192" s="32"/>
+      <c r="J192" s="31"/>
+      <c r="K192" s="34"/>
     </row>
     <row r="193" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A193" s="43"/>
-      <c r="B193" s="33">
+      <c r="A193" s="45"/>
+      <c r="B193" s="35">
         <v>59</v>
       </c>
-      <c r="C193" s="36" t="s">
+      <c r="C193" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D193" s="36" t="s">
+      <c r="D193" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="E193" s="36" t="s">
+      <c r="E193" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F193" s="7" t="s">
@@ -6221,15 +6247,15 @@
         <v>233</v>
       </c>
       <c r="I193" s="7"/>
-      <c r="J193" s="36"/>
-      <c r="K193" s="39"/>
+      <c r="J193" s="38"/>
+      <c r="K193" s="41"/>
     </row>
     <row r="194" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="43"/>
-      <c r="B194" s="34"/>
-      <c r="C194" s="37"/>
-      <c r="D194" s="37"/>
-      <c r="E194" s="37"/>
+      <c r="A194" s="45"/>
+      <c r="B194" s="36"/>
+      <c r="C194" s="39"/>
+      <c r="D194" s="39"/>
+      <c r="E194" s="39"/>
       <c r="F194" s="2" t="s">
         <v>21</v>
       </c>
@@ -6240,15 +6266,15 @@
         <v>279</v>
       </c>
       <c r="I194" s="2"/>
-      <c r="J194" s="37"/>
-      <c r="K194" s="40"/>
+      <c r="J194" s="39"/>
+      <c r="K194" s="42"/>
     </row>
     <row r="195" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="43"/>
-      <c r="B195" s="35"/>
-      <c r="C195" s="38"/>
-      <c r="D195" s="38"/>
-      <c r="E195" s="38"/>
+      <c r="A195" s="45"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="40"/>
+      <c r="E195" s="40"/>
       <c r="F195" s="8" t="s">
         <v>204</v>
       </c>
@@ -6259,21 +6285,21 @@
         <v>284</v>
       </c>
       <c r="I195" s="8"/>
-      <c r="J195" s="38"/>
-      <c r="K195" s="41"/>
+      <c r="J195" s="40"/>
+      <c r="K195" s="43"/>
     </row>
     <row r="196" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A196" s="43"/>
-      <c r="B196" s="24">
+      <c r="A196" s="45"/>
+      <c r="B196" s="26">
         <v>60</v>
       </c>
-      <c r="C196" s="27" t="s">
+      <c r="C196" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D196" s="27" t="s">
+      <c r="D196" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="E196" s="27" t="s">
+      <c r="E196" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F196" s="12" t="s">
@@ -6286,15 +6312,15 @@
         <v>233</v>
       </c>
       <c r="I196" s="12"/>
-      <c r="J196" s="27"/>
-      <c r="K196" s="30"/>
+      <c r="J196" s="29"/>
+      <c r="K196" s="32"/>
     </row>
     <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="43"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
-      <c r="E197" s="28"/>
+      <c r="A197" s="45"/>
+      <c r="B197" s="27"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="30"/>
+      <c r="E197" s="30"/>
       <c r="F197" s="13" t="s">
         <v>21</v>
       </c>
@@ -6305,15 +6331,15 @@
         <v>282</v>
       </c>
       <c r="I197" s="13"/>
-      <c r="J197" s="28"/>
-      <c r="K197" s="31"/>
+      <c r="J197" s="30"/>
+      <c r="K197" s="33"/>
     </row>
     <row r="198" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="43"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="29"/>
-      <c r="D198" s="29"/>
-      <c r="E198" s="29"/>
+      <c r="A198" s="45"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="31"/>
+      <c r="D198" s="31"/>
+      <c r="E198" s="31"/>
       <c r="F198" s="14" t="s">
         <v>204</v>
       </c>
@@ -6324,21 +6350,21 @@
         <v>285</v>
       </c>
       <c r="I198" s="14"/>
-      <c r="J198" s="29"/>
-      <c r="K198" s="32"/>
+      <c r="J198" s="31"/>
+      <c r="K198" s="34"/>
     </row>
     <row r="199" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A199" s="43"/>
-      <c r="B199" s="33">
+      <c r="A199" s="45"/>
+      <c r="B199" s="35">
         <v>61</v>
       </c>
-      <c r="C199" s="36" t="s">
+      <c r="C199" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D199" s="36" t="s">
+      <c r="D199" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="E199" s="36" t="s">
+      <c r="E199" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F199" s="7" t="s">
@@ -6351,15 +6377,15 @@
         <v>288</v>
       </c>
       <c r="I199" s="7"/>
-      <c r="J199" s="36"/>
-      <c r="K199" s="39"/>
+      <c r="J199" s="38"/>
+      <c r="K199" s="41"/>
     </row>
     <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="43"/>
-      <c r="B200" s="34"/>
-      <c r="C200" s="37"/>
-      <c r="D200" s="37"/>
-      <c r="E200" s="37"/>
+      <c r="A200" s="45"/>
+      <c r="B200" s="36"/>
+      <c r="C200" s="39"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="39"/>
       <c r="F200" s="2" t="s">
         <v>21</v>
       </c>
@@ -6370,15 +6396,15 @@
         <v>290</v>
       </c>
       <c r="I200" s="2"/>
-      <c r="J200" s="37"/>
-      <c r="K200" s="40"/>
+      <c r="J200" s="39"/>
+      <c r="K200" s="42"/>
     </row>
     <row r="201" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A201" s="43"/>
-      <c r="B201" s="34"/>
-      <c r="C201" s="37"/>
-      <c r="D201" s="37"/>
-      <c r="E201" s="37"/>
+      <c r="A201" s="45"/>
+      <c r="B201" s="36"/>
+      <c r="C201" s="39"/>
+      <c r="D201" s="39"/>
+      <c r="E201" s="39"/>
       <c r="F201" s="21" t="s">
         <v>204</v>
       </c>
@@ -6389,15 +6415,15 @@
         <v>292</v>
       </c>
       <c r="I201" s="21"/>
-      <c r="J201" s="37"/>
-      <c r="K201" s="40"/>
+      <c r="J201" s="39"/>
+      <c r="K201" s="42"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="43"/>
-      <c r="B202" s="34"/>
-      <c r="C202" s="37"/>
-      <c r="D202" s="37"/>
-      <c r="E202" s="37"/>
+      <c r="A202" s="45"/>
+      <c r="B202" s="36"/>
+      <c r="C202" s="39"/>
+      <c r="D202" s="39"/>
+      <c r="E202" s="39"/>
       <c r="F202" s="21"/>
       <c r="G202" s="21" t="s">
         <v>293</v>
@@ -6406,15 +6432,15 @@
         <v>294</v>
       </c>
       <c r="I202" s="21"/>
-      <c r="J202" s="37"/>
-      <c r="K202" s="40"/>
+      <c r="J202" s="39"/>
+      <c r="K202" s="42"/>
     </row>
     <row r="203" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="43"/>
-      <c r="B203" s="34"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="37"/>
-      <c r="E203" s="37"/>
+      <c r="A203" s="45"/>
+      <c r="B203" s="36"/>
+      <c r="C203" s="39"/>
+      <c r="D203" s="39"/>
+      <c r="E203" s="39"/>
       <c r="F203" s="21"/>
       <c r="G203" s="21" t="s">
         <v>295</v>
@@ -6423,15 +6449,15 @@
         <v>296</v>
       </c>
       <c r="I203" s="21"/>
-      <c r="J203" s="37"/>
-      <c r="K203" s="40"/>
+      <c r="J203" s="39"/>
+      <c r="K203" s="42"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="43"/>
-      <c r="B204" s="34"/>
-      <c r="C204" s="37"/>
-      <c r="D204" s="37"/>
-      <c r="E204" s="37"/>
+      <c r="A204" s="45"/>
+      <c r="B204" s="36"/>
+      <c r="C204" s="39"/>
+      <c r="D204" s="39"/>
+      <c r="E204" s="39"/>
       <c r="F204" s="21"/>
       <c r="G204" s="21" t="s">
         <v>297</v>
@@ -6440,15 +6466,15 @@
         <v>298</v>
       </c>
       <c r="I204" s="21"/>
-      <c r="J204" s="37"/>
-      <c r="K204" s="40"/>
+      <c r="J204" s="39"/>
+      <c r="K204" s="42"/>
     </row>
     <row r="205" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="43"/>
-      <c r="B205" s="34"/>
-      <c r="C205" s="37"/>
-      <c r="D205" s="37"/>
-      <c r="E205" s="37"/>
+      <c r="A205" s="45"/>
+      <c r="B205" s="36"/>
+      <c r="C205" s="39"/>
+      <c r="D205" s="39"/>
+      <c r="E205" s="39"/>
       <c r="F205" s="21"/>
       <c r="G205" s="21" t="s">
         <v>299</v>
@@ -6457,15 +6483,15 @@
         <v>300</v>
       </c>
       <c r="I205" s="21"/>
-      <c r="J205" s="37"/>
-      <c r="K205" s="40"/>
+      <c r="J205" s="39"/>
+      <c r="K205" s="42"/>
     </row>
     <row r="206" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="43"/>
-      <c r="B206" s="34"/>
-      <c r="C206" s="37"/>
-      <c r="D206" s="37"/>
-      <c r="E206" s="37"/>
+      <c r="A206" s="45"/>
+      <c r="B206" s="36"/>
+      <c r="C206" s="39"/>
+      <c r="D206" s="39"/>
+      <c r="E206" s="39"/>
       <c r="F206" s="21"/>
       <c r="G206" s="21" t="s">
         <v>301</v>
@@ -6474,15 +6500,15 @@
         <v>302</v>
       </c>
       <c r="I206" s="21"/>
-      <c r="J206" s="37"/>
-      <c r="K206" s="40"/>
+      <c r="J206" s="39"/>
+      <c r="K206" s="42"/>
     </row>
     <row r="207" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="43"/>
-      <c r="B207" s="34"/>
-      <c r="C207" s="37"/>
-      <c r="D207" s="37"/>
-      <c r="E207" s="37"/>
+      <c r="A207" s="45"/>
+      <c r="B207" s="36"/>
+      <c r="C207" s="39"/>
+      <c r="D207" s="39"/>
+      <c r="E207" s="39"/>
       <c r="F207" s="21"/>
       <c r="G207" s="21" t="s">
         <v>303</v>
@@ -6491,21 +6517,21 @@
         <v>304</v>
       </c>
       <c r="I207" s="21"/>
-      <c r="J207" s="37"/>
-      <c r="K207" s="40"/>
+      <c r="J207" s="39"/>
+      <c r="K207" s="42"/>
     </row>
     <row r="208" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="43"/>
-      <c r="B208" s="24">
+      <c r="A208" s="45"/>
+      <c r="B208" s="26">
         <v>62</v>
       </c>
-      <c r="C208" s="27" t="s">
+      <c r="C208" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D208" s="27" t="s">
+      <c r="D208" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="E208" s="27" t="s">
+      <c r="E208" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F208" s="12" t="s">
@@ -6518,15 +6544,15 @@
         <v>308</v>
       </c>
       <c r="I208" s="12"/>
-      <c r="J208" s="27"/>
-      <c r="K208" s="30"/>
+      <c r="J208" s="29"/>
+      <c r="K208" s="32"/>
     </row>
     <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="43"/>
-      <c r="B209" s="25"/>
-      <c r="C209" s="28"/>
-      <c r="D209" s="28"/>
-      <c r="E209" s="28"/>
+      <c r="A209" s="45"/>
+      <c r="B209" s="27"/>
+      <c r="C209" s="30"/>
+      <c r="D209" s="30"/>
+      <c r="E209" s="30"/>
       <c r="F209" s="13" t="s">
         <v>21</v>
       </c>
@@ -6537,15 +6563,15 @@
         <v>310</v>
       </c>
       <c r="I209" s="13"/>
-      <c r="J209" s="28"/>
-      <c r="K209" s="31"/>
+      <c r="J209" s="30"/>
+      <c r="K209" s="33"/>
     </row>
     <row r="210" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A210" s="43"/>
-      <c r="B210" s="25"/>
-      <c r="C210" s="28"/>
-      <c r="D210" s="28"/>
-      <c r="E210" s="28"/>
+      <c r="A210" s="45"/>
+      <c r="B210" s="27"/>
+      <c r="C210" s="30"/>
+      <c r="D210" s="30"/>
+      <c r="E210" s="30"/>
       <c r="F210" s="13" t="s">
         <v>204</v>
       </c>
@@ -6556,15 +6582,15 @@
         <v>312</v>
       </c>
       <c r="I210" s="13"/>
-      <c r="J210" s="28"/>
-      <c r="K210" s="31"/>
+      <c r="J210" s="30"/>
+      <c r="K210" s="33"/>
     </row>
     <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="43"/>
-      <c r="B211" s="25"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="28"/>
-      <c r="E211" s="28"/>
+      <c r="A211" s="45"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="30"/>
+      <c r="D211" s="30"/>
+      <c r="E211" s="30"/>
       <c r="F211" s="13" t="s">
         <v>306</v>
       </c>
@@ -6575,15 +6601,15 @@
         <v>314</v>
       </c>
       <c r="I211" s="13"/>
-      <c r="J211" s="28"/>
-      <c r="K211" s="31"/>
+      <c r="J211" s="30"/>
+      <c r="K211" s="33"/>
     </row>
     <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="43"/>
-      <c r="B212" s="25"/>
-      <c r="C212" s="28"/>
-      <c r="D212" s="28"/>
-      <c r="E212" s="28"/>
+      <c r="A212" s="45"/>
+      <c r="B212" s="27"/>
+      <c r="C212" s="30"/>
+      <c r="D212" s="30"/>
+      <c r="E212" s="30"/>
       <c r="F212" s="13"/>
       <c r="G212" s="13" t="s">
         <v>315</v>
@@ -6592,15 +6618,15 @@
         <v>316</v>
       </c>
       <c r="I212" s="13"/>
-      <c r="J212" s="28"/>
-      <c r="K212" s="31"/>
+      <c r="J212" s="30"/>
+      <c r="K212" s="33"/>
     </row>
     <row r="213" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="43"/>
-      <c r="B213" s="25"/>
-      <c r="C213" s="28"/>
-      <c r="D213" s="28"/>
-      <c r="E213" s="28"/>
+      <c r="A213" s="45"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="30"/>
+      <c r="D213" s="30"/>
+      <c r="E213" s="30"/>
       <c r="F213" s="13"/>
       <c r="G213" s="13" t="s">
         <v>317</v>
@@ -6611,15 +6637,15 @@
       <c r="I213" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="J213" s="28"/>
-      <c r="K213" s="31"/>
+      <c r="J213" s="30"/>
+      <c r="K213" s="33"/>
     </row>
     <row r="214" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="43"/>
-      <c r="B214" s="25"/>
-      <c r="C214" s="28"/>
-      <c r="D214" s="28"/>
-      <c r="E214" s="28"/>
+      <c r="A214" s="45"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="30"/>
+      <c r="D214" s="30"/>
+      <c r="E214" s="30"/>
       <c r="F214" s="13"/>
       <c r="G214" s="13" t="s">
         <v>320</v>
@@ -6628,15 +6654,15 @@
         <v>321</v>
       </c>
       <c r="I214" s="13"/>
-      <c r="J214" s="28"/>
-      <c r="K214" s="31"/>
+      <c r="J214" s="30"/>
+      <c r="K214" s="33"/>
     </row>
     <row r="215" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="43"/>
-      <c r="B215" s="25"/>
-      <c r="C215" s="28"/>
-      <c r="D215" s="28"/>
-      <c r="E215" s="28"/>
+      <c r="A215" s="45"/>
+      <c r="B215" s="27"/>
+      <c r="C215" s="30"/>
+      <c r="D215" s="30"/>
+      <c r="E215" s="30"/>
       <c r="F215" s="13"/>
       <c r="G215" s="13" t="s">
         <v>322</v>
@@ -6645,21 +6671,21 @@
         <v>323</v>
       </c>
       <c r="I215" s="13"/>
-      <c r="J215" s="28"/>
-      <c r="K215" s="31"/>
+      <c r="J215" s="30"/>
+      <c r="K215" s="33"/>
     </row>
     <row r="216" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A216" s="43"/>
-      <c r="B216" s="33">
+      <c r="A216" s="45"/>
+      <c r="B216" s="35">
         <v>63</v>
       </c>
-      <c r="C216" s="36" t="s">
+      <c r="C216" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D216" s="36" t="s">
+      <c r="D216" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="E216" s="36" t="s">
+      <c r="E216" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F216" s="7" t="s">
@@ -6672,15 +6698,15 @@
         <v>288</v>
       </c>
       <c r="I216" s="7"/>
-      <c r="J216" s="36"/>
-      <c r="K216" s="39"/>
+      <c r="J216" s="38"/>
+      <c r="K216" s="41"/>
     </row>
     <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="43"/>
-      <c r="B217" s="34"/>
-      <c r="C217" s="37"/>
-      <c r="D217" s="37"/>
-      <c r="E217" s="37"/>
+      <c r="A217" s="45"/>
+      <c r="B217" s="36"/>
+      <c r="C217" s="39"/>
+      <c r="D217" s="39"/>
+      <c r="E217" s="39"/>
       <c r="F217" s="2" t="s">
         <v>21</v>
       </c>
@@ -6691,15 +6717,15 @@
         <v>325</v>
       </c>
       <c r="I217" s="2"/>
-      <c r="J217" s="37"/>
-      <c r="K217" s="40"/>
+      <c r="J217" s="39"/>
+      <c r="K217" s="42"/>
     </row>
     <row r="218" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A218" s="43"/>
-      <c r="B218" s="34"/>
-      <c r="C218" s="37"/>
-      <c r="D218" s="37"/>
-      <c r="E218" s="37"/>
+      <c r="A218" s="45"/>
+      <c r="B218" s="36"/>
+      <c r="C218" s="39"/>
+      <c r="D218" s="39"/>
+      <c r="E218" s="39"/>
       <c r="F218" s="21" t="s">
         <v>204</v>
       </c>
@@ -6710,15 +6736,15 @@
         <v>292</v>
       </c>
       <c r="I218" s="21"/>
-      <c r="J218" s="37"/>
-      <c r="K218" s="40"/>
+      <c r="J218" s="39"/>
+      <c r="K218" s="42"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="43"/>
-      <c r="B219" s="34"/>
-      <c r="C219" s="37"/>
-      <c r="D219" s="37"/>
-      <c r="E219" s="37"/>
+      <c r="A219" s="45"/>
+      <c r="B219" s="36"/>
+      <c r="C219" s="39"/>
+      <c r="D219" s="39"/>
+      <c r="E219" s="39"/>
       <c r="F219" s="21"/>
       <c r="G219" s="21" t="s">
         <v>293</v>
@@ -6727,15 +6753,15 @@
         <v>294</v>
       </c>
       <c r="I219" s="21"/>
-      <c r="J219" s="37"/>
-      <c r="K219" s="40"/>
+      <c r="J219" s="39"/>
+      <c r="K219" s="42"/>
     </row>
     <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220" s="43"/>
-      <c r="B220" s="34"/>
-      <c r="C220" s="37"/>
-      <c r="D220" s="37"/>
-      <c r="E220" s="37"/>
+      <c r="A220" s="45"/>
+      <c r="B220" s="36"/>
+      <c r="C220" s="39"/>
+      <c r="D220" s="39"/>
+      <c r="E220" s="39"/>
       <c r="F220" s="21"/>
       <c r="G220" s="21" t="s">
         <v>295</v>
@@ -6744,15 +6770,15 @@
         <v>296</v>
       </c>
       <c r="I220" s="21"/>
-      <c r="J220" s="37"/>
-      <c r="K220" s="40"/>
+      <c r="J220" s="39"/>
+      <c r="K220" s="42"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="43"/>
-      <c r="B221" s="34"/>
-      <c r="C221" s="37"/>
-      <c r="D221" s="37"/>
-      <c r="E221" s="37"/>
+      <c r="A221" s="45"/>
+      <c r="B221" s="36"/>
+      <c r="C221" s="39"/>
+      <c r="D221" s="39"/>
+      <c r="E221" s="39"/>
       <c r="F221" s="21"/>
       <c r="G221" s="21" t="s">
         <v>297</v>
@@ -6761,15 +6787,15 @@
         <v>298</v>
       </c>
       <c r="I221" s="21"/>
-      <c r="J221" s="37"/>
-      <c r="K221" s="40"/>
+      <c r="J221" s="39"/>
+      <c r="K221" s="42"/>
     </row>
     <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="43"/>
-      <c r="B222" s="34"/>
-      <c r="C222" s="37"/>
-      <c r="D222" s="37"/>
-      <c r="E222" s="37"/>
+      <c r="A222" s="45"/>
+      <c r="B222" s="36"/>
+      <c r="C222" s="39"/>
+      <c r="D222" s="39"/>
+      <c r="E222" s="39"/>
       <c r="F222" s="21"/>
       <c r="G222" s="21" t="s">
         <v>299</v>
@@ -6778,15 +6804,15 @@
         <v>300</v>
       </c>
       <c r="I222" s="21"/>
-      <c r="J222" s="37"/>
-      <c r="K222" s="40"/>
+      <c r="J222" s="39"/>
+      <c r="K222" s="42"/>
     </row>
     <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="43"/>
-      <c r="B223" s="34"/>
-      <c r="C223" s="37"/>
-      <c r="D223" s="37"/>
-      <c r="E223" s="37"/>
+      <c r="A223" s="45"/>
+      <c r="B223" s="36"/>
+      <c r="C223" s="39"/>
+      <c r="D223" s="39"/>
+      <c r="E223" s="39"/>
       <c r="F223" s="21"/>
       <c r="G223" s="21" t="s">
         <v>301</v>
@@ -6795,15 +6821,15 @@
         <v>302</v>
       </c>
       <c r="I223" s="21"/>
-      <c r="J223" s="37"/>
-      <c r="K223" s="40"/>
+      <c r="J223" s="39"/>
+      <c r="K223" s="42"/>
     </row>
     <row r="224" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="43"/>
-      <c r="B224" s="34"/>
-      <c r="C224" s="37"/>
-      <c r="D224" s="37"/>
-      <c r="E224" s="37"/>
+      <c r="A224" s="45"/>
+      <c r="B224" s="36"/>
+      <c r="C224" s="39"/>
+      <c r="D224" s="39"/>
+      <c r="E224" s="39"/>
       <c r="F224" s="21"/>
       <c r="G224" s="21" t="s">
         <v>303</v>
@@ -6812,21 +6838,21 @@
         <v>326</v>
       </c>
       <c r="I224" s="21"/>
-      <c r="J224" s="37"/>
-      <c r="K224" s="40"/>
+      <c r="J224" s="39"/>
+      <c r="K224" s="42"/>
     </row>
     <row r="225" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="43"/>
-      <c r="B225" s="24">
+      <c r="A225" s="45"/>
+      <c r="B225" s="26">
         <v>64</v>
       </c>
-      <c r="C225" s="27" t="s">
+      <c r="C225" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D225" s="27" t="s">
+      <c r="D225" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="E225" s="27" t="s">
+      <c r="E225" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F225" s="12" t="s">
@@ -6839,15 +6865,15 @@
         <v>288</v>
       </c>
       <c r="I225" s="12"/>
-      <c r="J225" s="27"/>
-      <c r="K225" s="30"/>
+      <c r="J225" s="29"/>
+      <c r="K225" s="32"/>
     </row>
     <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="43"/>
-      <c r="B226" s="25"/>
-      <c r="C226" s="28"/>
-      <c r="D226" s="28"/>
-      <c r="E226" s="28"/>
+      <c r="A226" s="45"/>
+      <c r="B226" s="27"/>
+      <c r="C226" s="30"/>
+      <c r="D226" s="30"/>
+      <c r="E226" s="30"/>
       <c r="F226" s="13" t="s">
         <v>21</v>
       </c>
@@ -6858,15 +6884,15 @@
         <v>290</v>
       </c>
       <c r="I226" s="13"/>
-      <c r="J226" s="28"/>
-      <c r="K226" s="31"/>
+      <c r="J226" s="30"/>
+      <c r="K226" s="33"/>
     </row>
     <row r="227" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A227" s="43"/>
-      <c r="B227" s="25"/>
-      <c r="C227" s="28"/>
-      <c r="D227" s="28"/>
-      <c r="E227" s="28"/>
+      <c r="A227" s="45"/>
+      <c r="B227" s="27"/>
+      <c r="C227" s="30"/>
+      <c r="D227" s="30"/>
+      <c r="E227" s="30"/>
       <c r="F227" s="13" t="s">
         <v>204</v>
       </c>
@@ -6877,15 +6903,15 @@
         <v>328</v>
       </c>
       <c r="I227" s="13"/>
-      <c r="J227" s="28"/>
-      <c r="K227" s="31"/>
+      <c r="J227" s="30"/>
+      <c r="K227" s="33"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="43"/>
-      <c r="B228" s="25"/>
-      <c r="C228" s="28"/>
-      <c r="D228" s="28"/>
-      <c r="E228" s="28"/>
+      <c r="A228" s="45"/>
+      <c r="B228" s="27"/>
+      <c r="C228" s="30"/>
+      <c r="D228" s="30"/>
+      <c r="E228" s="30"/>
       <c r="F228" s="13"/>
       <c r="G228" s="13" t="s">
         <v>293</v>
@@ -6894,15 +6920,15 @@
         <v>294</v>
       </c>
       <c r="I228" s="13"/>
-      <c r="J228" s="28"/>
-      <c r="K228" s="31"/>
+      <c r="J228" s="30"/>
+      <c r="K228" s="33"/>
     </row>
     <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="43"/>
-      <c r="B229" s="25"/>
-      <c r="C229" s="28"/>
-      <c r="D229" s="28"/>
-      <c r="E229" s="28"/>
+      <c r="A229" s="45"/>
+      <c r="B229" s="27"/>
+      <c r="C229" s="30"/>
+      <c r="D229" s="30"/>
+      <c r="E229" s="30"/>
       <c r="F229" s="13"/>
       <c r="G229" s="13" t="s">
         <v>295</v>
@@ -6911,15 +6937,15 @@
         <v>296</v>
       </c>
       <c r="I229" s="13"/>
-      <c r="J229" s="28"/>
-      <c r="K229" s="31"/>
+      <c r="J229" s="30"/>
+      <c r="K229" s="33"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="43"/>
-      <c r="B230" s="25"/>
-      <c r="C230" s="28"/>
-      <c r="D230" s="28"/>
-      <c r="E230" s="28"/>
+      <c r="A230" s="45"/>
+      <c r="B230" s="27"/>
+      <c r="C230" s="30"/>
+      <c r="D230" s="30"/>
+      <c r="E230" s="30"/>
       <c r="F230" s="13"/>
       <c r="G230" s="13" t="s">
         <v>297</v>
@@ -6928,15 +6954,15 @@
         <v>298</v>
       </c>
       <c r="I230" s="13"/>
-      <c r="J230" s="28"/>
-      <c r="K230" s="31"/>
+      <c r="J230" s="30"/>
+      <c r="K230" s="33"/>
     </row>
     <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="43"/>
-      <c r="B231" s="25"/>
-      <c r="C231" s="28"/>
-      <c r="D231" s="28"/>
-      <c r="E231" s="28"/>
+      <c r="A231" s="45"/>
+      <c r="B231" s="27"/>
+      <c r="C231" s="30"/>
+      <c r="D231" s="30"/>
+      <c r="E231" s="30"/>
       <c r="F231" s="13"/>
       <c r="G231" s="13" t="s">
         <v>299</v>
@@ -6945,15 +6971,15 @@
         <v>300</v>
       </c>
       <c r="I231" s="13"/>
-      <c r="J231" s="28"/>
-      <c r="K231" s="31"/>
+      <c r="J231" s="30"/>
+      <c r="K231" s="33"/>
     </row>
     <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="43"/>
-      <c r="B232" s="25"/>
-      <c r="C232" s="28"/>
-      <c r="D232" s="28"/>
-      <c r="E232" s="28"/>
+      <c r="A232" s="45"/>
+      <c r="B232" s="27"/>
+      <c r="C232" s="30"/>
+      <c r="D232" s="30"/>
+      <c r="E232" s="30"/>
       <c r="F232" s="19"/>
       <c r="G232" s="13" t="s">
         <v>301</v>
@@ -6962,15 +6988,15 @@
         <v>302</v>
       </c>
       <c r="I232" s="13"/>
-      <c r="J232" s="28"/>
-      <c r="K232" s="31"/>
+      <c r="J232" s="30"/>
+      <c r="K232" s="33"/>
     </row>
     <row r="233" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="43"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="29"/>
-      <c r="D233" s="29"/>
-      <c r="E233" s="29"/>
+      <c r="A233" s="45"/>
+      <c r="B233" s="28"/>
+      <c r="C233" s="31"/>
+      <c r="D233" s="31"/>
+      <c r="E233" s="31"/>
       <c r="F233" s="19"/>
       <c r="G233" s="13" t="s">
         <v>303</v>
@@ -6979,21 +7005,21 @@
         <v>326</v>
       </c>
       <c r="I233" s="13"/>
-      <c r="J233" s="29"/>
-      <c r="K233" s="32"/>
+      <c r="J233" s="31"/>
+      <c r="K233" s="34"/>
     </row>
     <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="43"/>
-      <c r="B234" s="33">
+      <c r="A234" s="45"/>
+      <c r="B234" s="35">
         <v>65</v>
       </c>
-      <c r="C234" s="36" t="s">
+      <c r="C234" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D234" s="36" t="s">
+      <c r="D234" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="E234" s="36" t="s">
+      <c r="E234" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F234" s="7" t="s">
@@ -7006,15 +7032,15 @@
         <v>288</v>
       </c>
       <c r="I234" s="7"/>
-      <c r="J234" s="36"/>
-      <c r="K234" s="39"/>
+      <c r="J234" s="38"/>
+      <c r="K234" s="41"/>
     </row>
     <row r="235" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="43"/>
-      <c r="B235" s="34"/>
-      <c r="C235" s="37"/>
-      <c r="D235" s="37"/>
-      <c r="E235" s="37"/>
+      <c r="A235" s="45"/>
+      <c r="B235" s="36"/>
+      <c r="C235" s="39"/>
+      <c r="D235" s="39"/>
+      <c r="E235" s="39"/>
       <c r="F235" s="2" t="s">
         <v>21</v>
       </c>
@@ -7025,15 +7051,15 @@
         <v>290</v>
       </c>
       <c r="I235" s="2"/>
-      <c r="J235" s="37"/>
-      <c r="K235" s="40"/>
+      <c r="J235" s="39"/>
+      <c r="K235" s="42"/>
     </row>
     <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A236" s="43"/>
-      <c r="B236" s="34"/>
-      <c r="C236" s="37"/>
-      <c r="D236" s="37"/>
-      <c r="E236" s="37"/>
+      <c r="A236" s="45"/>
+      <c r="B236" s="36"/>
+      <c r="C236" s="39"/>
+      <c r="D236" s="39"/>
+      <c r="E236" s="39"/>
       <c r="F236" s="21" t="s">
         <v>204</v>
       </c>
@@ -7044,15 +7070,15 @@
         <v>292</v>
       </c>
       <c r="I236" s="21"/>
-      <c r="J236" s="37"/>
-      <c r="K236" s="40"/>
+      <c r="J236" s="39"/>
+      <c r="K236" s="42"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="43"/>
-      <c r="B237" s="34"/>
-      <c r="C237" s="37"/>
-      <c r="D237" s="37"/>
-      <c r="E237" s="37"/>
+      <c r="A237" s="45"/>
+      <c r="B237" s="36"/>
+      <c r="C237" s="39"/>
+      <c r="D237" s="39"/>
+      <c r="E237" s="39"/>
       <c r="F237" s="21"/>
       <c r="G237" s="21" t="s">
         <v>293</v>
@@ -7061,15 +7087,15 @@
         <v>294</v>
       </c>
       <c r="I237" s="21"/>
-      <c r="J237" s="37"/>
-      <c r="K237" s="40"/>
+      <c r="J237" s="39"/>
+      <c r="K237" s="42"/>
     </row>
     <row r="238" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="43"/>
-      <c r="B238" s="34"/>
-      <c r="C238" s="37"/>
-      <c r="D238" s="37"/>
-      <c r="E238" s="37"/>
+      <c r="A238" s="45"/>
+      <c r="B238" s="36"/>
+      <c r="C238" s="39"/>
+      <c r="D238" s="39"/>
+      <c r="E238" s="39"/>
       <c r="F238" s="21"/>
       <c r="G238" s="21" t="s">
         <v>295</v>
@@ -7078,15 +7104,15 @@
         <v>296</v>
       </c>
       <c r="I238" s="21"/>
-      <c r="J238" s="37"/>
-      <c r="K238" s="40"/>
+      <c r="J238" s="39"/>
+      <c r="K238" s="42"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="43"/>
-      <c r="B239" s="34"/>
-      <c r="C239" s="37"/>
-      <c r="D239" s="37"/>
-      <c r="E239" s="37"/>
+      <c r="A239" s="45"/>
+      <c r="B239" s="36"/>
+      <c r="C239" s="39"/>
+      <c r="D239" s="39"/>
+      <c r="E239" s="39"/>
       <c r="F239" s="21"/>
       <c r="G239" s="21" t="s">
         <v>297</v>
@@ -7095,15 +7121,15 @@
         <v>298</v>
       </c>
       <c r="I239" s="21"/>
-      <c r="J239" s="37"/>
-      <c r="K239" s="40"/>
+      <c r="J239" s="39"/>
+      <c r="K239" s="42"/>
     </row>
     <row r="240" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="43"/>
-      <c r="B240" s="34"/>
-      <c r="C240" s="37"/>
-      <c r="D240" s="37"/>
-      <c r="E240" s="37"/>
+      <c r="A240" s="45"/>
+      <c r="B240" s="36"/>
+      <c r="C240" s="39"/>
+      <c r="D240" s="39"/>
+      <c r="E240" s="39"/>
       <c r="F240" s="21"/>
       <c r="G240" s="21" t="s">
         <v>299</v>
@@ -7112,15 +7138,15 @@
         <v>300</v>
       </c>
       <c r="I240" s="21"/>
-      <c r="J240" s="37"/>
-      <c r="K240" s="40"/>
+      <c r="J240" s="39"/>
+      <c r="K240" s="42"/>
     </row>
     <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="43"/>
-      <c r="B241" s="34"/>
-      <c r="C241" s="37"/>
-      <c r="D241" s="37"/>
-      <c r="E241" s="37"/>
+      <c r="A241" s="45"/>
+      <c r="B241" s="36"/>
+      <c r="C241" s="39"/>
+      <c r="D241" s="39"/>
+      <c r="E241" s="39"/>
       <c r="F241" s="21"/>
       <c r="G241" s="21" t="s">
         <v>329</v>
@@ -7129,15 +7155,15 @@
         <v>330</v>
       </c>
       <c r="I241" s="21"/>
-      <c r="J241" s="37"/>
-      <c r="K241" s="40"/>
+      <c r="J241" s="39"/>
+      <c r="K241" s="42"/>
     </row>
     <row r="242" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="43"/>
-      <c r="B242" s="34"/>
-      <c r="C242" s="37"/>
-      <c r="D242" s="37"/>
-      <c r="E242" s="37"/>
+      <c r="A242" s="45"/>
+      <c r="B242" s="36"/>
+      <c r="C242" s="39"/>
+      <c r="D242" s="39"/>
+      <c r="E242" s="39"/>
       <c r="F242" s="21"/>
       <c r="G242" s="21" t="s">
         <v>303</v>
@@ -7146,21 +7172,21 @@
         <v>326</v>
       </c>
       <c r="I242" s="21"/>
-      <c r="J242" s="37"/>
-      <c r="K242" s="40"/>
+      <c r="J242" s="39"/>
+      <c r="K242" s="42"/>
     </row>
     <row r="243" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A243" s="43"/>
-      <c r="B243" s="24">
+      <c r="A243" s="45"/>
+      <c r="B243" s="26">
         <v>66</v>
       </c>
-      <c r="C243" s="27" t="s">
+      <c r="C243" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D243" s="27" t="s">
+      <c r="D243" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="E243" s="27" t="s">
+      <c r="E243" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F243" s="12" t="s">
@@ -7173,15 +7199,15 @@
         <v>288</v>
       </c>
       <c r="I243" s="12"/>
-      <c r="J243" s="27"/>
-      <c r="K243" s="30"/>
+      <c r="J243" s="29"/>
+      <c r="K243" s="32"/>
     </row>
     <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="43"/>
-      <c r="B244" s="25"/>
-      <c r="C244" s="28"/>
-      <c r="D244" s="28"/>
-      <c r="E244" s="28"/>
+      <c r="A244" s="45"/>
+      <c r="B244" s="27"/>
+      <c r="C244" s="30"/>
+      <c r="D244" s="30"/>
+      <c r="E244" s="30"/>
       <c r="F244" s="13" t="s">
         <v>21</v>
       </c>
@@ -7192,15 +7218,15 @@
         <v>290</v>
       </c>
       <c r="I244" s="13"/>
-      <c r="J244" s="28"/>
-      <c r="K244" s="31"/>
+      <c r="J244" s="30"/>
+      <c r="K244" s="33"/>
     </row>
     <row r="245" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A245" s="43"/>
-      <c r="B245" s="25"/>
-      <c r="C245" s="28"/>
-      <c r="D245" s="28"/>
-      <c r="E245" s="28"/>
+      <c r="A245" s="45"/>
+      <c r="B245" s="27"/>
+      <c r="C245" s="30"/>
+      <c r="D245" s="30"/>
+      <c r="E245" s="30"/>
       <c r="F245" s="19" t="s">
         <v>204</v>
       </c>
@@ -7211,15 +7237,15 @@
         <v>292</v>
       </c>
       <c r="I245" s="19"/>
-      <c r="J245" s="28"/>
-      <c r="K245" s="31"/>
+      <c r="J245" s="30"/>
+      <c r="K245" s="33"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="43"/>
-      <c r="B246" s="25"/>
-      <c r="C246" s="28"/>
-      <c r="D246" s="28"/>
-      <c r="E246" s="28"/>
+      <c r="A246" s="45"/>
+      <c r="B246" s="27"/>
+      <c r="C246" s="30"/>
+      <c r="D246" s="30"/>
+      <c r="E246" s="30"/>
       <c r="F246" s="19"/>
       <c r="G246" s="19" t="s">
         <v>334</v>
@@ -7228,15 +7254,15 @@
         <v>335</v>
       </c>
       <c r="I246" s="19"/>
-      <c r="J246" s="28"/>
-      <c r="K246" s="31"/>
+      <c r="J246" s="30"/>
+      <c r="K246" s="33"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="43"/>
-      <c r="B247" s="25"/>
-      <c r="C247" s="28"/>
-      <c r="D247" s="28"/>
-      <c r="E247" s="28"/>
+      <c r="A247" s="45"/>
+      <c r="B247" s="27"/>
+      <c r="C247" s="30"/>
+      <c r="D247" s="30"/>
+      <c r="E247" s="30"/>
       <c r="F247" s="19"/>
       <c r="G247" s="19" t="s">
         <v>297</v>
@@ -7245,15 +7271,15 @@
         <v>298</v>
       </c>
       <c r="I247" s="19"/>
-      <c r="J247" s="28"/>
-      <c r="K247" s="31"/>
+      <c r="J247" s="30"/>
+      <c r="K247" s="33"/>
     </row>
     <row r="248" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="43"/>
-      <c r="B248" s="25"/>
-      <c r="C248" s="28"/>
-      <c r="D248" s="28"/>
-      <c r="E248" s="28"/>
+      <c r="A248" s="45"/>
+      <c r="B248" s="27"/>
+      <c r="C248" s="30"/>
+      <c r="D248" s="30"/>
+      <c r="E248" s="30"/>
       <c r="F248" s="19"/>
       <c r="G248" s="19" t="s">
         <v>299</v>
@@ -7262,15 +7288,15 @@
         <v>300</v>
       </c>
       <c r="I248" s="19"/>
-      <c r="J248" s="28"/>
-      <c r="K248" s="31"/>
+      <c r="J248" s="30"/>
+      <c r="K248" s="33"/>
     </row>
     <row r="249" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="43"/>
-      <c r="B249" s="25"/>
-      <c r="C249" s="28"/>
-      <c r="D249" s="28"/>
-      <c r="E249" s="28"/>
+      <c r="A249" s="45"/>
+      <c r="B249" s="27"/>
+      <c r="C249" s="30"/>
+      <c r="D249" s="30"/>
+      <c r="E249" s="30"/>
       <c r="F249" s="19"/>
       <c r="G249" s="19" t="s">
         <v>301</v>
@@ -7279,15 +7305,15 @@
         <v>302</v>
       </c>
       <c r="I249" s="19"/>
-      <c r="J249" s="28"/>
-      <c r="K249" s="31"/>
+      <c r="J249" s="30"/>
+      <c r="K249" s="33"/>
     </row>
     <row r="250" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="43"/>
-      <c r="B250" s="25"/>
-      <c r="C250" s="28"/>
-      <c r="D250" s="28"/>
-      <c r="E250" s="28"/>
+      <c r="A250" s="45"/>
+      <c r="B250" s="27"/>
+      <c r="C250" s="30"/>
+      <c r="D250" s="30"/>
+      <c r="E250" s="30"/>
       <c r="F250" s="19"/>
       <c r="G250" s="19" t="s">
         <v>303</v>
@@ -7296,21 +7322,21 @@
         <v>326</v>
       </c>
       <c r="I250" s="19"/>
-      <c r="J250" s="28"/>
-      <c r="K250" s="31"/>
+      <c r="J250" s="30"/>
+      <c r="K250" s="33"/>
     </row>
     <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A251" s="43"/>
-      <c r="B251" s="33">
+      <c r="A251" s="45"/>
+      <c r="B251" s="35">
         <v>67</v>
       </c>
-      <c r="C251" s="36" t="s">
+      <c r="C251" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D251" s="36" t="s">
+      <c r="D251" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="E251" s="36" t="s">
+      <c r="E251" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F251" s="7" t="s">
@@ -7323,15 +7349,15 @@
         <v>288</v>
       </c>
       <c r="I251" s="7"/>
-      <c r="J251" s="36"/>
-      <c r="K251" s="39"/>
+      <c r="J251" s="38"/>
+      <c r="K251" s="41"/>
     </row>
     <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="43"/>
-      <c r="B252" s="34"/>
-      <c r="C252" s="37"/>
-      <c r="D252" s="37"/>
-      <c r="E252" s="37"/>
+      <c r="A252" s="45"/>
+      <c r="B252" s="36"/>
+      <c r="C252" s="39"/>
+      <c r="D252" s="39"/>
+      <c r="E252" s="39"/>
       <c r="F252" s="2" t="s">
         <v>21</v>
       </c>
@@ -7342,15 +7368,15 @@
         <v>290</v>
       </c>
       <c r="I252" s="2"/>
-      <c r="J252" s="37"/>
-      <c r="K252" s="40"/>
+      <c r="J252" s="39"/>
+      <c r="K252" s="42"/>
     </row>
     <row r="253" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A253" s="43"/>
-      <c r="B253" s="34"/>
-      <c r="C253" s="37"/>
-      <c r="D253" s="37"/>
-      <c r="E253" s="37"/>
+      <c r="A253" s="45"/>
+      <c r="B253" s="36"/>
+      <c r="C253" s="39"/>
+      <c r="D253" s="39"/>
+      <c r="E253" s="39"/>
       <c r="F253" s="21" t="s">
         <v>204</v>
       </c>
@@ -7361,15 +7387,15 @@
         <v>292</v>
       </c>
       <c r="I253" s="21"/>
-      <c r="J253" s="37"/>
-      <c r="K253" s="40"/>
+      <c r="J253" s="39"/>
+      <c r="K253" s="42"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="43"/>
-      <c r="B254" s="34"/>
-      <c r="C254" s="37"/>
-      <c r="D254" s="37"/>
-      <c r="E254" s="37"/>
+      <c r="A254" s="45"/>
+      <c r="B254" s="36"/>
+      <c r="C254" s="39"/>
+      <c r="D254" s="39"/>
+      <c r="E254" s="39"/>
       <c r="F254" s="21"/>
       <c r="G254" s="21" t="s">
         <v>293</v>
@@ -7378,15 +7404,15 @@
         <v>294</v>
       </c>
       <c r="I254" s="21"/>
-      <c r="J254" s="37"/>
-      <c r="K254" s="40"/>
+      <c r="J254" s="39"/>
+      <c r="K254" s="42"/>
     </row>
     <row r="255" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="43"/>
-      <c r="B255" s="34"/>
-      <c r="C255" s="37"/>
-      <c r="D255" s="37"/>
-      <c r="E255" s="37"/>
+      <c r="A255" s="45"/>
+      <c r="B255" s="36"/>
+      <c r="C255" s="39"/>
+      <c r="D255" s="39"/>
+      <c r="E255" s="39"/>
       <c r="F255" s="21"/>
       <c r="G255" s="21" t="s">
         <v>295</v>
@@ -7395,15 +7421,15 @@
         <v>296</v>
       </c>
       <c r="I255" s="21"/>
-      <c r="J255" s="37"/>
-      <c r="K255" s="40"/>
+      <c r="J255" s="39"/>
+      <c r="K255" s="42"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="43"/>
-      <c r="B256" s="34"/>
-      <c r="C256" s="37"/>
-      <c r="D256" s="37"/>
-      <c r="E256" s="37"/>
+      <c r="A256" s="45"/>
+      <c r="B256" s="36"/>
+      <c r="C256" s="39"/>
+      <c r="D256" s="39"/>
+      <c r="E256" s="39"/>
       <c r="F256" s="21"/>
       <c r="G256" s="21" t="s">
         <v>336</v>
@@ -7412,15 +7438,15 @@
         <v>337</v>
       </c>
       <c r="I256" s="21"/>
-      <c r="J256" s="37"/>
-      <c r="K256" s="40"/>
+      <c r="J256" s="39"/>
+      <c r="K256" s="42"/>
     </row>
     <row r="257" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="43"/>
-      <c r="B257" s="34"/>
-      <c r="C257" s="37"/>
-      <c r="D257" s="37"/>
-      <c r="E257" s="37"/>
+      <c r="A257" s="45"/>
+      <c r="B257" s="36"/>
+      <c r="C257" s="39"/>
+      <c r="D257" s="39"/>
+      <c r="E257" s="39"/>
       <c r="F257" s="21"/>
       <c r="G257" s="21" t="s">
         <v>301</v>
@@ -7429,15 +7455,15 @@
         <v>302</v>
       </c>
       <c r="I257" s="21"/>
-      <c r="J257" s="37"/>
-      <c r="K257" s="40"/>
+      <c r="J257" s="39"/>
+      <c r="K257" s="42"/>
     </row>
     <row r="258" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="43"/>
-      <c r="B258" s="34"/>
-      <c r="C258" s="37"/>
-      <c r="D258" s="37"/>
-      <c r="E258" s="37"/>
+      <c r="A258" s="45"/>
+      <c r="B258" s="36"/>
+      <c r="C258" s="39"/>
+      <c r="D258" s="39"/>
+      <c r="E258" s="39"/>
       <c r="F258" s="21"/>
       <c r="G258" s="21" t="s">
         <v>303</v>
@@ -7446,21 +7472,21 @@
         <v>326</v>
       </c>
       <c r="I258" s="21"/>
-      <c r="J258" s="37"/>
-      <c r="K258" s="40"/>
+      <c r="J258" s="39"/>
+      <c r="K258" s="42"/>
     </row>
     <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A259" s="43"/>
-      <c r="B259" s="24">
+      <c r="A259" s="45"/>
+      <c r="B259" s="26">
         <v>68</v>
       </c>
-      <c r="C259" s="27" t="s">
+      <c r="C259" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D259" s="27" t="s">
+      <c r="D259" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="E259" s="27" t="s">
+      <c r="E259" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F259" s="12" t="s">
@@ -7473,15 +7499,15 @@
         <v>288</v>
       </c>
       <c r="I259" s="12"/>
-      <c r="J259" s="27"/>
-      <c r="K259" s="30"/>
+      <c r="J259" s="29"/>
+      <c r="K259" s="32"/>
     </row>
     <row r="260" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="43"/>
-      <c r="B260" s="25"/>
-      <c r="C260" s="28"/>
-      <c r="D260" s="28"/>
-      <c r="E260" s="28"/>
+      <c r="A260" s="45"/>
+      <c r="B260" s="27"/>
+      <c r="C260" s="30"/>
+      <c r="D260" s="30"/>
+      <c r="E260" s="30"/>
       <c r="F260" s="13" t="s">
         <v>21</v>
       </c>
@@ -7492,15 +7518,15 @@
         <v>346</v>
       </c>
       <c r="I260" s="13"/>
-      <c r="J260" s="28"/>
-      <c r="K260" s="31"/>
+      <c r="J260" s="30"/>
+      <c r="K260" s="33"/>
     </row>
     <row r="261" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A261" s="43"/>
-      <c r="B261" s="25"/>
-      <c r="C261" s="28"/>
-      <c r="D261" s="28"/>
-      <c r="E261" s="28"/>
+      <c r="A261" s="45"/>
+      <c r="B261" s="27"/>
+      <c r="C261" s="30"/>
+      <c r="D261" s="30"/>
+      <c r="E261" s="30"/>
       <c r="F261" s="19" t="s">
         <v>204</v>
       </c>
@@ -7511,15 +7537,15 @@
         <v>292</v>
       </c>
       <c r="I261" s="19"/>
-      <c r="J261" s="28"/>
-      <c r="K261" s="31"/>
+      <c r="J261" s="30"/>
+      <c r="K261" s="33"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="43"/>
-      <c r="B262" s="25"/>
-      <c r="C262" s="28"/>
-      <c r="D262" s="28"/>
-      <c r="E262" s="28"/>
+      <c r="A262" s="45"/>
+      <c r="B262" s="27"/>
+      <c r="C262" s="30"/>
+      <c r="D262" s="30"/>
+      <c r="E262" s="30"/>
       <c r="F262" s="19"/>
       <c r="G262" s="19" t="s">
         <v>293</v>
@@ -7528,15 +7554,15 @@
         <v>294</v>
       </c>
       <c r="I262" s="19"/>
-      <c r="J262" s="28"/>
-      <c r="K262" s="31"/>
+      <c r="J262" s="30"/>
+      <c r="K262" s="33"/>
     </row>
     <row r="263" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="43"/>
-      <c r="B263" s="25"/>
-      <c r="C263" s="28"/>
-      <c r="D263" s="28"/>
-      <c r="E263" s="28"/>
+      <c r="A263" s="45"/>
+      <c r="B263" s="27"/>
+      <c r="C263" s="30"/>
+      <c r="D263" s="30"/>
+      <c r="E263" s="30"/>
       <c r="F263" s="19"/>
       <c r="G263" s="19" t="s">
         <v>295</v>
@@ -7545,15 +7571,15 @@
         <v>296</v>
       </c>
       <c r="I263" s="19"/>
-      <c r="J263" s="28"/>
-      <c r="K263" s="31"/>
+      <c r="J263" s="30"/>
+      <c r="K263" s="33"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="43"/>
-      <c r="B264" s="25"/>
-      <c r="C264" s="28"/>
-      <c r="D264" s="28"/>
-      <c r="E264" s="28"/>
+      <c r="A264" s="45"/>
+      <c r="B264" s="27"/>
+      <c r="C264" s="30"/>
+      <c r="D264" s="30"/>
+      <c r="E264" s="30"/>
       <c r="F264" s="19"/>
       <c r="G264" s="19" t="s">
         <v>297</v>
@@ -7562,15 +7588,15 @@
         <v>298</v>
       </c>
       <c r="I264" s="19"/>
-      <c r="J264" s="28"/>
-      <c r="K264" s="31"/>
+      <c r="J264" s="30"/>
+      <c r="K264" s="33"/>
     </row>
     <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="43"/>
-      <c r="B265" s="25"/>
-      <c r="C265" s="28"/>
-      <c r="D265" s="28"/>
-      <c r="E265" s="28"/>
+      <c r="A265" s="45"/>
+      <c r="B265" s="27"/>
+      <c r="C265" s="30"/>
+      <c r="D265" s="30"/>
+      <c r="E265" s="30"/>
       <c r="F265" s="19"/>
       <c r="G265" s="19" t="s">
         <v>299</v>
@@ -7579,15 +7605,15 @@
         <v>300</v>
       </c>
       <c r="I265" s="19"/>
-      <c r="J265" s="28"/>
-      <c r="K265" s="31"/>
+      <c r="J265" s="30"/>
+      <c r="K265" s="33"/>
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="43"/>
-      <c r="B266" s="25"/>
-      <c r="C266" s="28"/>
-      <c r="D266" s="28"/>
-      <c r="E266" s="28"/>
+      <c r="A266" s="45"/>
+      <c r="B266" s="27"/>
+      <c r="C266" s="30"/>
+      <c r="D266" s="30"/>
+      <c r="E266" s="30"/>
       <c r="F266" s="19"/>
       <c r="G266" s="19" t="s">
         <v>301</v>
@@ -7596,15 +7622,15 @@
         <v>302</v>
       </c>
       <c r="I266" s="19"/>
-      <c r="J266" s="28"/>
-      <c r="K266" s="31"/>
+      <c r="J266" s="30"/>
+      <c r="K266" s="33"/>
     </row>
     <row r="267" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="43"/>
-      <c r="B267" s="25"/>
-      <c r="C267" s="28"/>
-      <c r="D267" s="28"/>
-      <c r="E267" s="28"/>
+      <c r="A267" s="45"/>
+      <c r="B267" s="27"/>
+      <c r="C267" s="30"/>
+      <c r="D267" s="30"/>
+      <c r="E267" s="30"/>
       <c r="F267" s="19"/>
       <c r="G267" s="19" t="s">
         <v>303</v>
@@ -7613,21 +7639,21 @@
         <v>347</v>
       </c>
       <c r="I267" s="19"/>
-      <c r="J267" s="28"/>
-      <c r="K267" s="31"/>
+      <c r="J267" s="30"/>
+      <c r="K267" s="33"/>
     </row>
     <row r="268" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A268" s="43"/>
-      <c r="B268" s="33">
+      <c r="A268" s="45"/>
+      <c r="B268" s="35">
         <v>69</v>
       </c>
-      <c r="C268" s="36" t="s">
+      <c r="C268" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D268" s="36" t="s">
+      <c r="D268" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="E268" s="36" t="s">
+      <c r="E268" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F268" s="7" t="s">
@@ -7640,15 +7666,15 @@
         <v>288</v>
       </c>
       <c r="I268" s="7"/>
-      <c r="J268" s="36"/>
-      <c r="K268" s="39"/>
+      <c r="J268" s="38"/>
+      <c r="K268" s="41"/>
     </row>
     <row r="269" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="43"/>
-      <c r="B269" s="34"/>
-      <c r="C269" s="37"/>
-      <c r="D269" s="37"/>
-      <c r="E269" s="37"/>
+      <c r="A269" s="45"/>
+      <c r="B269" s="36"/>
+      <c r="C269" s="39"/>
+      <c r="D269" s="39"/>
+      <c r="E269" s="39"/>
       <c r="F269" s="2" t="s">
         <v>21</v>
       </c>
@@ -7659,15 +7685,15 @@
         <v>282</v>
       </c>
       <c r="I269" s="2"/>
-      <c r="J269" s="37"/>
-      <c r="K269" s="40"/>
+      <c r="J269" s="39"/>
+      <c r="K269" s="42"/>
     </row>
     <row r="270" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="43"/>
-      <c r="B270" s="35"/>
-      <c r="C270" s="38"/>
-      <c r="D270" s="38"/>
-      <c r="E270" s="38"/>
+      <c r="A270" s="45"/>
+      <c r="B270" s="37"/>
+      <c r="C270" s="40"/>
+      <c r="D270" s="40"/>
+      <c r="E270" s="40"/>
       <c r="F270" s="8" t="s">
         <v>204</v>
       </c>
@@ -7678,8 +7704,8 @@
         <v>333</v>
       </c>
       <c r="I270" s="8"/>
-      <c r="J270" s="38"/>
-      <c r="K270" s="41"/>
+      <c r="J270" s="40"/>
+      <c r="K270" s="43"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B271" s="4"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekate\Desktop\Netology\Git repository\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716AAFF5-7ECD-425E-83E2-CE952A5EBD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED6070A-0E08-41CB-ACCC-9B8D6755B8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28665" windowHeight="20475" xr2:uid="{CC955BC4-95A8-4E73-80DC-FD5AF393D381}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CC955BC4-95A8-4E73-80DC-FD5AF393D381}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="353">
   <si>
     <t>ID</t>
   </si>
@@ -219,13 +220,7 @@
     <t>Нельзя авторизоваться в приложении с логином в разном регистре зарегистрированного пользователя и корректным паролем зарегистрированного пользователя</t>
   </si>
   <si>
-    <t>2. В поле "Логин" ввести 1 символ, например "LoGIn2"</t>
-  </si>
-  <si>
     <t>Нельзя авторизоваться в приложении с корректным логином зарегистрированного пользователя и  паролем из символов в разном регистре</t>
-  </si>
-  <si>
-    <t>2. В поле "Пароль" ввести пароль из 1 символа, например "PaSSwoRD2"</t>
   </si>
   <si>
     <t>ЭКРАН  АВТОРИЗАЦИИ</t>
@@ -1188,13 +1183,22 @@
     <t>да</t>
   </si>
   <si>
-    <t>да, но исключение должно быть другим</t>
-  </si>
-  <si>
     <t>да, но исключение должно быть другим, создан баг репорт</t>
   </si>
   <si>
     <t>нет, отображение новостей не работает</t>
+  </si>
+  <si>
+    <t>2. В поле "Пароль" ввести пароль в разном регистре, например "PaSSwoRD2"</t>
+  </si>
+  <si>
+    <t>2. В поле "Логин" ввести логин в разном регистре, например "LoGIn2"</t>
+  </si>
+  <si>
+    <t>1. На странице есть TextView c отображением компании и года, например "©Айтеко, 2022"</t>
+  </si>
+  <si>
+    <t>да, ссылка должна быть другой, есть баг репорт</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1277,6 +1281,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,7 +1638,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1854,6 +1864,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2174,13 +2187,13 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:K393"/>
+  <dimension ref="A1:L393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58:C60"/>
+      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2245,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="54">
         <v>1</v>
@@ -2259,7 +2272,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K2" s="57"/>
     </row>
@@ -2341,7 +2354,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K6" s="60"/>
     </row>
@@ -2429,7 +2442,7 @@
         <v>24</v>
       </c>
       <c r="J10" s="52" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K10" s="57"/>
     </row>
@@ -2481,7 +2494,7 @@
         <v>11</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K12" s="60"/>
     </row>
@@ -2569,7 +2582,7 @@
         <v>11</v>
       </c>
       <c r="J16" s="52" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K16" s="57"/>
     </row>
@@ -2657,7 +2670,7 @@
         <v>11</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K20" s="60"/>
     </row>
@@ -2745,7 +2758,7 @@
         <v>11</v>
       </c>
       <c r="J24" s="52" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K24" s="57"/>
     </row>
@@ -2833,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K28" s="60"/>
     </row>
@@ -2921,7 +2934,7 @@
         <v>11</v>
       </c>
       <c r="J32" s="52" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K32" s="57"/>
     </row>
@@ -3009,7 +3022,7 @@
         <v>11</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K36" s="60"/>
     </row>
@@ -3097,7 +3110,7 @@
         <v>11</v>
       </c>
       <c r="J40" s="52" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K40" s="57"/>
     </row>
@@ -3185,7 +3198,7 @@
         <v>11</v>
       </c>
       <c r="J44" s="46" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K44" s="60"/>
     </row>
@@ -3197,7 +3210,7 @@
       <c r="E45" s="47"/>
       <c r="F45" s="47"/>
       <c r="G45" s="3" t="s">
-        <v>61</v>
+        <v>350</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>31</v>
@@ -3255,7 +3268,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E48" s="52" t="s">
         <v>37</v>
@@ -3273,7 +3286,7 @@
         <v>11</v>
       </c>
       <c r="J48" s="52" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K48" s="57"/>
     </row>
@@ -3304,7 +3317,7 @@
       <c r="E50" s="56"/>
       <c r="F50" s="56"/>
       <c r="G50" s="2" t="s">
-        <v>63</v>
+        <v>349</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>46</v>
@@ -3336,16 +3349,16 @@
     </row>
     <row r="52" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B52" s="67">
         <v>14</v>
       </c>
       <c r="C52" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="70" t="s">
         <v>65</v>
-      </c>
-      <c r="D52" s="70" t="s">
-        <v>67</v>
       </c>
       <c r="E52" s="70" t="s">
         <v>8</v>
@@ -3354,16 +3367,16 @@
         <v>9</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J52" s="70" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K52" s="73"/>
     </row>
@@ -3378,10 +3391,10 @@
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J53" s="71"/>
       <c r="K53" s="74"/>
@@ -3393,7 +3406,7 @@
       <c r="D54" s="72"/>
       <c r="E54" s="72"/>
       <c r="F54" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -3407,10 +3420,10 @@
         <v>15</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E55" s="38" t="s">
         <v>8</v>
@@ -3419,16 +3432,16 @@
         <v>9</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J55" s="38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K55" s="41"/>
     </row>
@@ -3442,13 +3455,13 @@
         <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J56" s="39"/>
       <c r="K56" s="42"/>
@@ -3460,16 +3473,16 @@
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
       <c r="F57" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J57" s="40"/>
       <c r="K57" s="43"/>
@@ -3480,10 +3493,10 @@
         <v>16</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>8</v>
@@ -3492,16 +3505,16 @@
         <v>9</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J58" s="29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K58" s="32"/>
     </row>
@@ -3515,13 +3528,13 @@
         <v>21</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J59" s="30"/>
       <c r="K59" s="33"/>
@@ -3533,7 +3546,7 @@
       <c r="D60" s="31"/>
       <c r="E60" s="31"/>
       <c r="F60" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
@@ -3541,18 +3554,18 @@
       <c r="J60" s="31"/>
       <c r="K60" s="34"/>
     </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B61" s="35">
         <v>17</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E61" s="38" t="s">
         <v>8</v>
@@ -3561,13 +3574,17 @@
         <v>9</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="38"/>
+        <v>82</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J61" s="38" t="s">
+        <v>346</v>
+      </c>
       <c r="K61" s="41"/>
     </row>
     <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3592,7 +3609,7 @@
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
       <c r="F63" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -3600,16 +3617,16 @@
       <c r="J63" s="40"/>
       <c r="K63" s="43"/>
     </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="45"/>
       <c r="B64" s="26">
         <v>18</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>8</v>
@@ -3618,16 +3635,20 @@
         <v>9</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I64" s="12"/>
-      <c r="J64" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J64" s="29" t="s">
+        <v>346</v>
+      </c>
       <c r="K64" s="32"/>
     </row>
-    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="45"/>
       <c r="B65" s="27"/>
       <c r="C65" s="30"/>
@@ -3637,23 +3658,25 @@
         <v>21</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I65" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="J65" s="30"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="45"/>
       <c r="B66" s="28"/>
       <c r="C66" s="31"/>
       <c r="D66" s="31"/>
       <c r="E66" s="31"/>
       <c r="F66" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
@@ -3661,16 +3684,16 @@
       <c r="J66" s="31"/>
       <c r="K66" s="34"/>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="45"/>
       <c r="B67" s="35">
         <v>19</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E67" s="38" t="s">
         <v>8</v>
@@ -3679,16 +3702,20 @@
         <v>9</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="38"/>
+        <v>82</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J67" s="38" t="s">
+        <v>346</v>
+      </c>
       <c r="K67" s="41"/>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="45"/>
       <c r="B68" s="36"/>
       <c r="C68" s="39"/>
@@ -3698,23 +3725,25 @@
         <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I68" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="J68" s="39"/>
       <c r="K68" s="42"/>
     </row>
-    <row r="69" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="45"/>
       <c r="B69" s="37"/>
       <c r="C69" s="40"/>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
       <c r="F69" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -3722,16 +3751,16 @@
       <c r="J69" s="40"/>
       <c r="K69" s="43"/>
     </row>
-    <row r="70" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45"/>
       <c r="B70" s="26">
         <v>20</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E70" s="29" t="s">
         <v>8</v>
@@ -3740,16 +3769,17 @@
         <v>9</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="29"/>
       <c r="K70" s="32"/>
-    </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L70" s="76"/>
+    </row>
+    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="45"/>
       <c r="B71" s="27"/>
       <c r="C71" s="30"/>
@@ -3759,40 +3789,42 @@
         <v>21</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="30"/>
       <c r="K71" s="33"/>
-    </row>
-    <row r="72" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L71" s="76"/>
+    </row>
+    <row r="72" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="45"/>
       <c r="B72" s="28"/>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
       <c r="E72" s="31"/>
       <c r="F72" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="31"/>
       <c r="K72" s="34"/>
-    </row>
-    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L72" s="76"/>
+    </row>
+    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="45"/>
       <c r="B73" s="35">
         <v>21</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E73" s="38" t="s">
         <v>8</v>
@@ -3801,16 +3833,17 @@
         <v>9</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="38"/>
       <c r="K73" s="41"/>
-    </row>
-    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L73" s="76"/>
+    </row>
+    <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="45"/>
       <c r="B74" s="36"/>
       <c r="C74" s="39"/>
@@ -3820,44 +3853,46 @@
         <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="J74" s="39"/>
       <c r="K74" s="42"/>
-    </row>
-    <row r="75" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L74" s="76"/>
+    </row>
+    <row r="75" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="45"/>
       <c r="B75" s="37"/>
       <c r="C75" s="40"/>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
       <c r="F75" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" s="40"/>
       <c r="K75" s="43"/>
-    </row>
-    <row r="76" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L75" s="76"/>
+    </row>
+    <row r="76" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B76" s="26">
         <v>22</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E76" s="29" t="s">
         <v>8</v>
@@ -3866,16 +3901,17 @@
         <v>9</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I76" s="12"/>
       <c r="J76" s="29"/>
       <c r="K76" s="32"/>
-    </row>
-    <row r="77" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="76"/>
+    </row>
+    <row r="77" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45"/>
       <c r="B77" s="27"/>
       <c r="C77" s="30"/>
@@ -3886,37 +3922,39 @@
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I77" s="13"/>
       <c r="J77" s="30"/>
       <c r="K77" s="33"/>
-    </row>
-    <row r="78" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L77" s="76"/>
+    </row>
+    <row r="78" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="45"/>
       <c r="B78" s="28"/>
       <c r="C78" s="31"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31"/>
       <c r="F78" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="31"/>
       <c r="K78" s="34"/>
-    </row>
-    <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L78" s="76"/>
+    </row>
+    <row r="79" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45"/>
       <c r="B79" s="35">
         <v>23</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E79" s="38" t="s">
         <v>8</v>
@@ -3925,16 +3963,17 @@
         <v>9</v>
       </c>
       <c r="G79" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H79" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="38"/>
       <c r="K79" s="41"/>
-    </row>
-    <row r="80" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L79" s="76"/>
+    </row>
+    <row r="80" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45"/>
       <c r="B80" s="36"/>
       <c r="C80" s="39"/>
@@ -3944,42 +3983,44 @@
         <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="39"/>
       <c r="K80" s="42"/>
-    </row>
-    <row r="81" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L80" s="76"/>
+    </row>
+    <row r="81" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="45"/>
       <c r="B81" s="37"/>
       <c r="C81" s="40"/>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
       <c r="F81" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
       <c r="J81" s="40"/>
       <c r="K81" s="43"/>
-    </row>
-    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L81" s="76"/>
+    </row>
+    <row r="82" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B82" s="26">
         <v>24</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>8</v>
@@ -3988,16 +4029,20 @@
         <v>9</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I82" s="12"/>
-      <c r="J82" s="29"/>
+        <v>111</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J82" s="29" t="s">
+        <v>346</v>
+      </c>
       <c r="K82" s="32"/>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="45"/>
       <c r="B83" s="27"/>
       <c r="C83" s="30"/>
@@ -4007,23 +4052,25 @@
         <v>21</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I83" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>351</v>
+      </c>
       <c r="J83" s="30"/>
       <c r="K83" s="33"/>
     </row>
-    <row r="84" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="45"/>
       <c r="B84" s="28"/>
       <c r="C84" s="31"/>
       <c r="D84" s="31"/>
       <c r="E84" s="31"/>
       <c r="F84" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
@@ -4031,16 +4078,16 @@
       <c r="J84" s="31"/>
       <c r="K84" s="34"/>
     </row>
-    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="45"/>
       <c r="B85" s="35">
         <v>25</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E85" s="38" t="s">
         <v>8</v>
@@ -4049,18 +4096,20 @@
         <v>9</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J85" s="38"/>
+        <v>117</v>
+      </c>
+      <c r="J85" s="38" t="s">
+        <v>352</v>
+      </c>
       <c r="K85" s="41"/>
     </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="45"/>
       <c r="B86" s="36"/>
       <c r="C86" s="39"/>
@@ -4070,42 +4119,42 @@
         <v>21</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J86" s="39"/>
       <c r="K86" s="42"/>
     </row>
-    <row r="87" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="45"/>
       <c r="B87" s="37"/>
       <c r="C87" s="40"/>
       <c r="D87" s="40"/>
       <c r="E87" s="40"/>
       <c r="F87" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J87" s="40"/>
       <c r="K87" s="43"/>
     </row>
-    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="45"/>
       <c r="B88" s="26">
         <v>26</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E88" s="29" t="s">
         <v>8</v>
@@ -4114,18 +4163,20 @@
         <v>9</v>
       </c>
       <c r="G88" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I88" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H88" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I88" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J88" s="29"/>
+      <c r="J88" s="29" t="s">
+        <v>352</v>
+      </c>
       <c r="K88" s="32"/>
     </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="45"/>
       <c r="B89" s="27"/>
       <c r="C89" s="30"/>
@@ -4135,44 +4186,44 @@
         <v>21</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J89" s="30"/>
       <c r="K89" s="33"/>
     </row>
-    <row r="90" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="45"/>
       <c r="B90" s="28"/>
       <c r="C90" s="31"/>
       <c r="D90" s="31"/>
       <c r="E90" s="31"/>
       <c r="F90" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J90" s="31"/>
       <c r="K90" s="34"/>
     </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="44" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B91" s="35">
         <v>27</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E91" s="38" t="s">
         <v>8</v>
@@ -4181,16 +4232,16 @@
         <v>9</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="38"/>
       <c r="K91" s="41"/>
     </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="45"/>
       <c r="B92" s="36"/>
       <c r="C92" s="39"/>
@@ -4205,14 +4256,14 @@
       <c r="J92" s="39"/>
       <c r="K92" s="42"/>
     </row>
-    <row r="93" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="45"/>
       <c r="B93" s="37"/>
       <c r="C93" s="40"/>
       <c r="D93" s="40"/>
       <c r="E93" s="40"/>
       <c r="F93" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
@@ -4220,16 +4271,16 @@
       <c r="J93" s="40"/>
       <c r="K93" s="43"/>
     </row>
-    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="45"/>
       <c r="B94" s="26">
         <v>28</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E94" s="29" t="s">
         <v>8</v>
@@ -4238,16 +4289,16 @@
         <v>9</v>
       </c>
       <c r="G94" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H94" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="I94" s="12"/>
       <c r="J94" s="29"/>
       <c r="K94" s="32"/>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="45"/>
       <c r="B95" s="27"/>
       <c r="C95" s="30"/>
@@ -4257,23 +4308,23 @@
         <v>21</v>
       </c>
       <c r="G95" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H95" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="30"/>
       <c r="K95" s="33"/>
     </row>
-    <row r="96" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="45"/>
       <c r="B96" s="28"/>
       <c r="C96" s="31"/>
       <c r="D96" s="31"/>
       <c r="E96" s="31"/>
       <c r="F96" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
@@ -4287,10 +4338,10 @@
         <v>29</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E97" s="38" t="s">
         <v>8</v>
@@ -4299,10 +4350,10 @@
         <v>9</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="38"/>
@@ -4330,7 +4381,7 @@
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
       <c r="F99" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="21"/>
@@ -4345,7 +4396,7 @@
       <c r="D100" s="40"/>
       <c r="E100" s="40"/>
       <c r="F100" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -4359,10 +4410,10 @@
         <v>30</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E101" s="29" t="s">
         <v>8</v>
@@ -4371,10 +4422,10 @@
         <v>9</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I101" s="12"/>
       <c r="J101" s="29"/>
@@ -4390,10 +4441,10 @@
         <v>21</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I102" s="13"/>
       <c r="J102" s="30"/>
@@ -4406,7 +4457,7 @@
       <c r="D103" s="31"/>
       <c r="E103" s="31"/>
       <c r="F103" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
@@ -4420,10 +4471,10 @@
         <v>31</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D104" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E104" s="38" t="s">
         <v>8</v>
@@ -4432,10 +4483,10 @@
         <v>9</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="38"/>
@@ -4463,7 +4514,7 @@
       <c r="D106" s="40"/>
       <c r="E106" s="40"/>
       <c r="F106" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -4477,10 +4528,10 @@
         <v>32</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E107" s="29" t="s">
         <v>8</v>
@@ -4489,10 +4540,10 @@
         <v>9</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I107" s="12"/>
       <c r="J107" s="29"/>
@@ -4508,10 +4559,10 @@
         <v>21</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I108" s="13"/>
       <c r="J108" s="30"/>
@@ -4524,7 +4575,7 @@
       <c r="D109" s="31"/>
       <c r="E109" s="31"/>
       <c r="F109" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
@@ -4538,10 +4589,10 @@
         <v>33</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D110" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E110" s="38" t="s">
         <v>8</v>
@@ -4550,10 +4601,10 @@
         <v>9</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="38"/>
@@ -4569,10 +4620,10 @@
         <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="39"/>
@@ -4585,7 +4636,7 @@
       <c r="D112" s="40"/>
       <c r="E112" s="40"/>
       <c r="F112" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
@@ -4599,10 +4650,10 @@
         <v>34</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E113" s="29" t="s">
         <v>8</v>
@@ -4611,10 +4662,10 @@
         <v>9</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I113" s="12"/>
       <c r="J113" s="29"/>
@@ -4630,10 +4681,10 @@
         <v>21</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I114" s="13"/>
       <c r="J114" s="30"/>
@@ -4646,7 +4697,7 @@
       <c r="D115" s="31"/>
       <c r="E115" s="31"/>
       <c r="F115" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
@@ -4660,10 +4711,10 @@
         <v>35</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D116" s="38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E116" s="38" t="s">
         <v>8</v>
@@ -4672,10 +4723,10 @@
         <v>9</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="38"/>
@@ -4691,10 +4742,10 @@
         <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="39"/>
@@ -4707,7 +4758,7 @@
       <c r="D118" s="40"/>
       <c r="E118" s="40"/>
       <c r="F118" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
@@ -4721,10 +4772,10 @@
         <v>36</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E119" s="29" t="s">
         <v>8</v>
@@ -4733,10 +4784,10 @@
         <v>9</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I119" s="12"/>
       <c r="J119" s="29"/>
@@ -4752,10 +4803,10 @@
         <v>21</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I120" s="13"/>
       <c r="J120" s="30"/>
@@ -4768,7 +4819,7 @@
       <c r="D121" s="31"/>
       <c r="E121" s="31"/>
       <c r="F121" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
@@ -4782,10 +4833,10 @@
         <v>37</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D122" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E122" s="38" t="s">
         <v>8</v>
@@ -4794,10 +4845,10 @@
         <v>9</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="38"/>
@@ -4813,10 +4864,10 @@
         <v>21</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="39"/>
@@ -4829,7 +4880,7 @@
       <c r="D124" s="40"/>
       <c r="E124" s="40"/>
       <c r="F124" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
@@ -4843,10 +4894,10 @@
         <v>38</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E125" s="29" t="s">
         <v>8</v>
@@ -4855,10 +4906,10 @@
         <v>9</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I125" s="12"/>
       <c r="J125" s="29"/>
@@ -4874,10 +4925,10 @@
         <v>21</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I126" s="13"/>
       <c r="J126" s="30"/>
@@ -4890,7 +4941,7 @@
       <c r="D127" s="31"/>
       <c r="E127" s="31"/>
       <c r="F127" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
@@ -4904,10 +4955,10 @@
         <v>39</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D128" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E128" s="38" t="s">
         <v>8</v>
@@ -4916,10 +4967,10 @@
         <v>9</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="38"/>
@@ -4935,10 +4986,10 @@
         <v>21</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="39"/>
@@ -4951,7 +5002,7 @@
       <c r="D130" s="40"/>
       <c r="E130" s="40"/>
       <c r="F130" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
@@ -4965,10 +5016,10 @@
         <v>40</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E131" s="29" t="s">
         <v>8</v>
@@ -4977,10 +5028,10 @@
         <v>9</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I131" s="12"/>
       <c r="J131" s="29"/>
@@ -4996,10 +5047,10 @@
         <v>21</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I132" s="13"/>
       <c r="J132" s="30"/>
@@ -5012,13 +5063,13 @@
       <c r="D133" s="30"/>
       <c r="E133" s="30"/>
       <c r="F133" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I133" s="19"/>
       <c r="J133" s="30"/>
@@ -5032,10 +5083,10 @@
       <c r="E134" s="31"/>
       <c r="F134" s="14"/>
       <c r="G134" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I134" s="14"/>
       <c r="J134" s="31"/>
@@ -5047,10 +5098,10 @@
         <v>41</v>
       </c>
       <c r="C135" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D135" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E135" s="38" t="s">
         <v>8</v>
@@ -5059,10 +5110,10 @@
         <v>9</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="38"/>
@@ -5079,7 +5130,7 @@
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="39"/>
@@ -5092,7 +5143,7 @@
       <c r="D137" s="40"/>
       <c r="E137" s="40"/>
       <c r="F137" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
@@ -5102,16 +5153,16 @@
     </row>
     <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="44" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B138" s="26">
         <v>42</v>
       </c>
       <c r="C138" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D138" s="29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E138" s="29" t="s">
         <v>8</v>
@@ -5120,10 +5171,10 @@
         <v>9</v>
       </c>
       <c r="G138" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H138" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="H138" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="I138" s="12"/>
       <c r="J138" s="29"/>
@@ -5151,7 +5202,7 @@
       <c r="D140" s="31"/>
       <c r="E140" s="31"/>
       <c r="F140" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
@@ -5165,10 +5216,10 @@
         <v>43</v>
       </c>
       <c r="C141" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D141" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E141" s="38" t="s">
         <v>8</v>
@@ -5177,10 +5228,10 @@
         <v>9</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="38"/>
@@ -5196,10 +5247,10 @@
         <v>21</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="39"/>
@@ -5212,7 +5263,7 @@
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
       <c r="F143" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
@@ -5226,10 +5277,10 @@
         <v>44</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D144" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E144" s="29" t="s">
         <v>8</v>
@@ -5238,10 +5289,10 @@
         <v>9</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I144" s="12"/>
       <c r="J144" s="29"/>
@@ -5269,7 +5320,7 @@
       <c r="D146" s="31"/>
       <c r="E146" s="31"/>
       <c r="F146" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
@@ -5283,10 +5334,10 @@
         <v>45</v>
       </c>
       <c r="C147" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D147" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E147" s="38" t="s">
         <v>8</v>
@@ -5295,10 +5346,10 @@
         <v>9</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="38"/>
@@ -5314,10 +5365,10 @@
         <v>21</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="39"/>
@@ -5330,7 +5381,7 @@
       <c r="D149" s="40"/>
       <c r="E149" s="40"/>
       <c r="F149" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -5344,10 +5395,10 @@
         <v>46</v>
       </c>
       <c r="C150" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D150" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E150" s="29" t="s">
         <v>8</v>
@@ -5356,10 +5407,10 @@
         <v>9</v>
       </c>
       <c r="G150" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="H150" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="H150" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="I150" s="12"/>
       <c r="J150" s="29"/>
@@ -5375,10 +5426,10 @@
         <v>21</v>
       </c>
       <c r="G151" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="H151" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="H151" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="I151" s="13"/>
       <c r="J151" s="30"/>
@@ -5391,13 +5442,13 @@
       <c r="D152" s="31"/>
       <c r="E152" s="31"/>
       <c r="F152" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H152" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I152" s="14"/>
       <c r="J152" s="31"/>
@@ -5409,10 +5460,10 @@
         <v>47</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E153" s="38" t="s">
         <v>8</v>
@@ -5421,10 +5472,10 @@
         <v>9</v>
       </c>
       <c r="G153" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H153" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="38"/>
@@ -5440,10 +5491,10 @@
         <v>21</v>
       </c>
       <c r="G154" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="39"/>
@@ -5456,7 +5507,7 @@
       <c r="D155" s="40"/>
       <c r="E155" s="40"/>
       <c r="F155" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
@@ -5470,10 +5521,10 @@
         <v>48</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D156" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E156" s="29" t="s">
         <v>8</v>
@@ -5482,10 +5533,10 @@
         <v>9</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I156" s="12"/>
       <c r="J156" s="29"/>
@@ -5501,10 +5552,10 @@
         <v>21</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I157" s="13"/>
       <c r="J157" s="30"/>
@@ -5517,7 +5568,7 @@
       <c r="D158" s="31"/>
       <c r="E158" s="31"/>
       <c r="F158" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
@@ -5531,10 +5582,10 @@
         <v>49</v>
       </c>
       <c r="C159" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D159" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E159" s="38" t="s">
         <v>8</v>
@@ -5543,10 +5594,10 @@
         <v>9</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="38"/>
@@ -5574,7 +5625,7 @@
       <c r="D161" s="40"/>
       <c r="E161" s="40"/>
       <c r="F161" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -5588,10 +5639,10 @@
         <v>50</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D162" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E162" s="29" t="s">
         <v>8</v>
@@ -5600,10 +5651,10 @@
         <v>9</v>
       </c>
       <c r="G162" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H162" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="H162" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="I162" s="12"/>
       <c r="J162" s="29"/>
@@ -5619,10 +5670,10 @@
         <v>21</v>
       </c>
       <c r="G163" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H163" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="H163" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="I163" s="13"/>
       <c r="J163" s="30"/>
@@ -5635,7 +5686,7 @@
       <c r="D164" s="31"/>
       <c r="E164" s="31"/>
       <c r="F164" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
@@ -5649,10 +5700,10 @@
         <v>51</v>
       </c>
       <c r="C165" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D165" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E165" s="38" t="s">
         <v>8</v>
@@ -5661,10 +5712,10 @@
         <v>9</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="38"/>
@@ -5680,10 +5731,10 @@
         <v>21</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I166" s="2"/>
       <c r="J166" s="39"/>
@@ -5696,13 +5747,13 @@
       <c r="D167" s="40"/>
       <c r="E167" s="40"/>
       <c r="F167" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="40"/>
@@ -5714,10 +5765,10 @@
         <v>52</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D168" s="29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E168" s="29" t="s">
         <v>8</v>
@@ -5726,10 +5777,10 @@
         <v>9</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I168" s="12"/>
       <c r="J168" s="29"/>
@@ -5745,10 +5796,10 @@
         <v>21</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H169" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I169" s="13"/>
       <c r="J169" s="30"/>
@@ -5761,13 +5812,13 @@
       <c r="D170" s="31"/>
       <c r="E170" s="31"/>
       <c r="F170" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H170" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I170" s="14"/>
       <c r="J170" s="31"/>
@@ -5779,10 +5830,10 @@
         <v>53</v>
       </c>
       <c r="C171" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D171" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E171" s="38" t="s">
         <v>8</v>
@@ -5791,10 +5842,10 @@
         <v>9</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="38"/>
@@ -5810,10 +5861,10 @@
         <v>21</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="39"/>
@@ -5826,7 +5877,7 @@
       <c r="D173" s="40"/>
       <c r="E173" s="40"/>
       <c r="F173" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
@@ -5840,10 +5891,10 @@
         <v>54</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D174" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E174" s="29" t="s">
         <v>8</v>
@@ -5852,10 +5903,10 @@
         <v>9</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H174" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I174" s="12"/>
       <c r="J174" s="29"/>
@@ -5871,10 +5922,10 @@
         <v>21</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H175" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I175" s="13"/>
       <c r="J175" s="30"/>
@@ -5887,7 +5938,7 @@
       <c r="D176" s="31"/>
       <c r="E176" s="31"/>
       <c r="F176" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
@@ -5901,10 +5952,10 @@
         <v>55</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D177" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E177" s="38" t="s">
         <v>8</v>
@@ -5913,10 +5964,10 @@
         <v>9</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="38"/>
@@ -5932,10 +5983,10 @@
         <v>21</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="39"/>
@@ -5948,13 +5999,13 @@
       <c r="D179" s="40"/>
       <c r="E179" s="40"/>
       <c r="F179" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I179" s="8"/>
       <c r="J179" s="40"/>
@@ -5966,10 +6017,10 @@
         <v>56</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D180" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E180" s="29" t="s">
         <v>8</v>
@@ -5978,10 +6029,10 @@
         <v>9</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H180" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I180" s="12"/>
       <c r="J180" s="29"/>
@@ -5997,10 +6048,10 @@
         <v>21</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H181" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I181" s="13"/>
       <c r="J181" s="30"/>
@@ -6013,13 +6064,13 @@
       <c r="D182" s="31"/>
       <c r="E182" s="31"/>
       <c r="F182" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H182" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I182" s="14"/>
       <c r="J182" s="31"/>
@@ -6031,10 +6082,10 @@
         <v>57</v>
       </c>
       <c r="C183" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D183" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E183" s="38" t="s">
         <v>8</v>
@@ -6043,10 +6094,10 @@
         <v>9</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="38"/>
@@ -6062,10 +6113,10 @@
         <v>21</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I184" s="2"/>
       <c r="J184" s="39"/>
@@ -6078,13 +6129,13 @@
       <c r="D185" s="39"/>
       <c r="E185" s="39"/>
       <c r="F185" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G185" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="H185" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="H185" s="21" t="s">
-        <v>268</v>
       </c>
       <c r="I185" s="21"/>
       <c r="J185" s="39"/>
@@ -6098,10 +6149,10 @@
       <c r="E186" s="39"/>
       <c r="F186" s="21"/>
       <c r="G186" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="H186" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="H186" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="I186" s="21"/>
       <c r="J186" s="39"/>
@@ -6115,10 +6166,10 @@
       <c r="E187" s="40"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I187" s="8"/>
       <c r="J187" s="40"/>
@@ -6130,10 +6181,10 @@
         <v>58</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D188" s="29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E188" s="29" t="s">
         <v>8</v>
@@ -6142,10 +6193,10 @@
         <v>9</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H188" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I188" s="12"/>
       <c r="J188" s="29"/>
@@ -6161,10 +6212,10 @@
         <v>21</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H189" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I189" s="13"/>
       <c r="J189" s="30"/>
@@ -6177,13 +6228,13 @@
       <c r="D190" s="30"/>
       <c r="E190" s="30"/>
       <c r="F190" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H190" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I190" s="13"/>
       <c r="J190" s="30"/>
@@ -6197,10 +6248,10 @@
       <c r="E191" s="30"/>
       <c r="F191" s="22"/>
       <c r="G191" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H191" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I191" s="22"/>
       <c r="J191" s="30"/>
@@ -6214,10 +6265,10 @@
       <c r="E192" s="31"/>
       <c r="F192" s="22"/>
       <c r="G192" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H192" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I192" s="22"/>
       <c r="J192" s="31"/>
@@ -6229,10 +6280,10 @@
         <v>59</v>
       </c>
       <c r="C193" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D193" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E193" s="38" t="s">
         <v>8</v>
@@ -6241,10 +6292,10 @@
         <v>9</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="38"/>
@@ -6260,10 +6311,10 @@
         <v>21</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I194" s="2"/>
       <c r="J194" s="39"/>
@@ -6276,13 +6327,13 @@
       <c r="D195" s="40"/>
       <c r="E195" s="40"/>
       <c r="F195" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I195" s="8"/>
       <c r="J195" s="40"/>
@@ -6294,10 +6345,10 @@
         <v>60</v>
       </c>
       <c r="C196" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D196" s="29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E196" s="29" t="s">
         <v>8</v>
@@ -6306,10 +6357,10 @@
         <v>9</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H196" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I196" s="12"/>
       <c r="J196" s="29"/>
@@ -6325,10 +6376,10 @@
         <v>21</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H197" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I197" s="13"/>
       <c r="J197" s="30"/>
@@ -6341,13 +6392,13 @@
       <c r="D198" s="31"/>
       <c r="E198" s="31"/>
       <c r="F198" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G198" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H198" s="14" t="s">
         <v>283</v>
-      </c>
-      <c r="H198" s="14" t="s">
-        <v>285</v>
       </c>
       <c r="I198" s="14"/>
       <c r="J198" s="31"/>
@@ -6359,10 +6410,10 @@
         <v>61</v>
       </c>
       <c r="C199" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D199" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E199" s="38" t="s">
         <v>8</v>
@@ -6371,10 +6422,10 @@
         <v>9</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="38"/>
@@ -6390,10 +6441,10 @@
         <v>21</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I200" s="2"/>
       <c r="J200" s="39"/>
@@ -6406,13 +6457,13 @@
       <c r="D201" s="39"/>
       <c r="E201" s="39"/>
       <c r="F201" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G201" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H201" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I201" s="21"/>
       <c r="J201" s="39"/>
@@ -6426,10 +6477,10 @@
       <c r="E202" s="39"/>
       <c r="F202" s="21"/>
       <c r="G202" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H202" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I202" s="21"/>
       <c r="J202" s="39"/>
@@ -6443,10 +6494,10 @@
       <c r="E203" s="39"/>
       <c r="F203" s="21"/>
       <c r="G203" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H203" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I203" s="21"/>
       <c r="J203" s="39"/>
@@ -6460,10 +6511,10 @@
       <c r="E204" s="39"/>
       <c r="F204" s="21"/>
       <c r="G204" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H204" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I204" s="21"/>
       <c r="J204" s="39"/>
@@ -6477,10 +6528,10 @@
       <c r="E205" s="39"/>
       <c r="F205" s="21"/>
       <c r="G205" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H205" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I205" s="21"/>
       <c r="J205" s="39"/>
@@ -6494,10 +6545,10 @@
       <c r="E206" s="39"/>
       <c r="F206" s="21"/>
       <c r="G206" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H206" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I206" s="21"/>
       <c r="J206" s="39"/>
@@ -6511,10 +6562,10 @@
       <c r="E207" s="39"/>
       <c r="F207" s="21"/>
       <c r="G207" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H207" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I207" s="21"/>
       <c r="J207" s="39"/>
@@ -6526,10 +6577,10 @@
         <v>62</v>
       </c>
       <c r="C208" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D208" s="29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E208" s="29" t="s">
         <v>8</v>
@@ -6538,10 +6589,10 @@
         <v>9</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H208" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I208" s="12"/>
       <c r="J208" s="29"/>
@@ -6557,10 +6608,10 @@
         <v>21</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H209" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I209" s="13"/>
       <c r="J209" s="30"/>
@@ -6573,13 +6624,13 @@
       <c r="D210" s="30"/>
       <c r="E210" s="30"/>
       <c r="F210" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H210" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I210" s="13"/>
       <c r="J210" s="30"/>
@@ -6592,13 +6643,13 @@
       <c r="D211" s="30"/>
       <c r="E211" s="30"/>
       <c r="F211" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H211" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I211" s="13"/>
       <c r="J211" s="30"/>
@@ -6612,10 +6663,10 @@
       <c r="E212" s="30"/>
       <c r="F212" s="13"/>
       <c r="G212" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H212" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I212" s="13"/>
       <c r="J212" s="30"/>
@@ -6629,13 +6680,13 @@
       <c r="E213" s="30"/>
       <c r="F213" s="13"/>
       <c r="G213" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="H213" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I213" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="H213" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="I213" s="13" t="s">
-        <v>319</v>
       </c>
       <c r="J213" s="30"/>
       <c r="K213" s="33"/>
@@ -6648,10 +6699,10 @@
       <c r="E214" s="30"/>
       <c r="F214" s="13"/>
       <c r="G214" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H214" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I214" s="13"/>
       <c r="J214" s="30"/>
@@ -6665,10 +6716,10 @@
       <c r="E215" s="30"/>
       <c r="F215" s="13"/>
       <c r="G215" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H215" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I215" s="13"/>
       <c r="J215" s="30"/>
@@ -6680,10 +6731,10 @@
         <v>63</v>
       </c>
       <c r="C216" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D216" s="38" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E216" s="38" t="s">
         <v>8</v>
@@ -6692,10 +6743,10 @@
         <v>9</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="38"/>
@@ -6711,10 +6762,10 @@
         <v>21</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I217" s="2"/>
       <c r="J217" s="39"/>
@@ -6727,13 +6778,13 @@
       <c r="D218" s="39"/>
       <c r="E218" s="39"/>
       <c r="F218" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G218" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H218" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I218" s="21"/>
       <c r="J218" s="39"/>
@@ -6747,10 +6798,10 @@
       <c r="E219" s="39"/>
       <c r="F219" s="21"/>
       <c r="G219" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H219" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I219" s="21"/>
       <c r="J219" s="39"/>
@@ -6764,10 +6815,10 @@
       <c r="E220" s="39"/>
       <c r="F220" s="21"/>
       <c r="G220" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H220" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I220" s="21"/>
       <c r="J220" s="39"/>
@@ -6781,10 +6832,10 @@
       <c r="E221" s="39"/>
       <c r="F221" s="21"/>
       <c r="G221" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H221" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I221" s="21"/>
       <c r="J221" s="39"/>
@@ -6798,10 +6849,10 @@
       <c r="E222" s="39"/>
       <c r="F222" s="21"/>
       <c r="G222" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H222" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I222" s="21"/>
       <c r="J222" s="39"/>
@@ -6815,10 +6866,10 @@
       <c r="E223" s="39"/>
       <c r="F223" s="21"/>
       <c r="G223" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H223" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I223" s="21"/>
       <c r="J223" s="39"/>
@@ -6832,10 +6883,10 @@
       <c r="E224" s="39"/>
       <c r="F224" s="21"/>
       <c r="G224" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H224" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I224" s="21"/>
       <c r="J224" s="39"/>
@@ -6847,10 +6898,10 @@
         <v>64</v>
       </c>
       <c r="C225" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D225" s="29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E225" s="29" t="s">
         <v>8</v>
@@ -6859,10 +6910,10 @@
         <v>9</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H225" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I225" s="12"/>
       <c r="J225" s="29"/>
@@ -6878,10 +6929,10 @@
         <v>21</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H226" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I226" s="13"/>
       <c r="J226" s="30"/>
@@ -6894,13 +6945,13 @@
       <c r="D227" s="30"/>
       <c r="E227" s="30"/>
       <c r="F227" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G227" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H227" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I227" s="13"/>
       <c r="J227" s="30"/>
@@ -6914,10 +6965,10 @@
       <c r="E228" s="30"/>
       <c r="F228" s="13"/>
       <c r="G228" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H228" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I228" s="13"/>
       <c r="J228" s="30"/>
@@ -6931,10 +6982,10 @@
       <c r="E229" s="30"/>
       <c r="F229" s="13"/>
       <c r="G229" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H229" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I229" s="13"/>
       <c r="J229" s="30"/>
@@ -6948,10 +6999,10 @@
       <c r="E230" s="30"/>
       <c r="F230" s="13"/>
       <c r="G230" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H230" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I230" s="13"/>
       <c r="J230" s="30"/>
@@ -6965,10 +7016,10 @@
       <c r="E231" s="30"/>
       <c r="F231" s="13"/>
       <c r="G231" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H231" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I231" s="13"/>
       <c r="J231" s="30"/>
@@ -6982,10 +7033,10 @@
       <c r="E232" s="30"/>
       <c r="F232" s="19"/>
       <c r="G232" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H232" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I232" s="13"/>
       <c r="J232" s="30"/>
@@ -6999,10 +7050,10 @@
       <c r="E233" s="31"/>
       <c r="F233" s="19"/>
       <c r="G233" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H233" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I233" s="13"/>
       <c r="J233" s="31"/>
@@ -7014,10 +7065,10 @@
         <v>65</v>
       </c>
       <c r="C234" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D234" s="38" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E234" s="38" t="s">
         <v>8</v>
@@ -7026,10 +7077,10 @@
         <v>9</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I234" s="7"/>
       <c r="J234" s="38"/>
@@ -7045,10 +7096,10 @@
         <v>21</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I235" s="2"/>
       <c r="J235" s="39"/>
@@ -7061,13 +7112,13 @@
       <c r="D236" s="39"/>
       <c r="E236" s="39"/>
       <c r="F236" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G236" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H236" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I236" s="21"/>
       <c r="J236" s="39"/>
@@ -7081,10 +7132,10 @@
       <c r="E237" s="39"/>
       <c r="F237" s="21"/>
       <c r="G237" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H237" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I237" s="21"/>
       <c r="J237" s="39"/>
@@ -7098,10 +7149,10 @@
       <c r="E238" s="39"/>
       <c r="F238" s="21"/>
       <c r="G238" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H238" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I238" s="21"/>
       <c r="J238" s="39"/>
@@ -7115,10 +7166,10 @@
       <c r="E239" s="39"/>
       <c r="F239" s="21"/>
       <c r="G239" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H239" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I239" s="21"/>
       <c r="J239" s="39"/>
@@ -7132,10 +7183,10 @@
       <c r="E240" s="39"/>
       <c r="F240" s="21"/>
       <c r="G240" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H240" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I240" s="21"/>
       <c r="J240" s="39"/>
@@ -7149,10 +7200,10 @@
       <c r="E241" s="39"/>
       <c r="F241" s="21"/>
       <c r="G241" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H241" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I241" s="21"/>
       <c r="J241" s="39"/>
@@ -7166,10 +7217,10 @@
       <c r="E242" s="39"/>
       <c r="F242" s="21"/>
       <c r="G242" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H242" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I242" s="21"/>
       <c r="J242" s="39"/>
@@ -7181,10 +7232,10 @@
         <v>66</v>
       </c>
       <c r="C243" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D243" s="29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E243" s="29" t="s">
         <v>8</v>
@@ -7193,10 +7244,10 @@
         <v>9</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H243" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I243" s="12"/>
       <c r="J243" s="29"/>
@@ -7212,10 +7263,10 @@
         <v>21</v>
       </c>
       <c r="G244" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H244" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I244" s="13"/>
       <c r="J244" s="30"/>
@@ -7228,13 +7279,13 @@
       <c r="D245" s="30"/>
       <c r="E245" s="30"/>
       <c r="F245" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G245" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H245" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I245" s="19"/>
       <c r="J245" s="30"/>
@@ -7248,10 +7299,10 @@
       <c r="E246" s="30"/>
       <c r="F246" s="19"/>
       <c r="G246" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H246" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I246" s="19"/>
       <c r="J246" s="30"/>
@@ -7265,10 +7316,10 @@
       <c r="E247" s="30"/>
       <c r="F247" s="19"/>
       <c r="G247" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H247" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I247" s="19"/>
       <c r="J247" s="30"/>
@@ -7282,10 +7333,10 @@
       <c r="E248" s="30"/>
       <c r="F248" s="19"/>
       <c r="G248" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H248" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I248" s="19"/>
       <c r="J248" s="30"/>
@@ -7299,10 +7350,10 @@
       <c r="E249" s="30"/>
       <c r="F249" s="19"/>
       <c r="G249" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H249" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I249" s="19"/>
       <c r="J249" s="30"/>
@@ -7316,10 +7367,10 @@
       <c r="E250" s="30"/>
       <c r="F250" s="19"/>
       <c r="G250" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I250" s="19"/>
       <c r="J250" s="30"/>
@@ -7331,10 +7382,10 @@
         <v>67</v>
       </c>
       <c r="C251" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D251" s="38" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E251" s="38" t="s">
         <v>8</v>
@@ -7343,10 +7394,10 @@
         <v>9</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I251" s="7"/>
       <c r="J251" s="38"/>
@@ -7362,10 +7413,10 @@
         <v>21</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I252" s="2"/>
       <c r="J252" s="39"/>
@@ -7378,13 +7429,13 @@
       <c r="D253" s="39"/>
       <c r="E253" s="39"/>
       <c r="F253" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G253" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H253" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I253" s="21"/>
       <c r="J253" s="39"/>
@@ -7398,10 +7449,10 @@
       <c r="E254" s="39"/>
       <c r="F254" s="21"/>
       <c r="G254" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H254" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I254" s="21"/>
       <c r="J254" s="39"/>
@@ -7415,10 +7466,10 @@
       <c r="E255" s="39"/>
       <c r="F255" s="21"/>
       <c r="G255" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H255" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I255" s="21"/>
       <c r="J255" s="39"/>
@@ -7432,10 +7483,10 @@
       <c r="E256" s="39"/>
       <c r="F256" s="21"/>
       <c r="G256" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H256" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I256" s="21"/>
       <c r="J256" s="39"/>
@@ -7449,10 +7500,10 @@
       <c r="E257" s="39"/>
       <c r="F257" s="21"/>
       <c r="G257" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H257" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I257" s="21"/>
       <c r="J257" s="39"/>
@@ -7466,10 +7517,10 @@
       <c r="E258" s="39"/>
       <c r="F258" s="21"/>
       <c r="G258" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H258" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I258" s="21"/>
       <c r="J258" s="39"/>
@@ -7481,10 +7532,10 @@
         <v>68</v>
       </c>
       <c r="C259" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D259" s="29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E259" s="29" t="s">
         <v>8</v>
@@ -7493,10 +7544,10 @@
         <v>9</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H259" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I259" s="12"/>
       <c r="J259" s="29"/>
@@ -7512,10 +7563,10 @@
         <v>21</v>
       </c>
       <c r="G260" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H260" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I260" s="13"/>
       <c r="J260" s="30"/>
@@ -7528,13 +7579,13 @@
       <c r="D261" s="30"/>
       <c r="E261" s="30"/>
       <c r="F261" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G261" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H261" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I261" s="19"/>
       <c r="J261" s="30"/>
@@ -7548,10 +7599,10 @@
       <c r="E262" s="30"/>
       <c r="F262" s="19"/>
       <c r="G262" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H262" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I262" s="19"/>
       <c r="J262" s="30"/>
@@ -7565,10 +7616,10 @@
       <c r="E263" s="30"/>
       <c r="F263" s="19"/>
       <c r="G263" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H263" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I263" s="19"/>
       <c r="J263" s="30"/>
@@ -7582,10 +7633,10 @@
       <c r="E264" s="30"/>
       <c r="F264" s="19"/>
       <c r="G264" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H264" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I264" s="19"/>
       <c r="J264" s="30"/>
@@ -7599,10 +7650,10 @@
       <c r="E265" s="30"/>
       <c r="F265" s="19"/>
       <c r="G265" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H265" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I265" s="19"/>
       <c r="J265" s="30"/>
@@ -7616,10 +7667,10 @@
       <c r="E266" s="30"/>
       <c r="F266" s="19"/>
       <c r="G266" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H266" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I266" s="19"/>
       <c r="J266" s="30"/>
@@ -7633,10 +7684,10 @@
       <c r="E267" s="30"/>
       <c r="F267" s="19"/>
       <c r="G267" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H267" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I267" s="19"/>
       <c r="J267" s="30"/>
@@ -7648,10 +7699,10 @@
         <v>69</v>
       </c>
       <c r="C268" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D268" s="38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E268" s="38" t="s">
         <v>8</v>
@@ -7660,10 +7711,10 @@
         <v>9</v>
       </c>
       <c r="G268" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I268" s="7"/>
       <c r="J268" s="38"/>
@@ -7679,10 +7730,10 @@
         <v>21</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I269" s="2"/>
       <c r="J269" s="39"/>
@@ -7695,13 +7746,13 @@
       <c r="D270" s="40"/>
       <c r="E270" s="40"/>
       <c r="F270" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G270" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H270" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I270" s="8"/>
       <c r="J270" s="40"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekate\Desktop\Netology\Git repository\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED6070A-0E08-41CB-ACCC-9B8D6755B8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30966F78-3FA6-4237-B3DE-A9BC47AAA532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CC955BC4-95A8-4E73-80DC-FD5AF393D381}"/>
+    <workbookView xWindow="14070" yWindow="180" windowWidth="24180" windowHeight="18615" xr2:uid="{CC955BC4-95A8-4E73-80DC-FD5AF393D381}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="357">
   <si>
     <t>ID</t>
   </si>
@@ -1198,7 +1197,19 @@
     <t>1. На странице есть TextView c отображением компании и года, например "©Айтеко, 2022"</t>
   </si>
   <si>
-    <t>да, ссылка должна быть другой, есть баг репорт</t>
+    <t>да, ссылка должна быть другой</t>
+  </si>
+  <si>
+    <t>невозможно проверить, этот раздел приложения не доступен</t>
+  </si>
+  <si>
+    <t>да, но отображение новостей не работает</t>
+  </si>
+  <si>
+    <t>нет, есть тесты для фильтра в панели управления</t>
+  </si>
+  <si>
+    <t>нет</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1649,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1713,6 +1724,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1865,7 +1879,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2190,10 +2204,10 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
+      <selection pane="bottomRight" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,25 +2258,25 @@
       <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="55">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="53" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -2271,77 +2285,77 @@
       <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="K2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="59"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="49">
+      <c r="A6" s="46"/>
+      <c r="B6" s="50">
         <v>2</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="47" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -2353,18 +2367,18 @@
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="K6" s="60"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2374,16 +2388,16 @@
       <c r="I7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="61"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2393,16 +2407,16 @@
       <c r="I8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="61"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="62"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
@@ -2412,21 +2426,21 @@
       <c r="I9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="62"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="54">
+      <c r="A10" s="46"/>
+      <c r="B10" s="55">
         <v>3</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="53" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -2441,17 +2455,17 @@
       <c r="I10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="52" t="s">
+      <c r="J10" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="K10" s="57"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
@@ -2464,24 +2478,24 @@
       <c r="I11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="59"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="49">
+      <c r="A12" s="46"/>
+      <c r="B12" s="50">
         <v>4</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="47" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -2493,18 +2507,18 @@
       <c r="I12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="K12" s="60"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="47"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="3" t="s">
         <v>30</v>
       </c>
@@ -2514,16 +2528,16 @@
       <c r="I13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="61"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="47"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="3" t="s">
         <v>28</v>
       </c>
@@ -2533,16 +2547,16 @@
       <c r="I14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="61"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="48"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="6" t="s">
         <v>17</v>
       </c>
@@ -2552,24 +2566,24 @@
       <c r="I15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="62"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="54">
+      <c r="A16" s="46"/>
+      <c r="B16" s="55">
         <v>5</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="53" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -2581,18 +2595,18 @@
       <c r="I16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="52" t="s">
+      <c r="J16" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="K16" s="57"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="2" t="s">
         <v>27</v>
       </c>
@@ -2602,16 +2616,16 @@
       <c r="I17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="58"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="59"/>
     </row>
     <row r="18" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2621,16 +2635,16 @@
       <c r="I18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="58"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="8" t="s">
         <v>17</v>
       </c>
@@ -2640,24 +2654,24 @@
       <c r="I19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="53"/>
-      <c r="K19" s="59"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="49">
+      <c r="A20" s="46"/>
+      <c r="B20" s="50">
         <v>6</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="47" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -2669,18 +2683,18 @@
       <c r="I20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="K20" s="60"/>
+      <c r="K20" s="61"/>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="3" t="s">
         <v>39</v>
       </c>
@@ -2690,16 +2704,16 @@
       <c r="I21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="61"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="62"/>
     </row>
     <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="3" t="s">
         <v>28</v>
       </c>
@@ -2709,16 +2723,16 @@
       <c r="I22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="47"/>
-      <c r="K22" s="61"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="6" t="s">
         <v>17</v>
       </c>
@@ -2728,24 +2742,24 @@
       <c r="I23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="62"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="63"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="54">
+      <c r="A24" s="46"/>
+      <c r="B24" s="55">
         <v>7</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="53" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -2757,18 +2771,18 @@
       <c r="I24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="52" t="s">
+      <c r="J24" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="K24" s="57"/>
+      <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="2" t="s">
         <v>27</v>
       </c>
@@ -2778,16 +2792,16 @@
       <c r="I25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="58"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="2" t="s">
         <v>43</v>
       </c>
@@ -2797,16 +2811,16 @@
       <c r="I26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="56"/>
-      <c r="K26" s="58"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="59"/>
     </row>
     <row r="27" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="8" t="s">
         <v>17</v>
       </c>
@@ -2816,24 +2830,24 @@
       <c r="I27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="59"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="60"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="49">
+      <c r="A28" s="46"/>
+      <c r="B28" s="50">
         <v>8</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="47" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -2845,18 +2859,18 @@
       <c r="I28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="46" t="s">
+      <c r="J28" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="K28" s="60"/>
+      <c r="K28" s="61"/>
     </row>
     <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="3" t="s">
         <v>45</v>
       </c>
@@ -2866,16 +2880,16 @@
       <c r="I29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="47"/>
-      <c r="K29" s="61"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="62"/>
     </row>
     <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
       <c r="G30" s="3" t="s">
         <v>53</v>
       </c>
@@ -2885,16 +2899,16 @@
       <c r="I30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="47"/>
-      <c r="K30" s="61"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="62"/>
     </row>
     <row r="31" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="6" t="s">
         <v>17</v>
       </c>
@@ -2904,24 +2918,24 @@
       <c r="I31" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="48"/>
-      <c r="K31" s="62"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="63"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="54">
+      <c r="A32" s="46"/>
+      <c r="B32" s="55">
         <v>9</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="53" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -2933,18 +2947,18 @@
       <c r="I32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="52" t="s">
+      <c r="J32" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="K32" s="57"/>
+      <c r="K32" s="58"/>
     </row>
     <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="2" t="s">
         <v>52</v>
       </c>
@@ -2954,16 +2968,16 @@
       <c r="I33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="56"/>
-      <c r="K33" s="58"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="59"/>
     </row>
     <row r="34" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="2" t="s">
         <v>54</v>
       </c>
@@ -2973,16 +2987,16 @@
       <c r="I34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="56"/>
-      <c r="K34" s="58"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="8" t="s">
         <v>17</v>
       </c>
@@ -2992,24 +3006,24 @@
       <c r="I35" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="59"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="60"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="49">
+      <c r="A36" s="46"/>
+      <c r="B36" s="50">
         <v>10</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="47" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -3021,18 +3035,18 @@
       <c r="I36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="46" t="s">
+      <c r="J36" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="K36" s="60"/>
+      <c r="K36" s="61"/>
     </row>
     <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
       <c r="G37" s="3" t="s">
         <v>55</v>
       </c>
@@ -3042,16 +3056,16 @@
       <c r="I37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="47"/>
-      <c r="K37" s="61"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="62"/>
     </row>
     <row r="38" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="3" t="s">
         <v>53</v>
       </c>
@@ -3061,16 +3075,16 @@
       <c r="I38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="61"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="62"/>
     </row>
     <row r="39" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
       <c r="G39" s="6" t="s">
         <v>17</v>
       </c>
@@ -3080,24 +3094,24 @@
       <c r="I39" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="48"/>
-      <c r="K39" s="62"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="63"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="54">
+      <c r="A40" s="46"/>
+      <c r="B40" s="55">
         <v>11</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="52" t="s">
+      <c r="F40" s="53" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="7" t="s">
@@ -3109,18 +3123,18 @@
       <c r="I40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="52" t="s">
+      <c r="J40" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="K40" s="57"/>
+      <c r="K40" s="58"/>
     </row>
     <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="2" t="s">
         <v>52</v>
       </c>
@@ -3130,16 +3144,16 @@
       <c r="I41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="56"/>
-      <c r="K41" s="58"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="59"/>
     </row>
     <row r="42" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="2" t="s">
         <v>58</v>
       </c>
@@ -3149,16 +3163,16 @@
       <c r="I42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J42" s="56"/>
-      <c r="K42" s="58"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="59"/>
     </row>
     <row r="43" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
       <c r="G43" s="8" t="s">
         <v>17</v>
       </c>
@@ -3168,24 +3182,24 @@
       <c r="I43" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="53"/>
-      <c r="K43" s="59"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="60"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="49">
+      <c r="A44" s="46"/>
+      <c r="B44" s="50">
         <v>12</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="47" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -3197,18 +3211,18 @@
       <c r="I44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="46" t="s">
+      <c r="J44" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="K44" s="60"/>
+      <c r="K44" s="61"/>
     </row>
     <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
       <c r="G45" s="3" t="s">
         <v>350</v>
       </c>
@@ -3218,16 +3232,16 @@
       <c r="I45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="47"/>
-      <c r="K45" s="61"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="62"/>
     </row>
     <row r="46" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
       <c r="G46" s="3" t="s">
         <v>53</v>
       </c>
@@ -3237,16 +3251,16 @@
       <c r="I46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="47"/>
-      <c r="K46" s="61"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="62"/>
     </row>
     <row r="47" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
       <c r="G47" s="6" t="s">
         <v>17</v>
       </c>
@@ -3256,24 +3270,24 @@
       <c r="I47" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J47" s="48"/>
-      <c r="K47" s="62"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="63"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="54">
+      <c r="A48" s="46"/>
+      <c r="B48" s="55">
         <v>13</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="52" t="s">
+      <c r="F48" s="53" t="s">
         <v>9</v>
       </c>
       <c r="G48" s="7" t="s">
@@ -3285,18 +3299,18 @@
       <c r="I48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J48" s="52" t="s">
+      <c r="J48" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="K48" s="57"/>
+      <c r="K48" s="58"/>
     </row>
     <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="2" t="s">
         <v>52</v>
       </c>
@@ -3306,16 +3320,16 @@
       <c r="I49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="56"/>
-      <c r="K49" s="58"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="59"/>
     </row>
     <row r="50" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
       <c r="G50" s="2" t="s">
         <v>349</v>
       </c>
@@ -3325,16 +3339,16 @@
       <c r="I50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="56"/>
-      <c r="K50" s="58"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="59"/>
     </row>
     <row r="51" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="45"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
       <c r="G51" s="8" t="s">
         <v>17</v>
       </c>
@@ -3344,23 +3358,23 @@
       <c r="I51" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="53"/>
-      <c r="K51" s="59"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="60"/>
     </row>
     <row r="52" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="67">
+      <c r="B52" s="68">
         <v>14</v>
       </c>
-      <c r="C52" s="70" t="s">
+      <c r="C52" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="70" t="s">
+      <c r="D52" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="71" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -3375,17 +3389,17 @@
       <c r="I52" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J52" s="70" t="s">
+      <c r="J52" s="71" t="s">
         <v>348</v>
       </c>
-      <c r="K52" s="73"/>
+      <c r="K52" s="74"/>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
       <c r="F53" s="3" t="s">
         <v>21</v>
       </c>
@@ -3396,36 +3410,36 @@
       <c r="I53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J53" s="71"/>
-      <c r="K53" s="74"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="75"/>
     </row>
     <row r="54" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
       <c r="F54" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="75"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="76"/>
     </row>
     <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="35">
+      <c r="A55" s="46"/>
+      <c r="B55" s="36">
         <v>15</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="38" t="s">
+      <c r="E55" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="7" t="s">
@@ -3440,17 +3454,17 @@
       <c r="I55" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J55" s="38" t="s">
+      <c r="J55" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="K55" s="41"/>
+      <c r="K55" s="42"/>
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
       <c r="F56" s="2" t="s">
         <v>21</v>
       </c>
@@ -3463,15 +3477,15 @@
       <c r="I56" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J56" s="39"/>
-      <c r="K56" s="42"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="43"/>
     </row>
     <row r="57" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="45"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
       <c r="F57" s="8" t="s">
         <v>64</v>
       </c>
@@ -3484,21 +3498,21 @@
       <c r="I57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J57" s="40"/>
-      <c r="K57" s="43"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="44"/>
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="26">
+      <c r="A58" s="46"/>
+      <c r="B58" s="27">
         <v>16</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="12" t="s">
@@ -3513,17 +3527,17 @@
       <c r="I58" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J58" s="29" t="s">
+      <c r="J58" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="K58" s="32"/>
+      <c r="K58" s="33"/>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
       <c r="F59" s="13" t="s">
         <v>21</v>
       </c>
@@ -3536,38 +3550,38 @@
       <c r="I59" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J59" s="30"/>
-      <c r="K59" s="33"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="34"/>
     </row>
     <row r="60" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="45"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
       <c r="F60" s="14" t="s">
         <v>64</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="34"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="35"/>
     </row>
     <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="35">
+      <c r="B61" s="36">
         <v>17</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="7" t="s">
@@ -3582,53 +3596,53 @@
       <c r="I61" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J61" s="38" t="s">
+      <c r="J61" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="K61" s="41"/>
+      <c r="K61" s="42"/>
     </row>
     <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="42"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="43"/>
     </row>
     <row r="63" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="45"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
       <c r="F63" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="43"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="44"/>
     </row>
     <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
-      <c r="B64" s="26">
+      <c r="A64" s="46"/>
+      <c r="B64" s="27">
         <v>18</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="12" t="s">
@@ -3643,17 +3657,17 @@
       <c r="I64" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J64" s="29" t="s">
+      <c r="J64" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="K64" s="32"/>
+      <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
       <c r="F65" s="13" t="s">
         <v>21</v>
       </c>
@@ -3666,36 +3680,36 @@
       <c r="I65" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J65" s="30"/>
-      <c r="K65" s="33"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="34"/>
     </row>
     <row r="66" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="45"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
       <c r="F66" s="14" t="s">
         <v>64</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="34"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="35"/>
     </row>
     <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="35">
+      <c r="A67" s="46"/>
+      <c r="B67" s="36">
         <v>19</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E67" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="7" t="s">
@@ -3710,17 +3724,17 @@
       <c r="I67" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J67" s="38" t="s">
+      <c r="J67" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="K67" s="41"/>
+      <c r="K67" s="42"/>
     </row>
     <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
       <c r="F68" s="2" t="s">
         <v>21</v>
       </c>
@@ -3733,36 +3747,36 @@
       <c r="I68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J68" s="39"/>
-      <c r="K68" s="42"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="43"/>
     </row>
     <row r="69" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="45"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
       <c r="F69" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="43"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="44"/>
     </row>
     <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
-      <c r="B70" s="26">
+      <c r="A70" s="46"/>
+      <c r="B70" s="27">
         <v>20</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="12" t="s">
@@ -3775,16 +3789,18 @@
         <v>82</v>
       </c>
       <c r="I70" s="12"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="76"/>
+      <c r="J70" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="K70" s="33"/>
+      <c r="L70" s="77"/>
     </row>
     <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
       <c r="F71" s="13" t="s">
         <v>21</v>
       </c>
@@ -3795,38 +3811,38 @@
         <v>88</v>
       </c>
       <c r="I71" s="13"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="76"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="77"/>
     </row>
     <row r="72" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="45"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
       <c r="F72" s="14" t="s">
         <v>86</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="76"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="77"/>
     </row>
     <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
-      <c r="B73" s="35">
+      <c r="A73" s="46"/>
+      <c r="B73" s="36">
         <v>21</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="E73" s="38" t="s">
+      <c r="E73" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="7" t="s">
@@ -3839,16 +3855,18 @@
         <v>82</v>
       </c>
       <c r="I73" s="7"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="76"/>
+      <c r="J73" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="K73" s="42"/>
+      <c r="L73" s="77"/>
     </row>
     <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
       <c r="F74" s="2" t="s">
         <v>21</v>
       </c>
@@ -3861,40 +3879,40 @@
       <c r="I74" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J74" s="39"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="76"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="77"/>
     </row>
     <row r="75" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="45"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
       <c r="F75" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="76"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="77"/>
     </row>
     <row r="76" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B76" s="27">
         <v>22</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E76" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="12" t="s">
@@ -3907,16 +3925,16 @@
         <v>101</v>
       </c>
       <c r="I76" s="12"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="76"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="77"/>
     </row>
     <row r="77" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
+      <c r="A77" s="46"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
       <c r="F77" s="13" t="s">
         <v>21</v>
       </c>
@@ -3925,38 +3943,38 @@
         <v>106</v>
       </c>
       <c r="I77" s="13"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="76"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="26"/>
     </row>
     <row r="78" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="45"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
       <c r="F78" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="76"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="26"/>
     </row>
     <row r="79" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
-      <c r="B79" s="35">
+      <c r="A79" s="46"/>
+      <c r="B79" s="36">
         <v>23</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="E79" s="38" t="s">
+      <c r="E79" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="7" t="s">
@@ -3969,16 +3987,16 @@
         <v>104</v>
       </c>
       <c r="I79" s="7"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="76"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="26"/>
     </row>
     <row r="80" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
       <c r="F80" s="2" t="s">
         <v>21</v>
       </c>
@@ -3989,40 +4007,40 @@
         <v>105</v>
       </c>
       <c r="I80" s="2"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="76"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="26"/>
     </row>
     <row r="81" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="45"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
+      <c r="A81" s="46"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
       <c r="F81" s="8" t="s">
         <v>99</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="76"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="26"/>
     </row>
     <row r="82" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="26">
+      <c r="B82" s="27">
         <v>24</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="E82" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="12" t="s">
@@ -4037,17 +4055,17 @@
       <c r="I82" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J82" s="29" t="s">
+      <c r="J82" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="K82" s="32"/>
+      <c r="K82" s="33"/>
     </row>
     <row r="83" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
+      <c r="A83" s="46"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="13" t="s">
         <v>21</v>
       </c>
@@ -4060,36 +4078,36 @@
       <c r="I83" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="J83" s="30"/>
-      <c r="K83" s="33"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="34"/>
     </row>
     <row r="84" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="45"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
+      <c r="A84" s="46"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
       <c r="F84" s="14" t="s">
         <v>109</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="34"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="35"/>
     </row>
     <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
-      <c r="B85" s="35">
+      <c r="A85" s="46"/>
+      <c r="B85" s="36">
         <v>25</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E85" s="38" t="s">
+      <c r="E85" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F85" s="7" t="s">
@@ -4104,17 +4122,18 @@
       <c r="I85" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J85" s="38" t="s">
+      <c r="J85" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="K85" s="41"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="26"/>
     </row>
     <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
+      <c r="A86" s="46"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
       <c r="F86" s="2" t="s">
         <v>21</v>
       </c>
@@ -4125,15 +4144,16 @@
       <c r="I86" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J86" s="39"/>
-      <c r="K86" s="42"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="26"/>
     </row>
     <row r="87" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="45"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
+      <c r="A87" s="46"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
       <c r="F87" s="8" t="s">
         <v>109</v>
       </c>
@@ -4142,21 +4162,22 @@
       <c r="I87" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J87" s="40"/>
-      <c r="K87" s="43"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="26"/>
     </row>
     <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
-      <c r="B88" s="26">
+      <c r="A88" s="46"/>
+      <c r="B88" s="27">
         <v>26</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E88" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F88" s="12" t="s">
@@ -4171,17 +4192,18 @@
       <c r="I88" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J88" s="29" t="s">
+      <c r="J88" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="K88" s="32"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="26"/>
     </row>
     <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
+      <c r="A89" s="46"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
       <c r="F89" s="13" t="s">
         <v>21</v>
       </c>
@@ -4192,15 +4214,16 @@
       <c r="I89" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J89" s="30"/>
-      <c r="K89" s="33"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="26"/>
     </row>
     <row r="90" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="45"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
+      <c r="A90" s="46"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
       <c r="F90" s="14" t="s">
         <v>109</v>
       </c>
@@ -4209,23 +4232,24 @@
       <c r="I90" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J90" s="31"/>
-      <c r="K90" s="34"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="26"/>
     </row>
     <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="44" t="s">
+      <c r="A91" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="B91" s="35">
+      <c r="B91" s="36">
         <v>27</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D91" s="38" t="s">
+      <c r="D91" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="E91" s="38" t="s">
+      <c r="E91" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F91" s="7" t="s">
@@ -4237,52 +4261,56 @@
       <c r="H91" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I91" s="7"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="41"/>
+      <c r="I91" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J91" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="K91" s="42"/>
     </row>
     <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
+      <c r="A92" s="46"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
       <c r="F92" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="42"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="43"/>
     </row>
     <row r="93" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="45"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
+      <c r="A93" s="46"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
       <c r="F93" s="8" t="s">
         <v>131</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="16"/>
-      <c r="J93" s="40"/>
-      <c r="K93" s="43"/>
+      <c r="J93" s="41"/>
+      <c r="K93" s="44"/>
     </row>
     <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
-      <c r="B94" s="26">
+      <c r="A94" s="46"/>
+      <c r="B94" s="27">
         <v>28</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D94" s="29" t="s">
+      <c r="D94" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E94" s="29" t="s">
+      <c r="E94" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F94" s="12" t="s">
@@ -4294,16 +4322,20 @@
       <c r="H94" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="I94" s="12"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="32"/>
+      <c r="I94" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="J94" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="K94" s="33"/>
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
+      <c r="A95" s="46"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
       <c r="F95" s="13" t="s">
         <v>21</v>
       </c>
@@ -4314,36 +4346,36 @@
         <v>137</v>
       </c>
       <c r="I95" s="13"/>
-      <c r="J95" s="30"/>
-      <c r="K95" s="33"/>
+      <c r="J95" s="31"/>
+      <c r="K95" s="34"/>
     </row>
     <row r="96" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="45"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
+      <c r="A96" s="46"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
       <c r="F96" s="14" t="s">
         <v>131</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="18"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="34"/>
-    </row>
-    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
-      <c r="B97" s="35">
+      <c r="J96" s="32"/>
+      <c r="K96" s="35"/>
+    </row>
+    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="46"/>
+      <c r="B97" s="36">
         <v>29</v>
       </c>
-      <c r="C97" s="38" t="s">
+      <c r="C97" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D97" s="38" t="s">
+      <c r="D97" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="E97" s="38" t="s">
+      <c r="E97" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F97" s="7" t="s">
@@ -4355,67 +4387,71 @@
       <c r="H97" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I97" s="7"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="41"/>
-    </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="45"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
+      <c r="I97" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J97" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="K97" s="42"/>
+    </row>
+    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="46"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
       <c r="F98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="42"/>
-    </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="43"/>
+    </row>
+    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="46"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
       <c r="F99" s="21" t="s">
         <v>131</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="42"/>
-    </row>
-    <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="45"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="40"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="43"/>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="46"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
       <c r="F100" s="8" t="s">
         <v>329</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="16"/>
-      <c r="J100" s="40"/>
-      <c r="K100" s="43"/>
-    </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="45"/>
-      <c r="B101" s="26">
+      <c r="J100" s="41"/>
+      <c r="K100" s="44"/>
+    </row>
+    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="46"/>
+      <c r="B101" s="27">
         <v>30</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D101" s="29" t="s">
+      <c r="D101" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E101" s="29" t="s">
+      <c r="E101" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F101" s="12" t="s">
@@ -4427,16 +4463,20 @@
       <c r="H101" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="I101" s="12"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="32"/>
-    </row>
-    <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="45"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
+      <c r="I101" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="J101" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="K101" s="33"/>
+    </row>
+    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="46"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
       <c r="F102" s="13" t="s">
         <v>21</v>
       </c>
@@ -4447,36 +4487,36 @@
         <v>151</v>
       </c>
       <c r="I102" s="13"/>
-      <c r="J102" s="30"/>
-      <c r="K102" s="33"/>
-    </row>
-    <row r="103" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="45"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="34"/>
+    </row>
+    <row r="103" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="46"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
       <c r="F103" s="14" t="s">
         <v>131</v>
       </c>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="18"/>
-      <c r="J103" s="31"/>
-      <c r="K103" s="34"/>
-    </row>
-    <row r="104" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="45"/>
-      <c r="B104" s="35">
+      <c r="J103" s="32"/>
+      <c r="K103" s="35"/>
+    </row>
+    <row r="104" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="46"/>
+      <c r="B104" s="36">
         <v>31</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="38" t="s">
+      <c r="D104" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="E104" s="38" t="s">
+      <c r="E104" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F104" s="7" t="s">
@@ -4488,52 +4528,56 @@
       <c r="H104" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="I104" s="7"/>
-      <c r="J104" s="38"/>
-      <c r="K104" s="41"/>
-    </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="45"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
+      <c r="I104" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J104" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="K104" s="42"/>
+    </row>
+    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="46"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
       <c r="F105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-      <c r="J105" s="39"/>
-      <c r="K105" s="42"/>
-    </row>
-    <row r="106" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="45"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="40"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="43"/>
+    </row>
+    <row r="106" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="46"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
       <c r="F106" s="8" t="s">
         <v>131</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="16"/>
-      <c r="J106" s="40"/>
-      <c r="K106" s="43"/>
-    </row>
-    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="45"/>
-      <c r="B107" s="26">
+      <c r="J106" s="41"/>
+      <c r="K106" s="44"/>
+    </row>
+    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="46"/>
+      <c r="B107" s="27">
         <v>32</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="C107" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D107" s="29" t="s">
+      <c r="D107" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="E107" s="29" t="s">
+      <c r="E107" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F107" s="12" t="s">
@@ -4545,16 +4589,21 @@
       <c r="H107" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="I107" s="12"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="32"/>
-    </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
+      <c r="I107" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J107" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="K107" s="33"/>
+      <c r="L107" s="77"/>
+    </row>
+    <row r="108" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="46"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
       <c r="F108" s="13" t="s">
         <v>21</v>
       </c>
@@ -4564,37 +4613,41 @@
       <c r="H108" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="I108" s="13"/>
-      <c r="J108" s="30"/>
-      <c r="K108" s="33"/>
-    </row>
-    <row r="109" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="45"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
+      <c r="I108" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J108" s="31"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="77"/>
+    </row>
+    <row r="109" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="46"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
       <c r="F109" s="14" t="s">
         <v>145</v>
       </c>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
-      <c r="J109" s="31"/>
-      <c r="K109" s="34"/>
-    </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="45"/>
-      <c r="B110" s="35">
+      <c r="J109" s="32"/>
+      <c r="K109" s="35"/>
+      <c r="L109" s="77"/>
+    </row>
+    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="46"/>
+      <c r="B110" s="36">
         <v>33</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="C110" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D110" s="38" t="s">
+      <c r="D110" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E110" s="38" t="s">
+      <c r="E110" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F110" s="7" t="s">
@@ -4606,16 +4659,21 @@
       <c r="H110" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I110" s="7"/>
-      <c r="J110" s="38"/>
-      <c r="K110" s="41"/>
-    </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="45"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
+      <c r="I110" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J110" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="K110" s="42"/>
+      <c r="L110" s="77"/>
+    </row>
+    <row r="111" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="46"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
       <c r="F111" s="2" t="s">
         <v>21</v>
       </c>
@@ -4625,37 +4683,41 @@
       <c r="H111" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I111" s="2"/>
-      <c r="J111" s="39"/>
-      <c r="K111" s="42"/>
-    </row>
-    <row r="112" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="45"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
-      <c r="E112" s="40"/>
+      <c r="I111" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J111" s="40"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="77"/>
+    </row>
+    <row r="112" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="46"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
       <c r="F112" s="8" t="s">
         <v>145</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
-      <c r="J112" s="40"/>
-      <c r="K112" s="43"/>
-    </row>
-    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="45"/>
-      <c r="B113" s="26">
+      <c r="J112" s="41"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="77"/>
+    </row>
+    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="46"/>
+      <c r="B113" s="27">
         <v>34</v>
       </c>
-      <c r="C113" s="29" t="s">
+      <c r="C113" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D113" s="29" t="s">
+      <c r="D113" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E113" s="29" t="s">
+      <c r="E113" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F113" s="12" t="s">
@@ -4667,16 +4729,21 @@
       <c r="H113" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="I113" s="12"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="32"/>
-    </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="45"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
+      <c r="I113" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J113" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="K113" s="33"/>
+      <c r="L113" s="77"/>
+    </row>
+    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="46"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
       <c r="F114" s="13" t="s">
         <v>21</v>
       </c>
@@ -4686,37 +4753,41 @@
       <c r="H114" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I114" s="13"/>
-      <c r="J114" s="30"/>
-      <c r="K114" s="33"/>
-    </row>
-    <row r="115" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="45"/>
-      <c r="B115" s="28"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
+      <c r="I114" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J114" s="31"/>
+      <c r="K114" s="34"/>
+      <c r="L114" s="77"/>
+    </row>
+    <row r="115" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="46"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
       <c r="F115" s="14" t="s">
         <v>145</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
-      <c r="J115" s="31"/>
-      <c r="K115" s="34"/>
-    </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="45"/>
-      <c r="B116" s="35">
+      <c r="J115" s="32"/>
+      <c r="K115" s="35"/>
+      <c r="L115" s="77"/>
+    </row>
+    <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="46"/>
+      <c r="B116" s="36">
         <v>35</v>
       </c>
-      <c r="C116" s="38" t="s">
+      <c r="C116" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D116" s="38" t="s">
+      <c r="D116" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E116" s="38" t="s">
+      <c r="E116" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F116" s="7" t="s">
@@ -4728,16 +4799,21 @@
       <c r="H116" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I116" s="7"/>
-      <c r="J116" s="38"/>
-      <c r="K116" s="41"/>
-    </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="45"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
+      <c r="I116" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J116" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="K116" s="42"/>
+      <c r="L116" s="77"/>
+    </row>
+    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="46"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="40"/>
       <c r="F117" s="2" t="s">
         <v>21</v>
       </c>
@@ -4747,37 +4823,41 @@
       <c r="H117" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I117" s="2"/>
-      <c r="J117" s="39"/>
-      <c r="K117" s="42"/>
-    </row>
-    <row r="118" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="45"/>
-      <c r="B118" s="37"/>
-      <c r="C118" s="40"/>
-      <c r="D118" s="40"/>
-      <c r="E118" s="40"/>
+      <c r="I117" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J117" s="40"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="77"/>
+    </row>
+    <row r="118" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="46"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
       <c r="F118" s="8" t="s">
         <v>145</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
-      <c r="J118" s="40"/>
-      <c r="K118" s="43"/>
-    </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="45"/>
-      <c r="B119" s="26">
+      <c r="J118" s="41"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="77"/>
+    </row>
+    <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="46"/>
+      <c r="B119" s="27">
         <v>36</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="C119" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D119" s="29" t="s">
+      <c r="D119" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="E119" s="29" t="s">
+      <c r="E119" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F119" s="12" t="s">
@@ -4789,16 +4869,21 @@
       <c r="H119" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="I119" s="12"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="32"/>
-    </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="45"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
+      <c r="I119" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="J119" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="K119" s="33"/>
+      <c r="L119" s="77"/>
+    </row>
+    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="46"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
       <c r="F120" s="13" t="s">
         <v>21</v>
       </c>
@@ -4808,37 +4893,41 @@
       <c r="H120" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="I120" s="13"/>
-      <c r="J120" s="30"/>
-      <c r="K120" s="33"/>
-    </row>
-    <row r="121" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="45"/>
-      <c r="B121" s="28"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
+      <c r="I120" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J120" s="31"/>
+      <c r="K120" s="34"/>
+      <c r="L120" s="77"/>
+    </row>
+    <row r="121" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="46"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
       <c r="F121" s="14" t="s">
         <v>145</v>
       </c>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
-      <c r="J121" s="31"/>
-      <c r="K121" s="34"/>
-    </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="45"/>
-      <c r="B122" s="35">
+      <c r="J121" s="32"/>
+      <c r="K121" s="35"/>
+      <c r="L121" s="77"/>
+    </row>
+    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="46"/>
+      <c r="B122" s="36">
         <v>37</v>
       </c>
-      <c r="C122" s="38" t="s">
+      <c r="C122" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D122" s="38" t="s">
+      <c r="D122" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="E122" s="38" t="s">
+      <c r="E122" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F122" s="7" t="s">
@@ -4850,16 +4939,21 @@
       <c r="H122" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="I122" s="7"/>
-      <c r="J122" s="38"/>
-      <c r="K122" s="41"/>
-    </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="45"/>
-      <c r="B123" s="36"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
+      <c r="I122" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J122" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="K122" s="42"/>
+      <c r="L122" s="77"/>
+    </row>
+    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="46"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
       <c r="F123" s="2" t="s">
         <v>21</v>
       </c>
@@ -4869,37 +4963,41 @@
       <c r="H123" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I123" s="2"/>
-      <c r="J123" s="39"/>
-      <c r="K123" s="42"/>
-    </row>
-    <row r="124" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="45"/>
-      <c r="B124" s="37"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="40"/>
+      <c r="I123" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J123" s="40"/>
+      <c r="K123" s="43"/>
+      <c r="L123" s="77"/>
+    </row>
+    <row r="124" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="46"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
       <c r="F124" s="8" t="s">
         <v>145</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
-      <c r="J124" s="40"/>
-      <c r="K124" s="43"/>
-    </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="45"/>
-      <c r="B125" s="26">
+      <c r="J124" s="41"/>
+      <c r="K124" s="44"/>
+      <c r="L124" s="77"/>
+    </row>
+    <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="46"/>
+      <c r="B125" s="27">
         <v>38</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D125" s="29" t="s">
+      <c r="D125" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="E125" s="29" t="s">
+      <c r="E125" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F125" s="12" t="s">
@@ -4911,16 +5009,21 @@
       <c r="H125" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I125" s="12"/>
-      <c r="J125" s="29"/>
-      <c r="K125" s="32"/>
-    </row>
-    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="45"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
+      <c r="I125" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J125" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="K125" s="33"/>
+      <c r="L125" s="77"/>
+    </row>
+    <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="46"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
       <c r="F126" s="13" t="s">
         <v>21</v>
       </c>
@@ -4930,37 +5033,41 @@
       <c r="H126" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="I126" s="13"/>
-      <c r="J126" s="30"/>
-      <c r="K126" s="33"/>
-    </row>
-    <row r="127" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="45"/>
-      <c r="B127" s="28"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31"/>
+      <c r="I126" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J126" s="31"/>
+      <c r="K126" s="34"/>
+      <c r="L126" s="77"/>
+    </row>
+    <row r="127" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="46"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
       <c r="F127" s="14" t="s">
         <v>145</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
-      <c r="J127" s="31"/>
-      <c r="K127" s="34"/>
-    </row>
-    <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="45"/>
-      <c r="B128" s="35">
+      <c r="J127" s="32"/>
+      <c r="K127" s="35"/>
+      <c r="L127" s="77"/>
+    </row>
+    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="46"/>
+      <c r="B128" s="36">
         <v>39</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C128" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D128" s="38" t="s">
+      <c r="D128" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="E128" s="38" t="s">
+      <c r="E128" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F128" s="7" t="s">
@@ -4972,16 +5079,21 @@
       <c r="H128" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="I128" s="7"/>
-      <c r="J128" s="38"/>
-      <c r="K128" s="41"/>
-    </row>
-    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="45"/>
-      <c r="B129" s="36"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="39"/>
+      <c r="I128" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J128" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="K128" s="42"/>
+      <c r="L128" s="77"/>
+    </row>
+    <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="46"/>
+      <c r="B129" s="37"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="40"/>
       <c r="F129" s="2" t="s">
         <v>21</v>
       </c>
@@ -4991,37 +5103,41 @@
       <c r="H129" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I129" s="2"/>
-      <c r="J129" s="39"/>
-      <c r="K129" s="42"/>
-    </row>
-    <row r="130" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="45"/>
-      <c r="B130" s="37"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="40"/>
-      <c r="E130" s="40"/>
+      <c r="I129" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J129" s="40"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="77"/>
+    </row>
+    <row r="130" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="46"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
       <c r="F130" s="8" t="s">
         <v>145</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
-      <c r="J130" s="40"/>
-      <c r="K130" s="43"/>
-    </row>
-    <row r="131" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="45"/>
-      <c r="B131" s="26">
+      <c r="J130" s="41"/>
+      <c r="K130" s="44"/>
+      <c r="L130" s="77"/>
+    </row>
+    <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="46"/>
+      <c r="B131" s="27">
         <v>40</v>
       </c>
-      <c r="C131" s="29" t="s">
+      <c r="C131" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D131" s="29" t="s">
+      <c r="D131" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="E131" s="29" t="s">
+      <c r="E131" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F131" s="12" t="s">
@@ -5033,16 +5149,21 @@
       <c r="H131" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="I131" s="12"/>
-      <c r="J131" s="29"/>
-      <c r="K131" s="32"/>
-    </row>
-    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="45"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
+      <c r="I131" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="J131" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="K131" s="33"/>
+      <c r="L131" s="77"/>
+    </row>
+    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="46"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
       <c r="F132" s="13" t="s">
         <v>21</v>
       </c>
@@ -5052,16 +5173,19 @@
       <c r="H132" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="I132" s="13"/>
-      <c r="J132" s="30"/>
-      <c r="K132" s="33"/>
-    </row>
-    <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="45"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
+      <c r="I132" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="J132" s="31"/>
+      <c r="K132" s="34"/>
+      <c r="L132" s="77"/>
+    </row>
+    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="46"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
       <c r="F133" s="19" t="s">
         <v>145</v>
       </c>
@@ -5071,16 +5195,19 @@
       <c r="H133" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="I133" s="19"/>
-      <c r="J133" s="30"/>
-      <c r="K133" s="33"/>
-    </row>
-    <row r="134" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="45"/>
-      <c r="B134" s="28"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="31"/>
+      <c r="I133" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J133" s="31"/>
+      <c r="K133" s="34"/>
+      <c r="L133" s="77"/>
+    </row>
+    <row r="134" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="46"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
       <c r="F134" s="14"/>
       <c r="G134" s="20" t="s">
         <v>187</v>
@@ -5088,22 +5215,25 @@
       <c r="H134" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="I134" s="14"/>
-      <c r="J134" s="31"/>
-      <c r="K134" s="34"/>
-    </row>
-    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="45"/>
-      <c r="B135" s="35">
+      <c r="I134" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="J134" s="32"/>
+      <c r="K134" s="35"/>
+      <c r="L134" s="77"/>
+    </row>
+    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="46"/>
+      <c r="B135" s="36">
         <v>41</v>
       </c>
-      <c r="C135" s="38" t="s">
+      <c r="C135" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="38" t="s">
+      <c r="D135" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="E135" s="38" t="s">
+      <c r="E135" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F135" s="7" t="s">
@@ -5115,16 +5245,21 @@
       <c r="H135" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="I135" s="7"/>
-      <c r="J135" s="38"/>
-      <c r="K135" s="41"/>
-    </row>
-    <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="45"/>
-      <c r="B136" s="36"/>
-      <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="39"/>
+      <c r="I135" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J135" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="K135" s="42"/>
+      <c r="L135" s="77"/>
+    </row>
+    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="46"/>
+      <c r="B136" s="37"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="40"/>
       <c r="F136" s="2" t="s">
         <v>21</v>
       </c>
@@ -5132,39 +5267,43 @@
       <c r="H136" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I136" s="2"/>
-      <c r="J136" s="39"/>
-      <c r="K136" s="42"/>
-    </row>
-    <row r="137" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="45"/>
-      <c r="B137" s="37"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="40"/>
+      <c r="I136" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J136" s="40"/>
+      <c r="K136" s="43"/>
+      <c r="L136" s="77"/>
+    </row>
+    <row r="137" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="46"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="41"/>
       <c r="F137" s="8" t="s">
         <v>145</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
-      <c r="J137" s="40"/>
-      <c r="K137" s="43"/>
-    </row>
-    <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="44" t="s">
+      <c r="J137" s="41"/>
+      <c r="K137" s="44"/>
+      <c r="L137" s="77"/>
+    </row>
+    <row r="138" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="B138" s="26">
+      <c r="B138" s="27">
         <v>42</v>
       </c>
-      <c r="C138" s="29" t="s">
+      <c r="C138" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D138" s="29" t="s">
+      <c r="D138" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="E138" s="29" t="s">
+      <c r="E138" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F138" s="12" t="s">
@@ -5176,52 +5315,56 @@
       <c r="H138" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="I138" s="12"/>
-      <c r="J138" s="29"/>
-      <c r="K138" s="32"/>
-    </row>
-    <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="45"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
+      <c r="I138" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="J138" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="K138" s="33"/>
+    </row>
+    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="46"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
       <c r="F139" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="13"/>
       <c r="I139" s="13"/>
-      <c r="J139" s="30"/>
-      <c r="K139" s="33"/>
-    </row>
-    <row r="140" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="45"/>
-      <c r="B140" s="28"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="31"/>
+      <c r="J139" s="31"/>
+      <c r="K139" s="34"/>
+    </row>
+    <row r="140" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="46"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
       <c r="F140" s="14" t="s">
         <v>131</v>
       </c>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
-      <c r="J140" s="31"/>
-      <c r="K140" s="34"/>
-    </row>
-    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="45"/>
-      <c r="B141" s="35">
+      <c r="J140" s="32"/>
+      <c r="K140" s="35"/>
+    </row>
+    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="46"/>
+      <c r="B141" s="36">
         <v>43</v>
       </c>
-      <c r="C141" s="38" t="s">
+      <c r="C141" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D141" s="38" t="s">
+      <c r="D141" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="E141" s="38" t="s">
+      <c r="E141" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F141" s="7" t="s">
@@ -5234,15 +5377,16 @@
         <v>149</v>
       </c>
       <c r="I141" s="7"/>
-      <c r="J141" s="38"/>
-      <c r="K141" s="41"/>
-    </row>
-    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="45"/>
-      <c r="B142" s="36"/>
-      <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
+      <c r="J141" s="39"/>
+      <c r="K141" s="42"/>
+      <c r="L141" s="26"/>
+    </row>
+    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="46"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="40"/>
       <c r="F142" s="2" t="s">
         <v>21</v>
       </c>
@@ -5253,36 +5397,38 @@
         <v>151</v>
       </c>
       <c r="I142" s="2"/>
-      <c r="J142" s="39"/>
-      <c r="K142" s="42"/>
-    </row>
-    <row r="143" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="45"/>
-      <c r="B143" s="37"/>
-      <c r="C143" s="40"/>
-      <c r="D143" s="40"/>
-      <c r="E143" s="40"/>
+      <c r="J142" s="40"/>
+      <c r="K142" s="43"/>
+      <c r="L142" s="26"/>
+    </row>
+    <row r="143" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="46"/>
+      <c r="B143" s="38"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
       <c r="F143" s="8" t="s">
         <v>202</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
-      <c r="J143" s="40"/>
-      <c r="K143" s="43"/>
-    </row>
-    <row r="144" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" s="45"/>
-      <c r="B144" s="26">
+      <c r="J143" s="41"/>
+      <c r="K143" s="44"/>
+      <c r="L143" s="26"/>
+    </row>
+    <row r="144" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144" s="46"/>
+      <c r="B144" s="27">
         <v>44</v>
       </c>
-      <c r="C144" s="29" t="s">
+      <c r="C144" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D144" s="29" t="s">
+      <c r="D144" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="E144" s="29" t="s">
+      <c r="E144" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F144" s="12" t="s">
@@ -5294,52 +5440,56 @@
       <c r="H144" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I144" s="12"/>
-      <c r="J144" s="29"/>
-      <c r="K144" s="32"/>
+      <c r="I144" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J144" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="K144" s="33"/>
     </row>
     <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="45"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
+      <c r="A145" s="46"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
       <c r="F145" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G145" s="13"/>
       <c r="H145" s="13"/>
       <c r="I145" s="13"/>
-      <c r="J145" s="30"/>
-      <c r="K145" s="33"/>
+      <c r="J145" s="31"/>
+      <c r="K145" s="34"/>
     </row>
     <row r="146" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="45"/>
-      <c r="B146" s="28"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
+      <c r="A146" s="46"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
       <c r="F146" s="14" t="s">
         <v>202</v>
       </c>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
-      <c r="J146" s="31"/>
-      <c r="K146" s="34"/>
+      <c r="J146" s="32"/>
+      <c r="K146" s="35"/>
     </row>
     <row r="147" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="45"/>
-      <c r="B147" s="35">
+      <c r="A147" s="46"/>
+      <c r="B147" s="36">
         <v>45</v>
       </c>
-      <c r="C147" s="38" t="s">
+      <c r="C147" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D147" s="38" t="s">
+      <c r="D147" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="E147" s="38" t="s">
+      <c r="E147" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F147" s="7" t="s">
@@ -5352,15 +5502,15 @@
         <v>209</v>
       </c>
       <c r="I147" s="7"/>
-      <c r="J147" s="38"/>
-      <c r="K147" s="41"/>
+      <c r="J147" s="39"/>
+      <c r="K147" s="42"/>
     </row>
     <row r="148" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="45"/>
-      <c r="B148" s="36"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39"/>
+      <c r="A148" s="46"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="40"/>
+      <c r="E148" s="40"/>
       <c r="F148" s="2" t="s">
         <v>21</v>
       </c>
@@ -5371,36 +5521,36 @@
         <v>210</v>
       </c>
       <c r="I148" s="2"/>
-      <c r="J148" s="39"/>
-      <c r="K148" s="42"/>
+      <c r="J148" s="40"/>
+      <c r="K148" s="43"/>
     </row>
     <row r="149" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="45"/>
-      <c r="B149" s="37"/>
-      <c r="C149" s="40"/>
-      <c r="D149" s="40"/>
-      <c r="E149" s="40"/>
+      <c r="A149" s="46"/>
+      <c r="B149" s="38"/>
+      <c r="C149" s="41"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="41"/>
       <c r="F149" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
-      <c r="J149" s="40"/>
-      <c r="K149" s="43"/>
+      <c r="J149" s="41"/>
+      <c r="K149" s="44"/>
     </row>
     <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="45"/>
-      <c r="B150" s="26">
+      <c r="A150" s="46"/>
+      <c r="B150" s="27">
         <v>46</v>
       </c>
-      <c r="C150" s="29" t="s">
+      <c r="C150" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D150" s="29" t="s">
+      <c r="D150" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E150" s="29" t="s">
+      <c r="E150" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F150" s="12" t="s">
@@ -5413,15 +5563,15 @@
         <v>215</v>
       </c>
       <c r="I150" s="12"/>
-      <c r="J150" s="29"/>
-      <c r="K150" s="32"/>
+      <c r="J150" s="30"/>
+      <c r="K150" s="33"/>
     </row>
     <row r="151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="45"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="30"/>
+      <c r="A151" s="46"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
       <c r="F151" s="13" t="s">
         <v>21</v>
       </c>
@@ -5432,15 +5582,15 @@
         <v>216</v>
       </c>
       <c r="I151" s="13"/>
-      <c r="J151" s="30"/>
-      <c r="K151" s="33"/>
+      <c r="J151" s="31"/>
+      <c r="K151" s="34"/>
     </row>
     <row r="152" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="45"/>
-      <c r="B152" s="28"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="31"/>
+      <c r="A152" s="46"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
       <c r="F152" s="14" t="s">
         <v>206</v>
       </c>
@@ -5451,21 +5601,21 @@
         <v>217</v>
       </c>
       <c r="I152" s="14"/>
-      <c r="J152" s="31"/>
-      <c r="K152" s="34"/>
+      <c r="J152" s="32"/>
+      <c r="K152" s="35"/>
     </row>
     <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="45"/>
-      <c r="B153" s="35">
+      <c r="A153" s="46"/>
+      <c r="B153" s="36">
         <v>47</v>
       </c>
-      <c r="C153" s="38" t="s">
+      <c r="C153" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D153" s="38" t="s">
+      <c r="D153" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="E153" s="38" t="s">
+      <c r="E153" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F153" s="7" t="s">
@@ -5478,15 +5628,15 @@
         <v>221</v>
       </c>
       <c r="I153" s="7"/>
-      <c r="J153" s="38"/>
-      <c r="K153" s="41"/>
+      <c r="J153" s="39"/>
+      <c r="K153" s="42"/>
     </row>
     <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="45"/>
-      <c r="B154" s="36"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="39"/>
+      <c r="A154" s="46"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="40"/>
       <c r="F154" s="2" t="s">
         <v>21</v>
       </c>
@@ -5497,36 +5647,36 @@
         <v>222</v>
       </c>
       <c r="I154" s="2"/>
-      <c r="J154" s="39"/>
-      <c r="K154" s="42"/>
+      <c r="J154" s="40"/>
+      <c r="K154" s="43"/>
     </row>
     <row r="155" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="45"/>
-      <c r="B155" s="37"/>
-      <c r="C155" s="40"/>
-      <c r="D155" s="40"/>
-      <c r="E155" s="40"/>
+      <c r="A155" s="46"/>
+      <c r="B155" s="38"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="41"/>
       <c r="F155" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
-      <c r="J155" s="40"/>
-      <c r="K155" s="43"/>
+      <c r="J155" s="41"/>
+      <c r="K155" s="44"/>
     </row>
     <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="45"/>
-      <c r="B156" s="26">
+      <c r="A156" s="46"/>
+      <c r="B156" s="27">
         <v>48</v>
       </c>
-      <c r="C156" s="29" t="s">
+      <c r="C156" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D156" s="29" t="s">
+      <c r="D156" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="E156" s="29" t="s">
+      <c r="E156" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F156" s="12" t="s">
@@ -5539,15 +5689,15 @@
         <v>221</v>
       </c>
       <c r="I156" s="12"/>
-      <c r="J156" s="29"/>
-      <c r="K156" s="32"/>
+      <c r="J156" s="30"/>
+      <c r="K156" s="33"/>
     </row>
     <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="45"/>
-      <c r="B157" s="27"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
+      <c r="A157" s="46"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
       <c r="F157" s="13" t="s">
         <v>21</v>
       </c>
@@ -5558,36 +5708,36 @@
         <v>225</v>
       </c>
       <c r="I157" s="13"/>
-      <c r="J157" s="30"/>
-      <c r="K157" s="33"/>
+      <c r="J157" s="31"/>
+      <c r="K157" s="34"/>
     </row>
     <row r="158" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="45"/>
-      <c r="B158" s="28"/>
-      <c r="C158" s="31"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="31"/>
+      <c r="A158" s="46"/>
+      <c r="B158" s="29"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
       <c r="F158" s="14" t="s">
         <v>206</v>
       </c>
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
-      <c r="J158" s="31"/>
-      <c r="K158" s="34"/>
+      <c r="J158" s="32"/>
+      <c r="K158" s="35"/>
     </row>
     <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="45"/>
-      <c r="B159" s="35">
+      <c r="A159" s="46"/>
+      <c r="B159" s="36">
         <v>49</v>
       </c>
-      <c r="C159" s="38" t="s">
+      <c r="C159" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D159" s="38" t="s">
+      <c r="D159" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="E159" s="38" t="s">
+      <c r="E159" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="7" t="s">
@@ -5600,51 +5750,51 @@
         <v>228</v>
       </c>
       <c r="I159" s="7"/>
-      <c r="J159" s="38"/>
-      <c r="K159" s="41"/>
+      <c r="J159" s="39"/>
+      <c r="K159" s="42"/>
     </row>
     <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="45"/>
-      <c r="B160" s="36"/>
-      <c r="C160" s="39"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
+      <c r="A160" s="46"/>
+      <c r="B160" s="37"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="40"/>
+      <c r="E160" s="40"/>
       <c r="F160" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
-      <c r="J160" s="39"/>
-      <c r="K160" s="42"/>
+      <c r="J160" s="40"/>
+      <c r="K160" s="43"/>
     </row>
     <row r="161" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="45"/>
-      <c r="B161" s="37"/>
-      <c r="C161" s="40"/>
-      <c r="D161" s="40"/>
-      <c r="E161" s="40"/>
+      <c r="A161" s="46"/>
+      <c r="B161" s="38"/>
+      <c r="C161" s="41"/>
+      <c r="D161" s="41"/>
+      <c r="E161" s="41"/>
       <c r="F161" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
-      <c r="J161" s="40"/>
-      <c r="K161" s="43"/>
+      <c r="J161" s="41"/>
+      <c r="K161" s="44"/>
     </row>
     <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="45"/>
-      <c r="B162" s="26">
+      <c r="A162" s="46"/>
+      <c r="B162" s="27">
         <v>50</v>
       </c>
-      <c r="C162" s="29" t="s">
+      <c r="C162" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D162" s="29" t="s">
+      <c r="D162" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="E162" s="29" t="s">
+      <c r="E162" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F162" s="12" t="s">
@@ -5657,15 +5807,15 @@
         <v>136</v>
       </c>
       <c r="I162" s="12"/>
-      <c r="J162" s="29"/>
-      <c r="K162" s="32"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="33"/>
     </row>
     <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="45"/>
-      <c r="B163" s="27"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
+      <c r="A163" s="46"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
       <c r="F163" s="13" t="s">
         <v>21</v>
       </c>
@@ -5676,36 +5826,36 @@
         <v>137</v>
       </c>
       <c r="I163" s="13"/>
-      <c r="J163" s="30"/>
-      <c r="K163" s="33"/>
+      <c r="J163" s="31"/>
+      <c r="K163" s="34"/>
     </row>
     <row r="164" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="45"/>
-      <c r="B164" s="28"/>
-      <c r="C164" s="31"/>
-      <c r="D164" s="31"/>
-      <c r="E164" s="31"/>
+      <c r="A164" s="46"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
       <c r="F164" s="14" t="s">
         <v>202</v>
       </c>
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
-      <c r="J164" s="31"/>
-      <c r="K164" s="34"/>
+      <c r="J164" s="32"/>
+      <c r="K164" s="35"/>
     </row>
     <row r="165" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A165" s="45"/>
-      <c r="B165" s="35">
+      <c r="A165" s="46"/>
+      <c r="B165" s="36">
         <v>51</v>
       </c>
-      <c r="C165" s="38" t="s">
+      <c r="C165" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D165" s="38" t="s">
+      <c r="D165" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="E165" s="38" t="s">
+      <c r="E165" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F165" s="7" t="s">
@@ -5718,15 +5868,15 @@
         <v>231</v>
       </c>
       <c r="I165" s="7"/>
-      <c r="J165" s="38"/>
-      <c r="K165" s="41"/>
+      <c r="J165" s="39"/>
+      <c r="K165" s="42"/>
     </row>
     <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="45"/>
-      <c r="B166" s="36"/>
-      <c r="C166" s="39"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
+      <c r="A166" s="46"/>
+      <c r="B166" s="37"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="40"/>
+      <c r="E166" s="40"/>
       <c r="F166" s="2" t="s">
         <v>21</v>
       </c>
@@ -5737,15 +5887,15 @@
         <v>232</v>
       </c>
       <c r="I166" s="2"/>
-      <c r="J166" s="39"/>
-      <c r="K166" s="42"/>
+      <c r="J166" s="40"/>
+      <c r="K166" s="43"/>
     </row>
     <row r="167" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="45"/>
-      <c r="B167" s="37"/>
-      <c r="C167" s="40"/>
-      <c r="D167" s="40"/>
-      <c r="E167" s="40"/>
+      <c r="A167" s="46"/>
+      <c r="B167" s="38"/>
+      <c r="C167" s="41"/>
+      <c r="D167" s="41"/>
+      <c r="E167" s="41"/>
       <c r="F167" s="8" t="s">
         <v>202</v>
       </c>
@@ -5756,21 +5906,21 @@
         <v>234</v>
       </c>
       <c r="I167" s="8"/>
-      <c r="J167" s="40"/>
-      <c r="K167" s="43"/>
+      <c r="J167" s="41"/>
+      <c r="K167" s="44"/>
     </row>
     <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A168" s="45"/>
-      <c r="B168" s="26">
+      <c r="A168" s="46"/>
+      <c r="B168" s="27">
         <v>52</v>
       </c>
-      <c r="C168" s="29" t="s">
+      <c r="C168" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D168" s="29" t="s">
+      <c r="D168" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="E168" s="29" t="s">
+      <c r="E168" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F168" s="12" t="s">
@@ -5783,15 +5933,15 @@
         <v>231</v>
       </c>
       <c r="I168" s="12"/>
-      <c r="J168" s="29"/>
-      <c r="K168" s="32"/>
+      <c r="J168" s="30"/>
+      <c r="K168" s="33"/>
     </row>
     <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="45"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
+      <c r="A169" s="46"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
       <c r="F169" s="13" t="s">
         <v>21</v>
       </c>
@@ -5802,15 +5952,15 @@
         <v>240</v>
       </c>
       <c r="I169" s="13"/>
-      <c r="J169" s="30"/>
-      <c r="K169" s="33"/>
+      <c r="J169" s="31"/>
+      <c r="K169" s="34"/>
     </row>
     <row r="170" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="45"/>
-      <c r="B170" s="28"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="31"/>
+      <c r="A170" s="46"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
       <c r="F170" s="14" t="s">
         <v>202</v>
       </c>
@@ -5821,21 +5971,21 @@
         <v>241</v>
       </c>
       <c r="I170" s="14"/>
-      <c r="J170" s="31"/>
-      <c r="K170" s="34"/>
+      <c r="J170" s="32"/>
+      <c r="K170" s="35"/>
     </row>
     <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="45"/>
-      <c r="B171" s="35">
+      <c r="A171" s="46"/>
+      <c r="B171" s="36">
         <v>53</v>
       </c>
-      <c r="C171" s="38" t="s">
+      <c r="C171" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D171" s="38" t="s">
+      <c r="D171" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="E171" s="38" t="s">
+      <c r="E171" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F171" s="7" t="s">
@@ -5848,15 +5998,15 @@
         <v>244</v>
       </c>
       <c r="I171" s="7"/>
-      <c r="J171" s="38"/>
-      <c r="K171" s="41"/>
+      <c r="J171" s="39"/>
+      <c r="K171" s="42"/>
     </row>
     <row r="172" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="45"/>
-      <c r="B172" s="36"/>
-      <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
+      <c r="A172" s="46"/>
+      <c r="B172" s="37"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="40"/>
+      <c r="E172" s="40"/>
       <c r="F172" s="2" t="s">
         <v>21</v>
       </c>
@@ -5867,36 +6017,36 @@
         <v>246</v>
       </c>
       <c r="I172" s="2"/>
-      <c r="J172" s="39"/>
-      <c r="K172" s="42"/>
+      <c r="J172" s="40"/>
+      <c r="K172" s="43"/>
     </row>
     <row r="173" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="45"/>
-      <c r="B173" s="37"/>
-      <c r="C173" s="40"/>
-      <c r="D173" s="40"/>
-      <c r="E173" s="40"/>
+      <c r="A173" s="46"/>
+      <c r="B173" s="38"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="41"/>
+      <c r="E173" s="41"/>
       <c r="F173" s="8" t="s">
         <v>202</v>
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
-      <c r="J173" s="40"/>
-      <c r="K173" s="43"/>
+      <c r="J173" s="41"/>
+      <c r="K173" s="44"/>
     </row>
     <row r="174" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="45"/>
-      <c r="B174" s="26">
+      <c r="A174" s="46"/>
+      <c r="B174" s="27">
         <v>54</v>
       </c>
-      <c r="C174" s="29" t="s">
+      <c r="C174" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D174" s="29" t="s">
+      <c r="D174" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="E174" s="29" t="s">
+      <c r="E174" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F174" s="12" t="s">
@@ -5909,15 +6059,15 @@
         <v>244</v>
       </c>
       <c r="I174" s="12"/>
-      <c r="J174" s="29"/>
-      <c r="K174" s="32"/>
+      <c r="J174" s="30"/>
+      <c r="K174" s="33"/>
     </row>
     <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="45"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="30"/>
-      <c r="D175" s="30"/>
-      <c r="E175" s="30"/>
+      <c r="A175" s="46"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="31"/>
       <c r="F175" s="13" t="s">
         <v>21</v>
       </c>
@@ -5928,36 +6078,36 @@
         <v>249</v>
       </c>
       <c r="I175" s="13"/>
-      <c r="J175" s="30"/>
-      <c r="K175" s="33"/>
+      <c r="J175" s="31"/>
+      <c r="K175" s="34"/>
     </row>
     <row r="176" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="45"/>
-      <c r="B176" s="28"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="31"/>
-      <c r="E176" s="31"/>
+      <c r="A176" s="46"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
       <c r="F176" s="14" t="s">
         <v>202</v>
       </c>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
-      <c r="J176" s="31"/>
-      <c r="K176" s="34"/>
+      <c r="J176" s="32"/>
+      <c r="K176" s="35"/>
     </row>
     <row r="177" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A177" s="45"/>
-      <c r="B177" s="35">
+      <c r="A177" s="46"/>
+      <c r="B177" s="36">
         <v>55</v>
       </c>
-      <c r="C177" s="38" t="s">
+      <c r="C177" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D177" s="38" t="s">
+      <c r="D177" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="E177" s="38" t="s">
+      <c r="E177" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F177" s="7" t="s">
@@ -5970,15 +6120,15 @@
         <v>231</v>
       </c>
       <c r="I177" s="7"/>
-      <c r="J177" s="38"/>
-      <c r="K177" s="41"/>
+      <c r="J177" s="39"/>
+      <c r="K177" s="42"/>
     </row>
     <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="45"/>
-      <c r="B178" s="36"/>
-      <c r="C178" s="39"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="39"/>
+      <c r="A178" s="46"/>
+      <c r="B178" s="37"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="40"/>
       <c r="F178" s="2" t="s">
         <v>21</v>
       </c>
@@ -5989,15 +6139,15 @@
         <v>257</v>
       </c>
       <c r="I178" s="2"/>
-      <c r="J178" s="39"/>
-      <c r="K178" s="42"/>
+      <c r="J178" s="40"/>
+      <c r="K178" s="43"/>
     </row>
     <row r="179" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="45"/>
-      <c r="B179" s="37"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="40"/>
-      <c r="E179" s="40"/>
+      <c r="A179" s="46"/>
+      <c r="B179" s="38"/>
+      <c r="C179" s="41"/>
+      <c r="D179" s="41"/>
+      <c r="E179" s="41"/>
       <c r="F179" s="8" t="s">
         <v>202</v>
       </c>
@@ -6008,21 +6158,21 @@
         <v>258</v>
       </c>
       <c r="I179" s="8"/>
-      <c r="J179" s="40"/>
-      <c r="K179" s="43"/>
+      <c r="J179" s="41"/>
+      <c r="K179" s="44"/>
     </row>
     <row r="180" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A180" s="45"/>
-      <c r="B180" s="26">
+      <c r="A180" s="46"/>
+      <c r="B180" s="27">
         <v>56</v>
       </c>
-      <c r="C180" s="29" t="s">
+      <c r="C180" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D180" s="29" t="s">
+      <c r="D180" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="E180" s="29" t="s">
+      <c r="E180" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F180" s="12" t="s">
@@ -6035,15 +6185,15 @@
         <v>231</v>
       </c>
       <c r="I180" s="12"/>
-      <c r="J180" s="29"/>
-      <c r="K180" s="32"/>
+      <c r="J180" s="30"/>
+      <c r="K180" s="33"/>
     </row>
     <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="45"/>
-      <c r="B181" s="27"/>
-      <c r="C181" s="30"/>
-      <c r="D181" s="30"/>
-      <c r="E181" s="30"/>
+      <c r="A181" s="46"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
       <c r="F181" s="13" t="s">
         <v>21</v>
       </c>
@@ -6054,15 +6204,15 @@
         <v>260</v>
       </c>
       <c r="I181" s="13"/>
-      <c r="J181" s="30"/>
-      <c r="K181" s="33"/>
+      <c r="J181" s="31"/>
+      <c r="K181" s="34"/>
     </row>
     <row r="182" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="45"/>
-      <c r="B182" s="28"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="31"/>
-      <c r="E182" s="31"/>
+      <c r="A182" s="46"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="32"/>
+      <c r="E182" s="32"/>
       <c r="F182" s="14" t="s">
         <v>202</v>
       </c>
@@ -6073,21 +6223,21 @@
         <v>261</v>
       </c>
       <c r="I182" s="14"/>
-      <c r="J182" s="31"/>
-      <c r="K182" s="34"/>
+      <c r="J182" s="32"/>
+      <c r="K182" s="35"/>
     </row>
     <row r="183" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A183" s="45"/>
-      <c r="B183" s="35">
+      <c r="A183" s="46"/>
+      <c r="B183" s="36">
         <v>57</v>
       </c>
-      <c r="C183" s="38" t="s">
+      <c r="C183" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D183" s="38" t="s">
+      <c r="D183" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="E183" s="38" t="s">
+      <c r="E183" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F183" s="7" t="s">
@@ -6100,15 +6250,15 @@
         <v>231</v>
       </c>
       <c r="I183" s="7"/>
-      <c r="J183" s="38"/>
-      <c r="K183" s="41"/>
+      <c r="J183" s="39"/>
+      <c r="K183" s="42"/>
     </row>
     <row r="184" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="45"/>
-      <c r="B184" s="36"/>
-      <c r="C184" s="39"/>
-      <c r="D184" s="39"/>
-      <c r="E184" s="39"/>
+      <c r="A184" s="46"/>
+      <c r="B184" s="37"/>
+      <c r="C184" s="40"/>
+      <c r="D184" s="40"/>
+      <c r="E184" s="40"/>
       <c r="F184" s="2" t="s">
         <v>21</v>
       </c>
@@ -6119,15 +6269,15 @@
         <v>263</v>
       </c>
       <c r="I184" s="2"/>
-      <c r="J184" s="39"/>
-      <c r="K184" s="42"/>
+      <c r="J184" s="40"/>
+      <c r="K184" s="43"/>
     </row>
     <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A185" s="44"/>
-      <c r="B185" s="36"/>
-      <c r="C185" s="39"/>
-      <c r="D185" s="39"/>
-      <c r="E185" s="39"/>
+      <c r="A185" s="45"/>
+      <c r="B185" s="37"/>
+      <c r="C185" s="40"/>
+      <c r="D185" s="40"/>
+      <c r="E185" s="40"/>
       <c r="F185" s="21" t="s">
         <v>202</v>
       </c>
@@ -6138,15 +6288,15 @@
         <v>266</v>
       </c>
       <c r="I185" s="21"/>
-      <c r="J185" s="39"/>
-      <c r="K185" s="42"/>
+      <c r="J185" s="40"/>
+      <c r="K185" s="43"/>
     </row>
     <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="45"/>
-      <c r="B186" s="36"/>
-      <c r="C186" s="39"/>
-      <c r="D186" s="39"/>
-      <c r="E186" s="39"/>
+      <c r="A186" s="46"/>
+      <c r="B186" s="37"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="40"/>
       <c r="F186" s="21"/>
       <c r="G186" s="21" t="s">
         <v>265</v>
@@ -6155,15 +6305,15 @@
         <v>267</v>
       </c>
       <c r="I186" s="21"/>
-      <c r="J186" s="39"/>
-      <c r="K186" s="42"/>
+      <c r="J186" s="40"/>
+      <c r="K186" s="43"/>
     </row>
     <row r="187" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="45"/>
-      <c r="B187" s="37"/>
-      <c r="C187" s="40"/>
-      <c r="D187" s="40"/>
-      <c r="E187" s="40"/>
+      <c r="A187" s="46"/>
+      <c r="B187" s="38"/>
+      <c r="C187" s="41"/>
+      <c r="D187" s="41"/>
+      <c r="E187" s="41"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8" t="s">
         <v>268</v>
@@ -6172,21 +6322,21 @@
         <v>274</v>
       </c>
       <c r="I187" s="8"/>
-      <c r="J187" s="40"/>
-      <c r="K187" s="43"/>
+      <c r="J187" s="41"/>
+      <c r="K187" s="44"/>
     </row>
     <row r="188" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="45"/>
-      <c r="B188" s="26">
+      <c r="A188" s="46"/>
+      <c r="B188" s="27">
         <v>58</v>
       </c>
-      <c r="C188" s="29" t="s">
+      <c r="C188" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D188" s="29" t="s">
+      <c r="D188" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="E188" s="29" t="s">
+      <c r="E188" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F188" s="12" t="s">
@@ -6199,15 +6349,15 @@
         <v>231</v>
       </c>
       <c r="I188" s="12"/>
-      <c r="J188" s="29"/>
-      <c r="K188" s="32"/>
+      <c r="J188" s="30"/>
+      <c r="K188" s="33"/>
     </row>
     <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="45"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="30"/>
-      <c r="D189" s="30"/>
-      <c r="E189" s="30"/>
+      <c r="A189" s="46"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31"/>
       <c r="F189" s="13" t="s">
         <v>21</v>
       </c>
@@ -6218,15 +6368,15 @@
         <v>270</v>
       </c>
       <c r="I189" s="13"/>
-      <c r="J189" s="30"/>
-      <c r="K189" s="33"/>
+      <c r="J189" s="31"/>
+      <c r="K189" s="34"/>
     </row>
     <row r="190" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="45"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="30"/>
-      <c r="D190" s="30"/>
-      <c r="E190" s="30"/>
+      <c r="A190" s="46"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="31"/>
       <c r="F190" s="13" t="s">
         <v>202</v>
       </c>
@@ -6237,15 +6387,15 @@
         <v>272</v>
       </c>
       <c r="I190" s="13"/>
-      <c r="J190" s="30"/>
-      <c r="K190" s="33"/>
+      <c r="J190" s="31"/>
+      <c r="K190" s="34"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="45"/>
-      <c r="B191" s="27"/>
-      <c r="C191" s="30"/>
-      <c r="D191" s="30"/>
-      <c r="E191" s="30"/>
+      <c r="A191" s="46"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="31"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
       <c r="F191" s="22"/>
       <c r="G191" s="13" t="s">
         <v>265</v>
@@ -6254,15 +6404,15 @@
         <v>273</v>
       </c>
       <c r="I191" s="22"/>
-      <c r="J191" s="30"/>
-      <c r="K191" s="33"/>
+      <c r="J191" s="31"/>
+      <c r="K191" s="34"/>
     </row>
     <row r="192" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="45"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="31"/>
-      <c r="D192" s="31"/>
-      <c r="E192" s="31"/>
+      <c r="A192" s="46"/>
+      <c r="B192" s="29"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
       <c r="F192" s="22"/>
       <c r="G192" s="22" t="s">
         <v>268</v>
@@ -6271,21 +6421,21 @@
         <v>275</v>
       </c>
       <c r="I192" s="22"/>
-      <c r="J192" s="31"/>
-      <c r="K192" s="34"/>
+      <c r="J192" s="32"/>
+      <c r="K192" s="35"/>
     </row>
     <row r="193" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A193" s="45"/>
-      <c r="B193" s="35">
+      <c r="A193" s="46"/>
+      <c r="B193" s="36">
         <v>59</v>
       </c>
-      <c r="C193" s="38" t="s">
+      <c r="C193" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D193" s="38" t="s">
+      <c r="D193" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="E193" s="38" t="s">
+      <c r="E193" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F193" s="7" t="s">
@@ -6298,15 +6448,15 @@
         <v>231</v>
       </c>
       <c r="I193" s="7"/>
-      <c r="J193" s="38"/>
-      <c r="K193" s="41"/>
+      <c r="J193" s="39"/>
+      <c r="K193" s="42"/>
     </row>
     <row r="194" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="45"/>
-      <c r="B194" s="36"/>
-      <c r="C194" s="39"/>
-      <c r="D194" s="39"/>
-      <c r="E194" s="39"/>
+      <c r="A194" s="46"/>
+      <c r="B194" s="37"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="40"/>
       <c r="F194" s="2" t="s">
         <v>21</v>
       </c>
@@ -6317,15 +6467,15 @@
         <v>277</v>
       </c>
       <c r="I194" s="2"/>
-      <c r="J194" s="39"/>
-      <c r="K194" s="42"/>
+      <c r="J194" s="40"/>
+      <c r="K194" s="43"/>
     </row>
     <row r="195" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="45"/>
-      <c r="B195" s="37"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="40"/>
-      <c r="E195" s="40"/>
+      <c r="A195" s="46"/>
+      <c r="B195" s="38"/>
+      <c r="C195" s="41"/>
+      <c r="D195" s="41"/>
+      <c r="E195" s="41"/>
       <c r="F195" s="8" t="s">
         <v>202</v>
       </c>
@@ -6336,21 +6486,21 @@
         <v>282</v>
       </c>
       <c r="I195" s="8"/>
-      <c r="J195" s="40"/>
-      <c r="K195" s="43"/>
+      <c r="J195" s="41"/>
+      <c r="K195" s="44"/>
     </row>
     <row r="196" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A196" s="45"/>
-      <c r="B196" s="26">
+      <c r="A196" s="46"/>
+      <c r="B196" s="27">
         <v>60</v>
       </c>
-      <c r="C196" s="29" t="s">
+      <c r="C196" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D196" s="29" t="s">
+      <c r="D196" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="E196" s="29" t="s">
+      <c r="E196" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F196" s="12" t="s">
@@ -6363,15 +6513,15 @@
         <v>231</v>
       </c>
       <c r="I196" s="12"/>
-      <c r="J196" s="29"/>
-      <c r="K196" s="32"/>
+      <c r="J196" s="30"/>
+      <c r="K196" s="33"/>
     </row>
     <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="45"/>
-      <c r="B197" s="27"/>
-      <c r="C197" s="30"/>
-      <c r="D197" s="30"/>
-      <c r="E197" s="30"/>
+      <c r="A197" s="46"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="31"/>
+      <c r="E197" s="31"/>
       <c r="F197" s="13" t="s">
         <v>21</v>
       </c>
@@ -6382,15 +6532,15 @@
         <v>280</v>
       </c>
       <c r="I197" s="13"/>
-      <c r="J197" s="30"/>
-      <c r="K197" s="33"/>
+      <c r="J197" s="31"/>
+      <c r="K197" s="34"/>
     </row>
     <row r="198" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="45"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="31"/>
-      <c r="D198" s="31"/>
-      <c r="E198" s="31"/>
+      <c r="A198" s="46"/>
+      <c r="B198" s="29"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
       <c r="F198" s="14" t="s">
         <v>202</v>
       </c>
@@ -6401,21 +6551,21 @@
         <v>283</v>
       </c>
       <c r="I198" s="14"/>
-      <c r="J198" s="31"/>
-      <c r="K198" s="34"/>
+      <c r="J198" s="32"/>
+      <c r="K198" s="35"/>
     </row>
     <row r="199" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A199" s="45"/>
-      <c r="B199" s="35">
+      <c r="A199" s="46"/>
+      <c r="B199" s="36">
         <v>61</v>
       </c>
-      <c r="C199" s="38" t="s">
+      <c r="C199" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D199" s="38" t="s">
+      <c r="D199" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="E199" s="38" t="s">
+      <c r="E199" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F199" s="7" t="s">
@@ -6428,15 +6578,15 @@
         <v>286</v>
       </c>
       <c r="I199" s="7"/>
-      <c r="J199" s="38"/>
-      <c r="K199" s="41"/>
+      <c r="J199" s="39"/>
+      <c r="K199" s="42"/>
     </row>
     <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="45"/>
-      <c r="B200" s="36"/>
-      <c r="C200" s="39"/>
-      <c r="D200" s="39"/>
-      <c r="E200" s="39"/>
+      <c r="A200" s="46"/>
+      <c r="B200" s="37"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="40"/>
+      <c r="E200" s="40"/>
       <c r="F200" s="2" t="s">
         <v>21</v>
       </c>
@@ -6447,15 +6597,15 @@
         <v>288</v>
       </c>
       <c r="I200" s="2"/>
-      <c r="J200" s="39"/>
-      <c r="K200" s="42"/>
+      <c r="J200" s="40"/>
+      <c r="K200" s="43"/>
     </row>
     <row r="201" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A201" s="45"/>
-      <c r="B201" s="36"/>
-      <c r="C201" s="39"/>
-      <c r="D201" s="39"/>
-      <c r="E201" s="39"/>
+      <c r="A201" s="46"/>
+      <c r="B201" s="37"/>
+      <c r="C201" s="40"/>
+      <c r="D201" s="40"/>
+      <c r="E201" s="40"/>
       <c r="F201" s="21" t="s">
         <v>202</v>
       </c>
@@ -6466,15 +6616,15 @@
         <v>290</v>
       </c>
       <c r="I201" s="21"/>
-      <c r="J201" s="39"/>
-      <c r="K201" s="42"/>
+      <c r="J201" s="40"/>
+      <c r="K201" s="43"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="45"/>
-      <c r="B202" s="36"/>
-      <c r="C202" s="39"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="39"/>
+      <c r="A202" s="46"/>
+      <c r="B202" s="37"/>
+      <c r="C202" s="40"/>
+      <c r="D202" s="40"/>
+      <c r="E202" s="40"/>
       <c r="F202" s="21"/>
       <c r="G202" s="21" t="s">
         <v>291</v>
@@ -6483,15 +6633,15 @@
         <v>292</v>
       </c>
       <c r="I202" s="21"/>
-      <c r="J202" s="39"/>
-      <c r="K202" s="42"/>
+      <c r="J202" s="40"/>
+      <c r="K202" s="43"/>
     </row>
     <row r="203" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="45"/>
-      <c r="B203" s="36"/>
-      <c r="C203" s="39"/>
-      <c r="D203" s="39"/>
-      <c r="E203" s="39"/>
+      <c r="A203" s="46"/>
+      <c r="B203" s="37"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="40"/>
+      <c r="E203" s="40"/>
       <c r="F203" s="21"/>
       <c r="G203" s="21" t="s">
         <v>293</v>
@@ -6500,15 +6650,15 @@
         <v>294</v>
       </c>
       <c r="I203" s="21"/>
-      <c r="J203" s="39"/>
-      <c r="K203" s="42"/>
+      <c r="J203" s="40"/>
+      <c r="K203" s="43"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="45"/>
-      <c r="B204" s="36"/>
-      <c r="C204" s="39"/>
-      <c r="D204" s="39"/>
-      <c r="E204" s="39"/>
+      <c r="A204" s="46"/>
+      <c r="B204" s="37"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="40"/>
+      <c r="E204" s="40"/>
       <c r="F204" s="21"/>
       <c r="G204" s="21" t="s">
         <v>295</v>
@@ -6517,15 +6667,15 @@
         <v>296</v>
       </c>
       <c r="I204" s="21"/>
-      <c r="J204" s="39"/>
-      <c r="K204" s="42"/>
+      <c r="J204" s="40"/>
+      <c r="K204" s="43"/>
     </row>
     <row r="205" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="45"/>
-      <c r="B205" s="36"/>
-      <c r="C205" s="39"/>
-      <c r="D205" s="39"/>
-      <c r="E205" s="39"/>
+      <c r="A205" s="46"/>
+      <c r="B205" s="37"/>
+      <c r="C205" s="40"/>
+      <c r="D205" s="40"/>
+      <c r="E205" s="40"/>
       <c r="F205" s="21"/>
       <c r="G205" s="21" t="s">
         <v>297</v>
@@ -6534,15 +6684,15 @@
         <v>298</v>
       </c>
       <c r="I205" s="21"/>
-      <c r="J205" s="39"/>
-      <c r="K205" s="42"/>
+      <c r="J205" s="40"/>
+      <c r="K205" s="43"/>
     </row>
     <row r="206" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="45"/>
-      <c r="B206" s="36"/>
-      <c r="C206" s="39"/>
-      <c r="D206" s="39"/>
-      <c r="E206" s="39"/>
+      <c r="A206" s="46"/>
+      <c r="B206" s="37"/>
+      <c r="C206" s="40"/>
+      <c r="D206" s="40"/>
+      <c r="E206" s="40"/>
       <c r="F206" s="21"/>
       <c r="G206" s="21" t="s">
         <v>299</v>
@@ -6551,15 +6701,15 @@
         <v>300</v>
       </c>
       <c r="I206" s="21"/>
-      <c r="J206" s="39"/>
-      <c r="K206" s="42"/>
+      <c r="J206" s="40"/>
+      <c r="K206" s="43"/>
     </row>
     <row r="207" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="45"/>
-      <c r="B207" s="36"/>
-      <c r="C207" s="39"/>
-      <c r="D207" s="39"/>
-      <c r="E207" s="39"/>
+      <c r="A207" s="46"/>
+      <c r="B207" s="37"/>
+      <c r="C207" s="40"/>
+      <c r="D207" s="40"/>
+      <c r="E207" s="40"/>
       <c r="F207" s="21"/>
       <c r="G207" s="21" t="s">
         <v>301</v>
@@ -6568,21 +6718,21 @@
         <v>302</v>
       </c>
       <c r="I207" s="21"/>
-      <c r="J207" s="39"/>
-      <c r="K207" s="42"/>
+      <c r="J207" s="40"/>
+      <c r="K207" s="43"/>
     </row>
     <row r="208" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="45"/>
-      <c r="B208" s="26">
+      <c r="A208" s="46"/>
+      <c r="B208" s="27">
         <v>62</v>
       </c>
-      <c r="C208" s="29" t="s">
+      <c r="C208" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D208" s="29" t="s">
+      <c r="D208" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="E208" s="29" t="s">
+      <c r="E208" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F208" s="12" t="s">
@@ -6595,15 +6745,15 @@
         <v>306</v>
       </c>
       <c r="I208" s="12"/>
-      <c r="J208" s="29"/>
-      <c r="K208" s="32"/>
+      <c r="J208" s="30"/>
+      <c r="K208" s="33"/>
     </row>
     <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="45"/>
-      <c r="B209" s="27"/>
-      <c r="C209" s="30"/>
-      <c r="D209" s="30"/>
-      <c r="E209" s="30"/>
+      <c r="A209" s="46"/>
+      <c r="B209" s="28"/>
+      <c r="C209" s="31"/>
+      <c r="D209" s="31"/>
+      <c r="E209" s="31"/>
       <c r="F209" s="13" t="s">
         <v>21</v>
       </c>
@@ -6614,15 +6764,15 @@
         <v>308</v>
       </c>
       <c r="I209" s="13"/>
-      <c r="J209" s="30"/>
-      <c r="K209" s="33"/>
+      <c r="J209" s="31"/>
+      <c r="K209" s="34"/>
     </row>
     <row r="210" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A210" s="45"/>
-      <c r="B210" s="27"/>
-      <c r="C210" s="30"/>
-      <c r="D210" s="30"/>
-      <c r="E210" s="30"/>
+      <c r="A210" s="46"/>
+      <c r="B210" s="28"/>
+      <c r="C210" s="31"/>
+      <c r="D210" s="31"/>
+      <c r="E210" s="31"/>
       <c r="F210" s="13" t="s">
         <v>202</v>
       </c>
@@ -6633,15 +6783,15 @@
         <v>310</v>
       </c>
       <c r="I210" s="13"/>
-      <c r="J210" s="30"/>
-      <c r="K210" s="33"/>
+      <c r="J210" s="31"/>
+      <c r="K210" s="34"/>
     </row>
     <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="45"/>
-      <c r="B211" s="27"/>
-      <c r="C211" s="30"/>
-      <c r="D211" s="30"/>
-      <c r="E211" s="30"/>
+      <c r="A211" s="46"/>
+      <c r="B211" s="28"/>
+      <c r="C211" s="31"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="31"/>
       <c r="F211" s="13" t="s">
         <v>304</v>
       </c>
@@ -6652,15 +6802,15 @@
         <v>312</v>
       </c>
       <c r="I211" s="13"/>
-      <c r="J211" s="30"/>
-      <c r="K211" s="33"/>
+      <c r="J211" s="31"/>
+      <c r="K211" s="34"/>
     </row>
     <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="45"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="30"/>
-      <c r="D212" s="30"/>
-      <c r="E212" s="30"/>
+      <c r="A212" s="46"/>
+      <c r="B212" s="28"/>
+      <c r="C212" s="31"/>
+      <c r="D212" s="31"/>
+      <c r="E212" s="31"/>
       <c r="F212" s="13"/>
       <c r="G212" s="13" t="s">
         <v>313</v>
@@ -6669,15 +6819,15 @@
         <v>314</v>
       </c>
       <c r="I212" s="13"/>
-      <c r="J212" s="30"/>
-      <c r="K212" s="33"/>
+      <c r="J212" s="31"/>
+      <c r="K212" s="34"/>
     </row>
     <row r="213" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="45"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="30"/>
-      <c r="D213" s="30"/>
-      <c r="E213" s="30"/>
+      <c r="A213" s="46"/>
+      <c r="B213" s="28"/>
+      <c r="C213" s="31"/>
+      <c r="D213" s="31"/>
+      <c r="E213" s="31"/>
       <c r="F213" s="13"/>
       <c r="G213" s="13" t="s">
         <v>315</v>
@@ -6688,15 +6838,15 @@
       <c r="I213" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="J213" s="30"/>
-      <c r="K213" s="33"/>
+      <c r="J213" s="31"/>
+      <c r="K213" s="34"/>
     </row>
     <row r="214" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="45"/>
-      <c r="B214" s="27"/>
-      <c r="C214" s="30"/>
-      <c r="D214" s="30"/>
-      <c r="E214" s="30"/>
+      <c r="A214" s="46"/>
+      <c r="B214" s="28"/>
+      <c r="C214" s="31"/>
+      <c r="D214" s="31"/>
+      <c r="E214" s="31"/>
       <c r="F214" s="13"/>
       <c r="G214" s="13" t="s">
         <v>318</v>
@@ -6705,15 +6855,15 @@
         <v>319</v>
       </c>
       <c r="I214" s="13"/>
-      <c r="J214" s="30"/>
-      <c r="K214" s="33"/>
+      <c r="J214" s="31"/>
+      <c r="K214" s="34"/>
     </row>
     <row r="215" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="45"/>
-      <c r="B215" s="27"/>
-      <c r="C215" s="30"/>
-      <c r="D215" s="30"/>
-      <c r="E215" s="30"/>
+      <c r="A215" s="46"/>
+      <c r="B215" s="28"/>
+      <c r="C215" s="31"/>
+      <c r="D215" s="31"/>
+      <c r="E215" s="31"/>
       <c r="F215" s="13"/>
       <c r="G215" s="13" t="s">
         <v>320</v>
@@ -6722,21 +6872,21 @@
         <v>321</v>
       </c>
       <c r="I215" s="13"/>
-      <c r="J215" s="30"/>
-      <c r="K215" s="33"/>
+      <c r="J215" s="31"/>
+      <c r="K215" s="34"/>
     </row>
     <row r="216" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A216" s="45"/>
-      <c r="B216" s="35">
+      <c r="A216" s="46"/>
+      <c r="B216" s="36">
         <v>63</v>
       </c>
-      <c r="C216" s="38" t="s">
+      <c r="C216" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D216" s="38" t="s">
+      <c r="D216" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="E216" s="38" t="s">
+      <c r="E216" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F216" s="7" t="s">
@@ -6749,15 +6899,15 @@
         <v>286</v>
       </c>
       <c r="I216" s="7"/>
-      <c r="J216" s="38"/>
-      <c r="K216" s="41"/>
+      <c r="J216" s="39"/>
+      <c r="K216" s="42"/>
     </row>
     <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="45"/>
-      <c r="B217" s="36"/>
-      <c r="C217" s="39"/>
-      <c r="D217" s="39"/>
-      <c r="E217" s="39"/>
+      <c r="A217" s="46"/>
+      <c r="B217" s="37"/>
+      <c r="C217" s="40"/>
+      <c r="D217" s="40"/>
+      <c r="E217" s="40"/>
       <c r="F217" s="2" t="s">
         <v>21</v>
       </c>
@@ -6768,15 +6918,15 @@
         <v>323</v>
       </c>
       <c r="I217" s="2"/>
-      <c r="J217" s="39"/>
-      <c r="K217" s="42"/>
+      <c r="J217" s="40"/>
+      <c r="K217" s="43"/>
     </row>
     <row r="218" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A218" s="45"/>
-      <c r="B218" s="36"/>
-      <c r="C218" s="39"/>
-      <c r="D218" s="39"/>
-      <c r="E218" s="39"/>
+      <c r="A218" s="46"/>
+      <c r="B218" s="37"/>
+      <c r="C218" s="40"/>
+      <c r="D218" s="40"/>
+      <c r="E218" s="40"/>
       <c r="F218" s="21" t="s">
         <v>202</v>
       </c>
@@ -6787,15 +6937,15 @@
         <v>290</v>
       </c>
       <c r="I218" s="21"/>
-      <c r="J218" s="39"/>
-      <c r="K218" s="42"/>
+      <c r="J218" s="40"/>
+      <c r="K218" s="43"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="45"/>
-      <c r="B219" s="36"/>
-      <c r="C219" s="39"/>
-      <c r="D219" s="39"/>
-      <c r="E219" s="39"/>
+      <c r="A219" s="46"/>
+      <c r="B219" s="37"/>
+      <c r="C219" s="40"/>
+      <c r="D219" s="40"/>
+      <c r="E219" s="40"/>
       <c r="F219" s="21"/>
       <c r="G219" s="21" t="s">
         <v>291</v>
@@ -6804,15 +6954,15 @@
         <v>292</v>
       </c>
       <c r="I219" s="21"/>
-      <c r="J219" s="39"/>
-      <c r="K219" s="42"/>
+      <c r="J219" s="40"/>
+      <c r="K219" s="43"/>
     </row>
     <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220" s="45"/>
-      <c r="B220" s="36"/>
-      <c r="C220" s="39"/>
-      <c r="D220" s="39"/>
-      <c r="E220" s="39"/>
+      <c r="A220" s="46"/>
+      <c r="B220" s="37"/>
+      <c r="C220" s="40"/>
+      <c r="D220" s="40"/>
+      <c r="E220" s="40"/>
       <c r="F220" s="21"/>
       <c r="G220" s="21" t="s">
         <v>293</v>
@@ -6821,15 +6971,15 @@
         <v>294</v>
       </c>
       <c r="I220" s="21"/>
-      <c r="J220" s="39"/>
-      <c r="K220" s="42"/>
+      <c r="J220" s="40"/>
+      <c r="K220" s="43"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="45"/>
-      <c r="B221" s="36"/>
-      <c r="C221" s="39"/>
-      <c r="D221" s="39"/>
-      <c r="E221" s="39"/>
+      <c r="A221" s="46"/>
+      <c r="B221" s="37"/>
+      <c r="C221" s="40"/>
+      <c r="D221" s="40"/>
+      <c r="E221" s="40"/>
       <c r="F221" s="21"/>
       <c r="G221" s="21" t="s">
         <v>295</v>
@@ -6838,15 +6988,15 @@
         <v>296</v>
       </c>
       <c r="I221" s="21"/>
-      <c r="J221" s="39"/>
-      <c r="K221" s="42"/>
+      <c r="J221" s="40"/>
+      <c r="K221" s="43"/>
     </row>
     <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="45"/>
-      <c r="B222" s="36"/>
-      <c r="C222" s="39"/>
-      <c r="D222" s="39"/>
-      <c r="E222" s="39"/>
+      <c r="A222" s="46"/>
+      <c r="B222" s="37"/>
+      <c r="C222" s="40"/>
+      <c r="D222" s="40"/>
+      <c r="E222" s="40"/>
       <c r="F222" s="21"/>
       <c r="G222" s="21" t="s">
         <v>297</v>
@@ -6855,15 +7005,15 @@
         <v>298</v>
       </c>
       <c r="I222" s="21"/>
-      <c r="J222" s="39"/>
-      <c r="K222" s="42"/>
+      <c r="J222" s="40"/>
+      <c r="K222" s="43"/>
     </row>
     <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="45"/>
-      <c r="B223" s="36"/>
-      <c r="C223" s="39"/>
-      <c r="D223" s="39"/>
-      <c r="E223" s="39"/>
+      <c r="A223" s="46"/>
+      <c r="B223" s="37"/>
+      <c r="C223" s="40"/>
+      <c r="D223" s="40"/>
+      <c r="E223" s="40"/>
       <c r="F223" s="21"/>
       <c r="G223" s="21" t="s">
         <v>299</v>
@@ -6872,15 +7022,15 @@
         <v>300</v>
       </c>
       <c r="I223" s="21"/>
-      <c r="J223" s="39"/>
-      <c r="K223" s="42"/>
+      <c r="J223" s="40"/>
+      <c r="K223" s="43"/>
     </row>
     <row r="224" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="45"/>
-      <c r="B224" s="36"/>
-      <c r="C224" s="39"/>
-      <c r="D224" s="39"/>
-      <c r="E224" s="39"/>
+      <c r="A224" s="46"/>
+      <c r="B224" s="37"/>
+      <c r="C224" s="40"/>
+      <c r="D224" s="40"/>
+      <c r="E224" s="40"/>
       <c r="F224" s="21"/>
       <c r="G224" s="21" t="s">
         <v>301</v>
@@ -6889,21 +7039,21 @@
         <v>324</v>
       </c>
       <c r="I224" s="21"/>
-      <c r="J224" s="39"/>
-      <c r="K224" s="42"/>
+      <c r="J224" s="40"/>
+      <c r="K224" s="43"/>
     </row>
     <row r="225" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="45"/>
-      <c r="B225" s="26">
+      <c r="A225" s="46"/>
+      <c r="B225" s="27">
         <v>64</v>
       </c>
-      <c r="C225" s="29" t="s">
+      <c r="C225" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D225" s="29" t="s">
+      <c r="D225" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="E225" s="29" t="s">
+      <c r="E225" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F225" s="12" t="s">
@@ -6916,15 +7066,15 @@
         <v>286</v>
       </c>
       <c r="I225" s="12"/>
-      <c r="J225" s="29"/>
-      <c r="K225" s="32"/>
+      <c r="J225" s="30"/>
+      <c r="K225" s="33"/>
     </row>
     <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="45"/>
-      <c r="B226" s="27"/>
-      <c r="C226" s="30"/>
-      <c r="D226" s="30"/>
-      <c r="E226" s="30"/>
+      <c r="A226" s="46"/>
+      <c r="B226" s="28"/>
+      <c r="C226" s="31"/>
+      <c r="D226" s="31"/>
+      <c r="E226" s="31"/>
       <c r="F226" s="13" t="s">
         <v>21</v>
       </c>
@@ -6935,15 +7085,15 @@
         <v>288</v>
       </c>
       <c r="I226" s="13"/>
-      <c r="J226" s="30"/>
-      <c r="K226" s="33"/>
+      <c r="J226" s="31"/>
+      <c r="K226" s="34"/>
     </row>
     <row r="227" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A227" s="45"/>
-      <c r="B227" s="27"/>
-      <c r="C227" s="30"/>
-      <c r="D227" s="30"/>
-      <c r="E227" s="30"/>
+      <c r="A227" s="46"/>
+      <c r="B227" s="28"/>
+      <c r="C227" s="31"/>
+      <c r="D227" s="31"/>
+      <c r="E227" s="31"/>
       <c r="F227" s="13" t="s">
         <v>202</v>
       </c>
@@ -6954,15 +7104,15 @@
         <v>326</v>
       </c>
       <c r="I227" s="13"/>
-      <c r="J227" s="30"/>
-      <c r="K227" s="33"/>
+      <c r="J227" s="31"/>
+      <c r="K227" s="34"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="45"/>
-      <c r="B228" s="27"/>
-      <c r="C228" s="30"/>
-      <c r="D228" s="30"/>
-      <c r="E228" s="30"/>
+      <c r="A228" s="46"/>
+      <c r="B228" s="28"/>
+      <c r="C228" s="31"/>
+      <c r="D228" s="31"/>
+      <c r="E228" s="31"/>
       <c r="F228" s="13"/>
       <c r="G228" s="13" t="s">
         <v>291</v>
@@ -6971,15 +7121,15 @@
         <v>292</v>
       </c>
       <c r="I228" s="13"/>
-      <c r="J228" s="30"/>
-      <c r="K228" s="33"/>
+      <c r="J228" s="31"/>
+      <c r="K228" s="34"/>
     </row>
     <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="45"/>
-      <c r="B229" s="27"/>
-      <c r="C229" s="30"/>
-      <c r="D229" s="30"/>
-      <c r="E229" s="30"/>
+      <c r="A229" s="46"/>
+      <c r="B229" s="28"/>
+      <c r="C229" s="31"/>
+      <c r="D229" s="31"/>
+      <c r="E229" s="31"/>
       <c r="F229" s="13"/>
       <c r="G229" s="13" t="s">
         <v>293</v>
@@ -6988,15 +7138,15 @@
         <v>294</v>
       </c>
       <c r="I229" s="13"/>
-      <c r="J229" s="30"/>
-      <c r="K229" s="33"/>
+      <c r="J229" s="31"/>
+      <c r="K229" s="34"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="45"/>
-      <c r="B230" s="27"/>
-      <c r="C230" s="30"/>
-      <c r="D230" s="30"/>
-      <c r="E230" s="30"/>
+      <c r="A230" s="46"/>
+      <c r="B230" s="28"/>
+      <c r="C230" s="31"/>
+      <c r="D230" s="31"/>
+      <c r="E230" s="31"/>
       <c r="F230" s="13"/>
       <c r="G230" s="13" t="s">
         <v>295</v>
@@ -7005,15 +7155,15 @@
         <v>296</v>
       </c>
       <c r="I230" s="13"/>
-      <c r="J230" s="30"/>
-      <c r="K230" s="33"/>
+      <c r="J230" s="31"/>
+      <c r="K230" s="34"/>
     </row>
     <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="45"/>
-      <c r="B231" s="27"/>
-      <c r="C231" s="30"/>
-      <c r="D231" s="30"/>
-      <c r="E231" s="30"/>
+      <c r="A231" s="46"/>
+      <c r="B231" s="28"/>
+      <c r="C231" s="31"/>
+      <c r="D231" s="31"/>
+      <c r="E231" s="31"/>
       <c r="F231" s="13"/>
       <c r="G231" s="13" t="s">
         <v>297</v>
@@ -7022,15 +7172,15 @@
         <v>298</v>
       </c>
       <c r="I231" s="13"/>
-      <c r="J231" s="30"/>
-      <c r="K231" s="33"/>
+      <c r="J231" s="31"/>
+      <c r="K231" s="34"/>
     </row>
     <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="45"/>
-      <c r="B232" s="27"/>
-      <c r="C232" s="30"/>
-      <c r="D232" s="30"/>
-      <c r="E232" s="30"/>
+      <c r="A232" s="46"/>
+      <c r="B232" s="28"/>
+      <c r="C232" s="31"/>
+      <c r="D232" s="31"/>
+      <c r="E232" s="31"/>
       <c r="F232" s="19"/>
       <c r="G232" s="13" t="s">
         <v>299</v>
@@ -7039,15 +7189,15 @@
         <v>300</v>
       </c>
       <c r="I232" s="13"/>
-      <c r="J232" s="30"/>
-      <c r="K232" s="33"/>
+      <c r="J232" s="31"/>
+      <c r="K232" s="34"/>
     </row>
     <row r="233" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="45"/>
-      <c r="B233" s="28"/>
-      <c r="C233" s="31"/>
-      <c r="D233" s="31"/>
-      <c r="E233" s="31"/>
+      <c r="A233" s="46"/>
+      <c r="B233" s="29"/>
+      <c r="C233" s="32"/>
+      <c r="D233" s="32"/>
+      <c r="E233" s="32"/>
       <c r="F233" s="19"/>
       <c r="G233" s="13" t="s">
         <v>301</v>
@@ -7056,21 +7206,21 @@
         <v>324</v>
       </c>
       <c r="I233" s="13"/>
-      <c r="J233" s="31"/>
-      <c r="K233" s="34"/>
+      <c r="J233" s="32"/>
+      <c r="K233" s="35"/>
     </row>
     <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="45"/>
-      <c r="B234" s="35">
+      <c r="A234" s="46"/>
+      <c r="B234" s="36">
         <v>65</v>
       </c>
-      <c r="C234" s="38" t="s">
+      <c r="C234" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D234" s="38" t="s">
+      <c r="D234" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="E234" s="38" t="s">
+      <c r="E234" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F234" s="7" t="s">
@@ -7083,15 +7233,15 @@
         <v>286</v>
       </c>
       <c r="I234" s="7"/>
-      <c r="J234" s="38"/>
-      <c r="K234" s="41"/>
+      <c r="J234" s="39"/>
+      <c r="K234" s="42"/>
     </row>
     <row r="235" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="45"/>
-      <c r="B235" s="36"/>
-      <c r="C235" s="39"/>
-      <c r="D235" s="39"/>
-      <c r="E235" s="39"/>
+      <c r="A235" s="46"/>
+      <c r="B235" s="37"/>
+      <c r="C235" s="40"/>
+      <c r="D235" s="40"/>
+      <c r="E235" s="40"/>
       <c r="F235" s="2" t="s">
         <v>21</v>
       </c>
@@ -7102,15 +7252,15 @@
         <v>288</v>
       </c>
       <c r="I235" s="2"/>
-      <c r="J235" s="39"/>
-      <c r="K235" s="42"/>
+      <c r="J235" s="40"/>
+      <c r="K235" s="43"/>
     </row>
     <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A236" s="45"/>
-      <c r="B236" s="36"/>
-      <c r="C236" s="39"/>
-      <c r="D236" s="39"/>
-      <c r="E236" s="39"/>
+      <c r="A236" s="46"/>
+      <c r="B236" s="37"/>
+      <c r="C236" s="40"/>
+      <c r="D236" s="40"/>
+      <c r="E236" s="40"/>
       <c r="F236" s="21" t="s">
         <v>202</v>
       </c>
@@ -7121,15 +7271,15 @@
         <v>290</v>
       </c>
       <c r="I236" s="21"/>
-      <c r="J236" s="39"/>
-      <c r="K236" s="42"/>
+      <c r="J236" s="40"/>
+      <c r="K236" s="43"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="45"/>
-      <c r="B237" s="36"/>
-      <c r="C237" s="39"/>
-      <c r="D237" s="39"/>
-      <c r="E237" s="39"/>
+      <c r="A237" s="46"/>
+      <c r="B237" s="37"/>
+      <c r="C237" s="40"/>
+      <c r="D237" s="40"/>
+      <c r="E237" s="40"/>
       <c r="F237" s="21"/>
       <c r="G237" s="21" t="s">
         <v>291</v>
@@ -7138,15 +7288,15 @@
         <v>292</v>
       </c>
       <c r="I237" s="21"/>
-      <c r="J237" s="39"/>
-      <c r="K237" s="42"/>
+      <c r="J237" s="40"/>
+      <c r="K237" s="43"/>
     </row>
     <row r="238" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="45"/>
-      <c r="B238" s="36"/>
-      <c r="C238" s="39"/>
-      <c r="D238" s="39"/>
-      <c r="E238" s="39"/>
+      <c r="A238" s="46"/>
+      <c r="B238" s="37"/>
+      <c r="C238" s="40"/>
+      <c r="D238" s="40"/>
+      <c r="E238" s="40"/>
       <c r="F238" s="21"/>
       <c r="G238" s="21" t="s">
         <v>293</v>
@@ -7155,15 +7305,15 @@
         <v>294</v>
       </c>
       <c r="I238" s="21"/>
-      <c r="J238" s="39"/>
-      <c r="K238" s="42"/>
+      <c r="J238" s="40"/>
+      <c r="K238" s="43"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="45"/>
-      <c r="B239" s="36"/>
-      <c r="C239" s="39"/>
-      <c r="D239" s="39"/>
-      <c r="E239" s="39"/>
+      <c r="A239" s="46"/>
+      <c r="B239" s="37"/>
+      <c r="C239" s="40"/>
+      <c r="D239" s="40"/>
+      <c r="E239" s="40"/>
       <c r="F239" s="21"/>
       <c r="G239" s="21" t="s">
         <v>295</v>
@@ -7172,15 +7322,15 @@
         <v>296</v>
       </c>
       <c r="I239" s="21"/>
-      <c r="J239" s="39"/>
-      <c r="K239" s="42"/>
+      <c r="J239" s="40"/>
+      <c r="K239" s="43"/>
     </row>
     <row r="240" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="45"/>
-      <c r="B240" s="36"/>
-      <c r="C240" s="39"/>
-      <c r="D240" s="39"/>
-      <c r="E240" s="39"/>
+      <c r="A240" s="46"/>
+      <c r="B240" s="37"/>
+      <c r="C240" s="40"/>
+      <c r="D240" s="40"/>
+      <c r="E240" s="40"/>
       <c r="F240" s="21"/>
       <c r="G240" s="21" t="s">
         <v>297</v>
@@ -7189,15 +7339,15 @@
         <v>298</v>
       </c>
       <c r="I240" s="21"/>
-      <c r="J240" s="39"/>
-      <c r="K240" s="42"/>
+      <c r="J240" s="40"/>
+      <c r="K240" s="43"/>
     </row>
     <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="45"/>
-      <c r="B241" s="36"/>
-      <c r="C241" s="39"/>
-      <c r="D241" s="39"/>
-      <c r="E241" s="39"/>
+      <c r="A241" s="46"/>
+      <c r="B241" s="37"/>
+      <c r="C241" s="40"/>
+      <c r="D241" s="40"/>
+      <c r="E241" s="40"/>
       <c r="F241" s="21"/>
       <c r="G241" s="21" t="s">
         <v>327</v>
@@ -7206,15 +7356,15 @@
         <v>328</v>
       </c>
       <c r="I241" s="21"/>
-      <c r="J241" s="39"/>
-      <c r="K241" s="42"/>
+      <c r="J241" s="40"/>
+      <c r="K241" s="43"/>
     </row>
     <row r="242" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="45"/>
-      <c r="B242" s="36"/>
-      <c r="C242" s="39"/>
-      <c r="D242" s="39"/>
-      <c r="E242" s="39"/>
+      <c r="A242" s="46"/>
+      <c r="B242" s="37"/>
+      <c r="C242" s="40"/>
+      <c r="D242" s="40"/>
+      <c r="E242" s="40"/>
       <c r="F242" s="21"/>
       <c r="G242" s="21" t="s">
         <v>301</v>
@@ -7223,21 +7373,21 @@
         <v>324</v>
       </c>
       <c r="I242" s="21"/>
-      <c r="J242" s="39"/>
-      <c r="K242" s="42"/>
+      <c r="J242" s="40"/>
+      <c r="K242" s="43"/>
     </row>
     <row r="243" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A243" s="45"/>
-      <c r="B243" s="26">
+      <c r="A243" s="46"/>
+      <c r="B243" s="27">
         <v>66</v>
       </c>
-      <c r="C243" s="29" t="s">
+      <c r="C243" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D243" s="29" t="s">
+      <c r="D243" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="E243" s="29" t="s">
+      <c r="E243" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F243" s="12" t="s">
@@ -7250,15 +7400,15 @@
         <v>286</v>
       </c>
       <c r="I243" s="12"/>
-      <c r="J243" s="29"/>
-      <c r="K243" s="32"/>
+      <c r="J243" s="30"/>
+      <c r="K243" s="33"/>
     </row>
     <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="45"/>
-      <c r="B244" s="27"/>
-      <c r="C244" s="30"/>
-      <c r="D244" s="30"/>
-      <c r="E244" s="30"/>
+      <c r="A244" s="46"/>
+      <c r="B244" s="28"/>
+      <c r="C244" s="31"/>
+      <c r="D244" s="31"/>
+      <c r="E244" s="31"/>
       <c r="F244" s="13" t="s">
         <v>21</v>
       </c>
@@ -7269,15 +7419,15 @@
         <v>288</v>
       </c>
       <c r="I244" s="13"/>
-      <c r="J244" s="30"/>
-      <c r="K244" s="33"/>
+      <c r="J244" s="31"/>
+      <c r="K244" s="34"/>
     </row>
     <row r="245" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A245" s="45"/>
-      <c r="B245" s="27"/>
-      <c r="C245" s="30"/>
-      <c r="D245" s="30"/>
-      <c r="E245" s="30"/>
+      <c r="A245" s="46"/>
+      <c r="B245" s="28"/>
+      <c r="C245" s="31"/>
+      <c r="D245" s="31"/>
+      <c r="E245" s="31"/>
       <c r="F245" s="19" t="s">
         <v>202</v>
       </c>
@@ -7288,15 +7438,15 @@
         <v>290</v>
       </c>
       <c r="I245" s="19"/>
-      <c r="J245" s="30"/>
-      <c r="K245" s="33"/>
+      <c r="J245" s="31"/>
+      <c r="K245" s="34"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="45"/>
-      <c r="B246" s="27"/>
-      <c r="C246" s="30"/>
-      <c r="D246" s="30"/>
-      <c r="E246" s="30"/>
+      <c r="A246" s="46"/>
+      <c r="B246" s="28"/>
+      <c r="C246" s="31"/>
+      <c r="D246" s="31"/>
+      <c r="E246" s="31"/>
       <c r="F246" s="19"/>
       <c r="G246" s="19" t="s">
         <v>332</v>
@@ -7305,15 +7455,15 @@
         <v>333</v>
       </c>
       <c r="I246" s="19"/>
-      <c r="J246" s="30"/>
-      <c r="K246" s="33"/>
+      <c r="J246" s="31"/>
+      <c r="K246" s="34"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="45"/>
-      <c r="B247" s="27"/>
-      <c r="C247" s="30"/>
-      <c r="D247" s="30"/>
-      <c r="E247" s="30"/>
+      <c r="A247" s="46"/>
+      <c r="B247" s="28"/>
+      <c r="C247" s="31"/>
+      <c r="D247" s="31"/>
+      <c r="E247" s="31"/>
       <c r="F247" s="19"/>
       <c r="G247" s="19" t="s">
         <v>295</v>
@@ -7322,15 +7472,15 @@
         <v>296</v>
       </c>
       <c r="I247" s="19"/>
-      <c r="J247" s="30"/>
-      <c r="K247" s="33"/>
+      <c r="J247" s="31"/>
+      <c r="K247" s="34"/>
     </row>
     <row r="248" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="45"/>
-      <c r="B248" s="27"/>
-      <c r="C248" s="30"/>
-      <c r="D248" s="30"/>
-      <c r="E248" s="30"/>
+      <c r="A248" s="46"/>
+      <c r="B248" s="28"/>
+      <c r="C248" s="31"/>
+      <c r="D248" s="31"/>
+      <c r="E248" s="31"/>
       <c r="F248" s="19"/>
       <c r="G248" s="19" t="s">
         <v>297</v>
@@ -7339,15 +7489,15 @@
         <v>298</v>
       </c>
       <c r="I248" s="19"/>
-      <c r="J248" s="30"/>
-      <c r="K248" s="33"/>
+      <c r="J248" s="31"/>
+      <c r="K248" s="34"/>
     </row>
     <row r="249" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="45"/>
-      <c r="B249" s="27"/>
-      <c r="C249" s="30"/>
-      <c r="D249" s="30"/>
-      <c r="E249" s="30"/>
+      <c r="A249" s="46"/>
+      <c r="B249" s="28"/>
+      <c r="C249" s="31"/>
+      <c r="D249" s="31"/>
+      <c r="E249" s="31"/>
       <c r="F249" s="19"/>
       <c r="G249" s="19" t="s">
         <v>299</v>
@@ -7356,15 +7506,15 @@
         <v>300</v>
       </c>
       <c r="I249" s="19"/>
-      <c r="J249" s="30"/>
-      <c r="K249" s="33"/>
+      <c r="J249" s="31"/>
+      <c r="K249" s="34"/>
     </row>
     <row r="250" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="45"/>
-      <c r="B250" s="27"/>
-      <c r="C250" s="30"/>
-      <c r="D250" s="30"/>
-      <c r="E250" s="30"/>
+      <c r="A250" s="46"/>
+      <c r="B250" s="28"/>
+      <c r="C250" s="31"/>
+      <c r="D250" s="31"/>
+      <c r="E250" s="31"/>
       <c r="F250" s="19"/>
       <c r="G250" s="19" t="s">
         <v>301</v>
@@ -7373,21 +7523,21 @@
         <v>324</v>
       </c>
       <c r="I250" s="19"/>
-      <c r="J250" s="30"/>
-      <c r="K250" s="33"/>
+      <c r="J250" s="31"/>
+      <c r="K250" s="34"/>
     </row>
     <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A251" s="45"/>
-      <c r="B251" s="35">
+      <c r="A251" s="46"/>
+      <c r="B251" s="36">
         <v>67</v>
       </c>
-      <c r="C251" s="38" t="s">
+      <c r="C251" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D251" s="38" t="s">
+      <c r="D251" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="E251" s="38" t="s">
+      <c r="E251" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F251" s="7" t="s">
@@ -7400,15 +7550,15 @@
         <v>286</v>
       </c>
       <c r="I251" s="7"/>
-      <c r="J251" s="38"/>
-      <c r="K251" s="41"/>
+      <c r="J251" s="39"/>
+      <c r="K251" s="42"/>
     </row>
     <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="45"/>
-      <c r="B252" s="36"/>
-      <c r="C252" s="39"/>
-      <c r="D252" s="39"/>
-      <c r="E252" s="39"/>
+      <c r="A252" s="46"/>
+      <c r="B252" s="37"/>
+      <c r="C252" s="40"/>
+      <c r="D252" s="40"/>
+      <c r="E252" s="40"/>
       <c r="F252" s="2" t="s">
         <v>21</v>
       </c>
@@ -7419,15 +7569,15 @@
         <v>288</v>
       </c>
       <c r="I252" s="2"/>
-      <c r="J252" s="39"/>
-      <c r="K252" s="42"/>
+      <c r="J252" s="40"/>
+      <c r="K252" s="43"/>
     </row>
     <row r="253" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A253" s="45"/>
-      <c r="B253" s="36"/>
-      <c r="C253" s="39"/>
-      <c r="D253" s="39"/>
-      <c r="E253" s="39"/>
+      <c r="A253" s="46"/>
+      <c r="B253" s="37"/>
+      <c r="C253" s="40"/>
+      <c r="D253" s="40"/>
+      <c r="E253" s="40"/>
       <c r="F253" s="21" t="s">
         <v>202</v>
       </c>
@@ -7438,15 +7588,15 @@
         <v>290</v>
       </c>
       <c r="I253" s="21"/>
-      <c r="J253" s="39"/>
-      <c r="K253" s="42"/>
+      <c r="J253" s="40"/>
+      <c r="K253" s="43"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="45"/>
-      <c r="B254" s="36"/>
-      <c r="C254" s="39"/>
-      <c r="D254" s="39"/>
-      <c r="E254" s="39"/>
+      <c r="A254" s="46"/>
+      <c r="B254" s="37"/>
+      <c r="C254" s="40"/>
+      <c r="D254" s="40"/>
+      <c r="E254" s="40"/>
       <c r="F254" s="21"/>
       <c r="G254" s="21" t="s">
         <v>291</v>
@@ -7455,15 +7605,15 @@
         <v>292</v>
       </c>
       <c r="I254" s="21"/>
-      <c r="J254" s="39"/>
-      <c r="K254" s="42"/>
+      <c r="J254" s="40"/>
+      <c r="K254" s="43"/>
     </row>
     <row r="255" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="45"/>
-      <c r="B255" s="36"/>
-      <c r="C255" s="39"/>
-      <c r="D255" s="39"/>
-      <c r="E255" s="39"/>
+      <c r="A255" s="46"/>
+      <c r="B255" s="37"/>
+      <c r="C255" s="40"/>
+      <c r="D255" s="40"/>
+      <c r="E255" s="40"/>
       <c r="F255" s="21"/>
       <c r="G255" s="21" t="s">
         <v>293</v>
@@ -7472,15 +7622,15 @@
         <v>294</v>
       </c>
       <c r="I255" s="21"/>
-      <c r="J255" s="39"/>
-      <c r="K255" s="42"/>
+      <c r="J255" s="40"/>
+      <c r="K255" s="43"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="45"/>
-      <c r="B256" s="36"/>
-      <c r="C256" s="39"/>
-      <c r="D256" s="39"/>
-      <c r="E256" s="39"/>
+      <c r="A256" s="46"/>
+      <c r="B256" s="37"/>
+      <c r="C256" s="40"/>
+      <c r="D256" s="40"/>
+      <c r="E256" s="40"/>
       <c r="F256" s="21"/>
       <c r="G256" s="21" t="s">
         <v>334</v>
@@ -7489,15 +7639,15 @@
         <v>335</v>
       </c>
       <c r="I256" s="21"/>
-      <c r="J256" s="39"/>
-      <c r="K256" s="42"/>
+      <c r="J256" s="40"/>
+      <c r="K256" s="43"/>
     </row>
     <row r="257" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="45"/>
-      <c r="B257" s="36"/>
-      <c r="C257" s="39"/>
-      <c r="D257" s="39"/>
-      <c r="E257" s="39"/>
+      <c r="A257" s="46"/>
+      <c r="B257" s="37"/>
+      <c r="C257" s="40"/>
+      <c r="D257" s="40"/>
+      <c r="E257" s="40"/>
       <c r="F257" s="21"/>
       <c r="G257" s="21" t="s">
         <v>299</v>
@@ -7506,15 +7656,15 @@
         <v>300</v>
       </c>
       <c r="I257" s="21"/>
-      <c r="J257" s="39"/>
-      <c r="K257" s="42"/>
+      <c r="J257" s="40"/>
+      <c r="K257" s="43"/>
     </row>
     <row r="258" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="45"/>
-      <c r="B258" s="36"/>
-      <c r="C258" s="39"/>
-      <c r="D258" s="39"/>
-      <c r="E258" s="39"/>
+      <c r="A258" s="46"/>
+      <c r="B258" s="37"/>
+      <c r="C258" s="40"/>
+      <c r="D258" s="40"/>
+      <c r="E258" s="40"/>
       <c r="F258" s="21"/>
       <c r="G258" s="21" t="s">
         <v>301</v>
@@ -7523,21 +7673,21 @@
         <v>324</v>
       </c>
       <c r="I258" s="21"/>
-      <c r="J258" s="39"/>
-      <c r="K258" s="42"/>
+      <c r="J258" s="40"/>
+      <c r="K258" s="43"/>
     </row>
     <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A259" s="45"/>
-      <c r="B259" s="26">
+      <c r="A259" s="46"/>
+      <c r="B259" s="27">
         <v>68</v>
       </c>
-      <c r="C259" s="29" t="s">
+      <c r="C259" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D259" s="29" t="s">
+      <c r="D259" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="E259" s="29" t="s">
+      <c r="E259" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F259" s="12" t="s">
@@ -7550,15 +7700,15 @@
         <v>286</v>
       </c>
       <c r="I259" s="12"/>
-      <c r="J259" s="29"/>
-      <c r="K259" s="32"/>
+      <c r="J259" s="30"/>
+      <c r="K259" s="33"/>
     </row>
     <row r="260" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="45"/>
-      <c r="B260" s="27"/>
-      <c r="C260" s="30"/>
-      <c r="D260" s="30"/>
-      <c r="E260" s="30"/>
+      <c r="A260" s="46"/>
+      <c r="B260" s="28"/>
+      <c r="C260" s="31"/>
+      <c r="D260" s="31"/>
+      <c r="E260" s="31"/>
       <c r="F260" s="13" t="s">
         <v>21</v>
       </c>
@@ -7569,15 +7719,15 @@
         <v>344</v>
       </c>
       <c r="I260" s="13"/>
-      <c r="J260" s="30"/>
-      <c r="K260" s="33"/>
+      <c r="J260" s="31"/>
+      <c r="K260" s="34"/>
     </row>
     <row r="261" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A261" s="45"/>
-      <c r="B261" s="27"/>
-      <c r="C261" s="30"/>
-      <c r="D261" s="30"/>
-      <c r="E261" s="30"/>
+      <c r="A261" s="46"/>
+      <c r="B261" s="28"/>
+      <c r="C261" s="31"/>
+      <c r="D261" s="31"/>
+      <c r="E261" s="31"/>
       <c r="F261" s="19" t="s">
         <v>202</v>
       </c>
@@ -7588,15 +7738,15 @@
         <v>290</v>
       </c>
       <c r="I261" s="19"/>
-      <c r="J261" s="30"/>
-      <c r="K261" s="33"/>
+      <c r="J261" s="31"/>
+      <c r="K261" s="34"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="45"/>
-      <c r="B262" s="27"/>
-      <c r="C262" s="30"/>
-      <c r="D262" s="30"/>
-      <c r="E262" s="30"/>
+      <c r="A262" s="46"/>
+      <c r="B262" s="28"/>
+      <c r="C262" s="31"/>
+      <c r="D262" s="31"/>
+      <c r="E262" s="31"/>
       <c r="F262" s="19"/>
       <c r="G262" s="19" t="s">
         <v>291</v>
@@ -7605,15 +7755,15 @@
         <v>292</v>
       </c>
       <c r="I262" s="19"/>
-      <c r="J262" s="30"/>
-      <c r="K262" s="33"/>
+      <c r="J262" s="31"/>
+      <c r="K262" s="34"/>
     </row>
     <row r="263" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="45"/>
-      <c r="B263" s="27"/>
-      <c r="C263" s="30"/>
-      <c r="D263" s="30"/>
-      <c r="E263" s="30"/>
+      <c r="A263" s="46"/>
+      <c r="B263" s="28"/>
+      <c r="C263" s="31"/>
+      <c r="D263" s="31"/>
+      <c r="E263" s="31"/>
       <c r="F263" s="19"/>
       <c r="G263" s="19" t="s">
         <v>293</v>
@@ -7622,15 +7772,15 @@
         <v>294</v>
       </c>
       <c r="I263" s="19"/>
-      <c r="J263" s="30"/>
-      <c r="K263" s="33"/>
+      <c r="J263" s="31"/>
+      <c r="K263" s="34"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="45"/>
-      <c r="B264" s="27"/>
-      <c r="C264" s="30"/>
-      <c r="D264" s="30"/>
-      <c r="E264" s="30"/>
+      <c r="A264" s="46"/>
+      <c r="B264" s="28"/>
+      <c r="C264" s="31"/>
+      <c r="D264" s="31"/>
+      <c r="E264" s="31"/>
       <c r="F264" s="19"/>
       <c r="G264" s="19" t="s">
         <v>295</v>
@@ -7639,15 +7789,15 @@
         <v>296</v>
       </c>
       <c r="I264" s="19"/>
-      <c r="J264" s="30"/>
-      <c r="K264" s="33"/>
+      <c r="J264" s="31"/>
+      <c r="K264" s="34"/>
     </row>
     <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="45"/>
-      <c r="B265" s="27"/>
-      <c r="C265" s="30"/>
-      <c r="D265" s="30"/>
-      <c r="E265" s="30"/>
+      <c r="A265" s="46"/>
+      <c r="B265" s="28"/>
+      <c r="C265" s="31"/>
+      <c r="D265" s="31"/>
+      <c r="E265" s="31"/>
       <c r="F265" s="19"/>
       <c r="G265" s="19" t="s">
         <v>297</v>
@@ -7656,15 +7806,15 @@
         <v>298</v>
       </c>
       <c r="I265" s="19"/>
-      <c r="J265" s="30"/>
-      <c r="K265" s="33"/>
+      <c r="J265" s="31"/>
+      <c r="K265" s="34"/>
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="45"/>
-      <c r="B266" s="27"/>
-      <c r="C266" s="30"/>
-      <c r="D266" s="30"/>
-      <c r="E266" s="30"/>
+      <c r="A266" s="46"/>
+      <c r="B266" s="28"/>
+      <c r="C266" s="31"/>
+      <c r="D266" s="31"/>
+      <c r="E266" s="31"/>
       <c r="F266" s="19"/>
       <c r="G266" s="19" t="s">
         <v>299</v>
@@ -7673,15 +7823,15 @@
         <v>300</v>
       </c>
       <c r="I266" s="19"/>
-      <c r="J266" s="30"/>
-      <c r="K266" s="33"/>
+      <c r="J266" s="31"/>
+      <c r="K266" s="34"/>
     </row>
     <row r="267" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="45"/>
-      <c r="B267" s="27"/>
-      <c r="C267" s="30"/>
-      <c r="D267" s="30"/>
-      <c r="E267" s="30"/>
+      <c r="A267" s="46"/>
+      <c r="B267" s="28"/>
+      <c r="C267" s="31"/>
+      <c r="D267" s="31"/>
+      <c r="E267" s="31"/>
       <c r="F267" s="19"/>
       <c r="G267" s="19" t="s">
         <v>301</v>
@@ -7690,21 +7840,21 @@
         <v>345</v>
       </c>
       <c r="I267" s="19"/>
-      <c r="J267" s="30"/>
-      <c r="K267" s="33"/>
+      <c r="J267" s="31"/>
+      <c r="K267" s="34"/>
     </row>
     <row r="268" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A268" s="45"/>
-      <c r="B268" s="35">
+      <c r="A268" s="46"/>
+      <c r="B268" s="36">
         <v>69</v>
       </c>
-      <c r="C268" s="38" t="s">
+      <c r="C268" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D268" s="38" t="s">
+      <c r="D268" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="E268" s="38" t="s">
+      <c r="E268" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F268" s="7" t="s">
@@ -7717,15 +7867,15 @@
         <v>286</v>
       </c>
       <c r="I268" s="7"/>
-      <c r="J268" s="38"/>
-      <c r="K268" s="41"/>
+      <c r="J268" s="39"/>
+      <c r="K268" s="42"/>
     </row>
     <row r="269" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="45"/>
-      <c r="B269" s="36"/>
-      <c r="C269" s="39"/>
-      <c r="D269" s="39"/>
-      <c r="E269" s="39"/>
+      <c r="A269" s="46"/>
+      <c r="B269" s="37"/>
+      <c r="C269" s="40"/>
+      <c r="D269" s="40"/>
+      <c r="E269" s="40"/>
       <c r="F269" s="2" t="s">
         <v>21</v>
       </c>
@@ -7736,15 +7886,15 @@
         <v>280</v>
       </c>
       <c r="I269" s="2"/>
-      <c r="J269" s="39"/>
-      <c r="K269" s="42"/>
+      <c r="J269" s="40"/>
+      <c r="K269" s="43"/>
     </row>
     <row r="270" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="45"/>
-      <c r="B270" s="37"/>
-      <c r="C270" s="40"/>
-      <c r="D270" s="40"/>
-      <c r="E270" s="40"/>
+      <c r="A270" s="46"/>
+      <c r="B270" s="38"/>
+      <c r="C270" s="41"/>
+      <c r="D270" s="41"/>
+      <c r="E270" s="41"/>
       <c r="F270" s="8" t="s">
         <v>202</v>
       </c>
@@ -7755,8 +7905,8 @@
         <v>331</v>
       </c>
       <c r="I270" s="8"/>
-      <c r="J270" s="40"/>
-      <c r="K270" s="43"/>
+      <c r="J270" s="41"/>
+      <c r="K270" s="44"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B271" s="4"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekate\Desktop\Netology\Git repository\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30966F78-3FA6-4237-B3DE-A9BC47AAA532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B40F3A-4341-41C7-9401-9F56C714CAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="180" windowWidth="24180" windowHeight="18615" xr2:uid="{CC955BC4-95A8-4E73-80DC-FD5AF393D381}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CC955BC4-95A8-4E73-80DC-FD5AF393D381}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="359">
   <si>
     <t>ID</t>
   </si>
@@ -1210,6 +1210,12 @@
   </si>
   <si>
     <t>нет</t>
+  </si>
+  <si>
+    <t>3. Вернулись на предыдущий экран со списком новостей в панели управления, у выбранной новости стоит статус "× НЕ АКТИВНА"</t>
+  </si>
+  <si>
+    <t>3. Вернулись на предыдущий экран со списком новостей в панели управления, у выбранной новости стоит статус "√ АКТИВНА"</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1292,12 +1298,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,7 +1649,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1726,35 +1726,14 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1783,44 +1762,68 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1831,26 +1834,14 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1870,17 +1861,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2204,10 +2201,10 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,7 +2220,8 @@
     <col min="9" max="9" width="33.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="26"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2258,10 +2256,10 @@
       <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="50">
         <v>1</v>
       </c>
       <c r="C2" s="53" t="s">
@@ -2288,74 +2286,74 @@
       <c r="J2" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="K2" s="58"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="60"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="50">
+      <c r="A6" s="28"/>
+      <c r="B6" s="71">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="62" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -2367,18 +2365,18 @@
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="62" t="s">
         <v>346</v>
       </c>
-      <c r="K6" s="61"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2388,16 +2386,16 @@
       <c r="I7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2407,16 +2405,16 @@
       <c r="I8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
@@ -2426,12 +2424,12 @@
       <c r="I9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="63"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="55">
+      <c r="A10" s="28"/>
+      <c r="B10" s="50">
         <v>3</v>
       </c>
       <c r="C10" s="53" t="s">
@@ -2458,14 +2456,14 @@
       <c r="J10" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="K10" s="58"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
@@ -2478,24 +2476,24 @@
       <c r="I11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="60"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="50">
+      <c r="A12" s="28"/>
+      <c r="B12" s="71">
         <v>4</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="62" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -2507,18 +2505,18 @@
       <c r="I12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="62" t="s">
         <v>346</v>
       </c>
-      <c r="K12" s="61"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="48"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="3" t="s">
         <v>30</v>
       </c>
@@ -2528,16 +2526,16 @@
       <c r="I13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="62"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="48"/>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="48"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="3" t="s">
         <v>28</v>
       </c>
@@ -2547,16 +2545,16 @@
       <c r="I14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="62"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="49"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="6" t="s">
         <v>17</v>
       </c>
@@ -2566,12 +2564,12 @@
       <c r="I15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="63"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="55">
+      <c r="A16" s="28"/>
+      <c r="B16" s="50">
         <v>5</v>
       </c>
       <c r="C16" s="53" t="s">
@@ -2598,15 +2596,15 @@
       <c r="J16" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="K16" s="58"/>
+      <c r="K16" s="59"/>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="2" t="s">
         <v>27</v>
       </c>
@@ -2616,16 +2614,16 @@
       <c r="I17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="59"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="60"/>
     </row>
     <row r="18" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2635,16 +2633,16 @@
       <c r="I18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="59"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="60"/>
     </row>
     <row r="19" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="8" t="s">
         <v>17</v>
       </c>
@@ -2654,24 +2652,24 @@
       <c r="I19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="60"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="61"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="50">
+      <c r="A20" s="28"/>
+      <c r="B20" s="71">
         <v>6</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="62" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -2683,18 +2681,18 @@
       <c r="I20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="62" t="s">
         <v>346</v>
       </c>
-      <c r="K20" s="61"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="3" t="s">
         <v>39</v>
       </c>
@@ -2704,16 +2702,16 @@
       <c r="I21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="62"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="48"/>
     </row>
     <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="3" t="s">
         <v>28</v>
       </c>
@@ -2723,16 +2721,16 @@
       <c r="I22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="48"/>
     </row>
     <row r="23" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="6" t="s">
         <v>17</v>
       </c>
@@ -2742,12 +2740,12 @@
       <c r="I23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="63"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="49"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="55">
+      <c r="A24" s="28"/>
+      <c r="B24" s="50">
         <v>7</v>
       </c>
       <c r="C24" s="53" t="s">
@@ -2774,15 +2772,15 @@
       <c r="J24" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="K24" s="58"/>
+      <c r="K24" s="59"/>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="2" t="s">
         <v>27</v>
       </c>
@@ -2792,16 +2790,16 @@
       <c r="I25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="59"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="60"/>
     </row>
     <row r="26" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="2" t="s">
         <v>43</v>
       </c>
@@ -2811,16 +2809,16 @@
       <c r="I26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="59"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="60"/>
     </row>
     <row r="27" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="8" t="s">
         <v>17</v>
       </c>
@@ -2830,24 +2828,24 @@
       <c r="I27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="60"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="61"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="50">
+      <c r="A28" s="28"/>
+      <c r="B28" s="71">
         <v>8</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="62" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -2859,18 +2857,18 @@
       <c r="I28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="47" t="s">
+      <c r="J28" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="K28" s="61"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="3" t="s">
         <v>45</v>
       </c>
@@ -2880,16 +2878,16 @@
       <c r="I29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="48"/>
-      <c r="K29" s="62"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="48"/>
     </row>
     <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="3" t="s">
         <v>53</v>
       </c>
@@ -2899,16 +2897,16 @@
       <c r="I30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="48"/>
-      <c r="K30" s="62"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="6" t="s">
         <v>17</v>
       </c>
@@ -2918,12 +2916,12 @@
       <c r="I31" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="63"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="49"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="55">
+      <c r="A32" s="28"/>
+      <c r="B32" s="50">
         <v>9</v>
       </c>
       <c r="C32" s="53" t="s">
@@ -2950,15 +2948,15 @@
       <c r="J32" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="K32" s="58"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="2" t="s">
         <v>52</v>
       </c>
@@ -2968,16 +2966,16 @@
       <c r="I33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="59"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="60"/>
     </row>
     <row r="34" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="2" t="s">
         <v>54</v>
       </c>
@@ -2987,16 +2985,16 @@
       <c r="I34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="59"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="60"/>
     </row>
     <row r="35" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
       <c r="G35" s="8" t="s">
         <v>17</v>
       </c>
@@ -3006,24 +3004,24 @@
       <c r="I35" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="54"/>
-      <c r="K35" s="60"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="61"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="50">
+      <c r="A36" s="28"/>
+      <c r="B36" s="71">
         <v>10</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="62" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -3035,18 +3033,18 @@
       <c r="I36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="47" t="s">
+      <c r="J36" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="K36" s="61"/>
+      <c r="K36" s="47"/>
     </row>
     <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
       <c r="G37" s="3" t="s">
         <v>55</v>
       </c>
@@ -3056,16 +3054,16 @@
       <c r="I37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="62"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="48"/>
     </row>
     <row r="38" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
       <c r="G38" s="3" t="s">
         <v>53</v>
       </c>
@@ -3075,16 +3073,16 @@
       <c r="I38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J38" s="48"/>
-      <c r="K38" s="62"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="48"/>
     </row>
     <row r="39" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
       <c r="G39" s="6" t="s">
         <v>17</v>
       </c>
@@ -3094,12 +3092,12 @@
       <c r="I39" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="49"/>
-      <c r="K39" s="63"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="49"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="55">
+      <c r="A40" s="28"/>
+      <c r="B40" s="50">
         <v>11</v>
       </c>
       <c r="C40" s="53" t="s">
@@ -3126,15 +3124,15 @@
       <c r="J40" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="K40" s="58"/>
+      <c r="K40" s="59"/>
     </row>
     <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
       <c r="G41" s="2" t="s">
         <v>52</v>
       </c>
@@ -3144,16 +3142,16 @@
       <c r="I41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="59"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="60"/>
     </row>
     <row r="42" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
       <c r="G42" s="2" t="s">
         <v>58</v>
       </c>
@@ -3163,16 +3161,16 @@
       <c r="I42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J42" s="57"/>
-      <c r="K42" s="59"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="60"/>
     </row>
     <row r="43" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="46"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
       <c r="G43" s="8" t="s">
         <v>17</v>
       </c>
@@ -3182,24 +3180,24 @@
       <c r="I43" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="54"/>
-      <c r="K43" s="60"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="61"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="50">
+      <c r="A44" s="28"/>
+      <c r="B44" s="71">
         <v>12</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="F44" s="62" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -3211,18 +3209,18 @@
       <c r="I44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="47" t="s">
+      <c r="J44" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="K44" s="61"/>
+      <c r="K44" s="47"/>
     </row>
     <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
       <c r="G45" s="3" t="s">
         <v>350</v>
       </c>
@@ -3232,16 +3230,16 @@
       <c r="I45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="48"/>
-      <c r="K45" s="62"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="48"/>
     </row>
     <row r="46" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
       <c r="G46" s="3" t="s">
         <v>53</v>
       </c>
@@ -3251,16 +3249,16 @@
       <c r="I46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="48"/>
-      <c r="K46" s="62"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="48"/>
     </row>
     <row r="47" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="46"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
       <c r="G47" s="6" t="s">
         <v>17</v>
       </c>
@@ -3270,12 +3268,12 @@
       <c r="I47" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J47" s="49"/>
-      <c r="K47" s="63"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="49"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="55">
+      <c r="A48" s="28"/>
+      <c r="B48" s="50">
         <v>13</v>
       </c>
       <c r="C48" s="53" t="s">
@@ -3302,15 +3300,15 @@
       <c r="J48" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="K48" s="58"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
       <c r="G49" s="2" t="s">
         <v>52</v>
       </c>
@@ -3320,16 +3318,16 @@
       <c r="I49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="57"/>
-      <c r="K49" s="59"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="60"/>
     </row>
     <row r="50" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
       <c r="G50" s="2" t="s">
         <v>349</v>
       </c>
@@ -3339,16 +3337,16 @@
       <c r="I50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="57"/>
-      <c r="K50" s="59"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="60"/>
     </row>
     <row r="51" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="46"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
       <c r="G51" s="8" t="s">
         <v>17</v>
       </c>
@@ -3358,23 +3356,23 @@
       <c r="I51" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="54"/>
-      <c r="K51" s="60"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="61"/>
     </row>
     <row r="52" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="68">
+      <c r="B52" s="65">
         <v>14</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="71" t="s">
+      <c r="D52" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="71" t="s">
+      <c r="E52" s="68" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -3389,17 +3387,17 @@
       <c r="I52" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J52" s="71" t="s">
+      <c r="J52" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="K52" s="74"/>
+      <c r="K52" s="56"/>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
       <c r="F53" s="3" t="s">
         <v>21</v>
       </c>
@@ -3410,36 +3408,36 @@
       <c r="I53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J53" s="72"/>
-      <c r="K53" s="75"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="57"/>
     </row>
     <row r="54" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="46"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
       <c r="F54" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="76"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="58"/>
     </row>
     <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
-      <c r="B55" s="36">
+      <c r="A55" s="28"/>
+      <c r="B55" s="29">
         <v>15</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="E55" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="7" t="s">
@@ -3454,17 +3452,17 @@
       <c r="I55" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J55" s="39" t="s">
+      <c r="J55" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="K55" s="42"/>
+      <c r="K55" s="35"/>
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
       <c r="F56" s="2" t="s">
         <v>21</v>
       </c>
@@ -3477,15 +3475,15 @@
       <c r="I56" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J56" s="40"/>
-      <c r="K56" s="43"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="36"/>
     </row>
     <row r="57" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="46"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
       <c r="F57" s="8" t="s">
         <v>64</v>
       </c>
@@ -3498,21 +3496,21 @@
       <c r="I57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J57" s="41"/>
-      <c r="K57" s="44"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="46"/>
-      <c r="B58" s="27">
+      <c r="A58" s="28"/>
+      <c r="B58" s="38">
         <v>16</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="12" t="s">
@@ -3527,17 +3525,17 @@
       <c r="I58" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J58" s="30" t="s">
+      <c r="J58" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="K58" s="33"/>
+      <c r="K58" s="42"/>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="13" t="s">
         <v>21</v>
       </c>
@@ -3550,38 +3548,38 @@
       <c r="I59" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J59" s="31"/>
-      <c r="K59" s="34"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="43"/>
     </row>
     <row r="60" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="46"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
       <c r="F60" s="14" t="s">
         <v>64</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="35"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="44"/>
     </row>
     <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="36">
+      <c r="B61" s="29">
         <v>17</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="7" t="s">
@@ -3596,53 +3594,53 @@
       <c r="I61" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J61" s="39" t="s">
+      <c r="J61" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="K61" s="42"/>
+      <c r="K61" s="35"/>
     </row>
     <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
       <c r="F62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="43"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="36"/>
     </row>
     <row r="63" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="46"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="44"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="37"/>
     </row>
     <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="B64" s="27">
+      <c r="A64" s="28"/>
+      <c r="B64" s="38">
         <v>18</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="12" t="s">
@@ -3657,17 +3655,17 @@
       <c r="I64" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J64" s="30" t="s">
+      <c r="J64" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="K64" s="33"/>
-    </row>
-    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
+      <c r="K64" s="42"/>
+    </row>
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
       <c r="F65" s="13" t="s">
         <v>21</v>
       </c>
@@ -3680,36 +3678,36 @@
       <c r="I65" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J65" s="31"/>
-      <c r="K65" s="34"/>
-    </row>
-    <row r="66" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="46"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="43"/>
+    </row>
+    <row r="66" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="28"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
       <c r="F66" s="14" t="s">
         <v>64</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="35"/>
-    </row>
-    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="B67" s="36">
+      <c r="J66" s="45"/>
+      <c r="K66" s="44"/>
+    </row>
+    <row r="67" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="28"/>
+      <c r="B67" s="29">
         <v>19</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D67" s="39" t="s">
+      <c r="D67" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="7" t="s">
@@ -3724,17 +3722,17 @@
       <c r="I67" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J67" s="39" t="s">
+      <c r="J67" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="K67" s="42"/>
-    </row>
-    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="46"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
+      <c r="K67" s="35"/>
+    </row>
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="28"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
       <c r="F68" s="2" t="s">
         <v>21</v>
       </c>
@@ -3747,36 +3745,36 @@
       <c r="I68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J68" s="40"/>
-      <c r="K68" s="43"/>
-    </row>
-    <row r="69" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="46"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="36"/>
+    </row>
+    <row r="69" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="28"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
       <c r="F69" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="44"/>
-    </row>
-    <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
-      <c r="B70" s="27">
+      <c r="J69" s="34"/>
+      <c r="K69" s="37"/>
+    </row>
+    <row r="70" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="28"/>
+      <c r="B70" s="38">
         <v>20</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="12" t="s">
@@ -3789,18 +3787,17 @@
         <v>82</v>
       </c>
       <c r="I70" s="12"/>
-      <c r="J70" s="30" t="s">
+      <c r="J70" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="K70" s="33"/>
-      <c r="L70" s="77"/>
-    </row>
-    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="46"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
+      <c r="K70" s="42"/>
+    </row>
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="28"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
       <c r="F71" s="13" t="s">
         <v>21</v>
       </c>
@@ -3811,38 +3808,36 @@
         <v>88</v>
       </c>
       <c r="I71" s="13"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="77"/>
-    </row>
-    <row r="72" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="46"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="43"/>
+    </row>
+    <row r="72" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="28"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
       <c r="F72" s="14" t="s">
         <v>86</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="77"/>
-    </row>
-    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="36">
+      <c r="J72" s="45"/>
+      <c r="K72" s="44"/>
+    </row>
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="28"/>
+      <c r="B73" s="29">
         <v>21</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="7" t="s">
@@ -3855,18 +3850,17 @@
         <v>82</v>
       </c>
       <c r="I73" s="7"/>
-      <c r="J73" s="39" t="s">
+      <c r="J73" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="K73" s="42"/>
-      <c r="L73" s="77"/>
-    </row>
-    <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
+      <c r="K73" s="35"/>
+    </row>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="28"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
       <c r="F74" s="2" t="s">
         <v>21</v>
       </c>
@@ -3879,40 +3873,38 @@
       <c r="I74" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J74" s="40"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="77"/>
-    </row>
-    <row r="75" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="46"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="36"/>
+    </row>
+    <row r="75" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="28"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
       <c r="F75" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="77"/>
-    </row>
-    <row r="76" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="45" t="s">
+      <c r="J75" s="34"/>
+      <c r="K75" s="37"/>
+    </row>
+    <row r="76" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B76" s="27">
+      <c r="B76" s="38">
         <v>22</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="12" t="s">
@@ -3925,16 +3917,15 @@
         <v>101</v>
       </c>
       <c r="I76" s="12"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="77"/>
-    </row>
-    <row r="77" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="46"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="42"/>
+    </row>
+    <row r="77" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
       <c r="F77" s="13" t="s">
         <v>21</v>
       </c>
@@ -3943,38 +3934,36 @@
         <v>106</v>
       </c>
       <c r="I77" s="13"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="26"/>
-    </row>
-    <row r="78" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="46"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="43"/>
+    </row>
+    <row r="78" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="28"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
       <c r="F78" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="26"/>
-    </row>
-    <row r="79" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="46"/>
-      <c r="B79" s="36">
+      <c r="J78" s="45"/>
+      <c r="K78" s="44"/>
+    </row>
+    <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="28"/>
+      <c r="B79" s="29">
         <v>23</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="7" t="s">
@@ -3987,16 +3976,15 @@
         <v>104</v>
       </c>
       <c r="I79" s="7"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="26"/>
-    </row>
-    <row r="80" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="46"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="35"/>
+    </row>
+    <row r="80" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="28"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
       <c r="F80" s="2" t="s">
         <v>21</v>
       </c>
@@ -4007,40 +3995,38 @@
         <v>105</v>
       </c>
       <c r="I80" s="2"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="26"/>
-    </row>
-    <row r="81" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="46"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="36"/>
+    </row>
+    <row r="81" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="28"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
       <c r="F81" s="8" t="s">
         <v>99</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
-      <c r="J81" s="41"/>
-      <c r="K81" s="44"/>
-      <c r="L81" s="26"/>
-    </row>
-    <row r="82" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="45" t="s">
+      <c r="J81" s="34"/>
+      <c r="K81" s="37"/>
+    </row>
+    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B82" s="38">
         <v>24</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C82" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="12" t="s">
@@ -4055,17 +4041,17 @@
       <c r="I82" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J82" s="30" t="s">
+      <c r="J82" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="K82" s="33"/>
-    </row>
-    <row r="83" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="46"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
+      <c r="K82" s="42"/>
+    </row>
+    <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="28"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
       <c r="F83" s="13" t="s">
         <v>21</v>
       </c>
@@ -4078,36 +4064,36 @@
       <c r="I83" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="J83" s="31"/>
-      <c r="K83" s="34"/>
-    </row>
-    <row r="84" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="46"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="43"/>
+    </row>
+    <row r="84" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="28"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
       <c r="F84" s="14" t="s">
         <v>109</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="35"/>
-    </row>
-    <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="46"/>
-      <c r="B85" s="36">
+      <c r="J84" s="45"/>
+      <c r="K84" s="44"/>
+    </row>
+    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="28"/>
+      <c r="B85" s="29">
         <v>25</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D85" s="39" t="s">
+      <c r="D85" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="E85" s="39" t="s">
+      <c r="E85" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F85" s="7" t="s">
@@ -4122,18 +4108,17 @@
       <c r="I85" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J85" s="39" t="s">
+      <c r="J85" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="K85" s="42"/>
-      <c r="L85" s="26"/>
-    </row>
-    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="46"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
+      <c r="K85" s="35"/>
+    </row>
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="28"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
       <c r="F86" s="2" t="s">
         <v>21</v>
       </c>
@@ -4144,16 +4129,15 @@
       <c r="I86" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J86" s="40"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="26"/>
-    </row>
-    <row r="87" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="46"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="36"/>
+    </row>
+    <row r="87" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="28"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
       <c r="F87" s="8" t="s">
         <v>109</v>
       </c>
@@ -4162,22 +4146,21 @@
       <c r="I87" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J87" s="41"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="26"/>
-    </row>
-    <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="46"/>
-      <c r="B88" s="27">
+      <c r="J87" s="34"/>
+      <c r="K87" s="37"/>
+    </row>
+    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="28"/>
+      <c r="B88" s="38">
         <v>26</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D88" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="E88" s="30" t="s">
+      <c r="E88" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F88" s="12" t="s">
@@ -4192,18 +4175,17 @@
       <c r="I88" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J88" s="30" t="s">
+      <c r="J88" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="K88" s="33"/>
-      <c r="L88" s="26"/>
-    </row>
-    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="46"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
+      <c r="K88" s="42"/>
+    </row>
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="28"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
       <c r="F89" s="13" t="s">
         <v>21</v>
       </c>
@@ -4214,16 +4196,15 @@
       <c r="I89" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J89" s="31"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="26"/>
-    </row>
-    <row r="90" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="46"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="43"/>
+    </row>
+    <row r="90" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="28"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
       <c r="F90" s="14" t="s">
         <v>109</v>
       </c>
@@ -4232,24 +4213,23 @@
       <c r="I90" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J90" s="32"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="26"/>
-    </row>
-    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="45" t="s">
+      <c r="J90" s="45"/>
+      <c r="K90" s="44"/>
+    </row>
+    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B91" s="36">
+      <c r="B91" s="29">
         <v>27</v>
       </c>
-      <c r="C91" s="39" t="s">
+      <c r="C91" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D91" s="39" t="s">
+      <c r="D91" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E91" s="39" t="s">
+      <c r="E91" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F91" s="7" t="s">
@@ -4264,53 +4244,53 @@
       <c r="I91" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="J91" s="39" t="s">
+      <c r="J91" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="K91" s="42"/>
-    </row>
-    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="46"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
+      <c r="K91" s="35"/>
+    </row>
+    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="28"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
       <c r="F92" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="43"/>
-    </row>
-    <row r="93" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="46"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="36"/>
+    </row>
+    <row r="93" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="28"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
       <c r="F93" s="8" t="s">
         <v>131</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="16"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="44"/>
-    </row>
-    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="46"/>
-      <c r="B94" s="27">
+      <c r="J93" s="34"/>
+      <c r="K93" s="37"/>
+    </row>
+    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="28"/>
+      <c r="B94" s="38">
         <v>28</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="E94" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F94" s="12" t="s">
@@ -4325,17 +4305,17 @@
       <c r="I94" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="J94" s="30" t="s">
+      <c r="J94" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="K94" s="33"/>
-    </row>
-    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="46"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
+      <c r="K94" s="42"/>
+    </row>
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="28"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
       <c r="F95" s="13" t="s">
         <v>21</v>
       </c>
@@ -4346,36 +4326,36 @@
         <v>137</v>
       </c>
       <c r="I95" s="13"/>
-      <c r="J95" s="31"/>
-      <c r="K95" s="34"/>
-    </row>
-    <row r="96" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="46"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="43"/>
+    </row>
+    <row r="96" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="28"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
       <c r="F96" s="14" t="s">
         <v>131</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="18"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="35"/>
-    </row>
-    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="46"/>
-      <c r="B97" s="36">
+      <c r="J96" s="45"/>
+      <c r="K96" s="44"/>
+    </row>
+    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="28"/>
+      <c r="B97" s="29">
         <v>29</v>
       </c>
-      <c r="C97" s="39" t="s">
+      <c r="C97" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D97" s="39" t="s">
+      <c r="D97" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E97" s="39" t="s">
+      <c r="E97" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F97" s="7" t="s">
@@ -4390,68 +4370,68 @@
       <c r="I97" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="J97" s="39" t="s">
+      <c r="J97" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="K97" s="42"/>
-    </row>
-    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="46"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
+      <c r="K97" s="35"/>
+    </row>
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="28"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
       <c r="F98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="40"/>
-      <c r="K98" s="43"/>
-    </row>
-    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="46"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="40"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="36"/>
+    </row>
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="28"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
       <c r="F99" s="21" t="s">
         <v>131</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
-      <c r="J99" s="40"/>
-      <c r="K99" s="43"/>
-    </row>
-    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="46"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="36"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="28"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
       <c r="F100" s="8" t="s">
         <v>329</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="16"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="44"/>
-    </row>
-    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="46"/>
-      <c r="B101" s="27">
+      <c r="J100" s="34"/>
+      <c r="K100" s="37"/>
+    </row>
+    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="28"/>
+      <c r="B101" s="38">
         <v>30</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D101" s="30" t="s">
+      <c r="D101" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="E101" s="30" t="s">
+      <c r="E101" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F101" s="12" t="s">
@@ -4466,17 +4446,17 @@
       <c r="I101" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="J101" s="30" t="s">
+      <c r="J101" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="K101" s="33"/>
-    </row>
-    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="46"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
+      <c r="K101" s="42"/>
+    </row>
+    <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="28"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
       <c r="F102" s="13" t="s">
         <v>21</v>
       </c>
@@ -4487,36 +4467,36 @@
         <v>151</v>
       </c>
       <c r="I102" s="13"/>
-      <c r="J102" s="31"/>
-      <c r="K102" s="34"/>
-    </row>
-    <row r="103" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="46"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="43"/>
+    </row>
+    <row r="103" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="28"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
       <c r="F103" s="14" t="s">
         <v>131</v>
       </c>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="18"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="35"/>
-    </row>
-    <row r="104" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="46"/>
-      <c r="B104" s="36">
+      <c r="J103" s="45"/>
+      <c r="K103" s="44"/>
+    </row>
+    <row r="104" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="28"/>
+      <c r="B104" s="29">
         <v>31</v>
       </c>
-      <c r="C104" s="39" t="s">
+      <c r="C104" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D104" s="39" t="s">
+      <c r="D104" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="E104" s="39" t="s">
+      <c r="E104" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F104" s="7" t="s">
@@ -4531,53 +4511,53 @@
       <c r="I104" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="J104" s="39" t="s">
+      <c r="J104" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="K104" s="42"/>
-    </row>
-    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="46"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="40"/>
+      <c r="K104" s="35"/>
+    </row>
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="28"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
       <c r="F105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="43"/>
-    </row>
-    <row r="106" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="46"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="36"/>
+    </row>
+    <row r="106" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="28"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
       <c r="F106" s="8" t="s">
         <v>131</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="16"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="44"/>
-    </row>
-    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="46"/>
-      <c r="B107" s="27">
+      <c r="J106" s="34"/>
+      <c r="K106" s="37"/>
+    </row>
+    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="28"/>
+      <c r="B107" s="38">
         <v>32</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="C107" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D107" s="30" t="s">
+      <c r="D107" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E107" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F107" s="12" t="s">
@@ -4592,18 +4572,17 @@
       <c r="I107" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="J107" s="30" t="s">
+      <c r="J107" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="K107" s="33"/>
-      <c r="L107" s="77"/>
-    </row>
-    <row r="108" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="46"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
+      <c r="K107" s="42"/>
+    </row>
+    <row r="108" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="28"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
       <c r="F108" s="13" t="s">
         <v>21</v>
       </c>
@@ -4616,38 +4595,36 @@
       <c r="I108" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="J108" s="31"/>
-      <c r="K108" s="34"/>
-      <c r="L108" s="77"/>
-    </row>
-    <row r="109" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="46"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="43"/>
+    </row>
+    <row r="109" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="28"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
       <c r="F109" s="14" t="s">
         <v>145</v>
       </c>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
-      <c r="J109" s="32"/>
-      <c r="K109" s="35"/>
-      <c r="L109" s="77"/>
-    </row>
-    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="46"/>
-      <c r="B110" s="36">
+      <c r="J109" s="45"/>
+      <c r="K109" s="44"/>
+    </row>
+    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="28"/>
+      <c r="B110" s="29">
         <v>33</v>
       </c>
-      <c r="C110" s="39" t="s">
+      <c r="C110" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D110" s="39" t="s">
+      <c r="D110" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E110" s="39" t="s">
+      <c r="E110" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F110" s="7" t="s">
@@ -4662,18 +4639,17 @@
       <c r="I110" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J110" s="39" t="s">
+      <c r="J110" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="K110" s="42"/>
-      <c r="L110" s="77"/>
-    </row>
-    <row r="111" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="46"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="40"/>
+      <c r="K110" s="35"/>
+    </row>
+    <row r="111" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="28"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
       <c r="F111" s="2" t="s">
         <v>21</v>
       </c>
@@ -4686,38 +4662,36 @@
       <c r="I111" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J111" s="40"/>
-      <c r="K111" s="43"/>
-      <c r="L111" s="77"/>
-    </row>
-    <row r="112" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="46"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="36"/>
+    </row>
+    <row r="112" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="28"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
       <c r="F112" s="8" t="s">
         <v>145</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="44"/>
-      <c r="L112" s="77"/>
-    </row>
-    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="46"/>
-      <c r="B113" s="27">
+      <c r="J112" s="34"/>
+      <c r="K112" s="37"/>
+    </row>
+    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="28"/>
+      <c r="B113" s="38">
         <v>34</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="C113" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D113" s="30" t="s">
+      <c r="D113" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="E113" s="30" t="s">
+      <c r="E113" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F113" s="12" t="s">
@@ -4732,18 +4706,17 @@
       <c r="I113" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="J113" s="30" t="s">
+      <c r="J113" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="K113" s="33"/>
-      <c r="L113" s="77"/>
-    </row>
-    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="46"/>
-      <c r="B114" s="28"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
+      <c r="K113" s="42"/>
+    </row>
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="28"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
       <c r="F114" s="13" t="s">
         <v>21</v>
       </c>
@@ -4756,38 +4729,36 @@
       <c r="I114" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="J114" s="31"/>
-      <c r="K114" s="34"/>
-      <c r="L114" s="77"/>
-    </row>
-    <row r="115" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="46"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="43"/>
+    </row>
+    <row r="115" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="28"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="45"/>
       <c r="F115" s="14" t="s">
         <v>145</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
-      <c r="J115" s="32"/>
-      <c r="K115" s="35"/>
-      <c r="L115" s="77"/>
-    </row>
-    <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="46"/>
-      <c r="B116" s="36">
+      <c r="J115" s="45"/>
+      <c r="K115" s="44"/>
+    </row>
+    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="28"/>
+      <c r="B116" s="29">
         <v>35</v>
       </c>
-      <c r="C116" s="39" t="s">
+      <c r="C116" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D116" s="39" t="s">
+      <c r="D116" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E116" s="39" t="s">
+      <c r="E116" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F116" s="7" t="s">
@@ -4802,18 +4773,17 @@
       <c r="I116" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="J116" s="39" t="s">
+      <c r="J116" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="K116" s="42"/>
-      <c r="L116" s="77"/>
-    </row>
-    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="46"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="40"/>
-      <c r="D117" s="40"/>
-      <c r="E117" s="40"/>
+      <c r="K116" s="35"/>
+    </row>
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="28"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
       <c r="F117" s="2" t="s">
         <v>21</v>
       </c>
@@ -4826,38 +4796,36 @@
       <c r="I117" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J117" s="40"/>
-      <c r="K117" s="43"/>
-      <c r="L117" s="77"/>
-    </row>
-    <row r="118" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="46"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="36"/>
+    </row>
+    <row r="118" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="28"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
       <c r="F118" s="8" t="s">
         <v>145</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
-      <c r="J118" s="41"/>
-      <c r="K118" s="44"/>
-      <c r="L118" s="77"/>
-    </row>
-    <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="46"/>
-      <c r="B119" s="27">
+      <c r="J118" s="34"/>
+      <c r="K118" s="37"/>
+    </row>
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="28"/>
+      <c r="B119" s="38">
         <v>36</v>
       </c>
-      <c r="C119" s="30" t="s">
+      <c r="C119" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D119" s="30" t="s">
+      <c r="D119" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="E119" s="30" t="s">
+      <c r="E119" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F119" s="12" t="s">
@@ -4872,18 +4840,17 @@
       <c r="I119" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="J119" s="30" t="s">
+      <c r="J119" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="K119" s="33"/>
-      <c r="L119" s="77"/>
-    </row>
-    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="46"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
+      <c r="K119" s="42"/>
+    </row>
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="28"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
       <c r="F120" s="13" t="s">
         <v>21</v>
       </c>
@@ -4896,38 +4863,36 @@
       <c r="I120" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="J120" s="31"/>
-      <c r="K120" s="34"/>
-      <c r="L120" s="77"/>
-    </row>
-    <row r="121" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="46"/>
-      <c r="B121" s="29"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
+      <c r="J120" s="41"/>
+      <c r="K120" s="43"/>
+    </row>
+    <row r="121" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="28"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
       <c r="F121" s="14" t="s">
         <v>145</v>
       </c>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="35"/>
-      <c r="L121" s="77"/>
-    </row>
-    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="46"/>
-      <c r="B122" s="36">
+      <c r="J121" s="45"/>
+      <c r="K121" s="44"/>
+    </row>
+    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="28"/>
+      <c r="B122" s="29">
         <v>37</v>
       </c>
-      <c r="C122" s="39" t="s">
+      <c r="C122" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D122" s="39" t="s">
+      <c r="D122" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="E122" s="39" t="s">
+      <c r="E122" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F122" s="7" t="s">
@@ -4942,18 +4907,17 @@
       <c r="I122" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="J122" s="39" t="s">
+      <c r="J122" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="K122" s="42"/>
-      <c r="L122" s="77"/>
-    </row>
-    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="46"/>
-      <c r="B123" s="37"/>
-      <c r="C123" s="40"/>
-      <c r="D123" s="40"/>
-      <c r="E123" s="40"/>
+      <c r="K122" s="35"/>
+    </row>
+    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="28"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
       <c r="F123" s="2" t="s">
         <v>21</v>
       </c>
@@ -4966,38 +4930,36 @@
       <c r="I123" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J123" s="40"/>
-      <c r="K123" s="43"/>
-      <c r="L123" s="77"/>
-    </row>
-    <row r="124" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="46"/>
-      <c r="B124" s="38"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="36"/>
+    </row>
+    <row r="124" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="28"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
       <c r="F124" s="8" t="s">
         <v>145</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
-      <c r="J124" s="41"/>
-      <c r="K124" s="44"/>
-      <c r="L124" s="77"/>
-    </row>
-    <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="46"/>
-      <c r="B125" s="27">
+      <c r="J124" s="34"/>
+      <c r="K124" s="37"/>
+    </row>
+    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="28"/>
+      <c r="B125" s="38">
         <v>38</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="C125" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D125" s="30" t="s">
+      <c r="D125" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="E125" s="30" t="s">
+      <c r="E125" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F125" s="12" t="s">
@@ -5012,18 +4974,17 @@
       <c r="I125" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="J125" s="30" t="s">
+      <c r="J125" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="K125" s="33"/>
-      <c r="L125" s="77"/>
-    </row>
-    <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="46"/>
-      <c r="B126" s="28"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="31"/>
+      <c r="K125" s="42"/>
+    </row>
+    <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="28"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
       <c r="F126" s="13" t="s">
         <v>21</v>
       </c>
@@ -5036,38 +4997,36 @@
       <c r="I126" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="J126" s="31"/>
-      <c r="K126" s="34"/>
-      <c r="L126" s="77"/>
-    </row>
-    <row r="127" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="46"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
+      <c r="J126" s="41"/>
+      <c r="K126" s="43"/>
+    </row>
+    <row r="127" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="28"/>
+      <c r="B127" s="46"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="45"/>
       <c r="F127" s="14" t="s">
         <v>145</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
-      <c r="J127" s="32"/>
-      <c r="K127" s="35"/>
-      <c r="L127" s="77"/>
-    </row>
-    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="46"/>
-      <c r="B128" s="36">
+      <c r="J127" s="45"/>
+      <c r="K127" s="44"/>
+    </row>
+    <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="28"/>
+      <c r="B128" s="29">
         <v>39</v>
       </c>
-      <c r="C128" s="39" t="s">
+      <c r="C128" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D128" s="39" t="s">
+      <c r="D128" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="E128" s="39" t="s">
+      <c r="E128" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F128" s="7" t="s">
@@ -5082,18 +5041,17 @@
       <c r="I128" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="J128" s="39" t="s">
+      <c r="J128" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="K128" s="42"/>
-      <c r="L128" s="77"/>
-    </row>
-    <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="46"/>
-      <c r="B129" s="37"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="40"/>
-      <c r="E129" s="40"/>
+      <c r="K128" s="35"/>
+    </row>
+    <row r="129" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="28"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
       <c r="F129" s="2" t="s">
         <v>21</v>
       </c>
@@ -5106,38 +5064,36 @@
       <c r="I129" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J129" s="40"/>
-      <c r="K129" s="43"/>
-      <c r="L129" s="77"/>
-    </row>
-    <row r="130" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="46"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="41"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="36"/>
+    </row>
+    <row r="130" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="28"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
       <c r="F130" s="8" t="s">
         <v>145</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
-      <c r="J130" s="41"/>
-      <c r="K130" s="44"/>
-      <c r="L130" s="77"/>
-    </row>
-    <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="46"/>
-      <c r="B131" s="27">
+      <c r="J130" s="34"/>
+      <c r="K130" s="37"/>
+    </row>
+    <row r="131" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="28"/>
+      <c r="B131" s="38">
         <v>40</v>
       </c>
-      <c r="C131" s="30" t="s">
+      <c r="C131" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D131" s="30" t="s">
+      <c r="D131" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="E131" s="30" t="s">
+      <c r="E131" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F131" s="12" t="s">
@@ -5152,18 +5108,17 @@
       <c r="I131" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="J131" s="30" t="s">
+      <c r="J131" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="K131" s="33"/>
-      <c r="L131" s="77"/>
-    </row>
-    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="46"/>
-      <c r="B132" s="28"/>
-      <c r="C132" s="31"/>
-      <c r="D132" s="31"/>
-      <c r="E132" s="31"/>
+      <c r="K131" s="42"/>
+    </row>
+    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="28"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
       <c r="F132" s="13" t="s">
         <v>21</v>
       </c>
@@ -5176,16 +5131,15 @@
       <c r="I132" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="J132" s="31"/>
-      <c r="K132" s="34"/>
-      <c r="L132" s="77"/>
-    </row>
-    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="46"/>
-      <c r="B133" s="28"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="43"/>
+    </row>
+    <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="28"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
       <c r="F133" s="19" t="s">
         <v>145</v>
       </c>
@@ -5198,16 +5152,15 @@
       <c r="I133" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="J133" s="31"/>
-      <c r="K133" s="34"/>
-      <c r="L133" s="77"/>
-    </row>
-    <row r="134" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="46"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="43"/>
+    </row>
+    <row r="134" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="28"/>
+      <c r="B134" s="46"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
       <c r="F134" s="14"/>
       <c r="G134" s="20" t="s">
         <v>187</v>
@@ -5218,22 +5171,21 @@
       <c r="I134" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="J134" s="32"/>
-      <c r="K134" s="35"/>
-      <c r="L134" s="77"/>
-    </row>
-    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="46"/>
-      <c r="B135" s="36">
+      <c r="J134" s="45"/>
+      <c r="K134" s="44"/>
+    </row>
+    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="28"/>
+      <c r="B135" s="29">
         <v>41</v>
       </c>
-      <c r="C135" s="39" t="s">
+      <c r="C135" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="39" t="s">
+      <c r="D135" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E135" s="39" t="s">
+      <c r="E135" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F135" s="7" t="s">
@@ -5248,18 +5200,17 @@
       <c r="I135" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="J135" s="39" t="s">
+      <c r="J135" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="K135" s="42"/>
-      <c r="L135" s="77"/>
-    </row>
-    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="46"/>
-      <c r="B136" s="37"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="40"/>
-      <c r="E136" s="40"/>
+      <c r="K135" s="35"/>
+    </row>
+    <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="28"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
       <c r="F136" s="2" t="s">
         <v>21</v>
       </c>
@@ -5270,40 +5221,38 @@
       <c r="I136" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J136" s="40"/>
-      <c r="K136" s="43"/>
-      <c r="L136" s="77"/>
-    </row>
-    <row r="137" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="46"/>
-      <c r="B137" s="38"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="41"/>
-      <c r="E137" s="41"/>
+      <c r="J136" s="33"/>
+      <c r="K136" s="36"/>
+    </row>
+    <row r="137" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="28"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
       <c r="F137" s="8" t="s">
         <v>145</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
-      <c r="J137" s="41"/>
-      <c r="K137" s="44"/>
-      <c r="L137" s="77"/>
-    </row>
-    <row r="138" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A138" s="45" t="s">
+      <c r="J137" s="34"/>
+      <c r="K137" s="37"/>
+    </row>
+    <row r="138" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="B138" s="27">
+      <c r="B138" s="38">
         <v>42</v>
       </c>
-      <c r="C138" s="30" t="s">
+      <c r="C138" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D138" s="30" t="s">
+      <c r="D138" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="E138" s="30" t="s">
+      <c r="E138" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F138" s="12" t="s">
@@ -5318,53 +5267,53 @@
       <c r="I138" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="J138" s="30" t="s">
+      <c r="J138" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="K138" s="33"/>
-    </row>
-    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="46"/>
-      <c r="B139" s="28"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="31"/>
+      <c r="K138" s="42"/>
+    </row>
+    <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="28"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="41"/>
       <c r="F139" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="13"/>
       <c r="I139" s="13"/>
-      <c r="J139" s="31"/>
-      <c r="K139" s="34"/>
-    </row>
-    <row r="140" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="46"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="32"/>
+      <c r="J139" s="41"/>
+      <c r="K139" s="43"/>
+    </row>
+    <row r="140" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="28"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="45"/>
       <c r="F140" s="14" t="s">
         <v>131</v>
       </c>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
-      <c r="J140" s="32"/>
-      <c r="K140" s="35"/>
-    </row>
-    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="46"/>
-      <c r="B141" s="36">
+      <c r="J140" s="45"/>
+      <c r="K140" s="44"/>
+    </row>
+    <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="28"/>
+      <c r="B141" s="29">
         <v>43</v>
       </c>
-      <c r="C141" s="39" t="s">
+      <c r="C141" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D141" s="39" t="s">
+      <c r="D141" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E141" s="39" t="s">
+      <c r="E141" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F141" s="7" t="s">
@@ -5376,17 +5325,20 @@
       <c r="H141" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="I141" s="7"/>
-      <c r="J141" s="39"/>
-      <c r="K141" s="42"/>
-      <c r="L141" s="26"/>
-    </row>
-    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="46"/>
-      <c r="B142" s="37"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="40"/>
+      <c r="I141" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J141" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="K141" s="35"/>
+    </row>
+    <row r="142" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="28"/>
+      <c r="B142" s="30"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
       <c r="F142" s="2" t="s">
         <v>21</v>
       </c>
@@ -5396,39 +5348,39 @@
       <c r="H142" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I142" s="2"/>
-      <c r="J142" s="40"/>
-      <c r="K142" s="43"/>
-      <c r="L142" s="26"/>
-    </row>
-    <row r="143" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="46"/>
-      <c r="B143" s="38"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="41"/>
-      <c r="E143" s="41"/>
+      <c r="I142" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J142" s="33"/>
+      <c r="K142" s="36"/>
+    </row>
+    <row r="143" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="28"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="34"/>
       <c r="F143" s="8" t="s">
         <v>202</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
-      <c r="J143" s="41"/>
-      <c r="K143" s="44"/>
-      <c r="L143" s="26"/>
-    </row>
-    <row r="144" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A144" s="46"/>
-      <c r="B144" s="27">
+      <c r="J143" s="34"/>
+      <c r="K143" s="37"/>
+    </row>
+    <row r="144" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144" s="28"/>
+      <c r="B144" s="38">
         <v>44</v>
       </c>
-      <c r="C144" s="30" t="s">
+      <c r="C144" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D144" s="30" t="s">
+      <c r="D144" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="E144" s="30" t="s">
+      <c r="E144" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F144" s="12" t="s">
@@ -5443,53 +5395,53 @@
       <c r="I144" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="J144" s="30" t="s">
+      <c r="J144" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="K144" s="33"/>
+      <c r="K144" s="42"/>
     </row>
     <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="46"/>
-      <c r="B145" s="28"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="31"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="41"/>
+      <c r="E145" s="41"/>
       <c r="F145" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G145" s="13"/>
       <c r="H145" s="13"/>
       <c r="I145" s="13"/>
-      <c r="J145" s="31"/>
-      <c r="K145" s="34"/>
+      <c r="J145" s="41"/>
+      <c r="K145" s="43"/>
     </row>
     <row r="146" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="46"/>
-      <c r="B146" s="29"/>
-      <c r="C146" s="32"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="32"/>
+      <c r="A146" s="28"/>
+      <c r="B146" s="46"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="45"/>
+      <c r="E146" s="45"/>
       <c r="F146" s="14" t="s">
         <v>202</v>
       </c>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
-      <c r="J146" s="32"/>
-      <c r="K146" s="35"/>
+      <c r="J146" s="45"/>
+      <c r="K146" s="44"/>
     </row>
     <row r="147" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="46"/>
-      <c r="B147" s="36">
+      <c r="A147" s="28"/>
+      <c r="B147" s="29">
         <v>45</v>
       </c>
-      <c r="C147" s="39" t="s">
+      <c r="C147" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D147" s="39" t="s">
+      <c r="D147" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E147" s="39" t="s">
+      <c r="E147" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F147" s="7" t="s">
@@ -5501,16 +5453,20 @@
       <c r="H147" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I147" s="7"/>
-      <c r="J147" s="39"/>
-      <c r="K147" s="42"/>
-    </row>
-    <row r="148" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="46"/>
-      <c r="B148" s="37"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="40"/>
-      <c r="E148" s="40"/>
+      <c r="I147" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J147" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K147" s="35"/>
+    </row>
+    <row r="148" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A148" s="28"/>
+      <c r="B148" s="30"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
       <c r="F148" s="2" t="s">
         <v>21</v>
       </c>
@@ -5520,37 +5476,39 @@
       <c r="H148" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I148" s="2"/>
-      <c r="J148" s="40"/>
-      <c r="K148" s="43"/>
+      <c r="I148" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J148" s="33"/>
+      <c r="K148" s="36"/>
     </row>
     <row r="149" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="46"/>
-      <c r="B149" s="38"/>
-      <c r="C149" s="41"/>
-      <c r="D149" s="41"/>
-      <c r="E149" s="41"/>
+      <c r="A149" s="28"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="34"/>
       <c r="F149" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
-      <c r="J149" s="41"/>
-      <c r="K149" s="44"/>
+      <c r="J149" s="34"/>
+      <c r="K149" s="37"/>
     </row>
     <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="46"/>
-      <c r="B150" s="27">
+      <c r="A150" s="28"/>
+      <c r="B150" s="38">
         <v>46</v>
       </c>
-      <c r="C150" s="30" t="s">
+      <c r="C150" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D150" s="30" t="s">
+      <c r="D150" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="E150" s="30" t="s">
+      <c r="E150" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F150" s="12" t="s">
@@ -5562,16 +5520,20 @@
       <c r="H150" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="I150" s="12"/>
-      <c r="J150" s="30"/>
-      <c r="K150" s="33"/>
+      <c r="I150" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="J150" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K150" s="42"/>
     </row>
     <row r="151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="46"/>
-      <c r="B151" s="28"/>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="31"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="41"/>
+      <c r="E151" s="41"/>
       <c r="F151" s="13" t="s">
         <v>21</v>
       </c>
@@ -5581,16 +5543,18 @@
       <c r="H151" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="I151" s="13"/>
-      <c r="J151" s="31"/>
-      <c r="K151" s="34"/>
+      <c r="I151" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="J151" s="41"/>
+      <c r="K151" s="43"/>
     </row>
     <row r="152" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="46"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="32"/>
+      <c r="A152" s="28"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="45"/>
+      <c r="E152" s="45"/>
       <c r="F152" s="14" t="s">
         <v>206</v>
       </c>
@@ -5600,22 +5564,24 @@
       <c r="H152" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="I152" s="14"/>
-      <c r="J152" s="32"/>
-      <c r="K152" s="35"/>
+      <c r="I152" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J152" s="45"/>
+      <c r="K152" s="44"/>
     </row>
     <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="46"/>
-      <c r="B153" s="36">
+      <c r="A153" s="28"/>
+      <c r="B153" s="29">
         <v>47</v>
       </c>
-      <c r="C153" s="39" t="s">
+      <c r="C153" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D153" s="39" t="s">
+      <c r="D153" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="E153" s="39" t="s">
+      <c r="E153" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F153" s="7" t="s">
@@ -5627,16 +5593,20 @@
       <c r="H153" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="I153" s="7"/>
-      <c r="J153" s="39"/>
-      <c r="K153" s="42"/>
+      <c r="I153" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J153" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="K153" s="35"/>
     </row>
     <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="46"/>
-      <c r="B154" s="37"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="40"/>
-      <c r="E154" s="40"/>
+      <c r="A154" s="28"/>
+      <c r="B154" s="30"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
       <c r="F154" s="2" t="s">
         <v>21</v>
       </c>
@@ -5646,37 +5616,39 @@
       <c r="H154" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I154" s="2"/>
-      <c r="J154" s="40"/>
-      <c r="K154" s="43"/>
+      <c r="I154" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J154" s="33"/>
+      <c r="K154" s="36"/>
     </row>
     <row r="155" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="46"/>
-      <c r="B155" s="38"/>
-      <c r="C155" s="41"/>
-      <c r="D155" s="41"/>
-      <c r="E155" s="41"/>
+      <c r="A155" s="28"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="34"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="34"/>
       <c r="F155" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
-      <c r="J155" s="41"/>
-      <c r="K155" s="44"/>
+      <c r="J155" s="34"/>
+      <c r="K155" s="37"/>
     </row>
     <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="46"/>
-      <c r="B156" s="27">
+      <c r="A156" s="28"/>
+      <c r="B156" s="38">
         <v>48</v>
       </c>
-      <c r="C156" s="30" t="s">
+      <c r="C156" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D156" s="30" t="s">
+      <c r="D156" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="E156" s="30" t="s">
+      <c r="E156" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F156" s="12" t="s">
@@ -5688,16 +5660,20 @@
       <c r="H156" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="I156" s="12"/>
-      <c r="J156" s="30"/>
-      <c r="K156" s="33"/>
+      <c r="I156" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="J156" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K156" s="42"/>
     </row>
     <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="46"/>
-      <c r="B157" s="28"/>
-      <c r="C157" s="31"/>
-      <c r="D157" s="31"/>
-      <c r="E157" s="31"/>
+      <c r="A157" s="28"/>
+      <c r="B157" s="39"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="41"/>
       <c r="F157" s="13" t="s">
         <v>21</v>
       </c>
@@ -5707,37 +5683,39 @@
       <c r="H157" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="I157" s="13"/>
-      <c r="J157" s="31"/>
-      <c r="K157" s="34"/>
+      <c r="I157" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J157" s="41"/>
+      <c r="K157" s="43"/>
     </row>
     <row r="158" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="46"/>
-      <c r="B158" s="29"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
+      <c r="A158" s="28"/>
+      <c r="B158" s="46"/>
+      <c r="C158" s="45"/>
+      <c r="D158" s="45"/>
+      <c r="E158" s="45"/>
       <c r="F158" s="14" t="s">
         <v>206</v>
       </c>
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
-      <c r="J158" s="32"/>
-      <c r="K158" s="35"/>
-    </row>
-    <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="46"/>
-      <c r="B159" s="36">
+      <c r="J158" s="45"/>
+      <c r="K158" s="44"/>
+    </row>
+    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="28"/>
+      <c r="B159" s="29">
         <v>49</v>
       </c>
-      <c r="C159" s="39" t="s">
+      <c r="C159" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D159" s="39" t="s">
+      <c r="D159" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="E159" s="39" t="s">
+      <c r="E159" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="7" t="s">
@@ -5749,52 +5727,56 @@
       <c r="H159" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="I159" s="7"/>
-      <c r="J159" s="39"/>
-      <c r="K159" s="42"/>
+      <c r="I159" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="J159" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="K159" s="35"/>
     </row>
     <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="46"/>
-      <c r="B160" s="37"/>
-      <c r="C160" s="40"/>
-      <c r="D160" s="40"/>
-      <c r="E160" s="40"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="30"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
       <c r="F160" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
-      <c r="J160" s="40"/>
-      <c r="K160" s="43"/>
+      <c r="J160" s="33"/>
+      <c r="K160" s="36"/>
     </row>
     <row r="161" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="46"/>
-      <c r="B161" s="38"/>
-      <c r="C161" s="41"/>
-      <c r="D161" s="41"/>
-      <c r="E161" s="41"/>
+      <c r="A161" s="28"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="34"/>
+      <c r="E161" s="34"/>
       <c r="F161" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
-      <c r="J161" s="41"/>
-      <c r="K161" s="44"/>
+      <c r="J161" s="34"/>
+      <c r="K161" s="37"/>
     </row>
     <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="46"/>
-      <c r="B162" s="27">
+      <c r="A162" s="28"/>
+      <c r="B162" s="38">
         <v>50</v>
       </c>
-      <c r="C162" s="30" t="s">
+      <c r="C162" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D162" s="30" t="s">
+      <c r="D162" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="E162" s="30" t="s">
+      <c r="E162" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F162" s="12" t="s">
@@ -5806,16 +5788,20 @@
       <c r="H162" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="I162" s="12"/>
-      <c r="J162" s="30"/>
-      <c r="K162" s="33"/>
+      <c r="I162" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J162" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K162" s="42"/>
     </row>
     <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="46"/>
-      <c r="B163" s="28"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="31"/>
+      <c r="A163" s="28"/>
+      <c r="B163" s="39"/>
+      <c r="C163" s="41"/>
+      <c r="D163" s="41"/>
+      <c r="E163" s="41"/>
       <c r="F163" s="13" t="s">
         <v>21</v>
       </c>
@@ -5825,37 +5811,39 @@
       <c r="H163" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I163" s="13"/>
-      <c r="J163" s="31"/>
-      <c r="K163" s="34"/>
+      <c r="I163" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J163" s="41"/>
+      <c r="K163" s="43"/>
     </row>
     <row r="164" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="46"/>
-      <c r="B164" s="29"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="32"/>
-      <c r="E164" s="32"/>
+      <c r="A164" s="28"/>
+      <c r="B164" s="46"/>
+      <c r="C164" s="45"/>
+      <c r="D164" s="45"/>
+      <c r="E164" s="45"/>
       <c r="F164" s="14" t="s">
         <v>202</v>
       </c>
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
-      <c r="J164" s="32"/>
-      <c r="K164" s="35"/>
-    </row>
-    <row r="165" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A165" s="46"/>
-      <c r="B165" s="36">
+      <c r="J164" s="45"/>
+      <c r="K164" s="44"/>
+    </row>
+    <row r="165" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A165" s="28"/>
+      <c r="B165" s="29">
         <v>51</v>
       </c>
-      <c r="C165" s="39" t="s">
+      <c r="C165" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D165" s="39" t="s">
+      <c r="D165" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="E165" s="39" t="s">
+      <c r="E165" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F165" s="7" t="s">
@@ -5867,16 +5855,20 @@
       <c r="H165" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="I165" s="7"/>
-      <c r="J165" s="39"/>
-      <c r="K165" s="42"/>
+      <c r="I165" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J165" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K165" s="35"/>
     </row>
     <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="46"/>
-      <c r="B166" s="37"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="40"/>
-      <c r="E166" s="40"/>
+      <c r="A166" s="28"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="33"/>
       <c r="F166" s="2" t="s">
         <v>21</v>
       </c>
@@ -5886,16 +5878,18 @@
       <c r="H166" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I166" s="2"/>
-      <c r="J166" s="40"/>
-      <c r="K166" s="43"/>
-    </row>
-    <row r="167" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="46"/>
-      <c r="B167" s="38"/>
-      <c r="C167" s="41"/>
-      <c r="D167" s="41"/>
-      <c r="E167" s="41"/>
+      <c r="I166" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J166" s="33"/>
+      <c r="K166" s="36"/>
+    </row>
+    <row r="167" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="28"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="34"/>
+      <c r="D167" s="34"/>
+      <c r="E167" s="34"/>
       <c r="F167" s="8" t="s">
         <v>202</v>
       </c>
@@ -5905,22 +5899,24 @@
       <c r="H167" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="I167" s="8"/>
-      <c r="J167" s="41"/>
-      <c r="K167" s="44"/>
-    </row>
-    <row r="168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A168" s="46"/>
-      <c r="B168" s="27">
+      <c r="I167" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="J167" s="34"/>
+      <c r="K167" s="37"/>
+    </row>
+    <row r="168" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A168" s="28"/>
+      <c r="B168" s="38">
         <v>52</v>
       </c>
-      <c r="C168" s="30" t="s">
+      <c r="C168" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D168" s="30" t="s">
+      <c r="D168" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="E168" s="30" t="s">
+      <c r="E168" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F168" s="12" t="s">
@@ -5932,16 +5928,20 @@
       <c r="H168" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="I168" s="12"/>
-      <c r="J168" s="30"/>
-      <c r="K168" s="33"/>
+      <c r="I168" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J168" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K168" s="42"/>
     </row>
     <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="46"/>
-      <c r="B169" s="28"/>
-      <c r="C169" s="31"/>
-      <c r="D169" s="31"/>
-      <c r="E169" s="31"/>
+      <c r="A169" s="28"/>
+      <c r="B169" s="39"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="41"/>
+      <c r="E169" s="41"/>
       <c r="F169" s="13" t="s">
         <v>21</v>
       </c>
@@ -5951,16 +5951,18 @@
       <c r="H169" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="I169" s="13"/>
-      <c r="J169" s="31"/>
-      <c r="K169" s="34"/>
-    </row>
-    <row r="170" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="46"/>
-      <c r="B170" s="29"/>
-      <c r="C170" s="32"/>
-      <c r="D170" s="32"/>
-      <c r="E170" s="32"/>
+      <c r="I169" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="J169" s="41"/>
+      <c r="K169" s="43"/>
+    </row>
+    <row r="170" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="28"/>
+      <c r="B170" s="46"/>
+      <c r="C170" s="45"/>
+      <c r="D170" s="45"/>
+      <c r="E170" s="45"/>
       <c r="F170" s="14" t="s">
         <v>202</v>
       </c>
@@ -5970,22 +5972,24 @@
       <c r="H170" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="I170" s="14"/>
-      <c r="J170" s="32"/>
-      <c r="K170" s="35"/>
-    </row>
-    <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="46"/>
-      <c r="B171" s="36">
+      <c r="I170" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="J170" s="45"/>
+      <c r="K170" s="44"/>
+    </row>
+    <row r="171" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A171" s="28"/>
+      <c r="B171" s="29">
         <v>53</v>
       </c>
-      <c r="C171" s="39" t="s">
+      <c r="C171" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D171" s="39" t="s">
+      <c r="D171" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="E171" s="39" t="s">
+      <c r="E171" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F171" s="7" t="s">
@@ -5997,16 +6001,20 @@
       <c r="H171" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="I171" s="7"/>
-      <c r="J171" s="39"/>
-      <c r="K171" s="42"/>
-    </row>
-    <row r="172" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="46"/>
-      <c r="B172" s="37"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="40"/>
-      <c r="E172" s="40"/>
+      <c r="I171" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="J171" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K171" s="35"/>
+    </row>
+    <row r="172" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" s="28"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="33"/>
       <c r="F172" s="2" t="s">
         <v>21</v>
       </c>
@@ -6016,37 +6024,39 @@
       <c r="H172" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I172" s="2"/>
-      <c r="J172" s="40"/>
-      <c r="K172" s="43"/>
+      <c r="I172" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J172" s="33"/>
+      <c r="K172" s="36"/>
     </row>
     <row r="173" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="46"/>
-      <c r="B173" s="38"/>
-      <c r="C173" s="41"/>
-      <c r="D173" s="41"/>
-      <c r="E173" s="41"/>
+      <c r="A173" s="28"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="34"/>
+      <c r="D173" s="34"/>
+      <c r="E173" s="34"/>
       <c r="F173" s="8" t="s">
         <v>202</v>
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
-      <c r="J173" s="41"/>
-      <c r="K173" s="44"/>
-    </row>
-    <row r="174" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="46"/>
-      <c r="B174" s="27">
+      <c r="J173" s="34"/>
+      <c r="K173" s="37"/>
+    </row>
+    <row r="174" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A174" s="28"/>
+      <c r="B174" s="38">
         <v>54</v>
       </c>
-      <c r="C174" s="30" t="s">
+      <c r="C174" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D174" s="30" t="s">
+      <c r="D174" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="E174" s="30" t="s">
+      <c r="E174" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F174" s="12" t="s">
@@ -6058,16 +6068,20 @@
       <c r="H174" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="I174" s="12"/>
-      <c r="J174" s="30"/>
-      <c r="K174" s="33"/>
-    </row>
-    <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="46"/>
-      <c r="B175" s="28"/>
-      <c r="C175" s="31"/>
-      <c r="D175" s="31"/>
-      <c r="E175" s="31"/>
+      <c r="I174" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="J174" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K174" s="42"/>
+    </row>
+    <row r="175" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A175" s="28"/>
+      <c r="B175" s="39"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="41"/>
+      <c r="E175" s="41"/>
       <c r="F175" s="13" t="s">
         <v>21</v>
       </c>
@@ -6077,37 +6091,39 @@
       <c r="H175" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="I175" s="13"/>
-      <c r="J175" s="31"/>
-      <c r="K175" s="34"/>
+      <c r="I175" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="J175" s="41"/>
+      <c r="K175" s="43"/>
     </row>
     <row r="176" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="46"/>
-      <c r="B176" s="29"/>
-      <c r="C176" s="32"/>
-      <c r="D176" s="32"/>
-      <c r="E176" s="32"/>
+      <c r="A176" s="28"/>
+      <c r="B176" s="46"/>
+      <c r="C176" s="45"/>
+      <c r="D176" s="45"/>
+      <c r="E176" s="45"/>
       <c r="F176" s="14" t="s">
         <v>202</v>
       </c>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
-      <c r="J176" s="32"/>
-      <c r="K176" s="35"/>
-    </row>
-    <row r="177" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A177" s="46"/>
-      <c r="B177" s="36">
+      <c r="J176" s="45"/>
+      <c r="K176" s="44"/>
+    </row>
+    <row r="177" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A177" s="28"/>
+      <c r="B177" s="29">
         <v>55</v>
       </c>
-      <c r="C177" s="39" t="s">
+      <c r="C177" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D177" s="39" t="s">
+      <c r="D177" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="E177" s="39" t="s">
+      <c r="E177" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F177" s="7" t="s">
@@ -6119,16 +6135,20 @@
       <c r="H177" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="I177" s="7"/>
-      <c r="J177" s="39"/>
-      <c r="K177" s="42"/>
+      <c r="I177" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J177" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K177" s="35"/>
     </row>
     <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="46"/>
-      <c r="B178" s="37"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="40"/>
-      <c r="E178" s="40"/>
+      <c r="A178" s="28"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
       <c r="F178" s="2" t="s">
         <v>21</v>
       </c>
@@ -6138,16 +6158,18 @@
       <c r="H178" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I178" s="2"/>
-      <c r="J178" s="40"/>
-      <c r="K178" s="43"/>
-    </row>
-    <row r="179" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="46"/>
-      <c r="B179" s="38"/>
-      <c r="C179" s="41"/>
-      <c r="D179" s="41"/>
-      <c r="E179" s="41"/>
+      <c r="I178" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J178" s="33"/>
+      <c r="K178" s="36"/>
+    </row>
+    <row r="179" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="28"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="34"/>
+      <c r="D179" s="34"/>
+      <c r="E179" s="34"/>
       <c r="F179" s="8" t="s">
         <v>202</v>
       </c>
@@ -6157,22 +6179,24 @@
       <c r="H179" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="I179" s="8"/>
-      <c r="J179" s="41"/>
-      <c r="K179" s="44"/>
-    </row>
-    <row r="180" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A180" s="46"/>
-      <c r="B180" s="27">
+      <c r="I179" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="J179" s="34"/>
+      <c r="K179" s="37"/>
+    </row>
+    <row r="180" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A180" s="28"/>
+      <c r="B180" s="38">
         <v>56</v>
       </c>
-      <c r="C180" s="30" t="s">
+      <c r="C180" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D180" s="30" t="s">
+      <c r="D180" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="E180" s="30" t="s">
+      <c r="E180" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F180" s="12" t="s">
@@ -6184,16 +6208,20 @@
       <c r="H180" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="I180" s="12"/>
-      <c r="J180" s="30"/>
-      <c r="K180" s="33"/>
+      <c r="I180" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J180" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K180" s="42"/>
     </row>
     <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="46"/>
-      <c r="B181" s="28"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="31"/>
-      <c r="E181" s="31"/>
+      <c r="A181" s="28"/>
+      <c r="B181" s="39"/>
+      <c r="C181" s="41"/>
+      <c r="D181" s="41"/>
+      <c r="E181" s="41"/>
       <c r="F181" s="13" t="s">
         <v>21</v>
       </c>
@@ -6203,16 +6231,18 @@
       <c r="H181" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="I181" s="13"/>
-      <c r="J181" s="31"/>
-      <c r="K181" s="34"/>
-    </row>
-    <row r="182" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="46"/>
-      <c r="B182" s="29"/>
-      <c r="C182" s="32"/>
-      <c r="D182" s="32"/>
-      <c r="E182" s="32"/>
+      <c r="I181" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="J181" s="41"/>
+      <c r="K181" s="43"/>
+    </row>
+    <row r="182" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="28"/>
+      <c r="B182" s="46"/>
+      <c r="C182" s="45"/>
+      <c r="D182" s="45"/>
+      <c r="E182" s="45"/>
       <c r="F182" s="14" t="s">
         <v>202</v>
       </c>
@@ -6222,22 +6252,24 @@
       <c r="H182" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="I182" s="14"/>
-      <c r="J182" s="32"/>
-      <c r="K182" s="35"/>
-    </row>
-    <row r="183" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A183" s="46"/>
-      <c r="B183" s="36">
+      <c r="I182" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="J182" s="45"/>
+      <c r="K182" s="44"/>
+    </row>
+    <row r="183" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A183" s="28"/>
+      <c r="B183" s="29">
         <v>57</v>
       </c>
-      <c r="C183" s="39" t="s">
+      <c r="C183" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D183" s="39" t="s">
+      <c r="D183" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="E183" s="39" t="s">
+      <c r="E183" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F183" s="7" t="s">
@@ -6249,16 +6281,20 @@
       <c r="H183" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="I183" s="7"/>
-      <c r="J183" s="39"/>
-      <c r="K183" s="42"/>
+      <c r="I183" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J183" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K183" s="35"/>
     </row>
     <row r="184" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="46"/>
-      <c r="B184" s="37"/>
-      <c r="C184" s="40"/>
-      <c r="D184" s="40"/>
-      <c r="E184" s="40"/>
+      <c r="A184" s="28"/>
+      <c r="B184" s="30"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="33"/>
       <c r="F184" s="2" t="s">
         <v>21</v>
       </c>
@@ -6268,16 +6304,18 @@
       <c r="H184" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I184" s="2"/>
-      <c r="J184" s="40"/>
-      <c r="K184" s="43"/>
+      <c r="I184" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J184" s="33"/>
+      <c r="K184" s="36"/>
     </row>
     <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A185" s="45"/>
-      <c r="B185" s="37"/>
-      <c r="C185" s="40"/>
-      <c r="D185" s="40"/>
-      <c r="E185" s="40"/>
+      <c r="A185" s="27"/>
+      <c r="B185" s="30"/>
+      <c r="C185" s="33"/>
+      <c r="D185" s="33"/>
+      <c r="E185" s="33"/>
       <c r="F185" s="21" t="s">
         <v>202</v>
       </c>
@@ -6287,16 +6325,18 @@
       <c r="H185" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="I185" s="21"/>
-      <c r="J185" s="40"/>
-      <c r="K185" s="43"/>
+      <c r="I185" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="J185" s="33"/>
+      <c r="K185" s="36"/>
     </row>
     <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="46"/>
-      <c r="B186" s="37"/>
-      <c r="C186" s="40"/>
-      <c r="D186" s="40"/>
-      <c r="E186" s="40"/>
+      <c r="A186" s="28"/>
+      <c r="B186" s="30"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="33"/>
       <c r="F186" s="21"/>
       <c r="G186" s="21" t="s">
         <v>265</v>
@@ -6304,16 +6344,18 @@
       <c r="H186" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="I186" s="21"/>
-      <c r="J186" s="40"/>
-      <c r="K186" s="43"/>
-    </row>
-    <row r="187" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="46"/>
-      <c r="B187" s="38"/>
-      <c r="C187" s="41"/>
-      <c r="D187" s="41"/>
-      <c r="E187" s="41"/>
+      <c r="I186" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="J186" s="33"/>
+      <c r="K186" s="36"/>
+    </row>
+    <row r="187" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="28"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="34"/>
+      <c r="D187" s="34"/>
+      <c r="E187" s="34"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8" t="s">
         <v>268</v>
@@ -6321,22 +6363,24 @@
       <c r="H187" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="I187" s="8"/>
-      <c r="J187" s="41"/>
-      <c r="K187" s="44"/>
+      <c r="I187" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J187" s="34"/>
+      <c r="K187" s="37"/>
     </row>
     <row r="188" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="46"/>
-      <c r="B188" s="27">
+      <c r="A188" s="28"/>
+      <c r="B188" s="38">
         <v>58</v>
       </c>
-      <c r="C188" s="30" t="s">
+      <c r="C188" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D188" s="30" t="s">
+      <c r="D188" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="E188" s="30" t="s">
+      <c r="E188" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F188" s="12" t="s">
@@ -6348,16 +6392,20 @@
       <c r="H188" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="I188" s="12"/>
-      <c r="J188" s="30"/>
-      <c r="K188" s="33"/>
+      <c r="I188" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J188" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K188" s="42"/>
     </row>
     <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="46"/>
-      <c r="B189" s="28"/>
-      <c r="C189" s="31"/>
-      <c r="D189" s="31"/>
-      <c r="E189" s="31"/>
+      <c r="A189" s="28"/>
+      <c r="B189" s="39"/>
+      <c r="C189" s="41"/>
+      <c r="D189" s="41"/>
+      <c r="E189" s="41"/>
       <c r="F189" s="13" t="s">
         <v>21</v>
       </c>
@@ -6367,16 +6415,18 @@
       <c r="H189" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="I189" s="13"/>
-      <c r="J189" s="31"/>
-      <c r="K189" s="34"/>
+      <c r="I189" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="J189" s="41"/>
+      <c r="K189" s="43"/>
     </row>
     <row r="190" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="46"/>
-      <c r="B190" s="28"/>
-      <c r="C190" s="31"/>
-      <c r="D190" s="31"/>
-      <c r="E190" s="31"/>
+      <c r="A190" s="28"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="41"/>
+      <c r="D190" s="41"/>
+      <c r="E190" s="41"/>
       <c r="F190" s="13" t="s">
         <v>202</v>
       </c>
@@ -6386,16 +6436,18 @@
       <c r="H190" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="I190" s="13"/>
-      <c r="J190" s="31"/>
-      <c r="K190" s="34"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="46"/>
-      <c r="B191" s="28"/>
-      <c r="C191" s="31"/>
-      <c r="D191" s="31"/>
-      <c r="E191" s="31"/>
+      <c r="I190" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J190" s="41"/>
+      <c r="K190" s="43"/>
+    </row>
+    <row r="191" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="28"/>
+      <c r="B191" s="39"/>
+      <c r="C191" s="41"/>
+      <c r="D191" s="41"/>
+      <c r="E191" s="41"/>
       <c r="F191" s="22"/>
       <c r="G191" s="13" t="s">
         <v>265</v>
@@ -6403,16 +6455,18 @@
       <c r="H191" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I191" s="22"/>
-      <c r="J191" s="31"/>
-      <c r="K191" s="34"/>
-    </row>
-    <row r="192" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="46"/>
-      <c r="B192" s="29"/>
-      <c r="C192" s="32"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
+      <c r="I191" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="J191" s="41"/>
+      <c r="K191" s="43"/>
+    </row>
+    <row r="192" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="28"/>
+      <c r="B192" s="46"/>
+      <c r="C192" s="45"/>
+      <c r="D192" s="45"/>
+      <c r="E192" s="45"/>
       <c r="F192" s="22"/>
       <c r="G192" s="22" t="s">
         <v>268</v>
@@ -6420,22 +6474,24 @@
       <c r="H192" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="I192" s="22"/>
-      <c r="J192" s="32"/>
-      <c r="K192" s="35"/>
-    </row>
-    <row r="193" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A193" s="46"/>
-      <c r="B193" s="36">
+      <c r="I192" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J192" s="45"/>
+      <c r="K192" s="44"/>
+    </row>
+    <row r="193" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A193" s="28"/>
+      <c r="B193" s="29">
         <v>59</v>
       </c>
-      <c r="C193" s="39" t="s">
+      <c r="C193" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D193" s="39" t="s">
+      <c r="D193" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="E193" s="39" t="s">
+      <c r="E193" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F193" s="7" t="s">
@@ -6447,16 +6503,20 @@
       <c r="H193" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="I193" s="7"/>
-      <c r="J193" s="39"/>
-      <c r="K193" s="42"/>
+      <c r="I193" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J193" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K193" s="35"/>
     </row>
     <row r="194" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="46"/>
-      <c r="B194" s="37"/>
-      <c r="C194" s="40"/>
-      <c r="D194" s="40"/>
-      <c r="E194" s="40"/>
+      <c r="A194" s="28"/>
+      <c r="B194" s="30"/>
+      <c r="C194" s="33"/>
+      <c r="D194" s="33"/>
+      <c r="E194" s="33"/>
       <c r="F194" s="2" t="s">
         <v>21</v>
       </c>
@@ -6466,16 +6526,18 @@
       <c r="H194" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="I194" s="2"/>
-      <c r="J194" s="40"/>
-      <c r="K194" s="43"/>
-    </row>
-    <row r="195" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="46"/>
-      <c r="B195" s="38"/>
-      <c r="C195" s="41"/>
-      <c r="D195" s="41"/>
-      <c r="E195" s="41"/>
+      <c r="I194" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J194" s="33"/>
+      <c r="K194" s="36"/>
+    </row>
+    <row r="195" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="28"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="34"/>
+      <c r="D195" s="34"/>
+      <c r="E195" s="34"/>
       <c r="F195" s="8" t="s">
         <v>202</v>
       </c>
@@ -6485,22 +6547,24 @@
       <c r="H195" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="I195" s="8"/>
-      <c r="J195" s="41"/>
-      <c r="K195" s="44"/>
-    </row>
-    <row r="196" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A196" s="46"/>
-      <c r="B196" s="27">
+      <c r="I195" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J195" s="34"/>
+      <c r="K195" s="37"/>
+    </row>
+    <row r="196" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A196" s="28"/>
+      <c r="B196" s="38">
         <v>60</v>
       </c>
-      <c r="C196" s="30" t="s">
+      <c r="C196" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D196" s="30" t="s">
+      <c r="D196" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="E196" s="30" t="s">
+      <c r="E196" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F196" s="12" t="s">
@@ -6512,16 +6576,20 @@
       <c r="H196" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="I196" s="12"/>
-      <c r="J196" s="30"/>
-      <c r="K196" s="33"/>
-    </row>
-    <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="46"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="31"/>
-      <c r="E197" s="31"/>
+      <c r="I196" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J196" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K196" s="42"/>
+    </row>
+    <row r="197" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A197" s="28"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="41"/>
+      <c r="D197" s="41"/>
+      <c r="E197" s="41"/>
       <c r="F197" s="13" t="s">
         <v>21</v>
       </c>
@@ -6531,16 +6599,18 @@
       <c r="H197" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="I197" s="13"/>
-      <c r="J197" s="31"/>
-      <c r="K197" s="34"/>
-    </row>
-    <row r="198" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="46"/>
-      <c r="B198" s="29"/>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="32"/>
+      <c r="I197" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="J197" s="41"/>
+      <c r="K197" s="43"/>
+    </row>
+    <row r="198" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="28"/>
+      <c r="B198" s="46"/>
+      <c r="C198" s="45"/>
+      <c r="D198" s="45"/>
+      <c r="E198" s="45"/>
       <c r="F198" s="14" t="s">
         <v>202</v>
       </c>
@@ -6550,22 +6620,24 @@
       <c r="H198" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="I198" s="14"/>
-      <c r="J198" s="32"/>
-      <c r="K198" s="35"/>
-    </row>
-    <row r="199" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A199" s="46"/>
-      <c r="B199" s="36">
+      <c r="I198" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="J198" s="45"/>
+      <c r="K198" s="44"/>
+    </row>
+    <row r="199" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A199" s="28"/>
+      <c r="B199" s="29">
         <v>61</v>
       </c>
-      <c r="C199" s="39" t="s">
+      <c r="C199" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D199" s="39" t="s">
+      <c r="D199" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="E199" s="39" t="s">
+      <c r="E199" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F199" s="7" t="s">
@@ -6577,16 +6649,20 @@
       <c r="H199" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I199" s="7"/>
-      <c r="J199" s="39"/>
-      <c r="K199" s="42"/>
+      <c r="I199" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J199" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K199" s="35"/>
     </row>
     <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="46"/>
-      <c r="B200" s="37"/>
-      <c r="C200" s="40"/>
-      <c r="D200" s="40"/>
-      <c r="E200" s="40"/>
+      <c r="A200" s="28"/>
+      <c r="B200" s="30"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="33"/>
       <c r="F200" s="2" t="s">
         <v>21</v>
       </c>
@@ -6596,16 +6672,18 @@
       <c r="H200" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I200" s="2"/>
-      <c r="J200" s="40"/>
-      <c r="K200" s="43"/>
+      <c r="I200" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J200" s="33"/>
+      <c r="K200" s="36"/>
     </row>
     <row r="201" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A201" s="46"/>
-      <c r="B201" s="37"/>
-      <c r="C201" s="40"/>
-      <c r="D201" s="40"/>
-      <c r="E201" s="40"/>
+      <c r="A201" s="28"/>
+      <c r="B201" s="30"/>
+      <c r="C201" s="33"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="33"/>
       <c r="F201" s="21" t="s">
         <v>202</v>
       </c>
@@ -6615,16 +6693,18 @@
       <c r="H201" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="I201" s="21"/>
-      <c r="J201" s="40"/>
-      <c r="K201" s="43"/>
+      <c r="I201" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="J201" s="33"/>
+      <c r="K201" s="36"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="46"/>
-      <c r="B202" s="37"/>
-      <c r="C202" s="40"/>
-      <c r="D202" s="40"/>
-      <c r="E202" s="40"/>
+      <c r="A202" s="28"/>
+      <c r="B202" s="30"/>
+      <c r="C202" s="33"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="33"/>
       <c r="F202" s="21"/>
       <c r="G202" s="21" t="s">
         <v>291</v>
@@ -6632,16 +6712,18 @@
       <c r="H202" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="I202" s="21"/>
-      <c r="J202" s="40"/>
-      <c r="K202" s="43"/>
+      <c r="I202" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="J202" s="33"/>
+      <c r="K202" s="36"/>
     </row>
     <row r="203" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="46"/>
-      <c r="B203" s="37"/>
-      <c r="C203" s="40"/>
-      <c r="D203" s="40"/>
-      <c r="E203" s="40"/>
+      <c r="A203" s="28"/>
+      <c r="B203" s="30"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
       <c r="F203" s="21"/>
       <c r="G203" s="21" t="s">
         <v>293</v>
@@ -6649,16 +6731,18 @@
       <c r="H203" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="I203" s="21"/>
-      <c r="J203" s="40"/>
-      <c r="K203" s="43"/>
+      <c r="I203" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="J203" s="33"/>
+      <c r="K203" s="36"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="46"/>
-      <c r="B204" s="37"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="40"/>
-      <c r="E204" s="40"/>
+      <c r="A204" s="28"/>
+      <c r="B204" s="30"/>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
       <c r="F204" s="21"/>
       <c r="G204" s="21" t="s">
         <v>295</v>
@@ -6666,16 +6750,18 @@
       <c r="H204" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="I204" s="21"/>
-      <c r="J204" s="40"/>
-      <c r="K204" s="43"/>
+      <c r="I204" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="J204" s="33"/>
+      <c r="K204" s="36"/>
     </row>
     <row r="205" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="46"/>
-      <c r="B205" s="37"/>
-      <c r="C205" s="40"/>
-      <c r="D205" s="40"/>
-      <c r="E205" s="40"/>
+      <c r="A205" s="28"/>
+      <c r="B205" s="30"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="33"/>
       <c r="F205" s="21"/>
       <c r="G205" s="21" t="s">
         <v>297</v>
@@ -6683,16 +6769,18 @@
       <c r="H205" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="I205" s="21"/>
-      <c r="J205" s="40"/>
-      <c r="K205" s="43"/>
+      <c r="I205" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="J205" s="33"/>
+      <c r="K205" s="36"/>
     </row>
     <row r="206" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="46"/>
-      <c r="B206" s="37"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="40"/>
-      <c r="E206" s="40"/>
+      <c r="A206" s="28"/>
+      <c r="B206" s="30"/>
+      <c r="C206" s="33"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="33"/>
       <c r="F206" s="21"/>
       <c r="G206" s="21" t="s">
         <v>299</v>
@@ -6700,16 +6788,18 @@
       <c r="H206" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="I206" s="21"/>
-      <c r="J206" s="40"/>
-      <c r="K206" s="43"/>
-    </row>
-    <row r="207" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="46"/>
-      <c r="B207" s="37"/>
-      <c r="C207" s="40"/>
-      <c r="D207" s="40"/>
-      <c r="E207" s="40"/>
+      <c r="I206" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="J206" s="33"/>
+      <c r="K206" s="36"/>
+    </row>
+    <row r="207" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="28"/>
+      <c r="B207" s="30"/>
+      <c r="C207" s="33"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="33"/>
       <c r="F207" s="21"/>
       <c r="G207" s="21" t="s">
         <v>301</v>
@@ -6717,22 +6807,24 @@
       <c r="H207" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="I207" s="21"/>
-      <c r="J207" s="40"/>
-      <c r="K207" s="43"/>
+      <c r="I207" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="J207" s="33"/>
+      <c r="K207" s="36"/>
     </row>
     <row r="208" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="46"/>
-      <c r="B208" s="27">
+      <c r="A208" s="28"/>
+      <c r="B208" s="38">
         <v>62</v>
       </c>
-      <c r="C208" s="30" t="s">
+      <c r="C208" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D208" s="30" t="s">
+      <c r="D208" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="E208" s="30" t="s">
+      <c r="E208" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F208" s="12" t="s">
@@ -6744,16 +6836,20 @@
       <c r="H208" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="I208" s="12"/>
-      <c r="J208" s="30"/>
-      <c r="K208" s="33"/>
+      <c r="I208" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="J208" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K208" s="42"/>
     </row>
     <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="46"/>
-      <c r="B209" s="28"/>
-      <c r="C209" s="31"/>
-      <c r="D209" s="31"/>
-      <c r="E209" s="31"/>
+      <c r="A209" s="28"/>
+      <c r="B209" s="39"/>
+      <c r="C209" s="41"/>
+      <c r="D209" s="41"/>
+      <c r="E209" s="41"/>
       <c r="F209" s="13" t="s">
         <v>21</v>
       </c>
@@ -6763,16 +6859,18 @@
       <c r="H209" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="I209" s="13"/>
-      <c r="J209" s="31"/>
-      <c r="K209" s="34"/>
+      <c r="I209" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="J209" s="41"/>
+      <c r="K209" s="43"/>
     </row>
     <row r="210" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A210" s="46"/>
-      <c r="B210" s="28"/>
-      <c r="C210" s="31"/>
-      <c r="D210" s="31"/>
-      <c r="E210" s="31"/>
+      <c r="A210" s="28"/>
+      <c r="B210" s="39"/>
+      <c r="C210" s="41"/>
+      <c r="D210" s="41"/>
+      <c r="E210" s="41"/>
       <c r="F210" s="13" t="s">
         <v>202</v>
       </c>
@@ -6782,16 +6880,18 @@
       <c r="H210" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="I210" s="13"/>
-      <c r="J210" s="31"/>
-      <c r="K210" s="34"/>
+      <c r="I210" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="J210" s="41"/>
+      <c r="K210" s="43"/>
     </row>
     <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="46"/>
-      <c r="B211" s="28"/>
-      <c r="C211" s="31"/>
-      <c r="D211" s="31"/>
-      <c r="E211" s="31"/>
+      <c r="A211" s="28"/>
+      <c r="B211" s="39"/>
+      <c r="C211" s="41"/>
+      <c r="D211" s="41"/>
+      <c r="E211" s="41"/>
       <c r="F211" s="13" t="s">
         <v>304</v>
       </c>
@@ -6801,16 +6901,18 @@
       <c r="H211" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="I211" s="13"/>
-      <c r="J211" s="31"/>
-      <c r="K211" s="34"/>
+      <c r="I211" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="J211" s="41"/>
+      <c r="K211" s="43"/>
     </row>
     <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="46"/>
-      <c r="B212" s="28"/>
-      <c r="C212" s="31"/>
-      <c r="D212" s="31"/>
-      <c r="E212" s="31"/>
+      <c r="A212" s="28"/>
+      <c r="B212" s="39"/>
+      <c r="C212" s="41"/>
+      <c r="D212" s="41"/>
+      <c r="E212" s="41"/>
       <c r="F212" s="13"/>
       <c r="G212" s="13" t="s">
         <v>313</v>
@@ -6818,16 +6920,18 @@
       <c r="H212" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="I212" s="13"/>
-      <c r="J212" s="31"/>
-      <c r="K212" s="34"/>
+      <c r="I212" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="J212" s="41"/>
+      <c r="K212" s="43"/>
     </row>
     <row r="213" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="46"/>
-      <c r="B213" s="28"/>
-      <c r="C213" s="31"/>
-      <c r="D213" s="31"/>
-      <c r="E213" s="31"/>
+      <c r="A213" s="28"/>
+      <c r="B213" s="39"/>
+      <c r="C213" s="41"/>
+      <c r="D213" s="41"/>
+      <c r="E213" s="41"/>
       <c r="F213" s="13"/>
       <c r="G213" s="13" t="s">
         <v>315</v>
@@ -6838,15 +6942,15 @@
       <c r="I213" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="J213" s="31"/>
-      <c r="K213" s="34"/>
+      <c r="J213" s="41"/>
+      <c r="K213" s="43"/>
     </row>
     <row r="214" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="46"/>
-      <c r="B214" s="28"/>
-      <c r="C214" s="31"/>
-      <c r="D214" s="31"/>
-      <c r="E214" s="31"/>
+      <c r="A214" s="28"/>
+      <c r="B214" s="39"/>
+      <c r="C214" s="41"/>
+      <c r="D214" s="41"/>
+      <c r="E214" s="41"/>
       <c r="F214" s="13"/>
       <c r="G214" s="13" t="s">
         <v>318</v>
@@ -6854,16 +6958,18 @@
       <c r="H214" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="I214" s="13"/>
-      <c r="J214" s="31"/>
-      <c r="K214" s="34"/>
+      <c r="I214" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="J214" s="41"/>
+      <c r="K214" s="43"/>
     </row>
     <row r="215" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="46"/>
-      <c r="B215" s="28"/>
-      <c r="C215" s="31"/>
-      <c r="D215" s="31"/>
-      <c r="E215" s="31"/>
+      <c r="A215" s="28"/>
+      <c r="B215" s="39"/>
+      <c r="C215" s="41"/>
+      <c r="D215" s="41"/>
+      <c r="E215" s="41"/>
       <c r="F215" s="13"/>
       <c r="G215" s="13" t="s">
         <v>320</v>
@@ -6871,22 +6977,24 @@
       <c r="H215" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="I215" s="13"/>
-      <c r="J215" s="31"/>
-      <c r="K215" s="34"/>
-    </row>
-    <row r="216" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A216" s="46"/>
-      <c r="B216" s="36">
+      <c r="I215" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="J215" s="41"/>
+      <c r="K215" s="43"/>
+    </row>
+    <row r="216" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A216" s="28"/>
+      <c r="B216" s="29">
         <v>63</v>
       </c>
-      <c r="C216" s="39" t="s">
+      <c r="C216" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D216" s="39" t="s">
+      <c r="D216" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="E216" s="39" t="s">
+      <c r="E216" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F216" s="7" t="s">
@@ -6898,16 +7006,20 @@
       <c r="H216" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I216" s="7"/>
-      <c r="J216" s="39"/>
-      <c r="K216" s="42"/>
+      <c r="I216" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J216" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K216" s="35"/>
     </row>
     <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="46"/>
-      <c r="B217" s="37"/>
-      <c r="C217" s="40"/>
-      <c r="D217" s="40"/>
-      <c r="E217" s="40"/>
+      <c r="A217" s="28"/>
+      <c r="B217" s="30"/>
+      <c r="C217" s="33"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="33"/>
       <c r="F217" s="2" t="s">
         <v>21</v>
       </c>
@@ -6917,16 +7029,18 @@
       <c r="H217" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="I217" s="2"/>
-      <c r="J217" s="40"/>
-      <c r="K217" s="43"/>
+      <c r="I217" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J217" s="33"/>
+      <c r="K217" s="36"/>
     </row>
     <row r="218" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A218" s="46"/>
-      <c r="B218" s="37"/>
-      <c r="C218" s="40"/>
-      <c r="D218" s="40"/>
-      <c r="E218" s="40"/>
+      <c r="A218" s="28"/>
+      <c r="B218" s="30"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
       <c r="F218" s="21" t="s">
         <v>202</v>
       </c>
@@ -6936,16 +7050,18 @@
       <c r="H218" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="I218" s="21"/>
-      <c r="J218" s="40"/>
-      <c r="K218" s="43"/>
+      <c r="I218" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="J218" s="33"/>
+      <c r="K218" s="36"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="46"/>
-      <c r="B219" s="37"/>
-      <c r="C219" s="40"/>
-      <c r="D219" s="40"/>
-      <c r="E219" s="40"/>
+      <c r="A219" s="28"/>
+      <c r="B219" s="30"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
       <c r="F219" s="21"/>
       <c r="G219" s="21" t="s">
         <v>291</v>
@@ -6953,16 +7069,18 @@
       <c r="H219" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="I219" s="21"/>
-      <c r="J219" s="40"/>
-      <c r="K219" s="43"/>
+      <c r="I219" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="J219" s="33"/>
+      <c r="K219" s="36"/>
     </row>
     <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220" s="46"/>
-      <c r="B220" s="37"/>
-      <c r="C220" s="40"/>
-      <c r="D220" s="40"/>
-      <c r="E220" s="40"/>
+      <c r="A220" s="28"/>
+      <c r="B220" s="30"/>
+      <c r="C220" s="33"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33"/>
       <c r="F220" s="21"/>
       <c r="G220" s="21" t="s">
         <v>293</v>
@@ -6970,16 +7088,18 @@
       <c r="H220" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="I220" s="21"/>
-      <c r="J220" s="40"/>
-      <c r="K220" s="43"/>
+      <c r="I220" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="J220" s="33"/>
+      <c r="K220" s="36"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="46"/>
-      <c r="B221" s="37"/>
-      <c r="C221" s="40"/>
-      <c r="D221" s="40"/>
-      <c r="E221" s="40"/>
+      <c r="A221" s="28"/>
+      <c r="B221" s="30"/>
+      <c r="C221" s="33"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="33"/>
       <c r="F221" s="21"/>
       <c r="G221" s="21" t="s">
         <v>295</v>
@@ -6987,16 +7107,18 @@
       <c r="H221" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="I221" s="21"/>
-      <c r="J221" s="40"/>
-      <c r="K221" s="43"/>
+      <c r="I221" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="J221" s="33"/>
+      <c r="K221" s="36"/>
     </row>
     <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="46"/>
-      <c r="B222" s="37"/>
-      <c r="C222" s="40"/>
-      <c r="D222" s="40"/>
-      <c r="E222" s="40"/>
+      <c r="A222" s="28"/>
+      <c r="B222" s="30"/>
+      <c r="C222" s="33"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="33"/>
       <c r="F222" s="21"/>
       <c r="G222" s="21" t="s">
         <v>297</v>
@@ -7004,16 +7126,18 @@
       <c r="H222" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="I222" s="21"/>
-      <c r="J222" s="40"/>
-      <c r="K222" s="43"/>
+      <c r="I222" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="J222" s="33"/>
+      <c r="K222" s="36"/>
     </row>
     <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="46"/>
-      <c r="B223" s="37"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="40"/>
-      <c r="E223" s="40"/>
+      <c r="A223" s="28"/>
+      <c r="B223" s="30"/>
+      <c r="C223" s="33"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
       <c r="F223" s="21"/>
       <c r="G223" s="21" t="s">
         <v>299</v>
@@ -7021,16 +7145,18 @@
       <c r="H223" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="I223" s="21"/>
-      <c r="J223" s="40"/>
-      <c r="K223" s="43"/>
+      <c r="I223" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="J223" s="33"/>
+      <c r="K223" s="36"/>
     </row>
     <row r="224" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="46"/>
-      <c r="B224" s="37"/>
-      <c r="C224" s="40"/>
-      <c r="D224" s="40"/>
-      <c r="E224" s="40"/>
+      <c r="A224" s="28"/>
+      <c r="B224" s="30"/>
+      <c r="C224" s="33"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="33"/>
       <c r="F224" s="21"/>
       <c r="G224" s="21" t="s">
         <v>301</v>
@@ -7038,22 +7164,24 @@
       <c r="H224" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="I224" s="21"/>
-      <c r="J224" s="40"/>
-      <c r="K224" s="43"/>
+      <c r="I224" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="J224" s="33"/>
+      <c r="K224" s="36"/>
     </row>
     <row r="225" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="46"/>
-      <c r="B225" s="27">
+      <c r="A225" s="28"/>
+      <c r="B225" s="38">
         <v>64</v>
       </c>
-      <c r="C225" s="30" t="s">
+      <c r="C225" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D225" s="30" t="s">
+      <c r="D225" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="E225" s="30" t="s">
+      <c r="E225" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F225" s="12" t="s">
@@ -7065,16 +7193,20 @@
       <c r="H225" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="I225" s="12"/>
-      <c r="J225" s="30"/>
-      <c r="K225" s="33"/>
+      <c r="I225" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J225" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K225" s="42"/>
     </row>
     <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="46"/>
-      <c r="B226" s="28"/>
-      <c r="C226" s="31"/>
-      <c r="D226" s="31"/>
-      <c r="E226" s="31"/>
+      <c r="A226" s="28"/>
+      <c r="B226" s="39"/>
+      <c r="C226" s="41"/>
+      <c r="D226" s="41"/>
+      <c r="E226" s="41"/>
       <c r="F226" s="13" t="s">
         <v>21</v>
       </c>
@@ -7084,16 +7216,18 @@
       <c r="H226" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="I226" s="13"/>
-      <c r="J226" s="31"/>
-      <c r="K226" s="34"/>
+      <c r="I226" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="J226" s="41"/>
+      <c r="K226" s="43"/>
     </row>
     <row r="227" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A227" s="46"/>
-      <c r="B227" s="28"/>
-      <c r="C227" s="31"/>
-      <c r="D227" s="31"/>
-      <c r="E227" s="31"/>
+      <c r="A227" s="28"/>
+      <c r="B227" s="39"/>
+      <c r="C227" s="41"/>
+      <c r="D227" s="41"/>
+      <c r="E227" s="41"/>
       <c r="F227" s="13" t="s">
         <v>202</v>
       </c>
@@ -7103,16 +7237,18 @@
       <c r="H227" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="I227" s="13"/>
-      <c r="J227" s="31"/>
-      <c r="K227" s="34"/>
+      <c r="I227" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J227" s="41"/>
+      <c r="K227" s="43"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="46"/>
-      <c r="B228" s="28"/>
-      <c r="C228" s="31"/>
-      <c r="D228" s="31"/>
-      <c r="E228" s="31"/>
+      <c r="A228" s="28"/>
+      <c r="B228" s="39"/>
+      <c r="C228" s="41"/>
+      <c r="D228" s="41"/>
+      <c r="E228" s="41"/>
       <c r="F228" s="13"/>
       <c r="G228" s="13" t="s">
         <v>291</v>
@@ -7120,16 +7256,18 @@
       <c r="H228" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="I228" s="13"/>
-      <c r="J228" s="31"/>
-      <c r="K228" s="34"/>
+      <c r="I228" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="J228" s="41"/>
+      <c r="K228" s="43"/>
     </row>
     <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="46"/>
-      <c r="B229" s="28"/>
-      <c r="C229" s="31"/>
-      <c r="D229" s="31"/>
-      <c r="E229" s="31"/>
+      <c r="A229" s="28"/>
+      <c r="B229" s="39"/>
+      <c r="C229" s="41"/>
+      <c r="D229" s="41"/>
+      <c r="E229" s="41"/>
       <c r="F229" s="13"/>
       <c r="G229" s="13" t="s">
         <v>293</v>
@@ -7137,16 +7275,18 @@
       <c r="H229" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="I229" s="13"/>
-      <c r="J229" s="31"/>
-      <c r="K229" s="34"/>
+      <c r="I229" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="J229" s="41"/>
+      <c r="K229" s="43"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="46"/>
-      <c r="B230" s="28"/>
-      <c r="C230" s="31"/>
-      <c r="D230" s="31"/>
-      <c r="E230" s="31"/>
+      <c r="A230" s="28"/>
+      <c r="B230" s="39"/>
+      <c r="C230" s="41"/>
+      <c r="D230" s="41"/>
+      <c r="E230" s="41"/>
       <c r="F230" s="13"/>
       <c r="G230" s="13" t="s">
         <v>295</v>
@@ -7154,16 +7294,18 @@
       <c r="H230" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="I230" s="13"/>
-      <c r="J230" s="31"/>
-      <c r="K230" s="34"/>
+      <c r="I230" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J230" s="41"/>
+      <c r="K230" s="43"/>
     </row>
     <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="46"/>
-      <c r="B231" s="28"/>
-      <c r="C231" s="31"/>
-      <c r="D231" s="31"/>
-      <c r="E231" s="31"/>
+      <c r="A231" s="28"/>
+      <c r="B231" s="39"/>
+      <c r="C231" s="41"/>
+      <c r="D231" s="41"/>
+      <c r="E231" s="41"/>
       <c r="F231" s="13"/>
       <c r="G231" s="13" t="s">
         <v>297</v>
@@ -7171,16 +7313,18 @@
       <c r="H231" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="I231" s="13"/>
-      <c r="J231" s="31"/>
-      <c r="K231" s="34"/>
+      <c r="I231" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="J231" s="41"/>
+      <c r="K231" s="43"/>
     </row>
     <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="46"/>
-      <c r="B232" s="28"/>
-      <c r="C232" s="31"/>
-      <c r="D232" s="31"/>
-      <c r="E232" s="31"/>
+      <c r="A232" s="28"/>
+      <c r="B232" s="39"/>
+      <c r="C232" s="41"/>
+      <c r="D232" s="41"/>
+      <c r="E232" s="41"/>
       <c r="F232" s="19"/>
       <c r="G232" s="13" t="s">
         <v>299</v>
@@ -7188,16 +7332,18 @@
       <c r="H232" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="I232" s="13"/>
-      <c r="J232" s="31"/>
-      <c r="K232" s="34"/>
+      <c r="I232" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="J232" s="41"/>
+      <c r="K232" s="43"/>
     </row>
     <row r="233" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="46"/>
-      <c r="B233" s="29"/>
-      <c r="C233" s="32"/>
-      <c r="D233" s="32"/>
-      <c r="E233" s="32"/>
+      <c r="A233" s="28"/>
+      <c r="B233" s="46"/>
+      <c r="C233" s="45"/>
+      <c r="D233" s="45"/>
+      <c r="E233" s="45"/>
       <c r="F233" s="19"/>
       <c r="G233" s="13" t="s">
         <v>301</v>
@@ -7205,22 +7351,24 @@
       <c r="H233" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="I233" s="13"/>
-      <c r="J233" s="32"/>
-      <c r="K233" s="35"/>
-    </row>
-    <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="46"/>
-      <c r="B234" s="36">
+      <c r="I233" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="J233" s="45"/>
+      <c r="K233" s="44"/>
+    </row>
+    <row r="234" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A234" s="28"/>
+      <c r="B234" s="29">
         <v>65</v>
       </c>
-      <c r="C234" s="39" t="s">
+      <c r="C234" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D234" s="39" t="s">
+      <c r="D234" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="E234" s="39" t="s">
+      <c r="E234" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F234" s="7" t="s">
@@ -7232,16 +7380,20 @@
       <c r="H234" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I234" s="7"/>
-      <c r="J234" s="39"/>
-      <c r="K234" s="42"/>
+      <c r="I234" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J234" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K234" s="35"/>
     </row>
     <row r="235" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="46"/>
-      <c r="B235" s="37"/>
-      <c r="C235" s="40"/>
-      <c r="D235" s="40"/>
-      <c r="E235" s="40"/>
+      <c r="A235" s="28"/>
+      <c r="B235" s="30"/>
+      <c r="C235" s="33"/>
+      <c r="D235" s="33"/>
+      <c r="E235" s="33"/>
       <c r="F235" s="2" t="s">
         <v>21</v>
       </c>
@@ -7251,16 +7403,18 @@
       <c r="H235" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I235" s="2"/>
-      <c r="J235" s="40"/>
-      <c r="K235" s="43"/>
+      <c r="I235" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J235" s="33"/>
+      <c r="K235" s="36"/>
     </row>
     <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A236" s="46"/>
-      <c r="B236" s="37"/>
-      <c r="C236" s="40"/>
-      <c r="D236" s="40"/>
-      <c r="E236" s="40"/>
+      <c r="A236" s="28"/>
+      <c r="B236" s="30"/>
+      <c r="C236" s="33"/>
+      <c r="D236" s="33"/>
+      <c r="E236" s="33"/>
       <c r="F236" s="21" t="s">
         <v>202</v>
       </c>
@@ -7270,16 +7424,18 @@
       <c r="H236" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="I236" s="21"/>
-      <c r="J236" s="40"/>
-      <c r="K236" s="43"/>
+      <c r="I236" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="J236" s="33"/>
+      <c r="K236" s="36"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="46"/>
-      <c r="B237" s="37"/>
-      <c r="C237" s="40"/>
-      <c r="D237" s="40"/>
-      <c r="E237" s="40"/>
+      <c r="A237" s="28"/>
+      <c r="B237" s="30"/>
+      <c r="C237" s="33"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="33"/>
       <c r="F237" s="21"/>
       <c r="G237" s="21" t="s">
         <v>291</v>
@@ -7287,16 +7443,18 @@
       <c r="H237" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="I237" s="21"/>
-      <c r="J237" s="40"/>
-      <c r="K237" s="43"/>
+      <c r="I237" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="J237" s="33"/>
+      <c r="K237" s="36"/>
     </row>
     <row r="238" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="46"/>
-      <c r="B238" s="37"/>
-      <c r="C238" s="40"/>
-      <c r="D238" s="40"/>
-      <c r="E238" s="40"/>
+      <c r="A238" s="28"/>
+      <c r="B238" s="30"/>
+      <c r="C238" s="33"/>
+      <c r="D238" s="33"/>
+      <c r="E238" s="33"/>
       <c r="F238" s="21"/>
       <c r="G238" s="21" t="s">
         <v>293</v>
@@ -7304,16 +7462,18 @@
       <c r="H238" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="I238" s="21"/>
-      <c r="J238" s="40"/>
-      <c r="K238" s="43"/>
+      <c r="I238" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="J238" s="33"/>
+      <c r="K238" s="36"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="46"/>
-      <c r="B239" s="37"/>
-      <c r="C239" s="40"/>
-      <c r="D239" s="40"/>
-      <c r="E239" s="40"/>
+      <c r="A239" s="28"/>
+      <c r="B239" s="30"/>
+      <c r="C239" s="33"/>
+      <c r="D239" s="33"/>
+      <c r="E239" s="33"/>
       <c r="F239" s="21"/>
       <c r="G239" s="21" t="s">
         <v>295</v>
@@ -7321,16 +7481,18 @@
       <c r="H239" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="I239" s="21"/>
-      <c r="J239" s="40"/>
-      <c r="K239" s="43"/>
+      <c r="I239" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="J239" s="33"/>
+      <c r="K239" s="36"/>
     </row>
     <row r="240" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="46"/>
-      <c r="B240" s="37"/>
-      <c r="C240" s="40"/>
-      <c r="D240" s="40"/>
-      <c r="E240" s="40"/>
+      <c r="A240" s="28"/>
+      <c r="B240" s="30"/>
+      <c r="C240" s="33"/>
+      <c r="D240" s="33"/>
+      <c r="E240" s="33"/>
       <c r="F240" s="21"/>
       <c r="G240" s="21" t="s">
         <v>297</v>
@@ -7338,16 +7500,18 @@
       <c r="H240" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="I240" s="21"/>
-      <c r="J240" s="40"/>
-      <c r="K240" s="43"/>
+      <c r="I240" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="J240" s="33"/>
+      <c r="K240" s="36"/>
     </row>
     <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="46"/>
-      <c r="B241" s="37"/>
-      <c r="C241" s="40"/>
-      <c r="D241" s="40"/>
-      <c r="E241" s="40"/>
+      <c r="A241" s="28"/>
+      <c r="B241" s="30"/>
+      <c r="C241" s="33"/>
+      <c r="D241" s="33"/>
+      <c r="E241" s="33"/>
       <c r="F241" s="21"/>
       <c r="G241" s="21" t="s">
         <v>327</v>
@@ -7355,16 +7519,18 @@
       <c r="H241" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="I241" s="21"/>
-      <c r="J241" s="40"/>
-      <c r="K241" s="43"/>
+      <c r="I241" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="J241" s="33"/>
+      <c r="K241" s="36"/>
     </row>
     <row r="242" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="46"/>
-      <c r="B242" s="37"/>
-      <c r="C242" s="40"/>
-      <c r="D242" s="40"/>
-      <c r="E242" s="40"/>
+      <c r="A242" s="28"/>
+      <c r="B242" s="30"/>
+      <c r="C242" s="33"/>
+      <c r="D242" s="33"/>
+      <c r="E242" s="33"/>
       <c r="F242" s="21"/>
       <c r="G242" s="21" t="s">
         <v>301</v>
@@ -7372,22 +7538,24 @@
       <c r="H242" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="I242" s="21"/>
-      <c r="J242" s="40"/>
-      <c r="K242" s="43"/>
-    </row>
-    <row r="243" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A243" s="46"/>
-      <c r="B243" s="27">
+      <c r="I242" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="J242" s="33"/>
+      <c r="K242" s="36"/>
+    </row>
+    <row r="243" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A243" s="28"/>
+      <c r="B243" s="38">
         <v>66</v>
       </c>
-      <c r="C243" s="30" t="s">
+      <c r="C243" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D243" s="30" t="s">
+      <c r="D243" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="E243" s="30" t="s">
+      <c r="E243" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F243" s="12" t="s">
@@ -7399,16 +7567,20 @@
       <c r="H243" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="I243" s="12"/>
-      <c r="J243" s="30"/>
-      <c r="K243" s="33"/>
+      <c r="I243" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J243" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K243" s="42"/>
     </row>
     <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="46"/>
-      <c r="B244" s="28"/>
-      <c r="C244" s="31"/>
-      <c r="D244" s="31"/>
-      <c r="E244" s="31"/>
+      <c r="A244" s="28"/>
+      <c r="B244" s="39"/>
+      <c r="C244" s="41"/>
+      <c r="D244" s="41"/>
+      <c r="E244" s="41"/>
       <c r="F244" s="13" t="s">
         <v>21</v>
       </c>
@@ -7418,16 +7590,18 @@
       <c r="H244" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="I244" s="13"/>
-      <c r="J244" s="31"/>
-      <c r="K244" s="34"/>
+      <c r="I244" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="J244" s="41"/>
+      <c r="K244" s="43"/>
     </row>
     <row r="245" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A245" s="46"/>
-      <c r="B245" s="28"/>
-      <c r="C245" s="31"/>
-      <c r="D245" s="31"/>
-      <c r="E245" s="31"/>
+      <c r="A245" s="28"/>
+      <c r="B245" s="39"/>
+      <c r="C245" s="41"/>
+      <c r="D245" s="41"/>
+      <c r="E245" s="41"/>
       <c r="F245" s="19" t="s">
         <v>202</v>
       </c>
@@ -7437,16 +7611,18 @@
       <c r="H245" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="I245" s="19"/>
-      <c r="J245" s="31"/>
-      <c r="K245" s="34"/>
+      <c r="I245" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="J245" s="41"/>
+      <c r="K245" s="43"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="46"/>
-      <c r="B246" s="28"/>
-      <c r="C246" s="31"/>
-      <c r="D246" s="31"/>
-      <c r="E246" s="31"/>
+      <c r="A246" s="28"/>
+      <c r="B246" s="39"/>
+      <c r="C246" s="41"/>
+      <c r="D246" s="41"/>
+      <c r="E246" s="41"/>
       <c r="F246" s="19"/>
       <c r="G246" s="19" t="s">
         <v>332</v>
@@ -7454,16 +7630,18 @@
       <c r="H246" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="I246" s="19"/>
-      <c r="J246" s="31"/>
-      <c r="K246" s="34"/>
+      <c r="I246" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="J246" s="41"/>
+      <c r="K246" s="43"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="46"/>
-      <c r="B247" s="28"/>
-      <c r="C247" s="31"/>
-      <c r="D247" s="31"/>
-      <c r="E247" s="31"/>
+      <c r="A247" s="28"/>
+      <c r="B247" s="39"/>
+      <c r="C247" s="41"/>
+      <c r="D247" s="41"/>
+      <c r="E247" s="41"/>
       <c r="F247" s="19"/>
       <c r="G247" s="19" t="s">
         <v>295</v>
@@ -7471,16 +7649,18 @@
       <c r="H247" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="I247" s="19"/>
-      <c r="J247" s="31"/>
-      <c r="K247" s="34"/>
+      <c r="I247" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="J247" s="41"/>
+      <c r="K247" s="43"/>
     </row>
     <row r="248" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="46"/>
-      <c r="B248" s="28"/>
-      <c r="C248" s="31"/>
-      <c r="D248" s="31"/>
-      <c r="E248" s="31"/>
+      <c r="A248" s="28"/>
+      <c r="B248" s="39"/>
+      <c r="C248" s="41"/>
+      <c r="D248" s="41"/>
+      <c r="E248" s="41"/>
       <c r="F248" s="19"/>
       <c r="G248" s="19" t="s">
         <v>297</v>
@@ -7488,16 +7668,18 @@
       <c r="H248" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="I248" s="19"/>
-      <c r="J248" s="31"/>
-      <c r="K248" s="34"/>
+      <c r="I248" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="J248" s="41"/>
+      <c r="K248" s="43"/>
     </row>
     <row r="249" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="46"/>
-      <c r="B249" s="28"/>
-      <c r="C249" s="31"/>
-      <c r="D249" s="31"/>
-      <c r="E249" s="31"/>
+      <c r="A249" s="28"/>
+      <c r="B249" s="39"/>
+      <c r="C249" s="41"/>
+      <c r="D249" s="41"/>
+      <c r="E249" s="41"/>
       <c r="F249" s="19"/>
       <c r="G249" s="19" t="s">
         <v>299</v>
@@ -7505,16 +7687,18 @@
       <c r="H249" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="I249" s="19"/>
-      <c r="J249" s="31"/>
-      <c r="K249" s="34"/>
+      <c r="I249" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="J249" s="41"/>
+      <c r="K249" s="43"/>
     </row>
     <row r="250" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="46"/>
-      <c r="B250" s="28"/>
-      <c r="C250" s="31"/>
-      <c r="D250" s="31"/>
-      <c r="E250" s="31"/>
+      <c r="A250" s="28"/>
+      <c r="B250" s="39"/>
+      <c r="C250" s="41"/>
+      <c r="D250" s="41"/>
+      <c r="E250" s="41"/>
       <c r="F250" s="19"/>
       <c r="G250" s="19" t="s">
         <v>301</v>
@@ -7522,22 +7706,24 @@
       <c r="H250" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="I250" s="19"/>
-      <c r="J250" s="31"/>
-      <c r="K250" s="34"/>
-    </row>
-    <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A251" s="46"/>
-      <c r="B251" s="36">
+      <c r="I250" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J250" s="41"/>
+      <c r="K250" s="43"/>
+    </row>
+    <row r="251" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A251" s="28"/>
+      <c r="B251" s="29">
         <v>67</v>
       </c>
-      <c r="C251" s="39" t="s">
+      <c r="C251" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D251" s="39" t="s">
+      <c r="D251" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="E251" s="39" t="s">
+      <c r="E251" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F251" s="7" t="s">
@@ -7549,16 +7735,20 @@
       <c r="H251" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I251" s="7"/>
-      <c r="J251" s="39"/>
-      <c r="K251" s="42"/>
+      <c r="I251" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J251" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K251" s="35"/>
     </row>
     <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="46"/>
-      <c r="B252" s="37"/>
-      <c r="C252" s="40"/>
-      <c r="D252" s="40"/>
-      <c r="E252" s="40"/>
+      <c r="A252" s="28"/>
+      <c r="B252" s="30"/>
+      <c r="C252" s="33"/>
+      <c r="D252" s="33"/>
+      <c r="E252" s="33"/>
       <c r="F252" s="2" t="s">
         <v>21</v>
       </c>
@@ -7568,16 +7758,18 @@
       <c r="H252" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I252" s="2"/>
-      <c r="J252" s="40"/>
-      <c r="K252" s="43"/>
+      <c r="I252" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J252" s="33"/>
+      <c r="K252" s="36"/>
     </row>
     <row r="253" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A253" s="46"/>
-      <c r="B253" s="37"/>
-      <c r="C253" s="40"/>
-      <c r="D253" s="40"/>
-      <c r="E253" s="40"/>
+      <c r="A253" s="28"/>
+      <c r="B253" s="30"/>
+      <c r="C253" s="33"/>
+      <c r="D253" s="33"/>
+      <c r="E253" s="33"/>
       <c r="F253" s="21" t="s">
         <v>202</v>
       </c>
@@ -7587,16 +7779,18 @@
       <c r="H253" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="I253" s="21"/>
-      <c r="J253" s="40"/>
-      <c r="K253" s="43"/>
+      <c r="I253" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="J253" s="33"/>
+      <c r="K253" s="36"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="46"/>
-      <c r="B254" s="37"/>
-      <c r="C254" s="40"/>
-      <c r="D254" s="40"/>
-      <c r="E254" s="40"/>
+      <c r="A254" s="28"/>
+      <c r="B254" s="30"/>
+      <c r="C254" s="33"/>
+      <c r="D254" s="33"/>
+      <c r="E254" s="33"/>
       <c r="F254" s="21"/>
       <c r="G254" s="21" t="s">
         <v>291</v>
@@ -7604,16 +7798,18 @@
       <c r="H254" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="I254" s="21"/>
-      <c r="J254" s="40"/>
-      <c r="K254" s="43"/>
+      <c r="I254" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="J254" s="33"/>
+      <c r="K254" s="36"/>
     </row>
     <row r="255" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="46"/>
-      <c r="B255" s="37"/>
-      <c r="C255" s="40"/>
-      <c r="D255" s="40"/>
-      <c r="E255" s="40"/>
+      <c r="A255" s="28"/>
+      <c r="B255" s="30"/>
+      <c r="C255" s="33"/>
+      <c r="D255" s="33"/>
+      <c r="E255" s="33"/>
       <c r="F255" s="21"/>
       <c r="G255" s="21" t="s">
         <v>293</v>
@@ -7621,16 +7817,18 @@
       <c r="H255" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="I255" s="21"/>
-      <c r="J255" s="40"/>
-      <c r="K255" s="43"/>
+      <c r="I255" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="J255" s="33"/>
+      <c r="K255" s="36"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="46"/>
-      <c r="B256" s="37"/>
-      <c r="C256" s="40"/>
-      <c r="D256" s="40"/>
-      <c r="E256" s="40"/>
+      <c r="A256" s="28"/>
+      <c r="B256" s="30"/>
+      <c r="C256" s="33"/>
+      <c r="D256" s="33"/>
+      <c r="E256" s="33"/>
       <c r="F256" s="21"/>
       <c r="G256" s="21" t="s">
         <v>334</v>
@@ -7638,16 +7836,18 @@
       <c r="H256" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="I256" s="21"/>
-      <c r="J256" s="40"/>
-      <c r="K256" s="43"/>
+      <c r="I256" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="J256" s="33"/>
+      <c r="K256" s="36"/>
     </row>
     <row r="257" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="46"/>
-      <c r="B257" s="37"/>
-      <c r="C257" s="40"/>
-      <c r="D257" s="40"/>
-      <c r="E257" s="40"/>
+      <c r="A257" s="28"/>
+      <c r="B257" s="30"/>
+      <c r="C257" s="33"/>
+      <c r="D257" s="33"/>
+      <c r="E257" s="33"/>
       <c r="F257" s="21"/>
       <c r="G257" s="21" t="s">
         <v>299</v>
@@ -7655,16 +7855,18 @@
       <c r="H257" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="I257" s="21"/>
-      <c r="J257" s="40"/>
-      <c r="K257" s="43"/>
+      <c r="I257" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="J257" s="33"/>
+      <c r="K257" s="36"/>
     </row>
     <row r="258" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="46"/>
-      <c r="B258" s="37"/>
-      <c r="C258" s="40"/>
-      <c r="D258" s="40"/>
-      <c r="E258" s="40"/>
+      <c r="A258" s="28"/>
+      <c r="B258" s="30"/>
+      <c r="C258" s="33"/>
+      <c r="D258" s="33"/>
+      <c r="E258" s="33"/>
       <c r="F258" s="21"/>
       <c r="G258" s="21" t="s">
         <v>301</v>
@@ -7672,22 +7874,24 @@
       <c r="H258" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="I258" s="21"/>
-      <c r="J258" s="40"/>
-      <c r="K258" s="43"/>
-    </row>
-    <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A259" s="46"/>
-      <c r="B259" s="27">
+      <c r="I258" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="J258" s="33"/>
+      <c r="K258" s="36"/>
+    </row>
+    <row r="259" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A259" s="28"/>
+      <c r="B259" s="38">
         <v>68</v>
       </c>
-      <c r="C259" s="30" t="s">
+      <c r="C259" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D259" s="30" t="s">
+      <c r="D259" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="E259" s="30" t="s">
+      <c r="E259" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F259" s="12" t="s">
@@ -7699,16 +7903,20 @@
       <c r="H259" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="I259" s="12"/>
-      <c r="J259" s="30"/>
-      <c r="K259" s="33"/>
+      <c r="I259" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J259" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K259" s="42"/>
     </row>
     <row r="260" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="46"/>
-      <c r="B260" s="28"/>
-      <c r="C260" s="31"/>
-      <c r="D260" s="31"/>
-      <c r="E260" s="31"/>
+      <c r="A260" s="28"/>
+      <c r="B260" s="39"/>
+      <c r="C260" s="41"/>
+      <c r="D260" s="41"/>
+      <c r="E260" s="41"/>
       <c r="F260" s="13" t="s">
         <v>21</v>
       </c>
@@ -7718,16 +7926,18 @@
       <c r="H260" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="I260" s="13"/>
-      <c r="J260" s="31"/>
-      <c r="K260" s="34"/>
+      <c r="I260" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="J260" s="41"/>
+      <c r="K260" s="43"/>
     </row>
     <row r="261" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A261" s="46"/>
-      <c r="B261" s="28"/>
-      <c r="C261" s="31"/>
-      <c r="D261" s="31"/>
-      <c r="E261" s="31"/>
+      <c r="A261" s="28"/>
+      <c r="B261" s="39"/>
+      <c r="C261" s="41"/>
+      <c r="D261" s="41"/>
+      <c r="E261" s="41"/>
       <c r="F261" s="19" t="s">
         <v>202</v>
       </c>
@@ -7737,16 +7947,18 @@
       <c r="H261" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="I261" s="19"/>
-      <c r="J261" s="31"/>
-      <c r="K261" s="34"/>
+      <c r="I261" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="J261" s="41"/>
+      <c r="K261" s="43"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="46"/>
-      <c r="B262" s="28"/>
-      <c r="C262" s="31"/>
-      <c r="D262" s="31"/>
-      <c r="E262" s="31"/>
+      <c r="A262" s="28"/>
+      <c r="B262" s="39"/>
+      <c r="C262" s="41"/>
+      <c r="D262" s="41"/>
+      <c r="E262" s="41"/>
       <c r="F262" s="19"/>
       <c r="G262" s="19" t="s">
         <v>291</v>
@@ -7754,16 +7966,18 @@
       <c r="H262" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="I262" s="19"/>
-      <c r="J262" s="31"/>
-      <c r="K262" s="34"/>
+      <c r="I262" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="J262" s="41"/>
+      <c r="K262" s="43"/>
     </row>
     <row r="263" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="46"/>
-      <c r="B263" s="28"/>
-      <c r="C263" s="31"/>
-      <c r="D263" s="31"/>
-      <c r="E263" s="31"/>
+      <c r="A263" s="28"/>
+      <c r="B263" s="39"/>
+      <c r="C263" s="41"/>
+      <c r="D263" s="41"/>
+      <c r="E263" s="41"/>
       <c r="F263" s="19"/>
       <c r="G263" s="19" t="s">
         <v>293</v>
@@ -7771,16 +7985,18 @@
       <c r="H263" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="I263" s="19"/>
-      <c r="J263" s="31"/>
-      <c r="K263" s="34"/>
+      <c r="I263" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="J263" s="41"/>
+      <c r="K263" s="43"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="46"/>
-      <c r="B264" s="28"/>
-      <c r="C264" s="31"/>
-      <c r="D264" s="31"/>
-      <c r="E264" s="31"/>
+      <c r="A264" s="28"/>
+      <c r="B264" s="39"/>
+      <c r="C264" s="41"/>
+      <c r="D264" s="41"/>
+      <c r="E264" s="41"/>
       <c r="F264" s="19"/>
       <c r="G264" s="19" t="s">
         <v>295</v>
@@ -7788,16 +8004,18 @@
       <c r="H264" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="I264" s="19"/>
-      <c r="J264" s="31"/>
-      <c r="K264" s="34"/>
+      <c r="I264" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="J264" s="41"/>
+      <c r="K264" s="43"/>
     </row>
     <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="46"/>
-      <c r="B265" s="28"/>
-      <c r="C265" s="31"/>
-      <c r="D265" s="31"/>
-      <c r="E265" s="31"/>
+      <c r="A265" s="28"/>
+      <c r="B265" s="39"/>
+      <c r="C265" s="41"/>
+      <c r="D265" s="41"/>
+      <c r="E265" s="41"/>
       <c r="F265" s="19"/>
       <c r="G265" s="19" t="s">
         <v>297</v>
@@ -7805,16 +8023,18 @@
       <c r="H265" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="I265" s="19"/>
-      <c r="J265" s="31"/>
-      <c r="K265" s="34"/>
+      <c r="I265" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="J265" s="41"/>
+      <c r="K265" s="43"/>
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="46"/>
-      <c r="B266" s="28"/>
-      <c r="C266" s="31"/>
-      <c r="D266" s="31"/>
-      <c r="E266" s="31"/>
+      <c r="A266" s="28"/>
+      <c r="B266" s="39"/>
+      <c r="C266" s="41"/>
+      <c r="D266" s="41"/>
+      <c r="E266" s="41"/>
       <c r="F266" s="19"/>
       <c r="G266" s="19" t="s">
         <v>299</v>
@@ -7822,16 +8042,18 @@
       <c r="H266" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="I266" s="19"/>
-      <c r="J266" s="31"/>
-      <c r="K266" s="34"/>
-    </row>
-    <row r="267" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="46"/>
-      <c r="B267" s="28"/>
-      <c r="C267" s="31"/>
-      <c r="D267" s="31"/>
-      <c r="E267" s="31"/>
+      <c r="I266" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="J266" s="41"/>
+      <c r="K266" s="43"/>
+    </row>
+    <row r="267" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="28"/>
+      <c r="B267" s="39"/>
+      <c r="C267" s="41"/>
+      <c r="D267" s="41"/>
+      <c r="E267" s="41"/>
       <c r="F267" s="19"/>
       <c r="G267" s="19" t="s">
         <v>301</v>
@@ -7839,22 +8061,24 @@
       <c r="H267" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="I267" s="19"/>
-      <c r="J267" s="31"/>
-      <c r="K267" s="34"/>
-    </row>
-    <row r="268" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A268" s="46"/>
-      <c r="B268" s="36">
+      <c r="I267" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="J267" s="41"/>
+      <c r="K267" s="43"/>
+    </row>
+    <row r="268" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A268" s="28"/>
+      <c r="B268" s="29">
         <v>69</v>
       </c>
-      <c r="C268" s="39" t="s">
+      <c r="C268" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D268" s="39" t="s">
+      <c r="D268" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="E268" s="39" t="s">
+      <c r="E268" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F268" s="7" t="s">
@@ -7866,16 +8090,20 @@
       <c r="H268" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I268" s="7"/>
-      <c r="J268" s="39"/>
-      <c r="K268" s="42"/>
-    </row>
-    <row r="269" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="46"/>
-      <c r="B269" s="37"/>
-      <c r="C269" s="40"/>
-      <c r="D269" s="40"/>
-      <c r="E269" s="40"/>
+      <c r="I268" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J268" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="K268" s="35"/>
+    </row>
+    <row r="269" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A269" s="28"/>
+      <c r="B269" s="30"/>
+      <c r="C269" s="33"/>
+      <c r="D269" s="33"/>
+      <c r="E269" s="33"/>
       <c r="F269" s="2" t="s">
         <v>21</v>
       </c>
@@ -7885,16 +8113,18 @@
       <c r="H269" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I269" s="2"/>
-      <c r="J269" s="40"/>
-      <c r="K269" s="43"/>
-    </row>
-    <row r="270" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="46"/>
-      <c r="B270" s="38"/>
-      <c r="C270" s="41"/>
-      <c r="D270" s="41"/>
-      <c r="E270" s="41"/>
+      <c r="I269" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J269" s="33"/>
+      <c r="K269" s="36"/>
+    </row>
+    <row r="270" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="28"/>
+      <c r="B270" s="31"/>
+      <c r="C270" s="34"/>
+      <c r="D270" s="34"/>
+      <c r="E270" s="34"/>
       <c r="F270" s="8" t="s">
         <v>202</v>
       </c>
@@ -7904,9 +8134,11 @@
       <c r="H270" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="I270" s="8"/>
-      <c r="J270" s="41"/>
-      <c r="K270" s="44"/>
+      <c r="I270" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J270" s="34"/>
+      <c r="K270" s="37"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B271" s="4"/>
@@ -9386,6 +9618,417 @@
     </row>
   </sheetData>
   <mergeCells count="435">
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="J196:J198"/>
+    <mergeCell ref="K196:K198"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="C188:C192"/>
+    <mergeCell ref="D188:D192"/>
+    <mergeCell ref="E188:E192"/>
+    <mergeCell ref="J188:J192"/>
+    <mergeCell ref="K188:K192"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="C193:C195"/>
+    <mergeCell ref="D193:D195"/>
+    <mergeCell ref="E193:E195"/>
+    <mergeCell ref="J193:J195"/>
+    <mergeCell ref="K193:K195"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="D180:D182"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="J180:J182"/>
+    <mergeCell ref="K180:K182"/>
+    <mergeCell ref="B183:B187"/>
+    <mergeCell ref="C183:C187"/>
+    <mergeCell ref="D183:D187"/>
+    <mergeCell ref="E183:E187"/>
+    <mergeCell ref="J183:J187"/>
+    <mergeCell ref="K183:K187"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="J174:J176"/>
+    <mergeCell ref="K174:K176"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="D177:D179"/>
+    <mergeCell ref="E177:E179"/>
+    <mergeCell ref="J177:J179"/>
+    <mergeCell ref="K177:K179"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="D168:D170"/>
+    <mergeCell ref="E168:E170"/>
+    <mergeCell ref="J168:J170"/>
+    <mergeCell ref="K168:K170"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="E171:E173"/>
+    <mergeCell ref="J171:J173"/>
+    <mergeCell ref="K171:K173"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="J162:J164"/>
+    <mergeCell ref="K162:K164"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="D165:D167"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="J165:J167"/>
+    <mergeCell ref="K165:K167"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="J156:J158"/>
+    <mergeCell ref="K156:K158"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="J159:J161"/>
+    <mergeCell ref="K159:K161"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="E150:E152"/>
+    <mergeCell ref="J150:J152"/>
+    <mergeCell ref="K150:K152"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="J153:J155"/>
+    <mergeCell ref="K153:K155"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="A138:A184"/>
+    <mergeCell ref="J138:J140"/>
+    <mergeCell ref="K138:K140"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="J141:J143"/>
+    <mergeCell ref="K141:K143"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="J144:J146"/>
+    <mergeCell ref="K144:K146"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="J147:J149"/>
+    <mergeCell ref="K147:K149"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="D131:D134"/>
+    <mergeCell ref="E131:E134"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="J131:J134"/>
+    <mergeCell ref="K131:K134"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="J135:J137"/>
+    <mergeCell ref="K135:K137"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="J125:J127"/>
+    <mergeCell ref="K125:K127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="J128:J130"/>
+    <mergeCell ref="K128:K130"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="K119:K121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="K122:K124"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="K113:K115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="J116:J118"/>
+    <mergeCell ref="K116:K118"/>
+    <mergeCell ref="J107:J109"/>
+    <mergeCell ref="K107:K109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="K110:K112"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="J101:J103"/>
+    <mergeCell ref="K101:K103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="K104:K106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="E97:E100"/>
+    <mergeCell ref="J97:J100"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="A2:A51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="A61:A75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="A91:A137"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="B199:B207"/>
+    <mergeCell ref="C199:C207"/>
+    <mergeCell ref="D199:D207"/>
+    <mergeCell ref="E199:E207"/>
+    <mergeCell ref="J199:J207"/>
+    <mergeCell ref="K199:K207"/>
+    <mergeCell ref="B208:B215"/>
+    <mergeCell ref="C208:C215"/>
+    <mergeCell ref="D208:D215"/>
+    <mergeCell ref="E208:E215"/>
+    <mergeCell ref="J208:J215"/>
+    <mergeCell ref="K208:K215"/>
+    <mergeCell ref="K243:K250"/>
+    <mergeCell ref="B251:B258"/>
+    <mergeCell ref="C251:C258"/>
+    <mergeCell ref="D251:D258"/>
+    <mergeCell ref="E251:E258"/>
+    <mergeCell ref="J251:J258"/>
+    <mergeCell ref="K251:K258"/>
+    <mergeCell ref="B216:B224"/>
+    <mergeCell ref="C216:C224"/>
+    <mergeCell ref="D216:D224"/>
+    <mergeCell ref="E216:E224"/>
+    <mergeCell ref="J216:J224"/>
+    <mergeCell ref="K216:K224"/>
+    <mergeCell ref="K225:K233"/>
+    <mergeCell ref="J225:J233"/>
+    <mergeCell ref="E225:E233"/>
+    <mergeCell ref="D225:D233"/>
+    <mergeCell ref="C225:C233"/>
+    <mergeCell ref="B225:B233"/>
     <mergeCell ref="A185:A270"/>
     <mergeCell ref="B268:B270"/>
     <mergeCell ref="C268:C270"/>
@@ -9410,417 +10053,6 @@
     <mergeCell ref="D243:D250"/>
     <mergeCell ref="E243:E250"/>
     <mergeCell ref="J243:J250"/>
-    <mergeCell ref="K243:K250"/>
-    <mergeCell ref="B251:B258"/>
-    <mergeCell ref="C251:C258"/>
-    <mergeCell ref="D251:D258"/>
-    <mergeCell ref="E251:E258"/>
-    <mergeCell ref="J251:J258"/>
-    <mergeCell ref="K251:K258"/>
-    <mergeCell ref="B216:B224"/>
-    <mergeCell ref="C216:C224"/>
-    <mergeCell ref="D216:D224"/>
-    <mergeCell ref="E216:E224"/>
-    <mergeCell ref="J216:J224"/>
-    <mergeCell ref="K216:K224"/>
-    <mergeCell ref="K225:K233"/>
-    <mergeCell ref="J225:J233"/>
-    <mergeCell ref="E225:E233"/>
-    <mergeCell ref="D225:D233"/>
-    <mergeCell ref="C225:C233"/>
-    <mergeCell ref="B225:B233"/>
-    <mergeCell ref="B199:B207"/>
-    <mergeCell ref="C199:C207"/>
-    <mergeCell ref="D199:D207"/>
-    <mergeCell ref="E199:E207"/>
-    <mergeCell ref="J199:J207"/>
-    <mergeCell ref="K199:K207"/>
-    <mergeCell ref="B208:B215"/>
-    <mergeCell ref="C208:C215"/>
-    <mergeCell ref="D208:D215"/>
-    <mergeCell ref="E208:E215"/>
-    <mergeCell ref="J208:J215"/>
-    <mergeCell ref="K208:K215"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="A82:A90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="A91:A137"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="A61:A75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="A2:A51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="J44:J47"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="E97:E100"/>
-    <mergeCell ref="J97:J100"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="J107:J109"/>
-    <mergeCell ref="K107:K109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="J110:J112"/>
-    <mergeCell ref="K110:K112"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="J101:J103"/>
-    <mergeCell ref="K101:K103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="J104:J106"/>
-    <mergeCell ref="K104:K106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="J119:J121"/>
-    <mergeCell ref="K119:K121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="E122:E124"/>
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="K122:K124"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="K113:K115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="J116:J118"/>
-    <mergeCell ref="K116:K118"/>
-    <mergeCell ref="J131:J134"/>
-    <mergeCell ref="K131:K134"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="J135:J137"/>
-    <mergeCell ref="K135:K137"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="E125:E127"/>
-    <mergeCell ref="J125:J127"/>
-    <mergeCell ref="K125:K127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="J128:J130"/>
-    <mergeCell ref="K128:K130"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="D131:D134"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="A138:A184"/>
-    <mergeCell ref="J138:J140"/>
-    <mergeCell ref="K138:K140"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="J141:J143"/>
-    <mergeCell ref="K141:K143"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="E144:E146"/>
-    <mergeCell ref="J144:J146"/>
-    <mergeCell ref="K144:K146"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="J147:J149"/>
-    <mergeCell ref="K147:K149"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="E150:E152"/>
-    <mergeCell ref="J150:J152"/>
-    <mergeCell ref="K150:K152"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="J153:J155"/>
-    <mergeCell ref="K153:K155"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="J156:J158"/>
-    <mergeCell ref="K156:K158"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="J159:J161"/>
-    <mergeCell ref="K159:K161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="D162:D164"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="J162:J164"/>
-    <mergeCell ref="K162:K164"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="D165:D167"/>
-    <mergeCell ref="E165:E167"/>
-    <mergeCell ref="J165:J167"/>
-    <mergeCell ref="K165:K167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="D168:D170"/>
-    <mergeCell ref="E168:E170"/>
-    <mergeCell ref="J168:J170"/>
-    <mergeCell ref="K168:K170"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="E171:E173"/>
-    <mergeCell ref="J171:J173"/>
-    <mergeCell ref="K171:K173"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="J174:J176"/>
-    <mergeCell ref="K174:K176"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="D177:D179"/>
-    <mergeCell ref="E177:E179"/>
-    <mergeCell ref="J177:J179"/>
-    <mergeCell ref="K177:K179"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="D180:D182"/>
-    <mergeCell ref="E180:E182"/>
-    <mergeCell ref="J180:J182"/>
-    <mergeCell ref="K180:K182"/>
-    <mergeCell ref="B183:B187"/>
-    <mergeCell ref="C183:C187"/>
-    <mergeCell ref="D183:D187"/>
-    <mergeCell ref="E183:E187"/>
-    <mergeCell ref="J183:J187"/>
-    <mergeCell ref="K183:K187"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="E196:E198"/>
-    <mergeCell ref="J196:J198"/>
-    <mergeCell ref="K196:K198"/>
-    <mergeCell ref="B188:B192"/>
-    <mergeCell ref="C188:C192"/>
-    <mergeCell ref="D188:D192"/>
-    <mergeCell ref="E188:E192"/>
-    <mergeCell ref="J188:J192"/>
-    <mergeCell ref="K188:K192"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="C193:C195"/>
-    <mergeCell ref="D193:D195"/>
-    <mergeCell ref="E193:E195"/>
-    <mergeCell ref="J193:J195"/>
-    <mergeCell ref="K193:K195"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G86" r:id="rId1" location="/privacy-policy" xr:uid="{E67AF435-DB73-483C-AF47-29662FBE5D02}"/>
